--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -915,9 +915,6 @@
     <t>FightSkill</t>
   </si>
   <si>
-    <t>HeroPropertyValue</t>
-  </si>
-  <si>
     <t>BagEquipList</t>
   </si>
   <si>
@@ -1155,6 +1152,9 @@
   </si>
   <si>
     <t>Force</t>
+  </si>
+  <si>
+    <t>HeroValue</t>
   </si>
 </sst>
 </file>
@@ -1912,16 +1912,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O1" s="28" t="s">
         <v>158</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="8" spans="1:46" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B8" s="16" t="b">
         <v>0</v>
@@ -3172,25 +3172,25 @@
         <v>58</v>
       </c>
       <c r="K10" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="L10" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="L10" s="41" t="s">
+      <c r="M10" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="M10" s="41" t="s">
+      <c r="N10" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="N10" s="41" t="s">
-        <v>221</v>
-      </c>
       <c r="O10" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="P10" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="P10" s="41" t="s">
+      <c r="Q10" s="41" t="s">
         <v>220</v>
-      </c>
-      <c r="Q10" s="41" t="s">
-        <v>221</v>
       </c>
       <c r="R10" s="24" t="s">
         <v>60</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="8" spans="1:30" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B8" s="16" t="b">
         <v>0</v>
@@ -4239,8 +4239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="3" customFormat="1">
@@ -4332,7 +4332,7 @@
     </row>
     <row r="8" spans="1:29" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -4521,7 +4521,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -4574,8 +4574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4679,7 +4679,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>6</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="3" customFormat="1">
@@ -5086,7 +5086,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -5399,70 +5399,70 @@
         <v>143</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>144</v>
       </c>
       <c r="D9" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="F9" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="G9" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="H9" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="I9" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="J9" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="K9" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="L9" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="M9" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="N9" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="O9" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="P9" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="Q9" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="Q9" s="34" t="s">
+      <c r="R9" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="S9" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="T9" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="U9" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="U9" s="34" t="s">
+      <c r="V9" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="V9" s="34" t="s">
+      <c r="W9" s="34" t="s">
         <v>185</v>
-      </c>
-      <c r="W9" s="34" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1">
@@ -5541,7 +5541,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5802,16 +5802,16 @@
         <v>144</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>190</v>
-      </c>
       <c r="D20" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="34" t="s">
         <v>167</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="13" customFormat="1">
@@ -5836,7 +5836,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1">
@@ -5958,7 +5958,7 @@
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="A8" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8" s="9" t="b">
         <v>0</v>
@@ -5966,16 +5966,16 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="A9" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="C9" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="D9" s="36" t="s">
         <v>196</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
@@ -5997,7 +5997,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
@@ -6060,7 +6060,7 @@
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1">
       <c r="A19" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" s="9" t="b">
         <v>0</v>
@@ -6068,13 +6068,13 @@
     </row>
     <row r="20" spans="1:3" s="6" customFormat="1">
       <c r="A20" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>200</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="6" customFormat="1">
@@ -6093,7 +6093,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C22" s="36"/>
     </row>
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1">
@@ -6202,7 +6202,7 @@
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -6210,22 +6210,22 @@
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1">
       <c r="A9" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="C9" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="D9" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>207</v>
-      </c>
       <c r="E9" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1">
@@ -6239,10 +6239,10 @@
         <v>41</v>
       </c>
       <c r="D10" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>228</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>229</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>41</v>
@@ -6263,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1">
@@ -6324,22 +6324,22 @@
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1">
       <c r="A20" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="C20" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="D20" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="E20" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="F20" s="34" t="s">
         <v>208</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1">
@@ -6353,10 +6353,10 @@
         <v>41</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>41</v>
@@ -6414,10 +6414,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" t="s">
         <v>211</v>
-      </c>
-      <c r="C1" t="s">
-        <v>212</v>
       </c>
       <c r="D1" t="s">
         <v>49</v>
@@ -6425,16 +6425,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -2164,139 +2164,139 @@
       <c r="A3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="U3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="W3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="X3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="30" t="b">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0</v>
+      </c>
+      <c r="K3" s="39">
+        <v>0</v>
+      </c>
+      <c r="L3" s="39">
+        <v>0</v>
+      </c>
+      <c r="M3" s="39">
+        <v>0</v>
+      </c>
+      <c r="N3" s="39">
+        <v>0</v>
+      </c>
+      <c r="O3" s="39">
+        <v>0</v>
+      </c>
+      <c r="P3" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="39">
+        <v>0</v>
+      </c>
+      <c r="R3" s="16">
+        <v>0</v>
+      </c>
+      <c r="S3" s="16">
+        <v>0</v>
+      </c>
+      <c r="T3" s="16">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="16">
+        <v>0</v>
+      </c>
+      <c r="W3" s="16">
+        <v>0</v>
+      </c>
+      <c r="X3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="30">
         <v>0</v>
       </c>
     </row>
@@ -2304,139 +2304,139 @@
       <c r="A4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="W4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="30" t="b">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="39">
+        <v>1</v>
+      </c>
+      <c r="L4" s="39">
+        <v>1</v>
+      </c>
+      <c r="M4" s="39">
+        <v>1</v>
+      </c>
+      <c r="N4" s="39">
+        <v>1</v>
+      </c>
+      <c r="O4" s="39">
+        <v>1</v>
+      </c>
+      <c r="P4" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="39">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="30">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="30">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="30">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="30">
         <v>0</v>
       </c>
     </row>
@@ -2444,139 +2444,139 @@
       <c r="A5" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="30" t="b">
+      <c r="B5" s="16">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="40">
+        <v>0</v>
+      </c>
+      <c r="L5" s="40">
+        <v>0</v>
+      </c>
+      <c r="M5" s="40">
+        <v>0</v>
+      </c>
+      <c r="N5" s="40">
+        <v>0</v>
+      </c>
+      <c r="O5" s="40">
+        <v>0</v>
+      </c>
+      <c r="P5" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>0</v>
+      </c>
+      <c r="R5" s="16">
+        <v>0</v>
+      </c>
+      <c r="S5" s="16">
+        <v>0</v>
+      </c>
+      <c r="T5" s="16">
+        <v>0</v>
+      </c>
+      <c r="U5" s="16">
+        <v>0</v>
+      </c>
+      <c r="V5" s="16">
+        <v>0</v>
+      </c>
+      <c r="W5" s="16">
+        <v>0</v>
+      </c>
+      <c r="X5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="30">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="30">
         <v>0</v>
       </c>
     </row>
@@ -2584,139 +2584,139 @@
       <c r="A6" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="W6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="30" t="b">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="40">
+        <v>1</v>
+      </c>
+      <c r="L6" s="40">
+        <v>1</v>
+      </c>
+      <c r="M6" s="40">
+        <v>1</v>
+      </c>
+      <c r="N6" s="40">
+        <v>1</v>
+      </c>
+      <c r="O6" s="40">
+        <v>1</v>
+      </c>
+      <c r="P6" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="30">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="30">
         <v>0</v>
       </c>
     </row>
@@ -2724,139 +2724,139 @@
       <c r="A7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="31" t="b">
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="40">
+        <v>0</v>
+      </c>
+      <c r="L7" s="40">
+        <v>0</v>
+      </c>
+      <c r="M7" s="40">
+        <v>0</v>
+      </c>
+      <c r="N7" s="40">
+        <v>0</v>
+      </c>
+      <c r="O7" s="40">
+        <v>0</v>
+      </c>
+      <c r="P7" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="40">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16">
+        <v>0</v>
+      </c>
+      <c r="S7" s="16">
+        <v>0</v>
+      </c>
+      <c r="T7" s="16">
+        <v>0</v>
+      </c>
+      <c r="U7" s="16">
+        <v>0</v>
+      </c>
+      <c r="V7" s="16">
+        <v>0</v>
+      </c>
+      <c r="W7" s="16">
+        <v>0</v>
+      </c>
+      <c r="X7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="31">
         <v>0</v>
       </c>
     </row>
@@ -2864,139 +2864,139 @@
       <c r="A8" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="B8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="31" t="b">
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="40">
+        <v>0</v>
+      </c>
+      <c r="L8" s="40">
+        <v>0</v>
+      </c>
+      <c r="M8" s="40">
+        <v>0</v>
+      </c>
+      <c r="N8" s="40">
+        <v>0</v>
+      </c>
+      <c r="O8" s="40">
+        <v>0</v>
+      </c>
+      <c r="P8" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="40">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16">
+        <v>0</v>
+      </c>
+      <c r="S8" s="16">
+        <v>0</v>
+      </c>
+      <c r="T8" s="16">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
+        <v>0</v>
+      </c>
+      <c r="W8" s="16">
+        <v>0</v>
+      </c>
+      <c r="X8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="31">
         <v>0</v>
       </c>
     </row>
@@ -3004,139 +3004,139 @@
       <c r="A9" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="U9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="V9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="W9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="31" t="b">
+      <c r="B9" s="16">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="40">
+        <v>0</v>
+      </c>
+      <c r="L9" s="40">
+        <v>0</v>
+      </c>
+      <c r="M9" s="40">
+        <v>0</v>
+      </c>
+      <c r="N9" s="40">
+        <v>0</v>
+      </c>
+      <c r="O9" s="40">
+        <v>0</v>
+      </c>
+      <c r="P9" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9" s="16">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
+        <v>0</v>
+      </c>
+      <c r="W9" s="16">
+        <v>0</v>
+      </c>
+      <c r="X9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="31">
         <v>0</v>
       </c>
     </row>
@@ -3490,91 +3490,91 @@
       <c r="A3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="W3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="X3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="21" t="b">
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1</v>
+      </c>
+      <c r="F3" s="21">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21">
+        <v>1</v>
+      </c>
+      <c r="H3" s="21">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21">
+        <v>1</v>
+      </c>
+      <c r="J3" s="21">
+        <v>1</v>
+      </c>
+      <c r="K3" s="21">
+        <v>1</v>
+      </c>
+      <c r="L3" s="21">
+        <v>1</v>
+      </c>
+      <c r="M3" s="21">
+        <v>1</v>
+      </c>
+      <c r="N3" s="21">
+        <v>1</v>
+      </c>
+      <c r="O3" s="21">
+        <v>1</v>
+      </c>
+      <c r="P3" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>1</v>
+      </c>
+      <c r="R3" s="21">
+        <v>1</v>
+      </c>
+      <c r="S3" s="21">
+        <v>1</v>
+      </c>
+      <c r="T3" s="21">
+        <v>1</v>
+      </c>
+      <c r="U3" s="21">
+        <v>1</v>
+      </c>
+      <c r="V3" s="21">
+        <v>1</v>
+      </c>
+      <c r="W3" s="21">
+        <v>1</v>
+      </c>
+      <c r="X3" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="21">
         <v>1</v>
       </c>
     </row>
@@ -3582,91 +3582,91 @@
       <c r="A4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="V4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="W4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="21" t="b">
+      <c r="B4" s="21">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1</v>
+      </c>
+      <c r="G4" s="21">
+        <v>1</v>
+      </c>
+      <c r="H4" s="21">
+        <v>1</v>
+      </c>
+      <c r="I4" s="21">
+        <v>1</v>
+      </c>
+      <c r="J4" s="21">
+        <v>1</v>
+      </c>
+      <c r="K4" s="21">
+        <v>1</v>
+      </c>
+      <c r="L4" s="21">
+        <v>1</v>
+      </c>
+      <c r="M4" s="21">
+        <v>1</v>
+      </c>
+      <c r="N4" s="21">
+        <v>1</v>
+      </c>
+      <c r="O4" s="21">
+        <v>1</v>
+      </c>
+      <c r="P4" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>1</v>
+      </c>
+      <c r="R4" s="21">
+        <v>1</v>
+      </c>
+      <c r="S4" s="21">
+        <v>1</v>
+      </c>
+      <c r="T4" s="21">
+        <v>1</v>
+      </c>
+      <c r="U4" s="21">
+        <v>1</v>
+      </c>
+      <c r="V4" s="21">
+        <v>1</v>
+      </c>
+      <c r="W4" s="21">
+        <v>1</v>
+      </c>
+      <c r="X4" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="21">
         <v>1</v>
       </c>
     </row>
@@ -3674,91 +3674,91 @@
       <c r="A5" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="21" t="b">
+      <c r="B5" s="21">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0</v>
+      </c>
+      <c r="H5" s="21">
+        <v>0</v>
+      </c>
+      <c r="I5" s="21">
+        <v>0</v>
+      </c>
+      <c r="J5" s="21">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+      <c r="L5" s="21">
+        <v>0</v>
+      </c>
+      <c r="M5" s="21">
+        <v>0</v>
+      </c>
+      <c r="N5" s="21">
+        <v>0</v>
+      </c>
+      <c r="O5" s="21">
+        <v>0</v>
+      </c>
+      <c r="P5" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>0</v>
+      </c>
+      <c r="R5" s="21">
+        <v>0</v>
+      </c>
+      <c r="S5" s="21">
+        <v>0</v>
+      </c>
+      <c r="T5" s="21">
+        <v>0</v>
+      </c>
+      <c r="U5" s="21">
+        <v>0</v>
+      </c>
+      <c r="V5" s="21">
+        <v>0</v>
+      </c>
+      <c r="W5" s="21">
+        <v>0</v>
+      </c>
+      <c r="X5" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="21">
         <v>0</v>
       </c>
     </row>
@@ -3766,91 +3766,91 @@
       <c r="A6" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="21" t="b">
+      <c r="B6" s="21">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0</v>
+      </c>
+      <c r="I6" s="21">
+        <v>0</v>
+      </c>
+      <c r="J6" s="21">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
+        <v>0</v>
+      </c>
+      <c r="M6" s="21">
+        <v>0</v>
+      </c>
+      <c r="N6" s="21">
+        <v>0</v>
+      </c>
+      <c r="O6" s="21">
+        <v>0</v>
+      </c>
+      <c r="P6" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>0</v>
+      </c>
+      <c r="R6" s="21">
+        <v>0</v>
+      </c>
+      <c r="S6" s="21">
+        <v>0</v>
+      </c>
+      <c r="T6" s="21">
+        <v>0</v>
+      </c>
+      <c r="U6" s="21">
+        <v>0</v>
+      </c>
+      <c r="V6" s="21">
+        <v>0</v>
+      </c>
+      <c r="W6" s="21">
+        <v>0</v>
+      </c>
+      <c r="X6" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="21">
         <v>0</v>
       </c>
     </row>
@@ -3858,91 +3858,91 @@
       <c r="A7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="16" t="b">
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16">
+        <v>0</v>
+      </c>
+      <c r="S7" s="16">
+        <v>0</v>
+      </c>
+      <c r="T7" s="16">
+        <v>0</v>
+      </c>
+      <c r="U7" s="16">
+        <v>0</v>
+      </c>
+      <c r="V7" s="16">
+        <v>0</v>
+      </c>
+      <c r="W7" s="16">
+        <v>0</v>
+      </c>
+      <c r="X7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3950,91 +3950,91 @@
       <c r="A8" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="B8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="16" t="b">
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16">
+        <v>0</v>
+      </c>
+      <c r="S8" s="16">
+        <v>0</v>
+      </c>
+      <c r="T8" s="16">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
+        <v>0</v>
+      </c>
+      <c r="W8" s="16">
+        <v>0</v>
+      </c>
+      <c r="X8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4042,91 +4042,91 @@
       <c r="A9" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="U9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="V9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="W9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="16" t="b">
+      <c r="B9" s="16">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9" s="16">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
+        <v>0</v>
+      </c>
+      <c r="W9" s="16">
+        <v>0</v>
+      </c>
+      <c r="X9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4302,7 +4302,7 @@
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="3" t="b">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4310,7 +4310,7 @@
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3" t="b">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4318,7 +4318,7 @@
       <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="3" t="b">
+      <c r="B6" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="3" t="b">
+      <c r="B7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4334,7 +4334,7 @@
       <c r="A8" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="3" t="b">
+      <c r="B8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4574,7 +4574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -4635,7 +4635,7 @@
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="3" t="b">
+      <c r="B4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4643,7 +4643,7 @@
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3" t="b">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="3" t="b">
+      <c r="B6" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4659,7 +4659,7 @@
       <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="3" t="b">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="3" t="b">
+      <c r="B8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="3" t="b">
+      <c r="B15" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4875,7 +4875,7 @@
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="3" t="b">
+      <c r="B16" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="3" t="b">
+      <c r="B17" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4891,7 +4891,7 @@
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="3" t="b">
+      <c r="B18" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4899,7 +4899,7 @@
       <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="3" t="b">
+      <c r="B19" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5253,7 +5253,7 @@
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="3" t="b">
+      <c r="B4" s="3">
         <v>0</v>
       </c>
       <c r="C4" s="3"/>
@@ -5282,7 +5282,7 @@
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3" t="b">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3"/>
@@ -5311,7 +5311,7 @@
       <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="3" t="b">
+      <c r="B6" s="3">
         <v>0</v>
       </c>
       <c r="C6" s="3"/>
@@ -5340,7 +5340,7 @@
       <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="3" t="b">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="3"/>
@@ -5369,7 +5369,7 @@
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="3" t="b">
+      <c r="B8" s="3">
         <v>0</v>
       </c>
       <c r="C8" s="3"/>
@@ -5656,7 +5656,7 @@
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="3" t="b">
+      <c r="B15" s="3">
         <v>0</v>
       </c>
       <c r="C15" s="3"/>
@@ -5685,7 +5685,7 @@
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="3" t="b">
+      <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" s="3"/>
@@ -5714,7 +5714,7 @@
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="3" t="b">
+      <c r="B17" s="3">
         <v>0</v>
       </c>
       <c r="C17" s="3"/>
@@ -5743,7 +5743,7 @@
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="3" t="b">
+      <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" s="3"/>
@@ -5772,7 +5772,7 @@
       <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="3" t="b">
+      <c r="B19" s="3">
         <v>0</v>
       </c>
       <c r="C19" s="3"/>
@@ -5884,7 +5884,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D11"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5928,7 +5928,7 @@
       <c r="A4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="9" t="b">
+      <c r="B4" s="9">
         <v>0</v>
       </c>
     </row>
@@ -5936,7 +5936,7 @@
       <c r="A5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="9" t="b">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5944,7 +5944,7 @@
       <c r="A6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="9" t="b">
+      <c r="B6" s="9">
         <v>0</v>
       </c>
     </row>
@@ -5952,7 +5952,7 @@
       <c r="A7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="3" t="b">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -5960,7 +5960,7 @@
       <c r="A8" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B8" s="9" t="b">
+      <c r="B8" s="9">
         <v>0</v>
       </c>
     </row>
@@ -6030,7 +6030,7 @@
       <c r="A15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="9" t="b">
+      <c r="B15" s="9">
         <v>0</v>
       </c>
     </row>
@@ -6038,7 +6038,7 @@
       <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="9" t="b">
+      <c r="B16" s="9">
         <v>1</v>
       </c>
     </row>
@@ -6046,7 +6046,7 @@
       <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="9" t="b">
+      <c r="B17" s="9">
         <v>0</v>
       </c>
     </row>
@@ -6054,7 +6054,7 @@
       <c r="A18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="3" t="b">
+      <c r="B18" s="3">
         <v>1</v>
       </c>
     </row>
@@ -6062,7 +6062,7 @@
       <c r="A19" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B19" s="9" t="b">
+      <c r="B19" s="9">
         <v>0</v>
       </c>
     </row>
@@ -6172,7 +6172,7 @@
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="3" t="b">
+      <c r="B4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6180,7 +6180,7 @@
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3" t="b">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
     </row>
@@ -6188,7 +6188,7 @@
       <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="3" t="b">
+      <c r="B6" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6196,7 +6196,7 @@
       <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="3" t="b">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -6204,7 +6204,7 @@
       <c r="A8" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="3" t="b">
+      <c r="B8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6286,7 +6286,7 @@
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="3" t="b">
+      <c r="B15" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6294,7 +6294,7 @@
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="3" t="b">
+      <c r="B16" s="3">
         <v>1</v>
       </c>
     </row>
@@ -6302,7 +6302,7 @@
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="3" t="b">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
     </row>
@@ -6310,7 +6310,7 @@
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="3" t="b">
+      <c r="B18" s="3">
         <v>1</v>
       </c>
     </row>
@@ -6318,7 +6318,7 @@
       <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="3" t="b">
+      <c r="B19" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6398,8 +6398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6430,7 +6430,7 @@
       <c r="B2" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C2" t="b">
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -477,9 +477,6 @@
     <t>Gold</t>
   </si>
   <si>
-    <t>Money</t>
-  </si>
-  <si>
     <t>Account</t>
   </si>
   <si>
@@ -1155,6 +1152,9 @@
   </si>
   <si>
     <t>HeroValue</t>
+  </si>
+  <si>
+    <t>Diamond</t>
   </si>
 </sst>
 </file>
@@ -1852,9 +1852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="AP1" sqref="AP1:AP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1912,25 +1912,25 @@
         <v>9</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O1" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="Q1" s="28" t="s">
         <v>159</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>160</v>
       </c>
       <c r="R1" s="28" t="s">
         <v>11</v>
@@ -1954,215 +1954,215 @@
         <v>17</v>
       </c>
       <c r="Y1" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AB1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AE1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AI1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AK1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="28" t="s">
+      <c r="AM1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AN1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AN1" s="28" t="s">
+      <c r="AO1" s="28" t="s">
         <v>33</v>
-      </c>
-      <c r="AO1" s="28" t="s">
-        <v>34</v>
       </c>
       <c r="AP1" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AQ1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AR1" s="25" t="s">
+      <c r="AS1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AS1" s="25" t="s">
+      <c r="AT1" s="25" t="s">
         <v>37</v>
-      </c>
-      <c r="AT1" s="25" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:46" s="26" customFormat="1">
       <c r="A2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="K2" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="L2" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="M2" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="N2" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>42</v>
-      </c>
       <c r="O2" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P2" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="AP2" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ2" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AR2" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP2" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ2" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR2" s="30" t="s">
-        <v>42</v>
-      </c>
       <c r="AS2" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AT2" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:46" s="26" customFormat="1">
       <c r="A3" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="4" spans="1:46" s="26" customFormat="1">
       <c r="A4" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="5" spans="1:46" s="26" customFormat="1">
       <c r="A5" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="16">
         <v>0</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="6" spans="1:46" s="26" customFormat="1">
       <c r="A6" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="7" spans="1:46" s="16" customFormat="1">
       <c r="A7" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="16">
         <v>0</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="8" spans="1:46" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" s="16">
         <v>0</v>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="9" spans="1:46" s="16" customFormat="1">
       <c r="A9" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="16">
         <v>0</v>
@@ -3142,143 +3142,143 @@
     </row>
     <row r="10" spans="1:46" s="17" customFormat="1" ht="67.5">
       <c r="A10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="C10" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="D10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="F10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="N10" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="O10" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="P10" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q10" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="R10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="24" t="s">
+      <c r="S10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="U10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="W10" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="X10" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z10" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA10" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB10" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC10" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD10" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE10" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF10" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG10" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI10" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ10" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK10" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL10" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM10" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN10" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO10" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP10" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="L10" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="M10" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="N10" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="O10" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="P10" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q10" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="R10" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="S10" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="T10" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="U10" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="V10" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="W10" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="X10" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y10" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z10" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA10" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB10" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC10" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD10" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE10" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF10" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG10" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH10" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI10" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ10" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK10" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL10" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM10" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN10" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO10" s="24" t="s">
+      <c r="AQ10" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="AP10" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ10" s="32" t="s">
+      <c r="AR10" s="32" t="s">
         <v>83</v>
-      </c>
-      <c r="AR10" s="32" t="s">
-        <v>84</v>
       </c>
       <c r="AS10" s="33"/>
       <c r="AT10" s="33"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:T3 AQ5:AR6 V3:AJ3 J3 K6:Q6 B5:AP5 B7:AO9 AQ7:AT9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:T3 AQ5:AR6 V3:AJ3 J3 K6:Q6 AQ7:AT9 B7:AO9 B5:AP5">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
@@ -3307,188 +3307,188 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="Y1" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Z1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AA1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AB1" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AD1" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="AD1" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="15" customFormat="1">
       <c r="A2" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AD2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:30" s="15" customFormat="1">
       <c r="A3" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="21">
         <v>1</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="4" spans="1:30" s="15" customFormat="1">
       <c r="A4" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="21">
         <v>1</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="5" spans="1:30" s="15" customFormat="1">
       <c r="A5" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="21">
         <v>0</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="6" spans="1:30" s="15" customFormat="1">
       <c r="A6" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="21">
         <v>0</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="7" spans="1:30" s="16" customFormat="1">
       <c r="A7" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="16">
         <v>0</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="8" spans="1:30" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" s="16">
         <v>0</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="9" spans="1:30" s="16" customFormat="1">
       <c r="A9" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="16">
         <v>0</v>
@@ -4132,94 +4132,94 @@
     </row>
     <row r="10" spans="1:30" s="17" customFormat="1" ht="54">
       <c r="A10" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="D10" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="E10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="24" t="s">
+      <c r="I10" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="J10" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="K10" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="L10" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="M10" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="N10" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="O10" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="P10" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="Q10" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="R10" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="S10" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="T10" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="T10" s="24" t="s">
+      <c r="U10" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="U10" s="24" t="s">
+      <c r="V10" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="V10" s="24" t="s">
+      <c r="W10" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="W10" s="24" t="s">
+      <c r="X10" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="X10" s="24" t="s">
+      <c r="Y10" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="Y10" s="24" t="s">
+      <c r="Z10" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="Z10" s="24" t="s">
+      <c r="AA10" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="AA10" s="24" t="s">
+      <c r="AB10" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="AB10" s="24" t="s">
+      <c r="AC10" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AC10" s="24" t="s">
+      <c r="AD10" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="AD10" s="24" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4279,12 +4279,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="3">
         <v>15</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="3" spans="1:29" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="3">
         <v>29</v>
@@ -4300,7 +4300,7 @@
     </row>
     <row r="4" spans="1:29" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="5" spans="1:29" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="6" spans="1:29" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="7" spans="1:29" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="8" spans="1:29" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -4340,188 +4340,188 @@
     </row>
     <row r="9" spans="1:29" s="3" customFormat="1">
       <c r="A9" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="C9" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="D9" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="E9" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="F9" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="G9" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="H9" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="I9" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="J9" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="K9" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="L9" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="M9" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="N9" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="O9" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="P9" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="Q9" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="Q9" s="34" t="s">
+      <c r="R9" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="S9" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="T9" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="U9" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="U9" s="34" t="s">
+      <c r="V9" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="V9" s="34" t="s">
+      <c r="W9" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="W9" s="34" t="s">
+      <c r="X9" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="X9" s="34" t="s">
+      <c r="Y9" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="Y9" s="34" t="s">
+      <c r="Z9" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="Z9" s="34" t="s">
+      <c r="AA9" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="AA9" s="34" t="s">
+      <c r="AB9" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="AB9" s="34" t="s">
+      <c r="AC9" s="34" t="s">
         <v>112</v>
-      </c>
-      <c r="AC9" s="34" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="3" customFormat="1">
       <c r="A10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="3" customFormat="1">
       <c r="A11" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -4612,12 +4612,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="3">
         <v>64</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="3" spans="1:23" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="3">
         <v>23</v>
@@ -4633,7 +4633,7 @@
     </row>
     <row r="4" spans="1:23" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -4641,7 +4641,7 @@
     </row>
     <row r="5" spans="1:23" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="6" spans="1:23" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="7" spans="1:23" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -4665,7 +4665,7 @@
     </row>
     <row r="8" spans="1:23" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -4673,149 +4673,149 @@
     </row>
     <row r="9" spans="1:23" s="3" customFormat="1">
       <c r="A9" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>144</v>
-      </c>
       <c r="C9" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="G9" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="H9" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="I9" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="J9" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="K9" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="L9" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="M9" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="N9" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="O9" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="P9" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="Q9" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="Q9" s="34" t="s">
+      <c r="R9" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="S9" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="T9" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="U9" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="U9" s="34" t="s">
+      <c r="V9" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="V9" s="34" t="s">
+      <c r="W9" s="34" t="s">
         <v>162</v>
-      </c>
-      <c r="W9" s="34" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="3" customFormat="1">
       <c r="A10" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="H10" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="I10" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="J10" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>42</v>
-      </c>
       <c r="K10" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="3" customFormat="1">
       <c r="A11" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="34"/>
@@ -4844,12 +4844,12 @@
         <v>0</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="3">
         <v>15</v>
@@ -4857,7 +4857,7 @@
     </row>
     <row r="14" spans="1:23" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="3">
         <v>29</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="15" spans="1:23" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="16" spans="1:23" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="17" spans="1:29" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="18" spans="1:29" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="19" spans="1:29" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -4905,188 +4905,188 @@
     </row>
     <row r="20" spans="1:29" s="3" customFormat="1">
       <c r="A20" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="C20" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="D20" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="E20" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="F20" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="G20" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="H20" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="I20" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="J20" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="K20" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="L20" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="L20" s="34" t="s">
+      <c r="M20" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="M20" s="34" t="s">
+      <c r="N20" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="N20" s="34" t="s">
+      <c r="O20" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="O20" s="34" t="s">
+      <c r="P20" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="P20" s="34" t="s">
+      <c r="Q20" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="Q20" s="34" t="s">
+      <c r="R20" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="R20" s="34" t="s">
+      <c r="S20" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="S20" s="34" t="s">
+      <c r="T20" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="T20" s="34" t="s">
+      <c r="U20" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="U20" s="34" t="s">
+      <c r="V20" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="V20" s="34" t="s">
+      <c r="W20" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="W20" s="34" t="s">
+      <c r="X20" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="X20" s="34" t="s">
+      <c r="Y20" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="Y20" s="34" t="s">
+      <c r="Z20" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="Z20" s="34" t="s">
+      <c r="AA20" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="AA20" s="34" t="s">
+      <c r="AB20" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="AB20" s="34" t="s">
+      <c r="AC20" s="34" t="s">
         <v>112</v>
-      </c>
-      <c r="AC20" s="34" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:29" s="3" customFormat="1">
       <c r="A21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:29" s="3" customFormat="1">
       <c r="A22" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="2" spans="1:23" s="12" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="3">
         <v>256</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="3" spans="1:23" s="12" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="3">
         <v>23</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="4" spans="1:23" s="12" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -5280,7 +5280,7 @@
     </row>
     <row r="5" spans="1:23" s="12" customFormat="1">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -5396,152 +5396,152 @@
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1">
       <c r="A9" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="D9" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="34" t="s">
+      <c r="E9" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="F9" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="G9" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="H9" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="I9" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="J9" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="K9" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="L9" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="M9" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="N9" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="O9" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="P9" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="Q9" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="Q9" s="34" t="s">
+      <c r="R9" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="S9" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="T9" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="U9" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="U9" s="34" t="s">
+      <c r="V9" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="V9" s="34" t="s">
+      <c r="W9" s="34" t="s">
         <v>184</v>
-      </c>
-      <c r="W9" s="34" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1">
       <c r="A10" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1">
       <c r="A11" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="13" spans="1:23" s="13" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="3">
         <v>128</v>
@@ -5625,7 +5625,7 @@
     </row>
     <row r="14" spans="1:23" s="13" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
@@ -5654,7 +5654,7 @@
     </row>
     <row r="15" spans="1:23" s="13" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="16" spans="1:23" s="13" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="17" spans="1:23" s="13" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="18" spans="1:23" s="13" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -5770,7 +5770,7 @@
     </row>
     <row r="19" spans="1:23" s="13" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -5799,44 +5799,44 @@
     </row>
     <row r="20" spans="1:23" s="13" customFormat="1">
       <c r="A20" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>189</v>
-      </c>
       <c r="D20" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="34" t="s">
         <v>166</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="13" customFormat="1">
       <c r="A21" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="13" customFormat="1">
       <c r="A22" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -5905,12 +5905,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1">
       <c r="A2" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="9">
         <v>8</v>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1">
       <c r="A3" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="9">
         <v>4</v>
@@ -5926,7 +5926,7 @@
     </row>
     <row r="4" spans="1:4" s="6" customFormat="1">
       <c r="A4" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -5934,7 +5934,7 @@
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1">
       <c r="A5" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -5942,7 +5942,7 @@
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="A6" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="A7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="A8" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="9">
         <v>0</v>
@@ -5966,38 +5966,38 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="A9" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="C9" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="D9" s="36" t="s">
         <v>195</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="A11" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -6007,12 +6007,12 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="A13" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="9">
         <v>512</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
       <c r="A14" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="9">
         <v>3</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="A15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="9">
         <v>0</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="A16" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="9">
         <v>1</v>
@@ -6044,7 +6044,7 @@
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="A17" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="9">
         <v>0</v>
@@ -6052,7 +6052,7 @@
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="A18" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -6060,7 +6060,7 @@
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1">
       <c r="A19" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" s="9">
         <v>0</v>
@@ -6068,32 +6068,32 @@
     </row>
     <row r="20" spans="1:3" s="6" customFormat="1">
       <c r="A20" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>199</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="6" customFormat="1">
       <c r="A21" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="6" customFormat="1">
       <c r="A22" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C22" s="36"/>
     </row>
@@ -6149,12 +6149,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="3">
         <v>128</v>
@@ -6162,7 +6162,7 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="3">
         <v>6</v>
@@ -6170,7 +6170,7 @@
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -6186,7 +6186,7 @@
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -6194,7 +6194,7 @@
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -6210,47 +6210,47 @@
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1">
       <c r="A9" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="C9" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="D9" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>206</v>
-      </c>
       <c r="E9" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1">
       <c r="A10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>228</v>
-      </c>
       <c r="F10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1">
       <c r="A11" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -6263,12 +6263,12 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="3">
         <v>128</v>
@@ -6276,7 +6276,7 @@
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="3">
         <v>6</v>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -6292,7 +6292,7 @@
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -6316,7 +6316,7 @@
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -6324,47 +6324,47 @@
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1">
       <c r="A20" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="C20" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="D20" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="E20" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="F20" s="34" t="s">
         <v>207</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1">
       <c r="A21" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1">
       <c r="A22" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -6398,7 +6398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -6414,27 +6414,27 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s">
         <v>210</v>
       </c>
-      <c r="C1" t="s">
-        <v>211</v>
-      </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -1852,9 +1852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP1" sqref="AP1:AP1048576"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="39">
         <v>0</v>
@@ -2471,8 +2471,8 @@
       <c r="J5" s="16">
         <v>0</v>
       </c>
-      <c r="K5" s="40">
-        <v>0</v>
+      <c r="K5" s="39">
+        <v>1</v>
       </c>
       <c r="L5" s="40">
         <v>0</v>
@@ -3278,7 +3278,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:T3 AQ5:AR6 V3:AJ3 J3 K6:Q6 AQ7:AT9 B7:AO9 B5:AP5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:T3 AQ5:AR6 V3:AJ3 J3 K6:Q6 AQ7:AT9 B7:AO9 B5:J5 L5:AP5">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -421,7 +421,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="233">
   <si>
     <t>Id</t>
   </si>
@@ -1155,6 +1155,9 @@
   </si>
   <si>
     <t>Diamond</t>
+  </si>
+  <si>
+    <t>FightHeroCnfID</t>
   </si>
 </sst>
 </file>
@@ -1850,11 +1853,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT10"/>
+  <dimension ref="A1:AU10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1868,19 +1871,19 @@
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="17" width="17.33203125" customWidth="1"/>
-    <col min="27" max="27" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.59765625" customWidth="1"/>
-    <col min="33" max="33" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.3984375" customWidth="1"/>
-    <col min="36" max="36" width="15.9296875" customWidth="1"/>
-    <col min="42" max="42" width="18.33203125" customWidth="1"/>
-    <col min="43" max="43" width="15.6640625" customWidth="1"/>
-    <col min="44" max="44" width="14.46484375" customWidth="1"/>
-    <col min="45" max="46" width="15.9296875" customWidth="1"/>
+    <col min="11" max="18" width="17.33203125" customWidth="1"/>
+    <col min="28" max="28" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.59765625" customWidth="1"/>
+    <col min="34" max="34" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.3984375" customWidth="1"/>
+    <col min="37" max="37" width="15.9296875" customWidth="1"/>
+    <col min="43" max="43" width="18.33203125" customWidth="1"/>
+    <col min="44" max="44" width="15.6640625" customWidth="1"/>
+    <col min="45" max="45" width="14.46484375" customWidth="1"/>
+    <col min="46" max="47" width="15.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="25" customFormat="1">
+    <row r="1" spans="1:47" s="25" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1915,112 +1918,115 @@
         <v>215</v>
       </c>
       <c r="L1" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="M1" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="O1" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="P1" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="Q1" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="R1" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="X1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AB1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AE1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AI1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AK1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" s="28" t="s">
+      <c r="AM1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AN1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" s="28" t="s">
+      <c r="AO1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="28" t="s">
+      <c r="AP1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="28" t="s">
+      <c r="AQ1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="25" t="s">
+      <c r="AR1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AR1" s="25" t="s">
+      <c r="AS1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AS1" s="25" t="s">
+      <c r="AT1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AT1" s="25" t="s">
+      <c r="AU1" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="26" customFormat="1">
+    <row r="2" spans="1:47" s="26" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>38</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>41</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M2" s="39" t="s">
         <v>41</v>
@@ -2064,7 +2070,7 @@
         <v>41</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P2" s="39" t="s">
         <v>39</v>
@@ -2072,8 +2078,8 @@
       <c r="Q2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>40</v>
+      <c r="R2" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>40</v>
@@ -2097,13 +2103,13 @@
         <v>40</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC2" s="3" t="s">
         <v>40</v>
@@ -2121,7 +2127,7 @@
         <v>40</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AI2" s="3" t="s">
         <v>41</v>
@@ -2130,7 +2136,7 @@
         <v>41</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AL2" s="3" t="s">
         <v>40</v>
@@ -2139,28 +2145,31 @@
         <v>40</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AO2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AP2" s="30" t="s">
-        <v>40</v>
+      <c r="AP2" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="AQ2" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AR2" s="30" t="s">
         <v>41</v>
       </c>
       <c r="AS2" s="30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AT2" s="30" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:46" s="26" customFormat="1">
+      <c r="AU2" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" s="26" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>42</v>
       </c>
@@ -2195,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="39">
         <v>0</v>
@@ -2212,7 +2221,7 @@
       <c r="Q3" s="39">
         <v>0</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="39">
         <v>0</v>
       </c>
       <c r="S3" s="16">
@@ -2221,11 +2230,11 @@
       <c r="T3" s="16">
         <v>0</v>
       </c>
-      <c r="U3" s="3">
-        <v>1</v>
-      </c>
-      <c r="V3" s="16">
-        <v>0</v>
+      <c r="U3" s="16">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1</v>
       </c>
       <c r="W3" s="16">
         <v>0</v>
@@ -2269,11 +2278,11 @@
       <c r="AJ3" s="16">
         <v>0</v>
       </c>
-      <c r="AK3" s="3">
-        <v>1</v>
+      <c r="AK3" s="16">
+        <v>0</v>
       </c>
       <c r="AL3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="3">
         <v>0</v>
@@ -2284,10 +2293,10 @@
       <c r="AO3" s="3">
         <v>0</v>
       </c>
-      <c r="AP3" s="31">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="30">
+      <c r="AP3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="31">
         <v>0</v>
       </c>
       <c r="AR3" s="30">
@@ -2299,8 +2308,11 @@
       <c r="AT3" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:46" s="26" customFormat="1">
+      <c r="AU3" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" s="26" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>43</v>
       </c>
@@ -2352,7 +2364,7 @@
       <c r="Q4" s="39">
         <v>1</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="39">
         <v>1</v>
       </c>
       <c r="S4" s="3">
@@ -2413,22 +2425,22 @@
         <v>1</v>
       </c>
       <c r="AL4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" s="3">
         <v>0</v>
       </c>
       <c r="AN4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="3">
         <v>1</v>
       </c>
-      <c r="AP4" s="30">
+      <c r="AP4" s="3">
         <v>1</v>
       </c>
       <c r="AQ4" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4" s="30">
         <v>0</v>
@@ -2439,8 +2451,11 @@
       <c r="AT4" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:46" s="26" customFormat="1">
+      <c r="AU4" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" s="26" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>44</v>
       </c>
@@ -2474,8 +2489,8 @@
       <c r="K5" s="39">
         <v>1</v>
       </c>
-      <c r="L5" s="40">
-        <v>0</v>
+      <c r="L5" s="39">
+        <v>1</v>
       </c>
       <c r="M5" s="40">
         <v>0</v>
@@ -2492,7 +2507,7 @@
       <c r="Q5" s="40">
         <v>0</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="40">
         <v>0</v>
       </c>
       <c r="S5" s="16">
@@ -2564,7 +2579,7 @@
       <c r="AO5" s="16">
         <v>0</v>
       </c>
-      <c r="AP5" s="31">
+      <c r="AP5" s="16">
         <v>0</v>
       </c>
       <c r="AQ5" s="31">
@@ -2573,14 +2588,17 @@
       <c r="AR5" s="31">
         <v>0</v>
       </c>
-      <c r="AS5" s="30">
+      <c r="AS5" s="31">
         <v>0</v>
       </c>
       <c r="AT5" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:46" s="26" customFormat="1">
+      <c r="AU5" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" s="26" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>45</v>
       </c>
@@ -2632,7 +2650,7 @@
       <c r="Q6" s="40">
         <v>1</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="40">
         <v>1</v>
       </c>
       <c r="S6" s="3">
@@ -2704,23 +2722,26 @@
       <c r="AO6" s="3">
         <v>1</v>
       </c>
-      <c r="AP6" s="30">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="31">
-        <v>0</v>
+      <c r="AP6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="30">
+        <v>1</v>
       </c>
       <c r="AR6" s="31">
         <v>0</v>
       </c>
-      <c r="AS6" s="30">
+      <c r="AS6" s="31">
         <v>0</v>
       </c>
       <c r="AT6" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:46" s="16" customFormat="1">
+      <c r="AU6" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" s="16" customFormat="1">
       <c r="A7" s="22" t="s">
         <v>46</v>
       </c>
@@ -2772,7 +2793,7 @@
       <c r="Q7" s="40">
         <v>0</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="40">
         <v>0</v>
       </c>
       <c r="S7" s="16">
@@ -2844,7 +2865,7 @@
       <c r="AO7" s="16">
         <v>0</v>
       </c>
-      <c r="AP7" s="31">
+      <c r="AP7" s="16">
         <v>0</v>
       </c>
       <c r="AQ7" s="31">
@@ -2859,8 +2880,11 @@
       <c r="AT7" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:46" s="16" customFormat="1">
+      <c r="AU7" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
         <v>229</v>
       </c>
@@ -2912,7 +2936,7 @@
       <c r="Q8" s="40">
         <v>0</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="40">
         <v>0</v>
       </c>
       <c r="S8" s="16">
@@ -2984,7 +3008,7 @@
       <c r="AO8" s="16">
         <v>0</v>
       </c>
-      <c r="AP8" s="31">
+      <c r="AP8" s="16">
         <v>0</v>
       </c>
       <c r="AQ8" s="31">
@@ -2999,8 +3023,11 @@
       <c r="AT8" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:46" s="16" customFormat="1">
+      <c r="AU8" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" s="16" customFormat="1">
       <c r="A9" s="22" t="s">
         <v>47</v>
       </c>
@@ -3052,7 +3079,7 @@
       <c r="Q9" s="40">
         <v>0</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="40">
         <v>0</v>
       </c>
       <c r="S9" s="16">
@@ -3124,7 +3151,7 @@
       <c r="AO9" s="16">
         <v>0</v>
       </c>
-      <c r="AP9" s="31">
+      <c r="AP9" s="16">
         <v>0</v>
       </c>
       <c r="AQ9" s="31">
@@ -3139,8 +3166,11 @@
       <c r="AT9" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:46" s="17" customFormat="1" ht="67.5">
+      <c r="AU9" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" s="17" customFormat="1" ht="67.5">
       <c r="A10" s="23" t="s">
         <v>48</v>
       </c>
@@ -3175,110 +3205,113 @@
         <v>216</v>
       </c>
       <c r="L10" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="M10" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="M10" s="41" t="s">
+      <c r="N10" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="N10" s="41" t="s">
+      <c r="O10" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="O10" s="41" t="s">
+      <c r="P10" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="P10" s="41" t="s">
+      <c r="Q10" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="Q10" s="41" t="s">
+      <c r="R10" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="S10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="T10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="T10" s="24" t="s">
+      <c r="U10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="U10" s="24" t="s">
+      <c r="V10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="V10" s="24" t="s">
+      <c r="W10" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="W10" s="24" t="s">
+      <c r="X10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="X10" s="24" t="s">
+      <c r="Y10" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="Y10" s="24" t="s">
+      <c r="Z10" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="Z10" s="24" t="s">
+      <c r="AA10" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AA10" s="24" t="s">
+      <c r="AB10" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AB10" s="24" t="s">
+      <c r="AC10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AC10" s="24" t="s">
+      <c r="AD10" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="AD10" s="24" t="s">
+      <c r="AE10" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AE10" s="24" t="s">
+      <c r="AF10" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AF10" s="24" t="s">
+      <c r="AG10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AG10" s="24" t="s">
+      <c r="AH10" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="AH10" s="24" t="s">
+      <c r="AI10" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AI10" s="24" t="s">
+      <c r="AJ10" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="AJ10" s="24" t="s">
+      <c r="AK10" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="AK10" s="24" t="s">
+      <c r="AL10" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="AL10" s="24" t="s">
+      <c r="AM10" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="AM10" s="24" t="s">
+      <c r="AN10" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="AN10" s="24" t="s">
+      <c r="AO10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="AO10" s="24" t="s">
+      <c r="AP10" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="AP10" s="32" t="s">
+      <c r="AQ10" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="AQ10" s="32" t="s">
+      <c r="AR10" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="AR10" s="32" t="s">
+      <c r="AS10" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="AS10" s="33"/>
       <c r="AT10" s="33"/>
+      <c r="AU10" s="33"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:T3 AQ5:AR6 V3:AJ3 J3 K6:Q6 AQ7:AT9 B7:AO9 B5:J5 L5:AP5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:U3 AR5:AS6 W3:AK3 J3 AR7:AU9 M5:AQ5 B5:J5 K6:R6 B7:AP9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Component" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Record_Building!$E$1:$E$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Record_Building!$D$1:$D$22</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -421,7 +421,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="230">
   <si>
     <t>Id</t>
   </si>
@@ -1067,21 +1067,12 @@
     <t>BuildingList</t>
   </si>
   <si>
-    <t>BuildingID</t>
-  </si>
-  <si>
     <t>BuildingGUID</t>
   </si>
   <si>
     <t>State</t>
   </si>
   <si>
-    <t>PosX</t>
-  </si>
-  <si>
-    <t>PosY</t>
-  </si>
-  <si>
     <t>StateEndTime</t>
   </si>
   <si>
@@ -1139,9 +1130,6 @@
     <t>Pos</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>vector3</t>
   </si>
   <si>
@@ -1158,6 +1146,9 @@
   </si>
   <si>
     <t>FightHeroCnfID</t>
+  </si>
+  <si>
+    <t>BuildingCnfID</t>
   </si>
 </sst>
 </file>
@@ -1855,7 +1846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
@@ -1915,19 +1906,19 @@
         <v>9</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P1" s="28" t="s">
         <v>157</v>
@@ -1960,7 +1951,7 @@
         <v>17</v>
       </c>
       <c r="Z1" s="28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AA1" s="28" t="s">
         <v>18</v>
@@ -2886,7 +2877,7 @@
     </row>
     <row r="8" spans="1:47" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B8" s="16">
         <v>0</v>
@@ -3202,28 +3193,28 @@
         <v>57</v>
       </c>
       <c r="K10" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="N10" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="O10" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="L10" s="41" t="s">
+      <c r="P10" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q10" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="R10" s="41" t="s">
         <v>216</v>
-      </c>
-      <c r="M10" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="N10" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="O10" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="P10" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q10" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="R10" s="41" t="s">
-        <v>219</v>
       </c>
       <c r="S10" s="24" t="s">
         <v>59</v>
@@ -3981,7 +3972,7 @@
     </row>
     <row r="8" spans="1:30" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B8" s="16">
         <v>0</v>
@@ -4312,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="3" customFormat="1">
@@ -4554,7 +4545,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -4712,7 +4703,7 @@
         <v>143</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>6</v>
@@ -4877,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="3" customFormat="1">
@@ -5119,7 +5110,7 @@
         <v>48</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -6154,10 +6145,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6165,19 +6156,18 @@
     <col min="1" max="1" width="16.19921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="21.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.19921875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.46484375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="4"/>
-    <col min="9" max="9" width="12.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.796875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="11.6640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.796875" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="4"/>
+    <col min="4" max="4" width="11.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="12.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.796875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4"/>
+    <col min="11" max="11" width="11.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.796875" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
+    <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6185,7 +6175,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1">
+    <row r="2" spans="1:5" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>140</v>
       </c>
@@ -6193,15 +6183,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1">
+    <row r="3" spans="1:5" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B3" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -6209,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1">
+    <row r="5" spans="1:5" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
@@ -6217,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1">
+    <row r="6" spans="1:5" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
@@ -6225,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1">
+    <row r="7" spans="1:5" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -6233,7 +6223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1">
+    <row r="8" spans="1:5" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>189</v>
       </c>
@@ -6241,27 +6231,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1">
+    <row r="9" spans="1:5" s="3" customFormat="1">
       <c r="A9" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="C9" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="D9" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1">
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1">
       <c r="A10" s="34" t="s">
         <v>39</v>
       </c>
@@ -6272,16 +6259,13 @@
         <v>40</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1">
       <c r="A11" s="34" t="s">
         <v>48</v>
       </c>
@@ -6289,17 +6273,16 @@
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="3" customFormat="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>140</v>
       </c>
@@ -6307,15 +6290,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1">
+    <row r="14" spans="1:5" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B14" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="3" customFormat="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -6323,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1">
+    <row r="16" spans="1:5" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
@@ -6331,7 +6314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1">
+    <row r="17" spans="1:5" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -6339,7 +6322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1">
+    <row r="18" spans="1:5" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
@@ -6347,7 +6330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1">
+    <row r="19" spans="1:5" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
@@ -6355,27 +6338,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1">
+    <row r="20" spans="1:5" s="3" customFormat="1">
       <c r="A20" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="C20" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="D20" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="D20" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="3" customFormat="1">
+    </row>
+    <row r="21" spans="1:5" s="3" customFormat="1">
       <c r="A21" s="34" t="s">
         <v>39</v>
       </c>
@@ -6386,16 +6366,13 @@
         <v>40</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="3" customFormat="1">
       <c r="A22" s="34" t="s">
         <v>48</v>
       </c>
@@ -6403,15 +6380,14 @@
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 B18:B19 G1:G1048576 A15:B17 A4:B5 D12:D19 D22:D1048576 F1:F8 F11:F19 F22:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 B18:B19 F1:F1048576 A15:B17 A4:B5 E1:E8 E11:E19 E22:E1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 A20:B20 I40:I1048576 D20 D9"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:B10 A21:B21 I1:I39 D21 D10">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 H40:H1048576 A20:B20"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:B10 A21:B21 H1:H39">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C21">
@@ -6447,10 +6423,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D1" t="s">
         <v>48</v>
@@ -6458,16 +6434,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -6147,7 +6147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -6407,7 +6407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Component" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Record_Bag!$A$1:$W$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Record_Building!$D$1:$D$22</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -421,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="231">
   <si>
     <t>Id</t>
   </si>
@@ -1149,6 +1150,9 @@
   </si>
   <si>
     <t>BuildingCnfID</t>
+  </si>
+  <si>
+    <t>DropItemList</t>
   </si>
 </sst>
 </file>
@@ -5161,10 +5165,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5884,16 +5888,296 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
     </row>
+    <row r="23" spans="1:23" s="11" customFormat="1">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="1:23" s="13" customFormat="1">
+      <c r="A24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="3">
+        <v>128</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+    </row>
+    <row r="25" spans="1:23" s="13" customFormat="1">
+      <c r="A25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+    </row>
+    <row r="26" spans="1:23" s="13" customFormat="1">
+      <c r="A26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="1:23" s="13" customFormat="1">
+      <c r="A27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="1:23" s="13" customFormat="1">
+      <c r="A28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="1:23" s="13" customFormat="1">
+      <c r="A29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="1:23" s="13" customFormat="1">
+      <c r="A30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+    </row>
+    <row r="31" spans="1:23" s="13" customFormat="1">
+      <c r="A31" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" s="13" customFormat="1">
+      <c r="A32" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="13" customFormat="1">
+      <c r="A33" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="34"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:W33"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7 B8 E11:F11 A17 B17 B18 B19 G11:G19 E1:G8 D22:G1048576 D12:F19 A15:B16 A4:B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 E11:F11 A17 B17:B19 G11:G19 E1:G8 A4:B5 D12:F19 A15:B16 D22:G30 A26:B28 B29:B30 F33:G1048576 D34:E1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 F9:F10 N1:N8 N11:N19 N22:N1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 G10 N10:W10 A9:A10 O1:AE8 A20:E21 I11:M19 O11:AE19 I22:M1048576 O22:AE1048576 X9:AE10 C9:E10 H9:M10 I1:M8">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 F9:F10 N1:N8 N11:N19 N22:N30 N33:N1048576 A31"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 G10 N10:W10 A9:A10 O1:AE8 A20:E21 I11:M19 O11:AE19 O33:AE1048576 I1:M8 X9:AE10 C9:E10 H9:M10 O22:AE30 I22:M30 I33:M1048576 A32 B31:C32">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C1048576 C12:C19 A2:B3 A13:B14 C22:C30 B34:B1048576 A24:B25">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -6407,7 +6691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -5168,7 +5168,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6133,7 +6133,7 @@
     </row>
     <row r="32" spans="1:23" s="13" customFormat="1">
       <c r="A32" s="34" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="B32" s="34" t="s">
         <v>39</v>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0" shapeId="0">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0">
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0" shapeId="0">
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0" shapeId="0">
+    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -140,12 +140,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -157,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -169,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -181,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -193,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0">
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -241,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0" shapeId="0">
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0">
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="0" shapeId="0">
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -277,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K20" authorId="0" shapeId="0">
+    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -294,12 +294,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -311,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -323,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0">
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -388,12 +388,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -405,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="232">
   <si>
     <t>Id</t>
   </si>
@@ -1154,11 +1154,14 @@
   <si>
     <t>DropItemList</t>
   </si>
+  <si>
+    <t>Postion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -1503,7 +1506,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1847,7 +1850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU10"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -3306,10 +3309,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:U3 AR5:AS6 W3:AK3 J3 AR7:AU9 M5:AQ5 B5:J5 K6:R6 B7:AP9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:U3 AR5:AS6 W3:AK3 J3 AR7:AU9 M5:AQ5 B5:J5 K6:R6 B7:AP9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3318,7 +3321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4252,8 +4255,8 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AD9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AD9" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4264,7 +4267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4581,13 +4584,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:B5 D11:G1048576 A6 D1:G8 B6:B8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:B5 D11:G1048576 A6 D1:G8 B6:B8" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:C10 U10 V9:AC10 I11:AC1048576 D9:T10 AD1:AK1048576 I1:AC8">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:C10 U10 V9:AC10 I11:AC1048576 D9:T10 AD1:AK1048576 I1:AC8" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 B12:C1048576 A2:B3 C1:C8">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 B12:C1048576 A2:B3 C1:C8" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -4599,7 +4602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5146,13 +5149,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 A17 C22 B17:B19 D22:G1048576 A4:B5 A15:B16 C12:G18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 A17 C22 B17:B19 D22:G1048576 A4:B5 A15:B16 C12:G18" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A21:C21 U21 D20:T21 V20:AC21">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A21:C21 U21 D20:T21 V20:AC21" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:B14 B23:C1048576 A2:B3">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:B14 B23:C1048576 A2:B3" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5164,11 +5167,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5951,7 +5954,7 @@
         <v>141</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -6130,6 +6133,9 @@
       <c r="C31" s="34" t="s">
         <v>187</v>
       </c>
+      <c r="D31" s="35" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="32" spans="1:23" s="13" customFormat="1">
       <c r="A32" s="34" t="s">
@@ -6141,6 +6147,9 @@
       <c r="C32" s="34" t="s">
         <v>40</v>
       </c>
+      <c r="D32" s="35" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="33" spans="1:23" s="13" customFormat="1">
       <c r="A33" s="34" t="s">
@@ -6148,6 +6157,8 @@
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -6168,16 +6179,16 @@
       <c r="W33" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W33"/>
+  <autoFilter ref="A1:W33" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 E11:F11 A17 B17:B19 G11:G19 E1:G8 A4:B5 D12:F19 A15:B16 D22:G30 A26:B28 B29:B30 F33:G1048576 D34:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 E11:F11 A17 B17:B19 G11:G19 E1:G8 A4:B5 D12:F19 A15:B16 D22:G30 A26:B28 B29:B30 G33:G1048576 D34:F1048576 E33" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 F9:F10 N1:N8 N11:N19 N22:N30 N33:N1048576 A31"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 G10 N10:W10 A9:A10 O1:AE8 A20:E21 I11:M19 O11:AE19 O33:AE1048576 I1:M8 X9:AE10 C9:E10 H9:M10 O22:AE30 I22:M30 I33:M1048576 A32 B31:C32">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 F9:F10 N1:N8 N11:N19 N22:N30 N33:N1048576 A31" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 G10 N10:W10 A9:A10 O1:AE8 A20:E21 I11:M19 O11:AE19 O33:AE1048576 I1:M8 X9:AE10 C9:E10 H9:M10 O22:AE30 I22:M30 I33:M1048576 A32 B31:C32" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C1048576 C12:C19 A2:B3 A13:B14 C22:C30 B34:B1048576 A24:B25">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C1048576 C12:C19 A2:B3 A13:B14 C22:C30 B34:B1048576 A24:B25 D33" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -6188,7 +6199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6407,16 +6418,16 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7 B8 A17 B17 B18 G1:G21 E1:F11 D12:F21 D22:G1048576 A4:B5 A15:B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7 B8 A17 B17 B18 G1:G21 E1:F11 D12:F21 D22:G1048576 A4:B5 A15:B16" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:D10 I1:L1048576 A20:B21">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:D10 I1:L1048576 A20:B21" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6428,7 +6439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6667,18 +6678,18 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 B18:B19 F1:F1048576 A15:B17 A4:B5 E1:E8 E11:E19 E22:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 B18:B19 F1:F1048576 A15:B17 A4:B5 E1:E8 E11:E19 E22:E1048576" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 H40:H1048576 A20:B20"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:B10 A21:B21 H1:H39">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 H40:H1048576 A20:B20" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:B10 A21:B21 H1:H39" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C21" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A2:B3 A13:B14">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19" xr:uid="{00000000-0002-0000-0600-000004000000}"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A2:B3 A13:B14" xr:uid="{00000000-0002-0000-0600-000005000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -6688,7 +6699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6732,10 +6743,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"lua,python,C#,js"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -5171,7 +5171,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6070,7 +6070,7 @@
         <v>45</v>
       </c>
       <c r="B29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -6181,7 +6181,7 @@
   </sheetData>
   <autoFilter ref="A1:W33" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 E11:F11 A17 B17:B19 G11:G19 E1:G8 A4:B5 D12:F19 A15:B16 D22:G30 A26:B28 B29:B30 G33:G1048576 D34:F1048576 E33" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 E11:F11 A17 B17:B19 G11:G19 E1:G8 A4:B5 D12:F19 A15:B16 D22:G30 A26:B28 E33 G33:G1048576 D34:F1048576 B29:B30" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 F9:F10 N1:N8 N11:N19 N22:N30 N33:N1048576 A31" xr:uid="{00000000-0002-0000-0400-000001000000}"/>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/NFDataCfg/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -30,16 +30,24 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="F9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="G9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="H9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="I9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="J9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="K9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,12 +148,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="D9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="F9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="E20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="F20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="G20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -241,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+    <comment ref="H20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+    <comment ref="I20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
+    <comment ref="J20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -277,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
+    <comment ref="K20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -294,12 +302,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -323,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="C9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="D9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -347,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -359,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="B20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -371,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+    <comment ref="C20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -388,12 +396,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -422,7 +430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="232">
   <si>
     <t>Id</t>
   </si>
@@ -524,12 +532,6 @@
   </si>
   <si>
     <t>TeamID</t>
-  </si>
-  <si>
-    <t>ViewOppnent</t>
-  </si>
-  <si>
-    <t>FightOppnent</t>
   </si>
   <si>
     <t>GambleGold</t>
@@ -1157,12 +1159,18 @@
   <si>
     <t>Postion</t>
   </si>
+  <si>
+    <t>ViewOpponent</t>
+  </si>
+  <si>
+    <t>FightOpponent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1505,8 +1513,8 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1850,38 +1858,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR10"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="AQ6" sqref="AQ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.796875" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="18" width="17.33203125" customWidth="1"/>
-    <col min="28" max="28" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.59765625" customWidth="1"/>
-    <col min="34" max="34" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.3984375" customWidth="1"/>
-    <col min="37" max="37" width="15.9296875" customWidth="1"/>
-    <col min="43" max="43" width="18.33203125" customWidth="1"/>
-    <col min="44" max="44" width="15.6640625" customWidth="1"/>
-    <col min="45" max="45" width="14.46484375" customWidth="1"/>
-    <col min="46" max="47" width="15.9296875" customWidth="1"/>
+    <col min="11" max="15" width="17.33203125" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.6640625" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.33203125" customWidth="1"/>
+    <col min="34" max="34" width="16" customWidth="1"/>
+    <col min="40" max="40" width="18.33203125" customWidth="1"/>
+    <col min="41" max="41" width="15.6640625" customWidth="1"/>
+    <col min="42" max="42" width="14.5" customWidth="1"/>
+    <col min="43" max="44" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="25" customFormat="1">
+    <row r="1" spans="1:44" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1913,1315 +1921,1234 @@
         <v>9</v>
       </c>
       <c r="K1" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO1" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP1" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO2" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP2" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR2" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0</v>
+      </c>
+      <c r="K3" s="39">
+        <v>1</v>
+      </c>
+      <c r="L3" s="39">
+        <v>1</v>
+      </c>
+      <c r="M3" s="39">
+        <v>0</v>
+      </c>
+      <c r="N3" s="39">
+        <v>0</v>
+      </c>
+      <c r="O3" s="39">
+        <v>0</v>
+      </c>
+      <c r="P3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>0</v>
+      </c>
+      <c r="R3" s="16">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+      <c r="T3" s="16">
+        <v>0</v>
+      </c>
+      <c r="U3" s="16">
+        <v>0</v>
+      </c>
+      <c r="V3" s="16">
+        <v>0</v>
+      </c>
+      <c r="W3" s="16">
+        <v>0</v>
+      </c>
+      <c r="X3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="31">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="39">
+        <v>1</v>
+      </c>
+      <c r="L4" s="39">
+        <v>1</v>
+      </c>
+      <c r="M4" s="39">
+        <v>1</v>
+      </c>
+      <c r="N4" s="39">
+        <v>1</v>
+      </c>
+      <c r="O4" s="39">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="30">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="30">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="39">
+        <v>1</v>
+      </c>
+      <c r="L5" s="39">
+        <v>1</v>
+      </c>
+      <c r="M5" s="40">
+        <v>0</v>
+      </c>
+      <c r="N5" s="40">
+        <v>0</v>
+      </c>
+      <c r="O5" s="40">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>0</v>
+      </c>
+      <c r="R5" s="16">
+        <v>0</v>
+      </c>
+      <c r="S5" s="16">
+        <v>0</v>
+      </c>
+      <c r="T5" s="16">
+        <v>0</v>
+      </c>
+      <c r="U5" s="16">
+        <v>0</v>
+      </c>
+      <c r="V5" s="16">
+        <v>0</v>
+      </c>
+      <c r="W5" s="16">
+        <v>0</v>
+      </c>
+      <c r="X5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="30">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="40">
+        <v>1</v>
+      </c>
+      <c r="L6" s="40">
+        <v>1</v>
+      </c>
+      <c r="M6" s="40">
+        <v>1</v>
+      </c>
+      <c r="N6" s="40">
+        <v>1</v>
+      </c>
+      <c r="O6" s="40">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="30">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="40">
+        <v>0</v>
+      </c>
+      <c r="L7" s="40">
+        <v>0</v>
+      </c>
+      <c r="M7" s="40">
+        <v>0</v>
+      </c>
+      <c r="N7" s="40">
+        <v>0</v>
+      </c>
+      <c r="O7" s="40">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16">
+        <v>0</v>
+      </c>
+      <c r="S7" s="16">
+        <v>0</v>
+      </c>
+      <c r="T7" s="16">
+        <v>0</v>
+      </c>
+      <c r="U7" s="16">
+        <v>0</v>
+      </c>
+      <c r="V7" s="16">
+        <v>0</v>
+      </c>
+      <c r="W7" s="16">
+        <v>0</v>
+      </c>
+      <c r="X7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="40">
+        <v>0</v>
+      </c>
+      <c r="L8" s="40">
+        <v>0</v>
+      </c>
+      <c r="M8" s="40">
+        <v>0</v>
+      </c>
+      <c r="N8" s="40">
+        <v>0</v>
+      </c>
+      <c r="O8" s="40">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16">
+        <v>0</v>
+      </c>
+      <c r="S8" s="16">
+        <v>0</v>
+      </c>
+      <c r="T8" s="16">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
+        <v>0</v>
+      </c>
+      <c r="W8" s="16">
+        <v>0</v>
+      </c>
+      <c r="X8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="40">
+        <v>0</v>
+      </c>
+      <c r="L9" s="40">
+        <v>0</v>
+      </c>
+      <c r="M9" s="40">
+        <v>0</v>
+      </c>
+      <c r="N9" s="40">
+        <v>0</v>
+      </c>
+      <c r="O9" s="40">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9" s="16">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
+        <v>0</v>
+      </c>
+      <c r="W9" s="16">
+        <v>0</v>
+      </c>
+      <c r="X9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" s="17" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+      <c r="A10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="M10" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="L1" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="S1" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z1" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA1" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD1" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE1" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF1" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG1" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH1" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI1" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ1" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK1" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM1" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN1" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO1" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP1" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ1" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR1" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="AS1" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT1" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU1" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" s="26" customFormat="1">
-      <c r="A2" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ2" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR2" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS2" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT2" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU2" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" s="26" customFormat="1">
-      <c r="A3" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="16">
-        <v>0</v>
-      </c>
-      <c r="K3" s="39">
-        <v>1</v>
-      </c>
-      <c r="L3" s="39">
-        <v>1</v>
-      </c>
-      <c r="M3" s="39">
-        <v>0</v>
-      </c>
-      <c r="N3" s="39">
-        <v>0</v>
-      </c>
-      <c r="O3" s="39">
-        <v>0</v>
-      </c>
-      <c r="P3" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="39">
-        <v>0</v>
-      </c>
-      <c r="R3" s="39">
-        <v>0</v>
-      </c>
-      <c r="S3" s="16">
-        <v>0</v>
-      </c>
-      <c r="T3" s="16">
-        <v>0</v>
-      </c>
-      <c r="U3" s="16">
-        <v>0</v>
-      </c>
-      <c r="V3" s="3">
-        <v>1</v>
-      </c>
-      <c r="W3" s="16">
-        <v>0</v>
-      </c>
-      <c r="X3" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="31">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" s="26" customFormat="1">
-      <c r="A4" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="39">
-        <v>1</v>
-      </c>
-      <c r="L4" s="39">
-        <v>1</v>
-      </c>
-      <c r="M4" s="39">
-        <v>1</v>
-      </c>
-      <c r="N4" s="39">
-        <v>1</v>
-      </c>
-      <c r="O4" s="39">
-        <v>1</v>
-      </c>
-      <c r="P4" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="39">
-        <v>1</v>
-      </c>
-      <c r="R4" s="39">
-        <v>1</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3">
-        <v>1</v>
-      </c>
-      <c r="V4" s="3">
-        <v>1</v>
-      </c>
-      <c r="W4" s="3">
-        <v>1</v>
-      </c>
-      <c r="X4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="30">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" s="26" customFormat="1">
-      <c r="A5" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="16">
-        <v>0</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0</v>
-      </c>
-      <c r="J5" s="16">
-        <v>0</v>
-      </c>
-      <c r="K5" s="39">
-        <v>1</v>
-      </c>
-      <c r="L5" s="39">
-        <v>1</v>
-      </c>
-      <c r="M5" s="40">
-        <v>0</v>
-      </c>
-      <c r="N5" s="40">
-        <v>0</v>
-      </c>
-      <c r="O5" s="40">
-        <v>0</v>
-      </c>
-      <c r="P5" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="40">
-        <v>0</v>
-      </c>
-      <c r="R5" s="40">
-        <v>0</v>
-      </c>
-      <c r="S5" s="16">
-        <v>0</v>
-      </c>
-      <c r="T5" s="16">
-        <v>0</v>
-      </c>
-      <c r="U5" s="16">
-        <v>0</v>
-      </c>
-      <c r="V5" s="16">
-        <v>0</v>
-      </c>
-      <c r="W5" s="16">
-        <v>0</v>
-      </c>
-      <c r="X5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="31">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="31">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="31">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="30">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" s="26" customFormat="1">
-      <c r="A6" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="40">
-        <v>1</v>
-      </c>
-      <c r="L6" s="40">
-        <v>1</v>
-      </c>
-      <c r="M6" s="40">
-        <v>1</v>
-      </c>
-      <c r="N6" s="40">
-        <v>1</v>
-      </c>
-      <c r="O6" s="40">
-        <v>1</v>
-      </c>
-      <c r="P6" s="40">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="40">
-        <v>1</v>
-      </c>
-      <c r="R6" s="40">
-        <v>1</v>
-      </c>
-      <c r="S6" s="3">
-        <v>1</v>
-      </c>
-      <c r="T6" s="3">
-        <v>1</v>
-      </c>
-      <c r="U6" s="3">
-        <v>1</v>
-      </c>
-      <c r="V6" s="3">
-        <v>1</v>
-      </c>
-      <c r="W6" s="3">
-        <v>1</v>
-      </c>
-      <c r="X6" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="30">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="31">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="31">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" s="16" customFormat="1">
-      <c r="A7" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="16">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0</v>
-      </c>
-      <c r="K7" s="40">
-        <v>0</v>
-      </c>
-      <c r="L7" s="40">
-        <v>0</v>
-      </c>
-      <c r="M7" s="40">
-        <v>0</v>
-      </c>
-      <c r="N7" s="40">
-        <v>0</v>
-      </c>
-      <c r="O7" s="40">
-        <v>0</v>
-      </c>
-      <c r="P7" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="40">
-        <v>0</v>
-      </c>
-      <c r="R7" s="40">
-        <v>0</v>
-      </c>
-      <c r="S7" s="16">
-        <v>0</v>
-      </c>
-      <c r="T7" s="16">
-        <v>0</v>
-      </c>
-      <c r="U7" s="16">
-        <v>0</v>
-      </c>
-      <c r="V7" s="16">
-        <v>0</v>
-      </c>
-      <c r="W7" s="16">
-        <v>0</v>
-      </c>
-      <c r="X7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="31">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="31">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="31">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="31">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" s="16" customFormat="1">
-      <c r="A8" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="16">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="K8" s="40">
-        <v>0</v>
-      </c>
-      <c r="L8" s="40">
-        <v>0</v>
-      </c>
-      <c r="M8" s="40">
-        <v>0</v>
-      </c>
-      <c r="N8" s="40">
-        <v>0</v>
-      </c>
-      <c r="O8" s="40">
-        <v>0</v>
-      </c>
-      <c r="P8" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="40">
-        <v>0</v>
-      </c>
-      <c r="R8" s="40">
-        <v>0</v>
-      </c>
-      <c r="S8" s="16">
-        <v>0</v>
-      </c>
-      <c r="T8" s="16">
-        <v>0</v>
-      </c>
-      <c r="U8" s="16">
-        <v>0</v>
-      </c>
-      <c r="V8" s="16">
-        <v>0</v>
-      </c>
-      <c r="W8" s="16">
-        <v>0</v>
-      </c>
-      <c r="X8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="31">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="31">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="31">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="31">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47" s="16" customFormat="1">
-      <c r="A9" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="16">
-        <v>0</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
-        <v>0</v>
-      </c>
-      <c r="K9" s="40">
-        <v>0</v>
-      </c>
-      <c r="L9" s="40">
-        <v>0</v>
-      </c>
-      <c r="M9" s="40">
-        <v>0</v>
-      </c>
-      <c r="N9" s="40">
-        <v>0</v>
-      </c>
-      <c r="O9" s="40">
-        <v>0</v>
-      </c>
-      <c r="P9" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="40">
-        <v>0</v>
-      </c>
-      <c r="R9" s="40">
-        <v>0</v>
-      </c>
-      <c r="S9" s="16">
-        <v>0</v>
-      </c>
-      <c r="T9" s="16">
-        <v>0</v>
-      </c>
-      <c r="U9" s="16">
-        <v>0</v>
-      </c>
-      <c r="V9" s="16">
-        <v>0</v>
-      </c>
-      <c r="W9" s="16">
-        <v>0</v>
-      </c>
-      <c r="X9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47" s="17" customFormat="1" ht="67.5">
-      <c r="A10" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="24" t="s">
+      <c r="N10" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="O10" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="24" t="s">
+      <c r="R10" s="24" t="s">
         <v>57</v>
-      </c>
-      <c r="K10" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="L10" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="M10" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="N10" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="O10" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="P10" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q10" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="R10" s="41" t="s">
-        <v>216</v>
       </c>
       <c r="S10" s="24" t="s">
         <v>59</v>
@@ -3230,89 +3157,80 @@
         <v>60</v>
       </c>
       <c r="U10" s="24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="V10" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W10" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X10" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Y10" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z10" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA10" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AB10" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC10" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD10" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE10" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF10" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG10" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH10" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI10" s="24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ10" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK10" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL10" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM10" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN10" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="AO10" s="24" t="s">
+      <c r="AN10" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO10" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="AP10" s="24" t="s">
+      <c r="AP10" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="AQ10" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR10" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS10" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT10" s="33"/>
-      <c r="AU10" s="33"/>
+      <c r="AQ10" s="33"/>
+      <c r="AR10" s="33"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:U3 AR5:AS6 W3:AK3 J3 AR7:AU9 M5:AQ5 B5:J5 K6:R6 B7:AP9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:R3 AO5:AP6 T3:AH3 J3 AO7:AR9 B5:J5 K6:O6 B7:AM9 M5:AN5">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3321,942 +3239,942 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.19921875" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="14" customFormat="1" ht="27">
+    <row r="1" spans="1:30" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="Y1" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="Z1" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="AA1" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AB1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AD1" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AC1" s="19" t="s">
+    </row>
+    <row r="2" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1</v>
+      </c>
+      <c r="F3" s="21">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21">
+        <v>1</v>
+      </c>
+      <c r="H3" s="21">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21">
+        <v>1</v>
+      </c>
+      <c r="J3" s="21">
+        <v>1</v>
+      </c>
+      <c r="K3" s="21">
+        <v>1</v>
+      </c>
+      <c r="L3" s="21">
+        <v>1</v>
+      </c>
+      <c r="M3" s="21">
+        <v>1</v>
+      </c>
+      <c r="N3" s="21">
+        <v>1</v>
+      </c>
+      <c r="O3" s="21">
+        <v>1</v>
+      </c>
+      <c r="P3" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>1</v>
+      </c>
+      <c r="R3" s="21">
+        <v>1</v>
+      </c>
+      <c r="S3" s="21">
+        <v>1</v>
+      </c>
+      <c r="T3" s="21">
+        <v>1</v>
+      </c>
+      <c r="U3" s="21">
+        <v>1</v>
+      </c>
+      <c r="V3" s="21">
+        <v>1</v>
+      </c>
+      <c r="W3" s="21">
+        <v>1</v>
+      </c>
+      <c r="X3" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="21">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1</v>
+      </c>
+      <c r="G4" s="21">
+        <v>1</v>
+      </c>
+      <c r="H4" s="21">
+        <v>1</v>
+      </c>
+      <c r="I4" s="21">
+        <v>1</v>
+      </c>
+      <c r="J4" s="21">
+        <v>1</v>
+      </c>
+      <c r="K4" s="21">
+        <v>1</v>
+      </c>
+      <c r="L4" s="21">
+        <v>1</v>
+      </c>
+      <c r="M4" s="21">
+        <v>1</v>
+      </c>
+      <c r="N4" s="21">
+        <v>1</v>
+      </c>
+      <c r="O4" s="21">
+        <v>1</v>
+      </c>
+      <c r="P4" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>1</v>
+      </c>
+      <c r="R4" s="21">
+        <v>1</v>
+      </c>
+      <c r="S4" s="21">
+        <v>1</v>
+      </c>
+      <c r="T4" s="21">
+        <v>1</v>
+      </c>
+      <c r="U4" s="21">
+        <v>1</v>
+      </c>
+      <c r="V4" s="21">
+        <v>1</v>
+      </c>
+      <c r="W4" s="21">
+        <v>1</v>
+      </c>
+      <c r="X4" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0</v>
+      </c>
+      <c r="H5" s="21">
+        <v>0</v>
+      </c>
+      <c r="I5" s="21">
+        <v>0</v>
+      </c>
+      <c r="J5" s="21">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+      <c r="L5" s="21">
+        <v>0</v>
+      </c>
+      <c r="M5" s="21">
+        <v>0</v>
+      </c>
+      <c r="N5" s="21">
+        <v>0</v>
+      </c>
+      <c r="O5" s="21">
+        <v>0</v>
+      </c>
+      <c r="P5" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>0</v>
+      </c>
+      <c r="R5" s="21">
+        <v>0</v>
+      </c>
+      <c r="S5" s="21">
+        <v>0</v>
+      </c>
+      <c r="T5" s="21">
+        <v>0</v>
+      </c>
+      <c r="U5" s="21">
+        <v>0</v>
+      </c>
+      <c r="V5" s="21">
+        <v>0</v>
+      </c>
+      <c r="W5" s="21">
+        <v>0</v>
+      </c>
+      <c r="X5" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="21">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0</v>
+      </c>
+      <c r="I6" s="21">
+        <v>0</v>
+      </c>
+      <c r="J6" s="21">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
+        <v>0</v>
+      </c>
+      <c r="M6" s="21">
+        <v>0</v>
+      </c>
+      <c r="N6" s="21">
+        <v>0</v>
+      </c>
+      <c r="O6" s="21">
+        <v>0</v>
+      </c>
+      <c r="P6" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>0</v>
+      </c>
+      <c r="R6" s="21">
+        <v>0</v>
+      </c>
+      <c r="S6" s="21">
+        <v>0</v>
+      </c>
+      <c r="T6" s="21">
+        <v>0</v>
+      </c>
+      <c r="U6" s="21">
+        <v>0</v>
+      </c>
+      <c r="V6" s="21">
+        <v>0</v>
+      </c>
+      <c r="W6" s="21">
+        <v>0</v>
+      </c>
+      <c r="X6" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16">
+        <v>0</v>
+      </c>
+      <c r="S7" s="16">
+        <v>0</v>
+      </c>
+      <c r="T7" s="16">
+        <v>0</v>
+      </c>
+      <c r="U7" s="16">
+        <v>0</v>
+      </c>
+      <c r="V7" s="16">
+        <v>0</v>
+      </c>
+      <c r="W7" s="16">
+        <v>0</v>
+      </c>
+      <c r="X7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16">
+        <v>0</v>
+      </c>
+      <c r="S8" s="16">
+        <v>0</v>
+      </c>
+      <c r="T8" s="16">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
+        <v>0</v>
+      </c>
+      <c r="W8" s="16">
+        <v>0</v>
+      </c>
+      <c r="X8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9" s="16">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
+        <v>0</v>
+      </c>
+      <c r="W9" s="16">
+        <v>0</v>
+      </c>
+      <c r="X9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="17" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="C10" s="24" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" s="15" customFormat="1">
-      <c r="A2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD2" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" s="15" customFormat="1">
-      <c r="A3" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="21">
-        <v>1</v>
-      </c>
-      <c r="C3" s="21">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21">
-        <v>1</v>
-      </c>
-      <c r="E3" s="21">
-        <v>1</v>
-      </c>
-      <c r="F3" s="21">
-        <v>1</v>
-      </c>
-      <c r="G3" s="21">
-        <v>1</v>
-      </c>
-      <c r="H3" s="21">
-        <v>1</v>
-      </c>
-      <c r="I3" s="21">
-        <v>1</v>
-      </c>
-      <c r="J3" s="21">
-        <v>1</v>
-      </c>
-      <c r="K3" s="21">
-        <v>1</v>
-      </c>
-      <c r="L3" s="21">
-        <v>1</v>
-      </c>
-      <c r="M3" s="21">
-        <v>1</v>
-      </c>
-      <c r="N3" s="21">
-        <v>1</v>
-      </c>
-      <c r="O3" s="21">
-        <v>1</v>
-      </c>
-      <c r="P3" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="21">
-        <v>1</v>
-      </c>
-      <c r="R3" s="21">
-        <v>1</v>
-      </c>
-      <c r="S3" s="21">
-        <v>1</v>
-      </c>
-      <c r="T3" s="21">
-        <v>1</v>
-      </c>
-      <c r="U3" s="21">
-        <v>1</v>
-      </c>
-      <c r="V3" s="21">
-        <v>1</v>
-      </c>
-      <c r="W3" s="21">
-        <v>1</v>
-      </c>
-      <c r="X3" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="21">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="21">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" s="15" customFormat="1">
-      <c r="A4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="21">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21">
-        <v>1</v>
-      </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="21">
-        <v>1</v>
-      </c>
-      <c r="G4" s="21">
-        <v>1</v>
-      </c>
-      <c r="H4" s="21">
-        <v>1</v>
-      </c>
-      <c r="I4" s="21">
-        <v>1</v>
-      </c>
-      <c r="J4" s="21">
-        <v>1</v>
-      </c>
-      <c r="K4" s="21">
-        <v>1</v>
-      </c>
-      <c r="L4" s="21">
-        <v>1</v>
-      </c>
-      <c r="M4" s="21">
-        <v>1</v>
-      </c>
-      <c r="N4" s="21">
-        <v>1</v>
-      </c>
-      <c r="O4" s="21">
-        <v>1</v>
-      </c>
-      <c r="P4" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="21">
-        <v>1</v>
-      </c>
-      <c r="R4" s="21">
-        <v>1</v>
-      </c>
-      <c r="S4" s="21">
-        <v>1</v>
-      </c>
-      <c r="T4" s="21">
-        <v>1</v>
-      </c>
-      <c r="U4" s="21">
-        <v>1</v>
-      </c>
-      <c r="V4" s="21">
-        <v>1</v>
-      </c>
-      <c r="W4" s="21">
-        <v>1</v>
-      </c>
-      <c r="X4" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="21">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="21">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" s="15" customFormat="1">
-      <c r="A5" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="21">
-        <v>0</v>
-      </c>
-      <c r="C5" s="21">
-        <v>0</v>
-      </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-      <c r="E5" s="21">
-        <v>0</v>
-      </c>
-      <c r="F5" s="21">
-        <v>0</v>
-      </c>
-      <c r="G5" s="21">
-        <v>0</v>
-      </c>
-      <c r="H5" s="21">
-        <v>0</v>
-      </c>
-      <c r="I5" s="21">
-        <v>0</v>
-      </c>
-      <c r="J5" s="21">
-        <v>0</v>
-      </c>
-      <c r="K5" s="21">
-        <v>0</v>
-      </c>
-      <c r="L5" s="21">
-        <v>0</v>
-      </c>
-      <c r="M5" s="21">
-        <v>0</v>
-      </c>
-      <c r="N5" s="21">
-        <v>0</v>
-      </c>
-      <c r="O5" s="21">
-        <v>0</v>
-      </c>
-      <c r="P5" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="21">
-        <v>0</v>
-      </c>
-      <c r="R5" s="21">
-        <v>0</v>
-      </c>
-      <c r="S5" s="21">
-        <v>0</v>
-      </c>
-      <c r="T5" s="21">
-        <v>0</v>
-      </c>
-      <c r="U5" s="21">
-        <v>0</v>
-      </c>
-      <c r="V5" s="21">
-        <v>0</v>
-      </c>
-      <c r="W5" s="21">
-        <v>0</v>
-      </c>
-      <c r="X5" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" s="15" customFormat="1">
-      <c r="A6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="21">
-        <v>0</v>
-      </c>
-      <c r="C6" s="21">
-        <v>0</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-      <c r="E6" s="21">
-        <v>0</v>
-      </c>
-      <c r="F6" s="21">
-        <v>0</v>
-      </c>
-      <c r="G6" s="21">
-        <v>0</v>
-      </c>
-      <c r="H6" s="21">
-        <v>0</v>
-      </c>
-      <c r="I6" s="21">
-        <v>0</v>
-      </c>
-      <c r="J6" s="21">
-        <v>0</v>
-      </c>
-      <c r="K6" s="21">
-        <v>0</v>
-      </c>
-      <c r="L6" s="21">
-        <v>0</v>
-      </c>
-      <c r="M6" s="21">
-        <v>0</v>
-      </c>
-      <c r="N6" s="21">
-        <v>0</v>
-      </c>
-      <c r="O6" s="21">
-        <v>0</v>
-      </c>
-      <c r="P6" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="21">
-        <v>0</v>
-      </c>
-      <c r="R6" s="21">
-        <v>0</v>
-      </c>
-      <c r="S6" s="21">
-        <v>0</v>
-      </c>
-      <c r="T6" s="21">
-        <v>0</v>
-      </c>
-      <c r="U6" s="21">
-        <v>0</v>
-      </c>
-      <c r="V6" s="21">
-        <v>0</v>
-      </c>
-      <c r="W6" s="21">
-        <v>0</v>
-      </c>
-      <c r="X6" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" s="16" customFormat="1">
-      <c r="A7" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="16">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0</v>
-      </c>
-      <c r="L7" s="16">
-        <v>0</v>
-      </c>
-      <c r="M7" s="16">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
-        <v>0</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>0</v>
-      </c>
-      <c r="R7" s="16">
-        <v>0</v>
-      </c>
-      <c r="S7" s="16">
-        <v>0</v>
-      </c>
-      <c r="T7" s="16">
-        <v>0</v>
-      </c>
-      <c r="U7" s="16">
-        <v>0</v>
-      </c>
-      <c r="V7" s="16">
-        <v>0</v>
-      </c>
-      <c r="W7" s="16">
-        <v>0</v>
-      </c>
-      <c r="X7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" s="16" customFormat="1">
-      <c r="A8" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="16">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16">
-        <v>0</v>
-      </c>
-      <c r="M8" s="16">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
-        <v>0</v>
-      </c>
-      <c r="O8" s="16">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>0</v>
-      </c>
-      <c r="R8" s="16">
-        <v>0</v>
-      </c>
-      <c r="S8" s="16">
-        <v>0</v>
-      </c>
-      <c r="T8" s="16">
-        <v>0</v>
-      </c>
-      <c r="U8" s="16">
-        <v>0</v>
-      </c>
-      <c r="V8" s="16">
-        <v>0</v>
-      </c>
-      <c r="W8" s="16">
-        <v>0</v>
-      </c>
-      <c r="X8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" s="16" customFormat="1">
-      <c r="A9" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="16">
-        <v>0</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
-        <v>0</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
-      <c r="L9" s="16">
-        <v>0</v>
-      </c>
-      <c r="M9" s="16">
-        <v>0</v>
-      </c>
-      <c r="N9" s="16">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16">
-        <v>0</v>
-      </c>
-      <c r="P9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>0</v>
-      </c>
-      <c r="R9" s="16">
-        <v>0</v>
-      </c>
-      <c r="S9" s="16">
-        <v>0</v>
-      </c>
-      <c r="T9" s="16">
-        <v>0</v>
-      </c>
-      <c r="U9" s="16">
-        <v>0</v>
-      </c>
-      <c r="V9" s="16">
-        <v>0</v>
-      </c>
-      <c r="W9" s="16">
-        <v>0</v>
-      </c>
-      <c r="X9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" s="17" customFormat="1" ht="54">
-      <c r="A10" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="24" t="s">
+      <c r="D10" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="E10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="I10" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="24" t="s">
+      <c r="J10" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="K10" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="L10" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="M10" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="N10" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="O10" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="P10" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="Q10" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="R10" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="S10" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="T10" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="U10" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="T10" s="24" t="s">
+      <c r="V10" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="U10" s="24" t="s">
+      <c r="W10" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="V10" s="24" t="s">
+      <c r="X10" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="W10" s="24" t="s">
+      <c r="Y10" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="X10" s="24" t="s">
+      <c r="Z10" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="Y10" s="24" t="s">
+      <c r="AA10" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="Z10" s="24" t="s">
+      <c r="AB10" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="AA10" s="24" t="s">
+      <c r="AC10" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="AB10" s="24" t="s">
+      <c r="AD10" s="24" t="s">
         <v>136</v>
-      </c>
-      <c r="AC10" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD10" s="24" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AD9" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AD9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4267,292 +4185,292 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="7.19921875" customWidth="1"/>
-    <col min="4" max="4" width="10.46484375" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="8" max="9" width="9.19921875" customWidth="1"/>
+    <col min="8" max="9" width="9.1640625" customWidth="1"/>
     <col min="10" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="21.1328125" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" customWidth="1"/>
     <col min="14" max="14" width="10.33203125" customWidth="1"/>
     <col min="15" max="15" width="11.6640625" customWidth="1"/>
     <col min="16" max="16" width="10.33203125" customWidth="1"/>
-    <col min="17" max="17" width="9.19921875" customWidth="1"/>
-    <col min="18" max="18" width="12.796875" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" customWidth="1"/>
     <col min="19" max="19" width="10.33203125" customWidth="1"/>
-    <col min="20" max="20" width="15.19921875" customWidth="1"/>
+    <col min="20" max="20" width="15.1640625" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
     <col min="22" max="22" width="12.6640625" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
     <col min="24" max="25" width="11.6640625" customWidth="1"/>
-    <col min="26" max="26" width="15.19921875" customWidth="1"/>
+    <col min="26" max="26" width="15.1640625" customWidth="1"/>
     <col min="27" max="27" width="12.6640625" customWidth="1"/>
     <col min="28" max="29" width="14" customWidth="1"/>
     <col min="30" max="30" width="11.6640625" customWidth="1"/>
-    <col min="31" max="32" width="15.19921875" customWidth="1"/>
+    <col min="31" max="32" width="15.1640625" customWidth="1"/>
     <col min="33" max="33" width="14" customWidth="1"/>
-    <col min="34" max="34" width="15.19921875" customWidth="1"/>
+    <col min="34" max="34" width="15.1640625" customWidth="1"/>
     <col min="35" max="35" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1">
+    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="3" customFormat="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="3" customFormat="1">
+    <row r="3" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="3" customFormat="1">
+    <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" s="3" customFormat="1">
-      <c r="A5" s="3" t="s">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" s="3" customFormat="1">
-      <c r="A6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="3" customFormat="1">
+    <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="3" customFormat="1">
+    <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="D9" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="E9" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="F9" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="G9" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="H9" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="I9" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="J9" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="K9" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="L9" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="M9" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="N9" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="O9" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="P9" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="Q9" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="R9" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="Q9" s="34" t="s">
+      <c r="S9" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="T9" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="U9" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="V9" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="U9" s="34" t="s">
+      <c r="W9" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="V9" s="34" t="s">
+      <c r="X9" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="W9" s="34" t="s">
+      <c r="Y9" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="X9" s="34" t="s">
+      <c r="Z9" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="Y9" s="34" t="s">
+      <c r="AA9" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="Z9" s="34" t="s">
+      <c r="AB9" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="AA9" s="34" t="s">
+      <c r="AC9" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="AB9" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC9" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" s="3" customFormat="1">
+    </row>
+    <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="X10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC10" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" s="3" customFormat="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -4584,13 +4502,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:B5 D11:G1048576 A6 D1:G8 B6:B8" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:B5 D11:G1048576 A6 D1:G8 B6:B8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:C10 U10 V9:AC10 I11:AC1048576 D9:T10 AD1:AK1048576 I1:AC8" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:C10 U10 V9:AC10 I11:AC1048576 D9:T10 AD1:AK1048576 I1:AC8">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 B12:C1048576 A2:B3 C1:C8" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 B12:C1048576 A2:B3 C1:C8">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -4602,251 +4520,251 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.796875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.46484375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
     <col min="6" max="9" width="9" style="4"/>
     <col min="10" max="10" width="12.6640625" style="4" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="9" style="4"/>
     <col min="20" max="20" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="11.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" style="4" customWidth="1"/>
     <col min="31" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1">
+    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="3" customFormat="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="3" customFormat="1">
+    <row r="3" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="3" customFormat="1">
+    <row r="4" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="3" customFormat="1">
-      <c r="A5" s="3" t="s">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="3" customFormat="1">
-      <c r="A6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="3" customFormat="1">
-      <c r="A8" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="B8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="3" customFormat="1">
+    <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="H9" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="I9" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="J9" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="K9" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="L9" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="M9" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="N9" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="O9" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="P9" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="Q9" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="R9" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="Q9" s="34" t="s">
+      <c r="S9" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="T9" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="U9" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="V9" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="U9" s="34" t="s">
+      <c r="W9" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="V9" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="W9" s="34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="3" customFormat="1">
+    </row>
+    <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>41</v>
-      </c>
       <c r="H10" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N10" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S10" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U10" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="V10" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W10" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="3" customFormat="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="34"/>
@@ -4870,254 +4788,254 @@
       <c r="U11" s="34"/>
       <c r="V11" s="34"/>
     </row>
-    <row r="12" spans="1:23" s="2" customFormat="1">
+    <row r="12" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="3" customFormat="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B13" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="3" customFormat="1">
+    <row r="14" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B14" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="3" customFormat="1">
+    <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" s="3" customFormat="1">
-      <c r="A16" s="3" t="s">
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" s="3" customFormat="1">
-      <c r="A17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" s="3" customFormat="1">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" s="3" customFormat="1">
-      <c r="A19" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="B19" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="3" customFormat="1">
+    <row r="20" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="D20" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="E20" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="F20" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="G20" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="H20" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="I20" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="J20" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="K20" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="L20" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="M20" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="L20" s="34" t="s">
+      <c r="N20" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="34" t="s">
+      <c r="O20" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="N20" s="34" t="s">
+      <c r="P20" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="O20" s="34" t="s">
+      <c r="Q20" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="P20" s="34" t="s">
+      <c r="R20" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="Q20" s="34" t="s">
+      <c r="S20" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="R20" s="34" t="s">
+      <c r="T20" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="S20" s="34" t="s">
+      <c r="U20" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="T20" s="34" t="s">
+      <c r="V20" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="U20" s="34" t="s">
+      <c r="W20" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="V20" s="34" t="s">
+      <c r="X20" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="W20" s="34" t="s">
+      <c r="Y20" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="X20" s="34" t="s">
+      <c r="Z20" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="Y20" s="34" t="s">
+      <c r="AA20" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="Z20" s="34" t="s">
+      <c r="AB20" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="AA20" s="34" t="s">
+      <c r="AC20" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="AB20" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC20" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" s="3" customFormat="1">
+    </row>
+    <row r="21" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="X21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC21" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" s="3" customFormat="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -5149,13 +5067,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 A17 C22 B17:B19 D22:G1048576 A4:B5 A15:B16 C12:G18" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 A17 C22 B17:B19 D22:G1048576 A4:B5 A15:B16 C12:G18">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A21:C21 U21 D20:T21 V20:AC21" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A21:C21 U21 D20:T21 V20:AC21">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:B14 B23:C1048576 A2:B3" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:B14 B23:C1048576 A2:B3">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5167,38 +5085,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="8" max="15" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="16.46484375" customWidth="1"/>
-    <col min="19" max="19" width="20.06640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.06640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="16.5" customWidth="1"/>
+    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="16.46484375" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="16.5" customWidth="1"/>
     <col min="26" max="26" width="19" customWidth="1"/>
-    <col min="27" max="31" width="20.19921875" customWidth="1"/>
+    <col min="27" max="31" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="11" customFormat="1">
+    <row r="1" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -5222,9 +5140,9 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23" s="12" customFormat="1">
+    <row r="2" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="3">
         <v>256</v>
@@ -5251,9 +5169,9 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23" s="12" customFormat="1">
+    <row r="3" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3">
         <v>23</v>
@@ -5280,9 +5198,9 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23" s="12" customFormat="1">
+    <row r="4" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -5309,9 +5227,9 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:23" s="12" customFormat="1">
+    <row r="5" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -5338,9 +5256,9 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" s="12" customFormat="1">
+    <row r="6" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -5367,9 +5285,9 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" s="12" customFormat="1">
+    <row r="7" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -5396,9 +5314,9 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" s="12" customFormat="1">
+    <row r="8" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -5425,154 +5343,154 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="1:23" s="12" customFormat="1">
+    <row r="9" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="34" t="s">
+      <c r="F9" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="G9" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="H9" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="I9" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="J9" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="K9" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="L9" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="M9" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="N9" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="O9" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="P9" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="Q9" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="R9" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="Q9" s="34" t="s">
+      <c r="S9" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="T9" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="U9" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="V9" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="U9" s="34" t="s">
+      <c r="W9" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="V9" s="34" t="s">
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>183</v>
-      </c>
-      <c r="W9" s="34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="12" customFormat="1">
-      <c r="A10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="R10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="S10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="T10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="U10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="V10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="W10" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="12" customFormat="1">
-      <c r="A11" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>185</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -5596,12 +5514,12 @@
       <c r="V11" s="34"/>
       <c r="W11" s="34"/>
     </row>
-    <row r="12" spans="1:23" s="11" customFormat="1">
+    <row r="12" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5625,9 +5543,9 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" s="13" customFormat="1">
+    <row r="13" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B13" s="3">
         <v>128</v>
@@ -5654,9 +5572,9 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:23" s="13" customFormat="1">
+    <row r="14" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
@@ -5683,9 +5601,9 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:23" s="13" customFormat="1">
+    <row r="15" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -5712,9 +5630,9 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:23" s="13" customFormat="1">
+    <row r="16" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -5741,9 +5659,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="1:23" s="13" customFormat="1">
+    <row r="17" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -5770,9 +5688,9 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:23" s="13" customFormat="1">
+    <row r="18" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -5799,9 +5717,9 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="1:23" s="13" customFormat="1">
+    <row r="19" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -5828,46 +5746,46 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="1:23" s="13" customFormat="1">
+    <row r="20" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" s="13" customFormat="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" s="13" customFormat="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -5891,12 +5809,12 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
     </row>
-    <row r="23" spans="1:23" s="11" customFormat="1">
+    <row r="23" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5920,9 +5838,9 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" s="13" customFormat="1">
+    <row r="24" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B24" s="3">
         <v>128</v>
@@ -5949,9 +5867,9 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
     </row>
-    <row r="25" spans="1:23" s="13" customFormat="1">
+    <row r="25" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -5978,9 +5896,9 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
     </row>
-    <row r="26" spans="1:23" s="13" customFormat="1">
+    <row r="26" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
@@ -6007,9 +5925,9 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" spans="1:23" s="13" customFormat="1">
+    <row r="27" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -6036,9 +5954,9 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
     </row>
-    <row r="28" spans="1:23" s="13" customFormat="1">
+    <row r="28" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -6065,9 +5983,9 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
     </row>
-    <row r="29" spans="1:23" s="13" customFormat="1">
+    <row r="29" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -6094,9 +6012,9 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="1:23" s="13" customFormat="1">
+    <row r="30" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -6123,37 +6041,37 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" spans="1:23" s="13" customFormat="1">
+    <row r="31" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" s="13" customFormat="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" s="13" customFormat="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="34"/>
@@ -6179,16 +6097,16 @@
       <c r="W33" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W33" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:W33"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 E11:F11 A17 B17:B19 G11:G19 E1:G8 A4:B5 D12:F19 A15:B16 D22:G30 A26:B28 E33 G33:G1048576 D34:F1048576 B29:B30" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 E11:F11 A17 B17:B19 G11:G19 E1:G8 A4:B5 D12:F19 A15:B16 D22:G30 A26:B28 E33 G33:G1048576 D34:F1048576 B29:B30">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 F9:F10 N1:N8 N11:N19 N22:N30 N33:N1048576 A31" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 G10 N10:W10 A9:A10 O1:AE8 A20:E21 I11:M19 O11:AE19 O33:AE1048576 I1:M8 X9:AE10 C9:E10 H9:M10 O22:AE30 I22:M30 I33:M1048576 A32 B31:C32" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 F9:F10 N1:N8 N11:N19 N22:N30 N33:N1048576 A31"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 G10 N10:W10 A9:A10 O1:AE8 A20:E21 I11:M19 O11:AE19 O33:AE1048576 I1:M8 X9:AE10 C9:E10 H9:M10 O22:AE30 I22:M30 I33:M1048576 A32 B31:C32">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C1048576 C12:C19 A2:B3 A13:B14 C22:C30 B34:B1048576 A24:B25 D33" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C1048576 C12:C19 A2:B3 A13:B14 C22:C30 B34:B1048576 A24:B25 D33">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -6199,235 +6117,235 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.46484375" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
     <col min="10" max="11" width="22.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.46484375" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="6" customFormat="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1">
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1">
-      <c r="A5" s="9" t="s">
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1">
-      <c r="A6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="6" customFormat="1">
-      <c r="A7" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="6" customFormat="1">
+    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="6" customFormat="1">
-      <c r="A9" s="36" t="s">
+      <c r="C9" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="D9" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="36" t="s">
+    </row>
+    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>194</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="6" customFormat="1">
-      <c r="A10" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="6" customFormat="1">
-      <c r="A11" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>196</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="6" customFormat="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B13" s="9">
         <v>512</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="6" customFormat="1">
+    <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B14" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="6" customFormat="1">
+    <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="6" customFormat="1">
-      <c r="A16" s="9" t="s">
+      <c r="B17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="6" customFormat="1">
-      <c r="A17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="6" customFormat="1">
-      <c r="A18" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="6" customFormat="1">
+    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B19" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="6" customFormat="1">
+    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B20" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="38" t="s">
         <v>198</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="6" customFormat="1">
-      <c r="A21" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="6" customFormat="1">
-      <c r="A22" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>200</v>
       </c>
       <c r="C22" s="36"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7 B8 A17 B17 B18 G1:G21 E1:F11 D12:F21 D22:G1048576 A4:B5 A15:B16" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7 B8 A17 B17 B18 G1:G21 E1:F11 D12:F21 D22:G1048576 A4:B5 A15:B16">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:D10 I1:L1048576 A20:B21" xr:uid="{00000000-0002-0000-0500-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:D10 I1:L1048576 A20:B21">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6439,237 +6357,237 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.19921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="4"/>
     <col min="8" max="8" width="12.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.796875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="4" customWidth="1"/>
     <col min="10" max="10" width="9" style="4"/>
     <col min="11" max="11" width="11.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.796875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1">
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1">
-      <c r="A5" s="3" t="s">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1">
-      <c r="A6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1">
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>41</v>
-      </c>
       <c r="C10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="3" customFormat="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1">
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B13" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1">
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="3" customFormat="1">
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="3" customFormat="1">
-      <c r="A16" s="3" t="s">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="3" customFormat="1">
-      <c r="A17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="3" customFormat="1">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="3" customFormat="1">
-      <c r="A19" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="B19" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="3" customFormat="1">
+    </row>
+    <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>41</v>
-      </c>
       <c r="C21" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="3" customFormat="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -6678,18 +6596,18 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 B18:B19 F1:F1048576 A15:B17 A4:B5 E1:E8 E11:E19 E22:E1048576" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 B18:B19 F1:F1048576 A15:B17 A4:B5 E1:E8 E11:E19 E22:E1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 H40:H1048576 A20:B20" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:B10 A21:B21 H1:H39" xr:uid="{00000000-0002-0000-0600-000002000000}">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 H40:H1048576 A20:B20"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:B10 A21:B21 H1:H39">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C21" xr:uid="{00000000-0002-0000-0600-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C21">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19" xr:uid="{00000000-0002-0000-0600-000004000000}"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A2:B3 A13:B14" xr:uid="{00000000-0002-0000-0600-000005000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A2:B3 A13:B14">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -6699,54 +6617,54 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"lua,python,C#,js"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/NFDataCfg/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -42,12 +42,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0">
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0">
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0">
+    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -148,12 +148,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -189,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -213,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -225,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -237,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0">
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -249,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0">
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -261,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0">
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -273,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="0">
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K20" authorId="0">
+    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -302,12 +302,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -319,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -331,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -343,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -355,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -367,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0">
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -379,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -396,12 +396,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -413,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -430,7 +430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="248">
   <si>
     <t>Id</t>
   </si>
@@ -1165,12 +1165,60 @@
   <si>
     <t>FightOpponent</t>
   </si>
+  <si>
+    <t>OpponentHeroPos1</t>
+  </si>
+  <si>
+    <t>OpponentHeroPos2</t>
+  </si>
+  <si>
+    <t>OpponentHeroPos3</t>
+  </si>
+  <si>
+    <t>Cup</t>
+  </si>
+  <si>
+    <t>OpponentCup</t>
+  </si>
+  <si>
+    <t>OpponentName</t>
+  </si>
+  <si>
+    <t>OpponentHead</t>
+  </si>
+  <si>
+    <t>HeroPos3Star</t>
+  </si>
+  <si>
+    <t>HeroPos2Star</t>
+  </si>
+  <si>
+    <t>HeroPos1Star</t>
+  </si>
+  <si>
+    <t>EnemyHeroPos1Star</t>
+  </si>
+  <si>
+    <t>EnemyHeroPos2Star</t>
+  </si>
+  <si>
+    <t>EnemyHeroPos3Star</t>
+  </si>
+  <si>
+    <t>HeroPos1CnfID</t>
+  </si>
+  <si>
+    <t>HeroPos2CnfID</t>
+  </si>
+  <si>
+    <t>HeroPos3CnfID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1514,7 +1562,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1858,38 +1906,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ6" sqref="AQ6"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AS2" sqref="AS2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="23.796875" customWidth="1"/>
+    <col min="2" max="2" width="8.1328125" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.1328125" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="15" width="17.33203125" customWidth="1"/>
-    <col min="25" max="25" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.6640625" customWidth="1"/>
-    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.33203125" customWidth="1"/>
-    <col min="34" max="34" width="16" customWidth="1"/>
-    <col min="40" max="40" width="18.33203125" customWidth="1"/>
-    <col min="41" max="41" width="15.6640625" customWidth="1"/>
-    <col min="42" max="42" width="14.5" customWidth="1"/>
-    <col min="43" max="44" width="16" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.33203125" customWidth="1"/>
+    <col min="29" max="29" width="16" customWidth="1"/>
+    <col min="35" max="36" width="18.33203125" customWidth="1"/>
+    <col min="37" max="47" width="17.33203125" customWidth="1"/>
+    <col min="48" max="48" width="15.6640625" customWidth="1"/>
+    <col min="49" max="49" width="14.46484375" customWidth="1"/>
+    <col min="50" max="51" width="16" customWidth="1"/>
+    <col min="52" max="54" width="17.33203125" customWidth="1"/>
+    <col min="55" max="57" width="18.33203125" customWidth="1"/>
+    <col min="58" max="60" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:60" s="25" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1921,109 +1972,157 @@
         <v>9</v>
       </c>
       <c r="K1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK1" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="AM1" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="AN1" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="AO1" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="P1" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="X1" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF1" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH1" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ1" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK1" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL1" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM1" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN1" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO1" s="25" t="s">
+      <c r="AP1" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ1" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AR1" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS1" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="AT1" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="AU1" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV1" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="AP1" s="25" t="s">
+      <c r="AW1" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="AQ1" s="25" t="s">
+      <c r="AX1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AR1" s="25" t="s">
+      <c r="AY1" s="25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AZ1" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA1" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB1" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC1" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="BD1" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="BE1" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF1" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="BG1" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="BH1" s="28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" s="26" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>36</v>
       </c>
@@ -2054,63 +2153,63 @@
       <c r="J2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="39" t="s">
+      <c r="AB2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="AC2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="AD2" s="3" t="s">
         <v>38</v>
       </c>
@@ -2118,7 +2217,7 @@
         <v>38</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG2" s="3" t="s">
         <v>39</v>
@@ -2132,32 +2231,80 @@
       <c r="AJ2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AK2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AK2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AL2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO2" s="30" t="s">
+      <c r="AN2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" s="30" t="s">
+      <c r="AO2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AQ2" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR2" s="30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AP2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ2" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT2" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU2" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV2" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW2" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ2" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA2" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB2" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD2" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE2" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH2" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" s="26" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>40</v>
       </c>
@@ -2188,19 +2335,19 @@
       <c r="J3" s="16">
         <v>0</v>
       </c>
-      <c r="K3" s="39">
-        <v>1</v>
-      </c>
-      <c r="L3" s="39">
-        <v>1</v>
-      </c>
-      <c r="M3" s="39">
-        <v>0</v>
-      </c>
-      <c r="N3" s="39">
-        <v>0</v>
-      </c>
-      <c r="O3" s="39">
+      <c r="K3" s="16">
+        <v>0</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0</v>
+      </c>
+      <c r="M3" s="16">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="16">
         <v>0</v>
       </c>
       <c r="P3" s="16">
@@ -2212,8 +2359,8 @@
       <c r="R3" s="16">
         <v>0</v>
       </c>
-      <c r="S3" s="3">
-        <v>1</v>
+      <c r="S3" s="16">
+        <v>0</v>
       </c>
       <c r="T3" s="16">
         <v>0</v>
@@ -2245,53 +2392,101 @@
       <c r="AC3" s="16">
         <v>0</v>
       </c>
-      <c r="AD3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="31">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AD3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="39">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="39">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="31">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="31">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" s="26" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>41</v>
       </c>
@@ -2322,19 +2517,19 @@
       <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="39">
-        <v>1</v>
-      </c>
-      <c r="L4" s="39">
-        <v>1</v>
-      </c>
-      <c r="M4" s="39">
-        <v>1</v>
-      </c>
-      <c r="N4" s="39">
-        <v>1</v>
-      </c>
-      <c r="O4" s="39">
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
         <v>1</v>
       </c>
       <c r="P4" s="3">
@@ -2383,10 +2578,10 @@
         <v>1</v>
       </c>
       <c r="AE4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="3">
         <v>1</v>
@@ -2398,34 +2593,82 @@
         <v>1</v>
       </c>
       <c r="AJ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="30">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" s="26" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="30">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" s="26" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>42</v>
       </c>
@@ -2456,19 +2699,19 @@
       <c r="J5" s="16">
         <v>0</v>
       </c>
-      <c r="K5" s="39">
-        <v>1</v>
-      </c>
-      <c r="L5" s="39">
-        <v>1</v>
-      </c>
-      <c r="M5" s="40">
-        <v>0</v>
-      </c>
-      <c r="N5" s="40">
-        <v>0</v>
-      </c>
-      <c r="O5" s="40">
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16">
         <v>0</v>
       </c>
       <c r="P5" s="16">
@@ -2534,32 +2777,80 @@
       <c r="AJ5" s="16">
         <v>0</v>
       </c>
-      <c r="AK5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="31">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="31">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="31">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="30">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AK5" s="39">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="39">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" s="26" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>43</v>
       </c>
@@ -2590,19 +2881,19 @@
       <c r="J6" s="3">
         <v>1</v>
       </c>
-      <c r="K6" s="40">
-        <v>1</v>
-      </c>
-      <c r="L6" s="40">
-        <v>1</v>
-      </c>
-      <c r="M6" s="40">
-        <v>1</v>
-      </c>
-      <c r="N6" s="40">
-        <v>1</v>
-      </c>
-      <c r="O6" s="40">
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
         <v>1</v>
       </c>
       <c r="P6" s="3">
@@ -2668,32 +2959,80 @@
       <c r="AJ6" s="3">
         <v>1</v>
       </c>
-      <c r="AK6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="30">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="31">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="31">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AK6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="31">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="31">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="31">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="30">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="30">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="30">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="31">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="31">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" s="16" customFormat="1">
       <c r="A7" s="22" t="s">
         <v>44</v>
       </c>
@@ -2724,19 +3063,19 @@
       <c r="J7" s="16">
         <v>0</v>
       </c>
-      <c r="K7" s="40">
-        <v>0</v>
-      </c>
-      <c r="L7" s="40">
-        <v>0</v>
-      </c>
-      <c r="M7" s="40">
-        <v>0</v>
-      </c>
-      <c r="N7" s="40">
-        <v>0</v>
-      </c>
-      <c r="O7" s="40">
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
         <v>0</v>
       </c>
       <c r="P7" s="16">
@@ -2802,32 +3141,80 @@
       <c r="AJ7" s="16">
         <v>0</v>
       </c>
-      <c r="AK7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="31">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="31">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="31">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="31">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AK7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
         <v>223</v>
       </c>
@@ -2858,19 +3245,19 @@
       <c r="J8" s="16">
         <v>0</v>
       </c>
-      <c r="K8" s="40">
-        <v>0</v>
-      </c>
-      <c r="L8" s="40">
-        <v>0</v>
-      </c>
-      <c r="M8" s="40">
-        <v>0</v>
-      </c>
-      <c r="N8" s="40">
-        <v>0</v>
-      </c>
-      <c r="O8" s="40">
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
         <v>0</v>
       </c>
       <c r="P8" s="16">
@@ -2936,32 +3323,80 @@
       <c r="AJ8" s="16">
         <v>0</v>
       </c>
-      <c r="AK8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="31">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="31">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="31">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="31">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AK8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" s="16" customFormat="1">
       <c r="A9" s="22" t="s">
         <v>45</v>
       </c>
@@ -2992,19 +3427,19 @@
       <c r="J9" s="16">
         <v>0</v>
       </c>
-      <c r="K9" s="40">
-        <v>0</v>
-      </c>
-      <c r="L9" s="40">
-        <v>0</v>
-      </c>
-      <c r="M9" s="40">
-        <v>0</v>
-      </c>
-      <c r="N9" s="40">
-        <v>0</v>
-      </c>
-      <c r="O9" s="40">
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
         <v>0</v>
       </c>
       <c r="P9" s="16">
@@ -3070,32 +3505,80 @@
       <c r="AJ9" s="16">
         <v>0</v>
       </c>
-      <c r="AK9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" s="17" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+      <c r="AK9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" s="17" customFormat="1" ht="67.5">
       <c r="A10" s="23" t="s">
         <v>46</v>
       </c>
@@ -3126,132 +3609,180 @@
       <c r="J10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="41" t="s">
+      <c r="K10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="V10" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="W10" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="X10" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y10" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z10" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA10" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB10" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD10" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE10" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF10" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG10" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH10" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI10" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ10" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK10" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="L10" s="41" t="s">
+      <c r="AL10" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="M10" s="41" t="s">
+      <c r="AM10" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="N10" s="41" t="s">
+      <c r="AN10" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="O10" s="41" t="s">
+      <c r="AO10" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="P10" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="R10" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="S10" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="T10" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="U10" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="V10" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="W10" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="X10" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y10" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z10" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA10" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB10" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC10" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD10" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE10" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF10" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG10" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH10" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI10" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ10" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK10" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL10" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM10" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN10" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO10" s="32" t="s">
+      <c r="AP10" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="AQ10" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR10" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS10" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="AT10" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU10" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="AV10" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="AP10" s="32" t="s">
+      <c r="AW10" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="AQ10" s="33"/>
-      <c r="AR10" s="33"/>
+      <c r="AX10" s="33"/>
+      <c r="AY10" s="33"/>
+      <c r="AZ10" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="BA10" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="BB10" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="BC10" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="BD10" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="BE10" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="BF10" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="BG10" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="BH10" s="32" t="s">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:R3 AO5:AP6 T3:AH3 J3 AO7:AR9 B5:J5 K6:O6 B7:AM9 M5:AN5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV5:AW6 O3:AC3 J3:M3 AZ5:BB6 B5:AJ5 BC5:BH5 B7:AH9 AV7:BB9 BF6:BH9 AM5:AU5 AK6:AU9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="14" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" s="14" customFormat="1" ht="27">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3343,7 +3874,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" s="15" customFormat="1">
       <c r="A2" s="20" t="s">
         <v>36</v>
       </c>
@@ -3435,7 +3966,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30" s="15" customFormat="1">
       <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
@@ -3527,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30" s="15" customFormat="1">
       <c r="A4" s="20" t="s">
         <v>41</v>
       </c>
@@ -3619,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:30" s="15" customFormat="1">
       <c r="A5" s="20" t="s">
         <v>42</v>
       </c>
@@ -3711,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:30" s="15" customFormat="1">
       <c r="A6" s="20" t="s">
         <v>43</v>
       </c>
@@ -3803,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30" s="16" customFormat="1">
       <c r="A7" s="22" t="s">
         <v>44</v>
       </c>
@@ -3895,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
         <v>223</v>
       </c>
@@ -3987,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:30" s="16" customFormat="1">
       <c r="A9" s="22" t="s">
         <v>45</v>
       </c>
@@ -4079,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="17" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:30" s="17" customFormat="1" ht="54">
       <c r="A10" s="23" t="s">
         <v>46</v>
       </c>
@@ -4173,8 +4704,8 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AD9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AD9" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4185,45 +4716,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="7.1328125" customWidth="1"/>
+    <col min="4" max="4" width="10.46484375" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="8" max="9" width="9.1640625" customWidth="1"/>
+    <col min="8" max="9" width="9.1328125" customWidth="1"/>
     <col min="10" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="21.1640625" customWidth="1"/>
+    <col min="13" max="13" width="21.1328125" customWidth="1"/>
     <col min="14" max="14" width="10.33203125" customWidth="1"/>
     <col min="15" max="15" width="11.6640625" customWidth="1"/>
     <col min="16" max="16" width="10.33203125" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" customWidth="1"/>
+    <col min="17" max="17" width="9.1328125" customWidth="1"/>
+    <col min="18" max="18" width="12.796875" customWidth="1"/>
     <col min="19" max="19" width="10.33203125" customWidth="1"/>
-    <col min="20" max="20" width="15.1640625" customWidth="1"/>
+    <col min="20" max="20" width="15.1328125" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
     <col min="22" max="22" width="12.6640625" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
     <col min="24" max="25" width="11.6640625" customWidth="1"/>
-    <col min="26" max="26" width="15.1640625" customWidth="1"/>
+    <col min="26" max="26" width="15.1328125" customWidth="1"/>
     <col min="27" max="27" width="12.6640625" customWidth="1"/>
     <col min="28" max="29" width="14" customWidth="1"/>
     <col min="30" max="30" width="11.6640625" customWidth="1"/>
-    <col min="31" max="32" width="15.1640625" customWidth="1"/>
+    <col min="31" max="32" width="15.1328125" customWidth="1"/>
     <col min="33" max="33" width="14" customWidth="1"/>
-    <col min="34" max="34" width="15.1640625" customWidth="1"/>
+    <col min="34" max="34" width="15.1328125" customWidth="1"/>
     <col min="35" max="35" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4231,7 +4762,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>138</v>
       </c>
@@ -4239,7 +4770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>139</v>
       </c>
@@ -4247,7 +4778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -4255,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -4263,7 +4794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:29" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -4271,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:29" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
@@ -4279,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>187</v>
       </c>
@@ -4287,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:29" s="3" customFormat="1">
       <c r="A9" s="34" t="s">
         <v>82</v>
       </c>
@@ -4376,7 +4907,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:29" s="3" customFormat="1">
       <c r="A10" s="34" t="s">
         <v>38</v>
       </c>
@@ -4465,7 +4996,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29" s="3" customFormat="1">
       <c r="A11" s="34" t="s">
         <v>46</v>
       </c>
@@ -4502,13 +5033,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:B5 D11:G1048576 A6 D1:G8 B6:B8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:B5 D11:G1048576 A6 D1:G8 B6:B8" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:C10 U10 V9:AC10 I11:AC1048576 D9:T10 AD1:AK1048576 I1:AC8">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:C10 U10 V9:AC10 I11:AC1048576 D9:T10 AD1:AK1048576 I1:AC8" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 B12:C1048576 A2:B3 C1:C8">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 B12:C1048576 A2:B3 C1:C8" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -4520,19 +5051,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.796875" style="4" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.46484375" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
     <col min="6" max="9" width="9" style="4"/>
     <col min="10" max="10" width="12.6640625" style="4" customWidth="1"/>
@@ -4545,7 +5076,7 @@
     <col min="17" max="19" width="9" style="4"/>
     <col min="20" max="20" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.1328125" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
@@ -4556,7 +5087,7 @@
     <col min="31" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4564,7 +5095,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>138</v>
       </c>
@@ -4572,7 +5103,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>139</v>
       </c>
@@ -4580,7 +5111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -4588,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -4596,7 +5127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -4604,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
@@ -4612,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
@@ -4620,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" s="3" customFormat="1">
       <c r="A9" s="34" t="s">
         <v>140</v>
       </c>
@@ -4691,7 +5222,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" s="3" customFormat="1">
       <c r="A10" s="35" t="s">
         <v>39</v>
       </c>
@@ -4762,7 +5293,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" s="3" customFormat="1">
       <c r="A11" s="34" t="s">
         <v>46</v>
       </c>
@@ -4788,7 +5319,7 @@
       <c r="U11" s="34"/>
       <c r="V11" s="34"/>
     </row>
-    <row r="12" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -4796,7 +5327,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>138</v>
       </c>
@@ -4804,7 +5335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>139</v>
       </c>
@@ -4812,7 +5343,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -4820,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -4828,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:29" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -4836,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:29" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
@@ -4844,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:29" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
@@ -4852,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:29" s="3" customFormat="1">
       <c r="A20" s="34" t="s">
         <v>82</v>
       </c>
@@ -4941,7 +5472,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:29" s="3" customFormat="1">
       <c r="A21" s="34" t="s">
         <v>38</v>
       </c>
@@ -5030,7 +5561,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:29" s="3" customFormat="1">
       <c r="A22" s="34" t="s">
         <v>46</v>
       </c>
@@ -5067,13 +5598,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 A17 C22 B17:B19 D22:G1048576 A4:B5 A15:B16 C12:G18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 A17 C22 B17:B19 D22:G1048576 A4:B5 A15:B16 C12:G18" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A21:C21 U21 D20:T21 V20:AC21">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A21:C21 U21 D20:T21 V20:AC21" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:B14 B23:C1048576 A2:B3">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:B14 B23:C1048576 A2:B3" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5085,33 +5616,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1328125" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="8" max="15" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="16.5" customWidth="1"/>
+    <col min="8" max="15" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="16.46484375" customWidth="1"/>
     <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.1328125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="16.5" customWidth="1"/>
+    <col min="24" max="25" width="16.46484375" customWidth="1"/>
     <col min="26" max="26" width="19" customWidth="1"/>
-    <col min="27" max="31" width="20.1640625" customWidth="1"/>
+    <col min="27" max="31" width="20.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="11" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5140,7 +5671,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" s="12" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>138</v>
       </c>
@@ -5169,7 +5700,7 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" s="12" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>139</v>
       </c>
@@ -5198,7 +5729,7 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" s="12" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -5227,7 +5758,7 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" s="12" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -5256,7 +5787,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" s="12" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -5285,7 +5816,7 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" s="12" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
@@ -5314,7 +5845,7 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" s="12" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
@@ -5343,7 +5874,7 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" s="12" customFormat="1">
       <c r="A9" s="34" t="s">
         <v>140</v>
       </c>
@@ -5414,7 +5945,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" s="12" customFormat="1">
       <c r="A10" s="34" t="s">
         <v>39</v>
       </c>
@@ -5485,7 +6016,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" s="12" customFormat="1">
       <c r="A11" s="34" t="s">
         <v>46</v>
       </c>
@@ -5514,7 +6045,7 @@
       <c r="V11" s="34"/>
       <c r="W11" s="34"/>
     </row>
-    <row r="12" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" s="11" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -5543,7 +6074,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" s="13" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>138</v>
       </c>
@@ -5572,7 +6103,7 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" s="13" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>139</v>
       </c>
@@ -5601,7 +6132,7 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" s="13" customFormat="1">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -5630,7 +6161,7 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" s="13" customFormat="1">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -5659,7 +6190,7 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" s="13" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -5688,7 +6219,7 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" s="13" customFormat="1">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
@@ -5717,7 +6248,7 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" s="13" customFormat="1">
       <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
@@ -5746,7 +6277,7 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" s="13" customFormat="1">
       <c r="A20" s="34" t="s">
         <v>141</v>
       </c>
@@ -5763,7 +6294,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" s="13" customFormat="1">
       <c r="A21" s="34" t="s">
         <v>37</v>
       </c>
@@ -5780,7 +6311,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" s="13" customFormat="1">
       <c r="A22" s="34" t="s">
         <v>46</v>
       </c>
@@ -5809,7 +6340,7 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
     </row>
-    <row r="23" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" s="11" customFormat="1">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -5838,7 +6369,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" s="13" customFormat="1">
       <c r="A24" s="3" t="s">
         <v>138</v>
       </c>
@@ -5867,7 +6398,7 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
     </row>
-    <row r="25" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" s="13" customFormat="1">
       <c r="A25" s="3" t="s">
         <v>139</v>
       </c>
@@ -5896,7 +6427,7 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
     </row>
-    <row r="26" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" s="13" customFormat="1">
       <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
@@ -5925,7 +6456,7 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" s="13" customFormat="1">
       <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
@@ -5954,7 +6485,7 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
     </row>
-    <row r="28" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" s="13" customFormat="1">
       <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
@@ -5983,7 +6514,7 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
     </row>
-    <row r="29" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" s="13" customFormat="1">
       <c r="A29" s="3" t="s">
         <v>43</v>
       </c>
@@ -6012,7 +6543,7 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" s="13" customFormat="1">
       <c r="A30" s="3" t="s">
         <v>45</v>
       </c>
@@ -6041,7 +6572,7 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" s="13" customFormat="1">
       <c r="A31" s="34" t="s">
         <v>140</v>
       </c>
@@ -6055,7 +6586,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" s="13" customFormat="1">
       <c r="A32" s="34" t="s">
         <v>39</v>
       </c>
@@ -6069,7 +6600,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" s="13" customFormat="1">
       <c r="A33" s="34" t="s">
         <v>46</v>
       </c>
@@ -6097,16 +6628,16 @@
       <c r="W33" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W33"/>
+  <autoFilter ref="A1:W33" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 E11:F11 A17 B17:B19 G11:G19 E1:G8 A4:B5 D12:F19 A15:B16 D22:G30 A26:B28 E33 G33:G1048576 D34:F1048576 B29:B30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 E11:F11 A17 B17:B19 G11:G19 E1:G8 A4:B5 D12:F19 A15:B16 D22:G30 A26:B28 E33 G33:G1048576 D34:F1048576 B29:B30" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 F9:F10 N1:N8 N11:N19 N22:N30 N33:N1048576 A31"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 G10 N10:W10 A9:A10 O1:AE8 A20:E21 I11:M19 O11:AE19 O33:AE1048576 I1:M8 X9:AE10 C9:E10 H9:M10 O22:AE30 I22:M30 I33:M1048576 A32 B31:C32">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 F9:F10 N1:N8 N11:N19 N22:N30 N33:N1048576 A31" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 G10 N10:W10 A9:A10 O1:AE8 A20:E21 I11:M19 O11:AE19 O33:AE1048576 I1:M8 X9:AE10 C9:E10 H9:M10 O22:AE30 I22:M30 I33:M1048576 A32 B31:C32" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C1048576 C12:C19 A2:B3 A13:B14 C22:C30 B34:B1048576 A24:B25 D33">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C1048576 C12:C19 A2:B3 A13:B14 C22:C30 B34:B1048576 A24:B25 D33" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -6117,27 +6648,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.1328125" customWidth="1"/>
+    <col min="2" max="2" width="17.1328125" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="10.46484375" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
     <col min="10" max="11" width="22.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="10.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="5" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6145,7 +6676,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" s="6" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>138</v>
       </c>
@@ -6153,7 +6684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" s="6" customFormat="1">
       <c r="A3" s="9" t="s">
         <v>139</v>
       </c>
@@ -6161,7 +6692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" s="6" customFormat="1">
       <c r="A4" s="9" t="s">
         <v>40</v>
       </c>
@@ -6169,7 +6700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" s="6" customFormat="1">
       <c r="A5" s="9" t="s">
         <v>41</v>
       </c>
@@ -6177,7 +6708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="A6" s="9" t="s">
         <v>42</v>
       </c>
@@ -6185,7 +6716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
@@ -6193,7 +6724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="A8" s="9" t="s">
         <v>189</v>
       </c>
@@ -6201,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="A9" s="36" t="s">
         <v>190</v>
       </c>
@@ -6215,7 +6746,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="36" t="s">
         <v>37</v>
       </c>
@@ -6229,7 +6760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="A11" s="37" t="s">
         <v>46</v>
       </c>
@@ -6239,7 +6770,7 @@
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" s="5" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -6247,7 +6778,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="A13" s="9" t="s">
         <v>138</v>
       </c>
@@ -6255,7 +6786,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" s="6" customFormat="1">
       <c r="A14" s="9" t="s">
         <v>139</v>
       </c>
@@ -6263,7 +6794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="A15" s="9" t="s">
         <v>40</v>
       </c>
@@ -6271,7 +6802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
@@ -6279,7 +6810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="A17" s="9" t="s">
         <v>42</v>
       </c>
@@ -6287,7 +6818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
@@ -6295,7 +6826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" s="6" customFormat="1">
       <c r="A19" s="9" t="s">
         <v>189</v>
       </c>
@@ -6303,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" s="6" customFormat="1">
       <c r="A20" s="36" t="s">
         <v>193</v>
       </c>
@@ -6314,7 +6845,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" s="6" customFormat="1">
       <c r="A21" s="36" t="s">
         <v>37</v>
       </c>
@@ -6325,7 +6856,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" s="6" customFormat="1">
       <c r="A22" s="37" t="s">
         <v>46</v>
       </c>
@@ -6336,16 +6867,16 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7 B8 A17 B17 B18 G1:G21 E1:F11 D12:F21 D22:G1048576 A4:B5 A15:B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7 B8 A17 B17 B18 G1:G21 E1:F11 D12:F21 D22:G1048576 A4:B5 A15:B16" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:D10 I1:L1048576 A20:B21">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:D10 I1:L1048576 A20:B21" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6357,30 +6888,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1328125" style="4" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="4"/>
     <col min="8" max="8" width="12.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.796875" style="4" customWidth="1"/>
     <col min="10" max="10" width="9" style="4"/>
     <col min="11" max="11" width="11.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.796875" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6388,7 +6919,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>138</v>
       </c>
@@ -6396,7 +6927,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>139</v>
       </c>
@@ -6404,7 +6935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -6412,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -6420,7 +6951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -6428,7 +6959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
@@ -6436,7 +6967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>187</v>
       </c>
@@ -6444,7 +6975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" s="3" customFormat="1">
       <c r="A9" s="34" t="s">
         <v>227</v>
       </c>
@@ -6461,7 +6992,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" s="3" customFormat="1">
       <c r="A10" s="34" t="s">
         <v>37</v>
       </c>
@@ -6478,7 +7009,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" s="3" customFormat="1">
       <c r="A11" s="34" t="s">
         <v>46</v>
       </c>
@@ -6487,7 +7018,7 @@
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -6495,7 +7026,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>138</v>
       </c>
@@ -6503,7 +7034,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>139</v>
       </c>
@@ -6511,7 +7042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -6519,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -6527,7 +7058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -6535,7 +7066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
@@ -6543,7 +7074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
@@ -6551,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" s="3" customFormat="1">
       <c r="A20" s="34" t="s">
         <v>227</v>
       </c>
@@ -6568,7 +7099,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" s="3" customFormat="1">
       <c r="A21" s="34" t="s">
         <v>37</v>
       </c>
@@ -6585,7 +7116,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" s="3" customFormat="1">
       <c r="A22" s="34" t="s">
         <v>46</v>
       </c>
@@ -6596,18 +7127,18 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 B18:B19 F1:F1048576 A15:B17 A4:B5 E1:E8 E11:E19 E22:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 B18:B19 F1:F1048576 A15:B17 A4:B5 E1:E8 E11:E19 E22:E1048576" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 H40:H1048576 A20:B20"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:B10 A21:B21 H1:H39">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 H40:H1048576 A20:B20" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:B10 A21:B21 H1:H39" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C21" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A2:B3 A13:B14">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19" xr:uid="{00000000-0002-0000-0600-000004000000}"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A2:B3 A13:B14" xr:uid="{00000000-0002-0000-0600-000005000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -6617,21 +7148,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.1328125" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6645,7 +7176,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>206</v>
       </c>
@@ -6661,10 +7192,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"lua,python,C#,js"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -1196,15 +1196,6 @@
     <t>HeroPos1Star</t>
   </si>
   <si>
-    <t>EnemyHeroPos1Star</t>
-  </si>
-  <si>
-    <t>EnemyHeroPos2Star</t>
-  </si>
-  <si>
-    <t>EnemyHeroPos3Star</t>
-  </si>
-  <si>
     <t>HeroPos1CnfID</t>
   </si>
   <si>
@@ -1212,6 +1203,15 @@
   </si>
   <si>
     <t>HeroPos3CnfID</t>
+  </si>
+  <si>
+    <t>OpponentHeroPos1Star</t>
+  </si>
+  <si>
+    <t>OpponentHeroPos2Star</t>
+  </si>
+  <si>
+    <t>OpponentHeroPos3Star</t>
   </si>
 </sst>
 </file>
@@ -1909,9 +1909,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS2" sqref="AS2"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BH2" sqref="BH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2065,13 +2065,13 @@
         <v>215</v>
       </c>
       <c r="AP1" s="28" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AQ1" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AR1" s="28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AS1" s="28" t="s">
         <v>241</v>
@@ -2113,13 +2113,13 @@
         <v>238</v>
       </c>
       <c r="BF1" s="28" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="BG1" s="28" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="BH1" s="28" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:60" s="26" customFormat="1">

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -430,7 +430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="248">
   <si>
     <t>Id</t>
   </si>
@@ -1907,11 +1907,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BH10"/>
+  <dimension ref="A1:BM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BH2" sqref="BH2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AZ11" sqref="AZ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1931,16 +1931,16 @@
     <col min="28" max="28" width="12.33203125" customWidth="1"/>
     <col min="29" max="29" width="16" customWidth="1"/>
     <col min="35" max="36" width="18.33203125" customWidth="1"/>
-    <col min="37" max="47" width="17.33203125" customWidth="1"/>
-    <col min="48" max="48" width="15.6640625" customWidth="1"/>
-    <col min="49" max="49" width="14.46484375" customWidth="1"/>
-    <col min="50" max="51" width="16" customWidth="1"/>
-    <col min="52" max="54" width="17.33203125" customWidth="1"/>
-    <col min="55" max="57" width="18.33203125" customWidth="1"/>
-    <col min="58" max="60" width="17.33203125" customWidth="1"/>
+    <col min="37" max="52" width="17.33203125" customWidth="1"/>
+    <col min="53" max="53" width="15.6640625" customWidth="1"/>
+    <col min="54" max="54" width="14.46484375" customWidth="1"/>
+    <col min="55" max="56" width="16" customWidth="1"/>
+    <col min="57" max="59" width="17.33203125" customWidth="1"/>
+    <col min="60" max="62" width="18.33203125" customWidth="1"/>
+    <col min="63" max="65" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="25" customFormat="1">
+    <row r="1" spans="1:65" s="25" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2082,47 +2082,62 @@
       <c r="AU1" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="AV1" s="25" t="s">
+      <c r="AV1" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AW1" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX1" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AY1" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="AZ1" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="BA1" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="AW1" s="25" t="s">
+      <c r="BB1" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="AX1" s="25" t="s">
+      <c r="BC1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AY1" s="25" t="s">
+      <c r="BD1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AZ1" s="28" t="s">
+      <c r="BE1" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="BA1" s="28" t="s">
+      <c r="BF1" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="BB1" s="28" t="s">
+      <c r="BG1" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="BC1" s="28" t="s">
+      <c r="BH1" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="BD1" s="28" t="s">
+      <c r="BI1" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="BE1" s="28" t="s">
+      <c r="BJ1" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="BF1" s="28" t="s">
+      <c r="BK1" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="BG1" s="28" t="s">
+      <c r="BL1" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="BH1" s="28" t="s">
+      <c r="BM1" s="28" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:60" s="26" customFormat="1">
+    <row r="2" spans="1:65" s="26" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>36</v>
       </c>
@@ -2264,47 +2279,62 @@
       <c r="AU2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="AV2" s="30" t="s">
+      <c r="AV2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AW2" s="30" t="s">
+      <c r="BB2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AX2" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY2" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="AZ2" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA2" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="BB2" s="30" t="s">
-        <v>37</v>
-      </c>
       <c r="BC2" s="30" t="s">
         <v>38</v>
       </c>
       <c r="BD2" s="30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BE2" s="30" t="s">
         <v>37</v>
       </c>
       <c r="BF2" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BG2" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BH2" s="30" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:60" s="26" customFormat="1">
+      <c r="BI2" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BJ2" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BK2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="BL2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="BM2" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" s="26" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>40</v>
       </c>
@@ -2446,19 +2476,19 @@
       <c r="AU3" s="39">
         <v>0</v>
       </c>
-      <c r="AV3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="30">
+      <c r="AV3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="39">
         <v>0</v>
       </c>
       <c r="BA3" s="30">
@@ -2467,13 +2497,13 @@
       <c r="BB3" s="30">
         <v>0</v>
       </c>
-      <c r="BC3" s="31">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="31">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="31">
+      <c r="BC3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="30">
         <v>0</v>
       </c>
       <c r="BF3" s="30">
@@ -2482,11 +2512,26 @@
       <c r="BG3" s="30">
         <v>0</v>
       </c>
-      <c r="BH3" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:60" s="26" customFormat="1">
+      <c r="BH3" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="31">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="31">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65" s="26" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>41</v>
       </c>
@@ -2628,32 +2673,32 @@
       <c r="AU4" s="39">
         <v>1</v>
       </c>
-      <c r="AV4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="30">
+      <c r="AV4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="39">
         <v>1</v>
       </c>
       <c r="BA4" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="30">
         <v>1</v>
@@ -2667,8 +2712,23 @@
       <c r="BH4" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:60" s="26" customFormat="1">
+      <c r="BI4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" s="26" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>42</v>
       </c>
@@ -2810,19 +2870,19 @@
       <c r="AU5" s="40">
         <v>0</v>
       </c>
-      <c r="AV5" s="31">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="31">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="30">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="30">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="31">
+      <c r="AV5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="40">
         <v>0</v>
       </c>
       <c r="BA5" s="31">
@@ -2831,10 +2891,10 @@
       <c r="BB5" s="31">
         <v>0</v>
       </c>
-      <c r="BC5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="31">
+      <c r="BC5" s="30">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="30">
         <v>0</v>
       </c>
       <c r="BE5" s="31">
@@ -2849,8 +2909,23 @@
       <c r="BH5" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:60" s="26" customFormat="1">
+      <c r="BI5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" s="26" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>43</v>
       </c>
@@ -2992,34 +3067,34 @@
       <c r="AU6" s="40">
         <v>1</v>
       </c>
-      <c r="AV6" s="31">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="31">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="31">
+      <c r="AV6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="40">
         <v>1</v>
       </c>
       <c r="BA6" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="30">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="30">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="31">
         <v>1</v>
       </c>
       <c r="BF6" s="31">
@@ -3028,11 +3103,26 @@
       <c r="BG6" s="31">
         <v>1</v>
       </c>
-      <c r="BH6" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:60" s="16" customFormat="1">
+      <c r="BH6" s="30">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="30">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="30">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="31">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="31">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" s="16" customFormat="1">
       <c r="A7" s="22" t="s">
         <v>44</v>
       </c>
@@ -3174,19 +3264,19 @@
       <c r="AU7" s="40">
         <v>0</v>
       </c>
-      <c r="AV7" s="31">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="31">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="31">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="31">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="31">
+      <c r="AV7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="40">
         <v>0</v>
       </c>
       <c r="BA7" s="31">
@@ -3213,8 +3303,23 @@
       <c r="BH7" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:60" s="16" customFormat="1">
+      <c r="BI7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
         <v>223</v>
       </c>
@@ -3356,19 +3461,19 @@
       <c r="AU8" s="40">
         <v>0</v>
       </c>
-      <c r="AV8" s="31">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="31">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="31">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="31">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="31">
+      <c r="AV8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="40">
         <v>0</v>
       </c>
       <c r="BA8" s="31">
@@ -3395,8 +3500,23 @@
       <c r="BH8" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:60" s="16" customFormat="1">
+      <c r="BI8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" s="16" customFormat="1">
       <c r="A9" s="22" t="s">
         <v>45</v>
       </c>
@@ -3538,19 +3658,19 @@
       <c r="AU9" s="40">
         <v>0</v>
       </c>
-      <c r="AV9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="31">
+      <c r="AV9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="40">
         <v>0</v>
       </c>
       <c r="BA9" s="31">
@@ -3577,8 +3697,23 @@
       <c r="BH9" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:60" s="17" customFormat="1" ht="67.5">
+      <c r="BI9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" s="17" customFormat="1" ht="67.5">
       <c r="A10" s="23" t="s">
         <v>46</v>
       </c>
@@ -3720,45 +3855,60 @@
       <c r="AU10" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="AV10" s="32" t="s">
+      <c r="AV10" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="AW10" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX10" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="AY10" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="AZ10" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="BA10" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="AW10" s="32" t="s">
+      <c r="BB10" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="AX10" s="33"/>
-      <c r="AY10" s="33"/>
-      <c r="AZ10" s="32" t="s">
+      <c r="BC10" s="33"/>
+      <c r="BD10" s="33"/>
+      <c r="BE10" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="BA10" s="32" t="s">
+      <c r="BF10" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="BB10" s="32" t="s">
+      <c r="BG10" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="BC10" s="32" t="s">
+      <c r="BH10" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="BD10" s="32" t="s">
+      <c r="BI10" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="BE10" s="32" t="s">
+      <c r="BJ10" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="BF10" s="32" t="s">
+      <c r="BK10" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="BG10" s="32" t="s">
+      <c r="BL10" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="BH10" s="32" t="s">
+      <c r="BM10" s="32" t="s">
         <v>214</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV5:AW6 O3:AC3 J3:M3 AZ5:BB6 B5:AJ5 BC5:BH5 B7:AH9 AV7:BB9 BF6:BH9 AM5:AU5 AK6:AU9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA5:BB6 O3:AC3 J3:M3 BE5:BG6 B5:AJ5 BH5:BM5 B7:AH9 BA7:BG9 BK6:BM9 AK6:AZ9 AM5:AZ5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000001000000}"/>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -430,7 +430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="253">
   <si>
     <t>Id</t>
   </si>
@@ -532,12 +532,6 @@
   </si>
   <si>
     <t>TeamID</t>
-  </si>
-  <si>
-    <t>GambleGold</t>
-  </si>
-  <si>
-    <t>GambleDiamond</t>
   </si>
   <si>
     <t>Type</t>
@@ -1212,6 +1206,27 @@
   </si>
   <si>
     <t>OpponentHeroPos3Star</t>
+  </si>
+  <si>
+    <t>OpponentDiamond</t>
+  </si>
+  <si>
+    <t>OpponentGold</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>headicon--guild</t>
+  </si>
+  <si>
+    <t>GambleGold</t>
+  </si>
+  <si>
+    <t>GambleDiamond</t>
+  </si>
+  <si>
+    <t>OpponentLevel</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1539,6 +1554,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1907,11 +1925,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM10"/>
+  <dimension ref="A1:BQ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ11" sqref="AZ11"/>
+      <selection pane="bottomLeft" activeCell="BF2" sqref="BF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1930,17 +1948,18 @@
     <col min="26" max="26" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.33203125" customWidth="1"/>
     <col min="29" max="29" width="16" customWidth="1"/>
-    <col min="35" max="36" width="18.33203125" customWidth="1"/>
-    <col min="37" max="52" width="17.33203125" customWidth="1"/>
-    <col min="53" max="53" width="15.6640625" customWidth="1"/>
-    <col min="54" max="54" width="14.46484375" customWidth="1"/>
-    <col min="55" max="56" width="16" customWidth="1"/>
-    <col min="57" max="59" width="17.33203125" customWidth="1"/>
-    <col min="60" max="62" width="18.33203125" customWidth="1"/>
-    <col min="63" max="65" width="17.33203125" customWidth="1"/>
+    <col min="35" max="37" width="18.33203125" customWidth="1"/>
+    <col min="38" max="39" width="16" customWidth="1"/>
+    <col min="40" max="55" width="17.33203125" customWidth="1"/>
+    <col min="56" max="56" width="15.6640625" customWidth="1"/>
+    <col min="57" max="57" width="14.46484375" customWidth="1"/>
+    <col min="58" max="60" width="16" customWidth="1"/>
+    <col min="61" max="63" width="17.33203125" customWidth="1"/>
+    <col min="64" max="66" width="18.33203125" customWidth="1"/>
+    <col min="67" max="69" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="25" customFormat="1">
+    <row r="1" spans="1:69" s="25" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1993,7 +2012,7 @@
         <v>17</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S1" s="28" t="s">
         <v>18</v>
@@ -2047,1868 +2066,1982 @@
         <v>5</v>
       </c>
       <c r="AJ1" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="AL1" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM1" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="AN1" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO1" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="AP1" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ1" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR1" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS1" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="AT1" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU1" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="AV1" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="AW1" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="AX1" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="AY1" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ1" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA1" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB1" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC1" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD1" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="BE1" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF1" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="BG1" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="BH1" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="BI1" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="BJ1" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="BK1" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="BL1" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="BM1" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="AK1" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="AL1" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="AM1" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN1" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="AO1" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="AP1" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="AQ1" s="28" t="s">
+      <c r="BN1" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="BO1" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="AR1" s="28" t="s">
+      <c r="BP1" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="AS1" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="AT1" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU1" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="AV1" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="AW1" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AX1" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="AY1" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AZ1" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="BA1" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="BB1" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="BC1" s="25" t="s">
+      <c r="BQ1" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69" s="26" customFormat="1">
+      <c r="A2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="BD1" s="25" t="s">
+      <c r="B2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="BE1" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="BF1" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="BG1" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="BH1" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="BI1" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="BJ1" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="BK1" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="BL1" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="BM1" s="28" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:65" s="26" customFormat="1">
-      <c r="A2" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="AH2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK2" s="39" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AL2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN2" s="39" t="s">
-        <v>39</v>
-      </c>
       <c r="AO2" s="39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AP2" s="39" t="s">
         <v>37</v>
       </c>
       <c r="AQ2" s="39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AR2" s="39" t="s">
         <v>37</v>
       </c>
       <c r="AS2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AT2" s="39" t="s">
-        <v>38</v>
-      </c>
       <c r="AU2" s="39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AV2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="BC2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD2" s="30" t="s">
         <v>37</v>
-      </c>
-      <c r="AW2" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="AX2" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="AY2" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ2" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA2" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB2" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC2" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="BD2" s="30" t="s">
-        <v>38</v>
       </c>
       <c r="BE2" s="30" t="s">
         <v>37</v>
       </c>
       <c r="BF2" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BG2" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BH2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="BL2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69" s="26" customFormat="1">
+      <c r="A3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="BI2" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="BJ2" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="BK2" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="BL2" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="BM2" s="30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65" s="26" customFormat="1">
-      <c r="A3" s="29" t="s">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0</v>
+      </c>
+      <c r="M3" s="16">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="16">
+        <v>0</v>
+      </c>
+      <c r="P3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>0</v>
+      </c>
+      <c r="R3" s="16">
+        <v>0</v>
+      </c>
+      <c r="S3" s="16">
+        <v>0</v>
+      </c>
+      <c r="T3" s="16">
+        <v>0</v>
+      </c>
+      <c r="U3" s="16">
+        <v>0</v>
+      </c>
+      <c r="V3" s="16">
+        <v>0</v>
+      </c>
+      <c r="W3" s="16">
+        <v>0</v>
+      </c>
+      <c r="X3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="39">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="39">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="39">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="39">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="39">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="39">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="31">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="31">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69" s="26" customFormat="1">
+      <c r="A4" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="39">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="39">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="39">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="39">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="39">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="39">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="30">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="30">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="30">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="30">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="30">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="30">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:69" s="26" customFormat="1">
+      <c r="A5" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="16">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
-        <v>0</v>
-      </c>
-      <c r="L3" s="16">
-        <v>0</v>
-      </c>
-      <c r="M3" s="16">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="16">
-        <v>0</v>
-      </c>
-      <c r="P3" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>0</v>
-      </c>
-      <c r="R3" s="16">
-        <v>0</v>
-      </c>
-      <c r="S3" s="16">
-        <v>0</v>
-      </c>
-      <c r="T3" s="16">
-        <v>0</v>
-      </c>
-      <c r="U3" s="16">
-        <v>0</v>
-      </c>
-      <c r="V3" s="16">
-        <v>0</v>
-      </c>
-      <c r="W3" s="16">
-        <v>0</v>
-      </c>
-      <c r="X3" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="39">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="39">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="39">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="30">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="30">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="30">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="30">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="30">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="30">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="30">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="31">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="31">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="31">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="30">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="30">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:65" s="26" customFormat="1">
-      <c r="A4" s="29" t="s">
+      <c r="B5" s="16">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>0</v>
+      </c>
+      <c r="R5" s="16">
+        <v>0</v>
+      </c>
+      <c r="S5" s="16">
+        <v>0</v>
+      </c>
+      <c r="T5" s="16">
+        <v>0</v>
+      </c>
+      <c r="U5" s="16">
+        <v>0</v>
+      </c>
+      <c r="V5" s="16">
+        <v>0</v>
+      </c>
+      <c r="W5" s="16">
+        <v>0</v>
+      </c>
+      <c r="X5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="39">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="39">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="39">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="39">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="40">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="40">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="40">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="40">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="30">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="30">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="30">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="31">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:69" s="26" customFormat="1">
+      <c r="A6" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3">
-        <v>1</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3">
-        <v>1</v>
-      </c>
-      <c r="V4" s="3">
-        <v>1</v>
-      </c>
-      <c r="W4" s="3">
-        <v>1</v>
-      </c>
-      <c r="X4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="39">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="30">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="30">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="30">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="30">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="30">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="30">
-        <v>1</v>
-      </c>
-      <c r="BG4" s="30">
-        <v>1</v>
-      </c>
-      <c r="BH4" s="30">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="30">
-        <v>1</v>
-      </c>
-      <c r="BJ4" s="30">
-        <v>1</v>
-      </c>
-      <c r="BK4" s="30">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="30">
-        <v>1</v>
-      </c>
-      <c r="BM4" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:65" s="26" customFormat="1">
-      <c r="A5" s="29" t="s">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="39">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="39">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="40">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="40">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="40">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="40">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="31">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="30">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="30">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="30">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="31">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="31">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="31">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="30">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="30">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="30">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="31">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="31">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:69" s="16" customFormat="1">
+      <c r="A7" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="16">
-        <v>0</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0</v>
-      </c>
-      <c r="J5" s="16">
-        <v>0</v>
-      </c>
-      <c r="K5" s="16">
-        <v>0</v>
-      </c>
-      <c r="L5" s="16">
-        <v>0</v>
-      </c>
-      <c r="M5" s="16">
-        <v>0</v>
-      </c>
-      <c r="N5" s="16">
-        <v>0</v>
-      </c>
-      <c r="O5" s="16">
-        <v>0</v>
-      </c>
-      <c r="P5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>0</v>
-      </c>
-      <c r="R5" s="16">
-        <v>0</v>
-      </c>
-      <c r="S5" s="16">
-        <v>0</v>
-      </c>
-      <c r="T5" s="16">
-        <v>0</v>
-      </c>
-      <c r="U5" s="16">
-        <v>0</v>
-      </c>
-      <c r="V5" s="16">
-        <v>0</v>
-      </c>
-      <c r="W5" s="16">
-        <v>0</v>
-      </c>
-      <c r="X5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="39">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="39">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="40">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="30">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="30">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:65" s="26" customFormat="1">
-      <c r="A6" s="29" t="s">
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16">
+        <v>0</v>
+      </c>
+      <c r="S7" s="16">
+        <v>0</v>
+      </c>
+      <c r="T7" s="16">
+        <v>0</v>
+      </c>
+      <c r="U7" s="16">
+        <v>0</v>
+      </c>
+      <c r="V7" s="16">
+        <v>0</v>
+      </c>
+      <c r="W7" s="16">
+        <v>0</v>
+      </c>
+      <c r="X7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="40">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="40">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="40">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="40">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="31">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:69" s="16" customFormat="1">
+      <c r="A8" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16">
+        <v>0</v>
+      </c>
+      <c r="S8" s="16">
+        <v>0</v>
+      </c>
+      <c r="T8" s="16">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
+        <v>0</v>
+      </c>
+      <c r="W8" s="16">
+        <v>0</v>
+      </c>
+      <c r="X8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="40">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="40">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="40">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="40">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="31">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:69" s="16" customFormat="1">
+      <c r="A9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3">
-        <v>1</v>
-      </c>
-      <c r="P6" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>1</v>
-      </c>
-      <c r="R6" s="3">
-        <v>1</v>
-      </c>
-      <c r="S6" s="3">
-        <v>1</v>
-      </c>
-      <c r="T6" s="3">
-        <v>1</v>
-      </c>
-      <c r="U6" s="3">
-        <v>1</v>
-      </c>
-      <c r="V6" s="3">
-        <v>1</v>
-      </c>
-      <c r="W6" s="3">
-        <v>1</v>
-      </c>
-      <c r="X6" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="40">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="31">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="31">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="30">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="30">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="31">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="31">
-        <v>1</v>
-      </c>
-      <c r="BG6" s="31">
-        <v>1</v>
-      </c>
-      <c r="BH6" s="30">
-        <v>1</v>
-      </c>
-      <c r="BI6" s="30">
-        <v>1</v>
-      </c>
-      <c r="BJ6" s="30">
-        <v>1</v>
-      </c>
-      <c r="BK6" s="31">
-        <v>1</v>
-      </c>
-      <c r="BL6" s="31">
-        <v>1</v>
-      </c>
-      <c r="BM6" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:65" s="16" customFormat="1">
-      <c r="A7" s="22" t="s">
+      <c r="B9" s="16">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9" s="16">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
+        <v>0</v>
+      </c>
+      <c r="W9" s="16">
+        <v>0</v>
+      </c>
+      <c r="X9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="40">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="40">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="40">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="40">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="31">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:69" s="17" customFormat="1" ht="67.5">
+      <c r="A10" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="16">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0</v>
-      </c>
-      <c r="L7" s="16">
-        <v>0</v>
-      </c>
-      <c r="M7" s="16">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
-        <v>0</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>0</v>
-      </c>
-      <c r="R7" s="16">
-        <v>0</v>
-      </c>
-      <c r="S7" s="16">
-        <v>0</v>
-      </c>
-      <c r="T7" s="16">
-        <v>0</v>
-      </c>
-      <c r="U7" s="16">
-        <v>0</v>
-      </c>
-      <c r="V7" s="16">
-        <v>0</v>
-      </c>
-      <c r="W7" s="16">
-        <v>0</v>
-      </c>
-      <c r="X7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="40">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:65" s="16" customFormat="1">
-      <c r="A8" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" s="16">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16">
-        <v>0</v>
-      </c>
-      <c r="M8" s="16">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
-        <v>0</v>
-      </c>
-      <c r="O8" s="16">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>0</v>
-      </c>
-      <c r="R8" s="16">
-        <v>0</v>
-      </c>
-      <c r="S8" s="16">
-        <v>0</v>
-      </c>
-      <c r="T8" s="16">
-        <v>0</v>
-      </c>
-      <c r="U8" s="16">
-        <v>0</v>
-      </c>
-      <c r="V8" s="16">
-        <v>0</v>
-      </c>
-      <c r="W8" s="16">
-        <v>0</v>
-      </c>
-      <c r="X8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="40">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:65" s="16" customFormat="1">
-      <c r="A9" s="22" t="s">
+      <c r="B10" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="16">
-        <v>0</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
-        <v>0</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
-      <c r="L9" s="16">
-        <v>0</v>
-      </c>
-      <c r="M9" s="16">
-        <v>0</v>
-      </c>
-      <c r="N9" s="16">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16">
-        <v>0</v>
-      </c>
-      <c r="P9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>0</v>
-      </c>
-      <c r="R9" s="16">
-        <v>0</v>
-      </c>
-      <c r="S9" s="16">
-        <v>0</v>
-      </c>
-      <c r="T9" s="16">
-        <v>0</v>
-      </c>
-      <c r="U9" s="16">
-        <v>0</v>
-      </c>
-      <c r="V9" s="16">
-        <v>0</v>
-      </c>
-      <c r="W9" s="16">
-        <v>0</v>
-      </c>
-      <c r="X9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="40">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:65" s="17" customFormat="1" ht="67.5">
-      <c r="A10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="D10" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="F10" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="G10" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="M10" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="T10" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="U10" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="W10" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="X10" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y10" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z10" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA10" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB10" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC10" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD10" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF10" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG10" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH10" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="R10" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="S10" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="T10" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="U10" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="V10" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="W10" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="X10" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y10" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z10" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA10" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB10" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC10" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD10" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE10" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF10" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG10" s="24" t="s">
+      <c r="AJ10" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK10" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="AL10" s="42"/>
+      <c r="AM10" s="42"/>
+      <c r="AN10" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO10" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP10" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="AQ10" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR10" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS10" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT10" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU10" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV10" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW10" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX10" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="AY10" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ10" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA10" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB10" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC10" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD10" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="AH10" s="24" t="s">
+      <c r="BE10" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="AI10" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ10" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="AK10" s="41" t="s">
+      <c r="BF10" s="33"/>
+      <c r="BG10" s="33"/>
+      <c r="BH10" s="33"/>
+      <c r="BI10" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="BJ10" s="32" t="s">
         <v>211</v>
-      </c>
-      <c r="AL10" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM10" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="AN10" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="AO10" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="AP10" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ10" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="AR10" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="AS10" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="AT10" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="AU10" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="AV10" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="AW10" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="AX10" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="AY10" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="AZ10" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="BA10" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB10" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC10" s="33"/>
-      <c r="BD10" s="33"/>
-      <c r="BE10" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="BF10" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="BG10" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="BH10" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="BI10" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="BJ10" s="32" t="s">
-        <v>235</v>
       </c>
       <c r="BK10" s="32" t="s">
         <v>212</v>
       </c>
       <c r="BL10" s="32" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="BM10" s="32" t="s">
-        <v>214</v>
+        <v>233</v>
+      </c>
+      <c r="BN10" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="BO10" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="BP10" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="BQ10" s="32" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA5:BB6 O3:AC3 J3:M3 BE5:BG6 B5:AJ5 BH5:BM5 B7:AH9 BA7:BG9 BK6:BM9 AK6:AZ9 AM5:AZ5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF7:BK9 O3:AC3 J3:M3 BI5:BK6 AP5:BC5 BL5:BQ5 B7:AH9 AL7:AM9 BO6:BQ9 AN6:BC9 B5:AK5 BD5:BE9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
@@ -3937,188 +4070,188 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="Y1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="Z1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="AA1" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AB1" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AD1" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="AC1" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD1" s="19" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="15" customFormat="1">
       <c r="A2" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AC2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AD2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:30" s="15" customFormat="1">
       <c r="A3" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="21">
         <v>1</v>
@@ -4210,7 +4343,7 @@
     </row>
     <row r="4" spans="1:30" s="15" customFormat="1">
       <c r="A4" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="21">
         <v>1</v>
@@ -4302,7 +4435,7 @@
     </row>
     <row r="5" spans="1:30" s="15" customFormat="1">
       <c r="A5" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="21">
         <v>0</v>
@@ -4394,7 +4527,7 @@
     </row>
     <row r="6" spans="1:30" s="15" customFormat="1">
       <c r="A6" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="21">
         <v>0</v>
@@ -4486,7 +4619,7 @@
     </row>
     <row r="7" spans="1:30" s="16" customFormat="1">
       <c r="A7" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="16">
         <v>0</v>
@@ -4578,7 +4711,7 @@
     </row>
     <row r="8" spans="1:30" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B8" s="16">
         <v>0</v>
@@ -4670,7 +4803,7 @@
     </row>
     <row r="9" spans="1:30" s="16" customFormat="1">
       <c r="A9" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="16">
         <v>0</v>
@@ -4762,94 +4895,94 @@
     </row>
     <row r="10" spans="1:30" s="17" customFormat="1" ht="54">
       <c r="A10" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="E10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="I10" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="24" t="s">
+      <c r="J10" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="K10" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="L10" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="M10" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="N10" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="O10" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="P10" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="Q10" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="R10" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="S10" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="T10" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="U10" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="T10" s="24" t="s">
+      <c r="V10" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="U10" s="24" t="s">
+      <c r="W10" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="V10" s="24" t="s">
+      <c r="X10" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="W10" s="24" t="s">
+      <c r="Y10" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="X10" s="24" t="s">
+      <c r="Z10" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="Y10" s="24" t="s">
+      <c r="AA10" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="Z10" s="24" t="s">
+      <c r="AB10" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AA10" s="24" t="s">
+      <c r="AC10" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="AB10" s="24" t="s">
+      <c r="AD10" s="24" t="s">
         <v>134</v>
-      </c>
-      <c r="AC10" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD10" s="24" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4909,12 +5042,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3">
         <v>15</v>
@@ -4922,7 +5055,7 @@
     </row>
     <row r="3" spans="1:29" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3">
         <v>29</v>
@@ -4930,7 +5063,7 @@
     </row>
     <row r="4" spans="1:29" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -4938,7 +5071,7 @@
     </row>
     <row r="5" spans="1:29" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -4946,7 +5079,7 @@
     </row>
     <row r="6" spans="1:29" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -4954,7 +5087,7 @@
     </row>
     <row r="7" spans="1:29" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -4962,7 +5095,7 @@
     </row>
     <row r="8" spans="1:29" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -4970,188 +5103,188 @@
     </row>
     <row r="9" spans="1:29" s="3" customFormat="1">
       <c r="A9" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="D9" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="E9" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="F9" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="G9" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="H9" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="I9" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="J9" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="K9" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="L9" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="M9" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="N9" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="O9" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="P9" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="Q9" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="R9" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="Q9" s="34" t="s">
+      <c r="S9" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="T9" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="U9" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="V9" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="U9" s="34" t="s">
+      <c r="W9" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="V9" s="34" t="s">
+      <c r="X9" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="W9" s="34" t="s">
+      <c r="Y9" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="X9" s="34" t="s">
+      <c r="Z9" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="Y9" s="34" t="s">
+      <c r="AA9" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="Z9" s="34" t="s">
+      <c r="AB9" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="AA9" s="34" t="s">
+      <c r="AC9" s="34" t="s">
         <v>108</v>
-      </c>
-      <c r="AB9" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC9" s="34" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="3" customFormat="1">
       <c r="A10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AC10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="3" customFormat="1">
       <c r="A11" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -5242,12 +5375,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3">
         <v>64</v>
@@ -5255,7 +5388,7 @@
     </row>
     <row r="3" spans="1:23" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3">
         <v>23</v>
@@ -5263,7 +5396,7 @@
     </row>
     <row r="4" spans="1:23" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -5271,7 +5404,7 @@
     </row>
     <row r="5" spans="1:23" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -5279,7 +5412,7 @@
     </row>
     <row r="6" spans="1:23" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -5287,7 +5420,7 @@
     </row>
     <row r="7" spans="1:23" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -5295,7 +5428,7 @@
     </row>
     <row r="8" spans="1:23" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -5303,149 +5436,149 @@
     </row>
     <row r="9" spans="1:23" s="3" customFormat="1">
       <c r="A9" s="34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="H9" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="I9" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="J9" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="K9" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="L9" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="M9" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="N9" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="O9" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="P9" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="Q9" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="R9" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="Q9" s="34" t="s">
+      <c r="S9" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="T9" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="U9" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="V9" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="U9" s="34" t="s">
+      <c r="W9" s="34" t="s">
         <v>158</v>
-      </c>
-      <c r="V9" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="W9" s="34" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="3" customFormat="1">
       <c r="A10" s="35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>39</v>
-      </c>
       <c r="H10" s="35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="3" customFormat="1">
       <c r="A11" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="34"/>
@@ -5474,12 +5607,12 @@
         <v>0</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3">
         <v>15</v>
@@ -5487,7 +5620,7 @@
     </row>
     <row r="14" spans="1:23" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14" s="3">
         <v>29</v>
@@ -5495,7 +5628,7 @@
     </row>
     <row r="15" spans="1:23" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -5503,7 +5636,7 @@
     </row>
     <row r="16" spans="1:23" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -5511,7 +5644,7 @@
     </row>
     <row r="17" spans="1:29" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -5519,7 +5652,7 @@
     </row>
     <row r="18" spans="1:29" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -5527,7 +5660,7 @@
     </row>
     <row r="19" spans="1:29" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -5535,188 +5668,188 @@
     </row>
     <row r="20" spans="1:29" s="3" customFormat="1">
       <c r="A20" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="D20" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="E20" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="F20" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="G20" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="H20" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="I20" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="J20" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="K20" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="L20" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="M20" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="L20" s="34" t="s">
+      <c r="N20" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="34" t="s">
+      <c r="O20" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="N20" s="34" t="s">
+      <c r="P20" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="O20" s="34" t="s">
+      <c r="Q20" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="P20" s="34" t="s">
+      <c r="R20" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="Q20" s="34" t="s">
+      <c r="S20" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="R20" s="34" t="s">
+      <c r="T20" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="S20" s="34" t="s">
+      <c r="U20" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="T20" s="34" t="s">
+      <c r="V20" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="U20" s="34" t="s">
+      <c r="W20" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="V20" s="34" t="s">
+      <c r="X20" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="W20" s="34" t="s">
+      <c r="Y20" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="X20" s="34" t="s">
+      <c r="Z20" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="Y20" s="34" t="s">
+      <c r="AA20" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="Z20" s="34" t="s">
+      <c r="AB20" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="AA20" s="34" t="s">
+      <c r="AC20" s="34" t="s">
         <v>108</v>
-      </c>
-      <c r="AB20" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC20" s="34" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:29" s="3" customFormat="1">
       <c r="A21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AC21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:29" s="3" customFormat="1">
       <c r="A22" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -5797,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -5823,7 +5956,7 @@
     </row>
     <row r="2" spans="1:23" s="12" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3">
         <v>256</v>
@@ -5852,7 +5985,7 @@
     </row>
     <row r="3" spans="1:23" s="12" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3">
         <v>23</v>
@@ -5881,7 +6014,7 @@
     </row>
     <row r="4" spans="1:23" s="12" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -5910,7 +6043,7 @@
     </row>
     <row r="5" spans="1:23" s="12" customFormat="1">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -5939,7 +6072,7 @@
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -5968,7 +6101,7 @@
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -5997,7 +6130,7 @@
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -6026,152 +6159,152 @@
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1">
       <c r="A9" s="34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="34" t="s">
+      <c r="F9" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="G9" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="H9" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="I9" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="J9" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="K9" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="L9" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="M9" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="N9" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="O9" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="P9" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="Q9" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="R9" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="Q9" s="34" t="s">
+      <c r="S9" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="T9" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="U9" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="V9" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="U9" s="34" t="s">
+      <c r="W9" s="34" t="s">
         <v>180</v>
-      </c>
-      <c r="V9" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="W9" s="34" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1">
       <c r="A10" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1">
       <c r="A11" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -6200,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6226,7 +6359,7 @@
     </row>
     <row r="13" spans="1:23" s="13" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3">
         <v>128</v>
@@ -6255,7 +6388,7 @@
     </row>
     <row r="14" spans="1:23" s="13" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
@@ -6284,7 +6417,7 @@
     </row>
     <row r="15" spans="1:23" s="13" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -6313,7 +6446,7 @@
     </row>
     <row r="16" spans="1:23" s="13" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -6342,7 +6475,7 @@
     </row>
     <row r="17" spans="1:23" s="13" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -6371,7 +6504,7 @@
     </row>
     <row r="18" spans="1:23" s="13" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -6400,7 +6533,7 @@
     </row>
     <row r="19" spans="1:23" s="13" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -6429,44 +6562,44 @@
     </row>
     <row r="20" spans="1:23" s="13" customFormat="1">
       <c r="A20" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="13" customFormat="1">
       <c r="A21" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="13" customFormat="1">
       <c r="A22" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -6495,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -6521,7 +6654,7 @@
     </row>
     <row r="24" spans="1:23" s="13" customFormat="1">
       <c r="A24" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B24" s="3">
         <v>128</v>
@@ -6550,7 +6683,7 @@
     </row>
     <row r="25" spans="1:23" s="13" customFormat="1">
       <c r="A25" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -6579,7 +6712,7 @@
     </row>
     <row r="26" spans="1:23" s="13" customFormat="1">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
@@ -6608,7 +6741,7 @@
     </row>
     <row r="27" spans="1:23" s="13" customFormat="1">
       <c r="A27" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -6637,7 +6770,7 @@
     </row>
     <row r="28" spans="1:23" s="13" customFormat="1">
       <c r="A28" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -6666,7 +6799,7 @@
     </row>
     <row r="29" spans="1:23" s="13" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -6695,7 +6828,7 @@
     </row>
     <row r="30" spans="1:23" s="13" customFormat="1">
       <c r="A30" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -6724,35 +6857,35 @@
     </row>
     <row r="31" spans="1:23" s="13" customFormat="1">
       <c r="A31" s="34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:23" s="13" customFormat="1">
       <c r="A32" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:23" s="13" customFormat="1">
       <c r="A33" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="34"/>
@@ -6823,12 +6956,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1">
       <c r="A2" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="9">
         <v>8</v>
@@ -6836,7 +6969,7 @@
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1">
       <c r="A3" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="9">
         <v>4</v>
@@ -6844,7 +6977,7 @@
     </row>
     <row r="4" spans="1:4" s="6" customFormat="1">
       <c r="A4" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -6852,7 +6985,7 @@
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1">
       <c r="A5" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -6860,7 +6993,7 @@
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="A6" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -6868,7 +7001,7 @@
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="A7" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -6876,7 +7009,7 @@
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="A8" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B8" s="9">
         <v>0</v>
@@ -6884,38 +7017,38 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="A9" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="D9" s="36" t="s">
         <v>191</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="A11" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -6925,12 +7058,12 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="A13" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13" s="9">
         <v>512</v>
@@ -6938,7 +7071,7 @@
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
       <c r="A14" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14" s="9">
         <v>3</v>
@@ -6946,7 +7079,7 @@
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="A15" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="9">
         <v>0</v>
@@ -6954,7 +7087,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="A16" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="9">
         <v>1</v>
@@ -6962,7 +7095,7 @@
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="A17" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="9">
         <v>0</v>
@@ -6970,7 +7103,7 @@
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="A18" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -6978,7 +7111,7 @@
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1">
       <c r="A19" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B19" s="9">
         <v>0</v>
@@ -6986,32 +7119,32 @@
     </row>
     <row r="20" spans="1:3" s="6" customFormat="1">
       <c r="A20" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="6" customFormat="1">
       <c r="A21" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="6" customFormat="1">
       <c r="A22" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C22" s="36"/>
     </row>
@@ -7066,12 +7199,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3">
         <v>128</v>
@@ -7079,7 +7212,7 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -7087,7 +7220,7 @@
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -7095,7 +7228,7 @@
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -7103,7 +7236,7 @@
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -7111,7 +7244,7 @@
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -7119,7 +7252,7 @@
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -7127,41 +7260,41 @@
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1">
       <c r="A9" s="34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>200</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1">
       <c r="A10" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>39</v>
-      </c>
       <c r="C10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1">
       <c r="A11" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -7173,12 +7306,12 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3">
         <v>128</v>
@@ -7186,7 +7319,7 @@
     </row>
     <row r="14" spans="1:5" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
@@ -7194,7 +7327,7 @@
     </row>
     <row r="15" spans="1:5" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -7202,7 +7335,7 @@
     </row>
     <row r="16" spans="1:5" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -7210,7 +7343,7 @@
     </row>
     <row r="17" spans="1:5" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -7218,7 +7351,7 @@
     </row>
     <row r="18" spans="1:5" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -7226,7 +7359,7 @@
     </row>
     <row r="19" spans="1:5" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -7234,41 +7367,41 @@
     </row>
     <row r="20" spans="1:5" s="3" customFormat="1">
       <c r="A20" s="34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" s="34" t="s">
         <v>200</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="3" customFormat="1">
       <c r="A21" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>39</v>
-      </c>
       <c r="C21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="3" customFormat="1">
       <c r="A22" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -7317,27 +7450,27 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -9,24 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
     <sheet name="Property2" sheetId="2" r:id="rId2"/>
-    <sheet name="Record_CommValue" sheetId="5" r:id="rId3"/>
-    <sheet name="Record_Hero" sheetId="3" r:id="rId4"/>
-    <sheet name="Record_Bag" sheetId="4" r:id="rId5"/>
-    <sheet name="Record_Task" sheetId="6" r:id="rId6"/>
-    <sheet name="Record_Building" sheetId="7" r:id="rId7"/>
-    <sheet name="Component" sheetId="8" r:id="rId8"/>
+    <sheet name="Property3" sheetId="10" r:id="rId3"/>
+    <sheet name="Record_CommValue" sheetId="5" r:id="rId4"/>
+    <sheet name="Record_Hero" sheetId="3" r:id="rId5"/>
+    <sheet name="Record_Bag" sheetId="4" r:id="rId6"/>
+    <sheet name="Record_Task" sheetId="6" r:id="rId7"/>
+    <sheet name="Record_War" sheetId="9" r:id="rId8"/>
+    <sheet name="Record_Building" sheetId="7" r:id="rId9"/>
+    <sheet name="Component" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Record_Bag!$A$1:$W$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Record_Building!$D$1:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Record_Bag!$A$1:$W$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Record_Building!$D$1:$D$26</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="5" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -47,7 +49,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -107,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="K11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +155,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -189,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -213,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -225,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -237,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -249,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -261,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+    <comment ref="I24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -273,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
+    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
+    <comment ref="K24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -307,7 +309,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -319,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -331,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -343,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -355,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -367,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -379,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -401,7 +403,7 @@
     <author>pengbo.yang</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -413,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -430,7 +432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="300">
   <si>
     <t>Id</t>
   </si>
@@ -1157,9 +1159,6 @@
     <t>ViewOpponent</t>
   </si>
   <si>
-    <t>FightOpponent</t>
-  </si>
-  <si>
     <t>OpponentHeroPos1</t>
   </si>
   <si>
@@ -1227,13 +1226,157 @@
   </si>
   <si>
     <t>OpponentLevel</t>
+  </si>
+  <si>
+    <t>AttackList</t>
+  </si>
+  <si>
+    <t>BeAccackList</t>
+  </si>
+  <si>
+    <t>Item1</t>
+  </si>
+  <si>
+    <t>Item1UsedCount</t>
+  </si>
+  <si>
+    <t>Item2</t>
+  </si>
+  <si>
+    <t>Item2UsedCount</t>
+  </si>
+  <si>
+    <t>Item3</t>
+  </si>
+  <si>
+    <t>Item3UsedCount</t>
+  </si>
+  <si>
+    <t>WarID</t>
+  </si>
+  <si>
+    <t>FightingOpponent</t>
+  </si>
+  <si>
+    <t>WarEventTime</t>
+  </si>
+  <si>
+    <t>EventTime</t>
+  </si>
+  <si>
+    <t>AttackerID</t>
+  </si>
+  <si>
+    <t>BeAttackerID</t>
+  </si>
+  <si>
+    <t>AttackerName</t>
+  </si>
+  <si>
+    <t>BeAttackerName</t>
+  </si>
+  <si>
+    <t>AttackerLevel</t>
+  </si>
+  <si>
+    <t>BeAttackerLevel</t>
+  </si>
+  <si>
+    <t>AttackerCup</t>
+  </si>
+  <si>
+    <t>BeAttackerCup</t>
+  </si>
+  <si>
+    <t>AttackerHero1</t>
+  </si>
+  <si>
+    <t>AttackerHero2</t>
+  </si>
+  <si>
+    <t>AttackerHero3</t>
+  </si>
+  <si>
+    <t>AttackerHero1Star</t>
+  </si>
+  <si>
+    <t>AttackerHero2Star</t>
+  </si>
+  <si>
+    <t>AttackerHero3Star</t>
+  </si>
+  <si>
+    <t>BeAttackerHero1</t>
+  </si>
+  <si>
+    <t>BeAttackerHero2</t>
+  </si>
+  <si>
+    <t>BeAttackerHero3</t>
+  </si>
+  <si>
+    <t>BeAttackerHero1Star</t>
+  </si>
+  <si>
+    <t>BeAttackerHero2Star</t>
+  </si>
+  <si>
+    <t>BeAttackerHero3Star</t>
+  </si>
+  <si>
+    <t>Winner</t>
+  </si>
+  <si>
+    <t>WarStar</t>
+  </si>
+  <si>
+    <t>CostTime</t>
+  </si>
+  <si>
+    <t>Item1Count</t>
+  </si>
+  <si>
+    <t>Item2Count</t>
+  </si>
+  <si>
+    <t>Item3Count</t>
+  </si>
+  <si>
+    <t>BuildingCount</t>
+  </si>
+  <si>
+    <t>DestroiedBuilding</t>
+  </si>
+  <si>
+    <t>MasterCount</t>
+  </si>
+  <si>
+    <t>KilledMasterCount</t>
+  </si>
+  <si>
+    <t>KilledHero1</t>
+  </si>
+  <si>
+    <t>KilledHero2</t>
+  </si>
+  <si>
+    <t>KilledHero3</t>
+  </si>
+  <si>
+    <t>DeadHero1</t>
+  </si>
+  <si>
+    <t>DeadHero2</t>
+  </si>
+  <si>
+    <t>DeadHero3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1259,8 +1402,24 @@
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1294,6 +1453,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,7 +1593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1557,6 +1722,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1925,11 +2108,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ10"/>
+  <dimension ref="A1:AP10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+    <sheetView topLeftCell="AD1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BF2" sqref="BF2"/>
+      <selection pane="bottomLeft" activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1948,18 +2131,11 @@
     <col min="26" max="26" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.33203125" customWidth="1"/>
     <col min="29" max="29" width="16" customWidth="1"/>
-    <col min="35" max="37" width="18.33203125" customWidth="1"/>
-    <col min="38" max="39" width="16" customWidth="1"/>
-    <col min="40" max="55" width="17.33203125" customWidth="1"/>
-    <col min="56" max="56" width="15.6640625" customWidth="1"/>
-    <col min="57" max="57" width="14.46484375" customWidth="1"/>
-    <col min="58" max="60" width="16" customWidth="1"/>
-    <col min="61" max="63" width="17.33203125" customWidth="1"/>
-    <col min="64" max="66" width="18.33203125" customWidth="1"/>
-    <col min="67" max="69" width="17.33203125" customWidth="1"/>
+    <col min="35" max="36" width="18.33203125" customWidth="1"/>
+    <col min="37" max="42" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="25" customFormat="1">
+    <row r="1" spans="1:42" s="25" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2066,109 +2242,28 @@
         <v>5</v>
       </c>
       <c r="AJ1" s="28" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="AK1" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="AL1" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="AM1" s="25" t="s">
-        <v>251</v>
+        <v>153</v>
+      </c>
+      <c r="AL1" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM1" s="28" t="s">
+        <v>155</v>
       </c>
       <c r="AN1" s="28" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="AO1" s="28" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="AP1" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="AQ1" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="AR1" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="AS1" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="AT1" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU1" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="AV1" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="AW1" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX1" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="AY1" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ1" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA1" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="BB1" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="BC1" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="BD1" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="BE1" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="BF1" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="BG1" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="BH1" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="BI1" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="BJ1" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="BK1" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="BL1" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="BM1" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="BN1" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="BO1" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="BP1" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="BQ1" s="28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:69" s="26" customFormat="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="26" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>34</v>
       </c>
@@ -2275,109 +2370,28 @@
         <v>36</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="AK2" s="39" t="s">
+        <v>35</v>
+      </c>
       <c r="AL2" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AM2" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AN2" s="39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AO2" s="39" t="s">
         <v>35</v>
       </c>
       <c r="AP2" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR2" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="AT2" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="AU2" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV2" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="AW2" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="AZ2" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA2" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="BB2" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="BC2" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD2" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="BE2" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="BF2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="BJ2" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="BK2" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="BL2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM2" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="BN2" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="BO2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" s="30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:69" s="26" customFormat="1">
+    </row>
+    <row r="3" spans="1:42" s="26" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>38</v>
       </c>
@@ -2486,7 +2500,7 @@
       <c r="AJ3" s="16">
         <v>0</v>
       </c>
-      <c r="AK3" s="16">
+      <c r="AK3" s="39">
         <v>0</v>
       </c>
       <c r="AL3" s="39">
@@ -2496,97 +2510,16 @@
         <v>0</v>
       </c>
       <c r="AN3" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="39">
         <v>0</v>
       </c>
-      <c r="AQ3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="39">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="39">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="39">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="39">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="30">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="30">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="30">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="30">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="30">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="30">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="30">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="30">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="31">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="31">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="31">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="30">
-        <v>0</v>
-      </c>
-      <c r="BP3" s="30">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:69" s="26" customFormat="1">
+    </row>
+    <row r="4" spans="1:42" s="26" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>39</v>
       </c>
@@ -2695,14 +2628,14 @@
       <c r="AJ4" s="3">
         <v>1</v>
       </c>
-      <c r="AK4" s="3">
+      <c r="AK4" s="39">
         <v>1</v>
       </c>
       <c r="AL4" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN4" s="39">
         <v>1</v>
@@ -2713,89 +2646,8 @@
       <c r="AP4" s="39">
         <v>1</v>
       </c>
-      <c r="AQ4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="39">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="39">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="39">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="39">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="30">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="30">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="30">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="30">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="30">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="30">
-        <v>1</v>
-      </c>
-      <c r="BJ4" s="30">
-        <v>1</v>
-      </c>
-      <c r="BK4" s="30">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="30">
-        <v>1</v>
-      </c>
-      <c r="BM4" s="30">
-        <v>1</v>
-      </c>
-      <c r="BN4" s="30">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="30">
-        <v>1</v>
-      </c>
-      <c r="BP4" s="30">
-        <v>1</v>
-      </c>
-      <c r="BQ4" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:69" s="26" customFormat="1">
+    </row>
+    <row r="5" spans="1:42" s="26" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>40</v>
       </c>
@@ -2904,107 +2756,26 @@
       <c r="AJ5" s="16">
         <v>0</v>
       </c>
-      <c r="AK5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="39">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="39">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="39">
-        <v>1</v>
-      </c>
-      <c r="AO5" s="39">
-        <v>1</v>
+      <c r="AK5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="40">
+        <v>0</v>
       </c>
       <c r="AP5" s="40">
         <v>0</v>
       </c>
-      <c r="AQ5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="40">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="40">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="40">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="40">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="30">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="30">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="30">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="31">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:69" s="26" customFormat="1">
+    </row>
+    <row r="6" spans="1:42" s="26" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>41</v>
       </c>
@@ -3113,14 +2884,14 @@
       <c r="AJ6" s="3">
         <v>1</v>
       </c>
-      <c r="AK6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="39">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="39">
-        <v>0</v>
+      <c r="AK6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="40">
+        <v>1</v>
       </c>
       <c r="AN6" s="40">
         <v>1</v>
@@ -3131,89 +2902,8 @@
       <c r="AP6" s="40">
         <v>1</v>
       </c>
-      <c r="AQ6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="40">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="40">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="40">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="40">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="40">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="31">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="31">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="30">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="30">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="30">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="31">
-        <v>1</v>
-      </c>
-      <c r="BJ6" s="31">
-        <v>1</v>
-      </c>
-      <c r="BK6" s="31">
-        <v>1</v>
-      </c>
-      <c r="BL6" s="30">
-        <v>1</v>
-      </c>
-      <c r="BM6" s="30">
-        <v>1</v>
-      </c>
-      <c r="BN6" s="30">
-        <v>1</v>
-      </c>
-      <c r="BO6" s="31">
-        <v>1</v>
-      </c>
-      <c r="BP6" s="31">
-        <v>1</v>
-      </c>
-      <c r="BQ6" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:69" s="16" customFormat="1">
+    </row>
+    <row r="7" spans="1:42" s="16" customFormat="1">
       <c r="A7" s="22" t="s">
         <v>42</v>
       </c>
@@ -3322,7 +3012,7 @@
       <c r="AJ7" s="16">
         <v>0</v>
       </c>
-      <c r="AK7" s="16">
+      <c r="AK7" s="40">
         <v>0</v>
       </c>
       <c r="AL7" s="40">
@@ -3340,89 +3030,8 @@
       <c r="AP7" s="40">
         <v>0</v>
       </c>
-      <c r="AQ7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="40">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="40">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="40">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="40">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="31">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:69" s="16" customFormat="1">
+    </row>
+    <row r="8" spans="1:42" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
         <v>221</v>
       </c>
@@ -3531,7 +3140,7 @@
       <c r="AJ8" s="16">
         <v>0</v>
       </c>
-      <c r="AK8" s="16">
+      <c r="AK8" s="40">
         <v>0</v>
       </c>
       <c r="AL8" s="40">
@@ -3549,89 +3158,8 @@
       <c r="AP8" s="40">
         <v>0</v>
       </c>
-      <c r="AQ8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="40">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="40">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="40">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="40">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="40">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BO8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BP8" s="31">
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:69" s="16" customFormat="1">
+    </row>
+    <row r="9" spans="1:42" s="16" customFormat="1">
       <c r="A9" s="22" t="s">
         <v>43</v>
       </c>
@@ -3740,7 +3268,7 @@
       <c r="AJ9" s="16">
         <v>0</v>
       </c>
-      <c r="AK9" s="16">
+      <c r="AK9" s="40">
         <v>0</v>
       </c>
       <c r="AL9" s="40">
@@ -3758,89 +3286,8 @@
       <c r="AP9" s="40">
         <v>0</v>
       </c>
-      <c r="AQ9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="40">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="40">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="40">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="40">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="40">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BO9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="31">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:69" s="17" customFormat="1" ht="67.5">
+    </row>
+    <row r="10" spans="1:42" s="17" customFormat="1" ht="67.900000000000006" thickBot="1">
       <c r="A10" s="23" t="s">
         <v>44</v>
       </c>
@@ -3947,101 +3394,30 @@
         <v>49</v>
       </c>
       <c r="AJ10" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK10" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="AL10" s="42"/>
-      <c r="AM10" s="42"/>
+        <v>248</v>
+      </c>
+      <c r="AK10" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL10" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM10" s="41" t="s">
+        <v>155</v>
+      </c>
       <c r="AN10" s="41" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="AO10" s="41" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="AP10" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="AQ10" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="AR10" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="AS10" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="AT10" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="AU10" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="AV10" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="AW10" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX10" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="AY10" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ10" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA10" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="BB10" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="BC10" s="41" t="s">
         <v>157</v>
-      </c>
-      <c r="BD10" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE10" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF10" s="33"/>
-      <c r="BG10" s="33"/>
-      <c r="BH10" s="33"/>
-      <c r="BI10" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="BJ10" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="BK10" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="BL10" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="BM10" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="BN10" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="BO10" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="BP10" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="BQ10" s="32" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF7:BK9 O3:AC3 J3:M3 BI5:BK6 AP5:BC5 BL5:BQ5 B7:AH9 AL7:AM9 BO6:BQ9 AN6:BC9 B5:AK5 BD5:BE9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:AC3 J3:M3 B7:AH9 B5:AP5 AK6:AP9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
@@ -4052,11 +3428,69 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="8.1328125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0700-000000000000}">
+      <formula1>"lua,python,C#,js"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0700-000001000000}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -4999,11 +4433,1076 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972B7153-9DF5-4ED6-8C38-DB6612A94CE8}">
+  <dimension ref="A1:AH10"/>
+  <sheetViews>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.796875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
+    <col min="5" max="15" width="17.33203125" customWidth="1"/>
+    <col min="16" max="17" width="18.33203125" customWidth="1"/>
+    <col min="18" max="20" width="17.33203125" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+    <col min="22" max="22" width="14.46484375" customWidth="1"/>
+    <col min="23" max="25" width="16" customWidth="1"/>
+    <col min="26" max="28" width="17.33203125" customWidth="1"/>
+    <col min="29" max="31" width="18.33203125" customWidth="1"/>
+    <col min="32" max="34" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" s="25" customFormat="1">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="26" customFormat="1">
+      <c r="A2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" s="26" customFormat="1">
+      <c r="A3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="40">
+        <v>0</v>
+      </c>
+      <c r="C3" s="39">
+        <v>0</v>
+      </c>
+      <c r="D3" s="39">
+        <v>0</v>
+      </c>
+      <c r="E3" s="39">
+        <v>1</v>
+      </c>
+      <c r="F3" s="39">
+        <v>1</v>
+      </c>
+      <c r="G3" s="39">
+        <v>0</v>
+      </c>
+      <c r="H3" s="39">
+        <v>0</v>
+      </c>
+      <c r="I3" s="39">
+        <v>0</v>
+      </c>
+      <c r="J3" s="39">
+        <v>0</v>
+      </c>
+      <c r="K3" s="39">
+        <v>0</v>
+      </c>
+      <c r="L3" s="39">
+        <v>0</v>
+      </c>
+      <c r="M3" s="39">
+        <v>0</v>
+      </c>
+      <c r="N3" s="39">
+        <v>0</v>
+      </c>
+      <c r="O3" s="39">
+        <v>0</v>
+      </c>
+      <c r="P3" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="31">
+        <v>0</v>
+      </c>
+      <c r="R3" s="30">
+        <v>0</v>
+      </c>
+      <c r="S3" s="30">
+        <v>0</v>
+      </c>
+      <c r="T3" s="30">
+        <v>0</v>
+      </c>
+      <c r="U3" s="30">
+        <v>0</v>
+      </c>
+      <c r="V3" s="30">
+        <v>0</v>
+      </c>
+      <c r="W3" s="30">
+        <v>0</v>
+      </c>
+      <c r="X3" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" s="26" customFormat="1">
+      <c r="A4" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="39">
+        <v>1</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0</v>
+      </c>
+      <c r="E4" s="39">
+        <v>1</v>
+      </c>
+      <c r="F4" s="39">
+        <v>1</v>
+      </c>
+      <c r="G4" s="39">
+        <v>1</v>
+      </c>
+      <c r="H4" s="39">
+        <v>1</v>
+      </c>
+      <c r="I4" s="39">
+        <v>1</v>
+      </c>
+      <c r="J4" s="39">
+        <v>1</v>
+      </c>
+      <c r="K4" s="39">
+        <v>1</v>
+      </c>
+      <c r="L4" s="39">
+        <v>1</v>
+      </c>
+      <c r="M4" s="39">
+        <v>1</v>
+      </c>
+      <c r="N4" s="39">
+        <v>1</v>
+      </c>
+      <c r="O4" s="39">
+        <v>1</v>
+      </c>
+      <c r="P4" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="30">
+        <v>1</v>
+      </c>
+      <c r="R4" s="30">
+        <v>1</v>
+      </c>
+      <c r="S4" s="30">
+        <v>1</v>
+      </c>
+      <c r="T4" s="30">
+        <v>1</v>
+      </c>
+      <c r="U4" s="30">
+        <v>0</v>
+      </c>
+      <c r="V4" s="30">
+        <v>0</v>
+      </c>
+      <c r="W4" s="30">
+        <v>0</v>
+      </c>
+      <c r="X4" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="26" customFormat="1">
+      <c r="A5" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="40">
+        <v>0</v>
+      </c>
+      <c r="C5" s="39">
+        <v>0</v>
+      </c>
+      <c r="D5" s="39">
+        <v>0</v>
+      </c>
+      <c r="E5" s="39">
+        <v>1</v>
+      </c>
+      <c r="F5" s="39">
+        <v>1</v>
+      </c>
+      <c r="G5" s="40">
+        <v>0</v>
+      </c>
+      <c r="H5" s="40">
+        <v>0</v>
+      </c>
+      <c r="I5" s="40">
+        <v>0</v>
+      </c>
+      <c r="J5" s="40">
+        <v>0</v>
+      </c>
+      <c r="K5" s="40">
+        <v>0</v>
+      </c>
+      <c r="L5" s="40">
+        <v>0</v>
+      </c>
+      <c r="M5" s="40">
+        <v>0</v>
+      </c>
+      <c r="N5" s="40">
+        <v>0</v>
+      </c>
+      <c r="O5" s="40">
+        <v>0</v>
+      </c>
+      <c r="P5" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>0</v>
+      </c>
+      <c r="R5" s="31">
+        <v>0</v>
+      </c>
+      <c r="S5" s="31">
+        <v>0</v>
+      </c>
+      <c r="T5" s="31">
+        <v>0</v>
+      </c>
+      <c r="U5" s="31">
+        <v>0</v>
+      </c>
+      <c r="V5" s="31">
+        <v>0</v>
+      </c>
+      <c r="W5" s="30">
+        <v>0</v>
+      </c>
+      <c r="X5" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" s="26" customFormat="1">
+      <c r="A6" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="39">
+        <v>1</v>
+      </c>
+      <c r="C6" s="39">
+        <v>0</v>
+      </c>
+      <c r="D6" s="39">
+        <v>0</v>
+      </c>
+      <c r="E6" s="40">
+        <v>1</v>
+      </c>
+      <c r="F6" s="40">
+        <v>1</v>
+      </c>
+      <c r="G6" s="40">
+        <v>1</v>
+      </c>
+      <c r="H6" s="40">
+        <v>1</v>
+      </c>
+      <c r="I6" s="40">
+        <v>1</v>
+      </c>
+      <c r="J6" s="40">
+        <v>1</v>
+      </c>
+      <c r="K6" s="40">
+        <v>1</v>
+      </c>
+      <c r="L6" s="40">
+        <v>1</v>
+      </c>
+      <c r="M6" s="40">
+        <v>1</v>
+      </c>
+      <c r="N6" s="40">
+        <v>1</v>
+      </c>
+      <c r="O6" s="40">
+        <v>1</v>
+      </c>
+      <c r="P6" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="30">
+        <v>1</v>
+      </c>
+      <c r="R6" s="31">
+        <v>1</v>
+      </c>
+      <c r="S6" s="31">
+        <v>1</v>
+      </c>
+      <c r="T6" s="31">
+        <v>1</v>
+      </c>
+      <c r="U6" s="31">
+        <v>0</v>
+      </c>
+      <c r="V6" s="31">
+        <v>0</v>
+      </c>
+      <c r="W6" s="30">
+        <v>0</v>
+      </c>
+      <c r="X6" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" s="16" customFormat="1">
+      <c r="A7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="40">
+        <v>0</v>
+      </c>
+      <c r="C7" s="40">
+        <v>0</v>
+      </c>
+      <c r="D7" s="40">
+        <v>0</v>
+      </c>
+      <c r="E7" s="40">
+        <v>0</v>
+      </c>
+      <c r="F7" s="40">
+        <v>0</v>
+      </c>
+      <c r="G7" s="40">
+        <v>0</v>
+      </c>
+      <c r="H7" s="40">
+        <v>0</v>
+      </c>
+      <c r="I7" s="40">
+        <v>0</v>
+      </c>
+      <c r="J7" s="40">
+        <v>0</v>
+      </c>
+      <c r="K7" s="40">
+        <v>0</v>
+      </c>
+      <c r="L7" s="40">
+        <v>0</v>
+      </c>
+      <c r="M7" s="40">
+        <v>0</v>
+      </c>
+      <c r="N7" s="40">
+        <v>0</v>
+      </c>
+      <c r="O7" s="40">
+        <v>0</v>
+      </c>
+      <c r="P7" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="31">
+        <v>0</v>
+      </c>
+      <c r="R7" s="31">
+        <v>0</v>
+      </c>
+      <c r="S7" s="31">
+        <v>0</v>
+      </c>
+      <c r="T7" s="31">
+        <v>0</v>
+      </c>
+      <c r="U7" s="31">
+        <v>0</v>
+      </c>
+      <c r="V7" s="31">
+        <v>0</v>
+      </c>
+      <c r="W7" s="31">
+        <v>0</v>
+      </c>
+      <c r="X7" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" s="16" customFormat="1">
+      <c r="A8" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="40">
+        <v>0</v>
+      </c>
+      <c r="C8" s="40">
+        <v>0</v>
+      </c>
+      <c r="D8" s="40">
+        <v>0</v>
+      </c>
+      <c r="E8" s="40">
+        <v>0</v>
+      </c>
+      <c r="F8" s="40">
+        <v>0</v>
+      </c>
+      <c r="G8" s="40">
+        <v>0</v>
+      </c>
+      <c r="H8" s="40">
+        <v>0</v>
+      </c>
+      <c r="I8" s="40">
+        <v>0</v>
+      </c>
+      <c r="J8" s="40">
+        <v>0</v>
+      </c>
+      <c r="K8" s="40">
+        <v>0</v>
+      </c>
+      <c r="L8" s="40">
+        <v>0</v>
+      </c>
+      <c r="M8" s="40">
+        <v>0</v>
+      </c>
+      <c r="N8" s="40">
+        <v>0</v>
+      </c>
+      <c r="O8" s="40">
+        <v>0</v>
+      </c>
+      <c r="P8" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="31">
+        <v>0</v>
+      </c>
+      <c r="R8" s="31">
+        <v>0</v>
+      </c>
+      <c r="S8" s="31">
+        <v>0</v>
+      </c>
+      <c r="T8" s="31">
+        <v>0</v>
+      </c>
+      <c r="U8" s="31">
+        <v>0</v>
+      </c>
+      <c r="V8" s="31">
+        <v>0</v>
+      </c>
+      <c r="W8" s="31">
+        <v>0</v>
+      </c>
+      <c r="X8" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" s="16" customFormat="1">
+      <c r="A9" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="40">
+        <v>0</v>
+      </c>
+      <c r="C9" s="40">
+        <v>0</v>
+      </c>
+      <c r="D9" s="40">
+        <v>0</v>
+      </c>
+      <c r="E9" s="40">
+        <v>0</v>
+      </c>
+      <c r="F9" s="40">
+        <v>0</v>
+      </c>
+      <c r="G9" s="40">
+        <v>0</v>
+      </c>
+      <c r="H9" s="40">
+        <v>0</v>
+      </c>
+      <c r="I9" s="40">
+        <v>0</v>
+      </c>
+      <c r="J9" s="40">
+        <v>0</v>
+      </c>
+      <c r="K9" s="40">
+        <v>0</v>
+      </c>
+      <c r="L9" s="40">
+        <v>0</v>
+      </c>
+      <c r="M9" s="40">
+        <v>0</v>
+      </c>
+      <c r="N9" s="40">
+        <v>0</v>
+      </c>
+      <c r="O9" s="40">
+        <v>0</v>
+      </c>
+      <c r="P9" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="31">
+        <v>0</v>
+      </c>
+      <c r="R9" s="31">
+        <v>0</v>
+      </c>
+      <c r="S9" s="31">
+        <v>0</v>
+      </c>
+      <c r="T9" s="31">
+        <v>0</v>
+      </c>
+      <c r="U9" s="31">
+        <v>0</v>
+      </c>
+      <c r="V9" s="31">
+        <v>0</v>
+      </c>
+      <c r="W9" s="31">
+        <v>0</v>
+      </c>
+      <c r="X9" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" s="17" customFormat="1" ht="27.4" thickBot="1">
+      <c r="A10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="N10" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="O10" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="T10" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="U10" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="V10" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA10" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB10" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC10" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD10" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE10" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF10" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG10" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH10" s="32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{C5B45FAA-DDA2-4923-883B-BDBA94013D24}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7:AB9 Z5:AB6 AC5:AH5 C7:D9 AF6:AH9 B5 E6:F9 G5:V9" xr:uid="{9492378F-A71A-4DF6-9127-6F1B0B990504}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5095,234 +5594,250 @@
     </row>
     <row r="8" spans="1:29" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" s="3" customFormat="1">
-      <c r="A9" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="P9" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q9" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="R9" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="S9" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="T9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="U9" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="V9" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="W9" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="X9" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y9" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z9" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA9" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB9" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC9" s="34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" s="3" customFormat="1">
-      <c r="A10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="R10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="S10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="T10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="V10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="W10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="X10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC10" s="34" t="s">
-        <v>36</v>
+      <c r="B10" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="3" customFormat="1">
       <c r="A11" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="T11" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="U11" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="V11" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="W11" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="X11" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y11" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z11" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA11" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB11" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC11" s="34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="3" customFormat="1">
+      <c r="A12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC12" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="3" customFormat="1">
+      <c r="A13" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B13" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:B5 D11:G1048576 A6 D1:G8 B6:B8" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:B5 D13:G1048576 A6 D1:G10 B6:B10" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:C10 U10 V9:AC10 I11:AC1048576 D9:T10 AD1:AK1048576 I1:AC8" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A12:C12 U12 V11:AC12 I13:AC1048576 D11:T12 AD1:AK1048576 I1:AC10" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 B12:C1048576 A2:B3 C1:C8" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13 B14:C1048576 A2:B3 C1:C10" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5333,12 +5848,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5428,466 +5943,498 @@
     </row>
     <row r="8" spans="1:23" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="3" customFormat="1">
-      <c r="A9" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="P9" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q9" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="R9" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="S9" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="T9" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="U9" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="V9" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="W9" s="34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="3" customFormat="1">
-      <c r="A10" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="R10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="U10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="V10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="W10" s="34" t="s">
-        <v>35</v>
+      <c r="B10" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="3" customFormat="1">
       <c r="A11" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="R11" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="T11" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="U11" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="V11" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="W11" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="3" customFormat="1">
+      <c r="A12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="W12" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="3" customFormat="1">
+      <c r="A13" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-    </row>
-    <row r="12" spans="1:23" s="2" customFormat="1">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+    </row>
+    <row r="14" spans="1:23" s="2" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="3" customFormat="1">
-      <c r="A13" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="3" customFormat="1">
-      <c r="A14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="3">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="B16" s="3">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:29" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:29" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="3" customFormat="1">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="3" customFormat="1">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" s="3" customFormat="1">
+      <c r="A22" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" s="3" customFormat="1">
+      <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" s="3" customFormat="1">
-      <c r="A20" s="34" t="s">
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" s="3" customFormat="1">
+      <c r="A24" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B24" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C24" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D24" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E24" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F24" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G24" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H24" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I24" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="J24" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="K24" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="L20" s="34" t="s">
+      <c r="L24" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="M20" s="34" t="s">
+      <c r="M24" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="N20" s="34" t="s">
+      <c r="N24" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="O20" s="34" t="s">
+      <c r="O24" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="P20" s="34" t="s">
+      <c r="P24" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="Q20" s="34" t="s">
+      <c r="Q24" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="R20" s="34" t="s">
+      <c r="R24" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="S20" s="34" t="s">
+      <c r="S24" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="T20" s="34" t="s">
+      <c r="T24" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="U20" s="34" t="s">
+      <c r="U24" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="V20" s="34" t="s">
+      <c r="V24" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="W20" s="34" t="s">
+      <c r="W24" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="X20" s="34" t="s">
+      <c r="X24" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="Y20" s="34" t="s">
+      <c r="Y24" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="Z20" s="34" t="s">
+      <c r="Z24" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="AA20" s="34" t="s">
+      <c r="AA24" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="AB20" s="34" t="s">
+      <c r="AB24" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="AC20" s="34" t="s">
+      <c r="AC24" s="34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="3" customFormat="1">
-      <c r="A21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="N21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="O21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="P21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="R21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="S21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="T21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="U21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="V21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="W21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="X21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC21" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" s="3" customFormat="1">
-      <c r="A22" s="34" t="s">
+    <row r="25" spans="1:29" s="3" customFormat="1">
+      <c r="A25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="P25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="X25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC25" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" s="3" customFormat="1">
+      <c r="A26" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B26" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 A17 C22 B17:B19 D22:G1048576 A4:B5 A15:B16 C12:G18" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A19 C26 D8:G9 D26:G1048576 A4:B5 A17:B18 B6:B10 B19:B23 C14:G20 D21:G22" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A21:C21 U21 D20:T21 V20:AC21" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A25:C25 U25 D24:T25 V24:AC25 I8:AK9 I21:AK22" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A13:B14 B23:C1048576 A2:B3" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15:B16 B27:C1048576 A2:B3 C8:C9 C21:C22" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5898,12 +6445,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6128,299 +6675,257 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" s="12" customFormat="1">
+    <row r="8" spans="1:23" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1">
+      <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" s="12" customFormat="1">
-      <c r="A9" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="P9" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q9" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="R9" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="S9" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="T9" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="U9" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="V9" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="W9" s="34" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="12" customFormat="1">
-      <c r="A10" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="R10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="T10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="V10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="W10" s="34" t="s">
-        <v>36</v>
-      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1">
       <c r="A11" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="R11" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="T11" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="U11" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="V11" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="W11" s="34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1">
+      <c r="A12" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1">
+      <c r="A13" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B13" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-    </row>
-    <row r="12" spans="1:23" s="11" customFormat="1">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-    </row>
-    <row r="13" spans="1:23" s="13" customFormat="1">
-      <c r="A13" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="3">
-        <v>128</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" s="13" customFormat="1">
-      <c r="A14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="3">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="13" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -6446,10 +6951,10 @@
     </row>
     <row r="16" spans="1:23" s="13" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="B16" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -6475,7 +6980,7 @@
     </row>
     <row r="17" spans="1:23" s="13" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -6504,7 +7009,7 @@
     </row>
     <row r="18" spans="1:23" s="13" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -6533,7 +7038,7 @@
     </row>
     <row r="19" spans="1:23" s="13" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -6561,165 +7066,123 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" s="13" customFormat="1">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="1:23" s="3" customFormat="1">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="3" customFormat="1">
+      <c r="A22" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="13" customFormat="1">
+      <c r="A23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+    </row>
+    <row r="24" spans="1:23" s="13" customFormat="1">
+      <c r="A24" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B24" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C24" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D24" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E24" s="34" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="13" customFormat="1">
-      <c r="A21" s="34" t="s">
+    <row r="25" spans="1:23" s="13" customFormat="1">
+      <c r="A25" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" s="13" customFormat="1">
-      <c r="A22" s="34" t="s">
+      <c r="B25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" s="13" customFormat="1">
+      <c r="A26" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B26" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="1:23" s="11" customFormat="1">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-    </row>
-    <row r="24" spans="1:23" s="13" customFormat="1">
-      <c r="A24" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="3">
-        <v>128</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="1:23" s="13" customFormat="1">
-      <c r="A25" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" s="3">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-    </row>
-    <row r="26" spans="1:23" s="13" customFormat="1">
-      <c r="A26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -6739,41 +7202,41 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" spans="1:23" s="13" customFormat="1">
-      <c r="A27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
+    <row r="27" spans="1:23" s="11" customFormat="1">
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" s="13" customFormat="1">
       <c r="A28" s="3" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="B28" s="3">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -6799,10 +7262,10 @@
     </row>
     <row r="29" spans="1:23" s="13" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="B29" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -6828,7 +7291,7 @@
     </row>
     <row r="30" spans="1:23" s="13" customFormat="1">
       <c r="A30" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -6856,40 +7319,72 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" s="13" customFormat="1">
-      <c r="A31" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>227</v>
-      </c>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" s="13" customFormat="1">
-      <c r="A32" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>219</v>
-      </c>
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
     </row>
     <row r="33" spans="1:23" s="13" customFormat="1">
-      <c r="A33" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -6910,17 +7405,117 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
     </row>
+    <row r="34" spans="1:23" s="3" customFormat="1">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="3" customFormat="1">
+      <c r="A35" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" s="13" customFormat="1">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+    </row>
+    <row r="37" spans="1:23" s="13" customFormat="1">
+      <c r="A37" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" s="13" customFormat="1">
+      <c r="A38" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" s="13" customFormat="1">
+      <c r="A39" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="35"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:W33" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:W39" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 E11:F11 A17 B17:B19 G11:G19 E1:G8 A4:B5 D12:F19 A15:B16 D22:G30 A26:B28 E33 G33:G1048576 D34:F1048576 B29:B30" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 E10:G10 E13:F13 A19 D21:G23 A4:B5 D8:G9 A17:B18 B19:B23 A30:B32 E39 G39:G1048576 D40:F1048576 E1:G7 B6:B10 D14:F20 G13:G20 D26:G36 B33:B36" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 G9 N9:W9 F9:F10 N1:N8 N11:N19 N22:N30 N33:N1048576 A31" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 G10 N10:W10 A9:A10 O1:AE8 A20:E21 I11:M19 O11:AE19 O33:AE1048576 I1:M8 X9:AE10 C9:E10 H9:M10 O22:AE30 I22:M30 I33:M1048576 A32 B31:C32" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B11 G11 N11:W11 F11:F12 A37 N10 N23 N39:N1048576 N1:N7 N13:N20 N26:N33 N36" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B12 G12 N12:W12 A11:A12 I10:M10 A24:E25 O23:AE23 I8:AK9 O39:AE1048576 B37:C38 X11:AE12 C11:E12 H11:M12 I36:M36 I21:AK22 I39:M1048576 A38 I1:M7 O1:AE7 O10:AE10 O13:AE20 I13:M20 I23:M23 I26:M33 O26:AE33 O36:AE36 I34:AK35" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C1048576 C12:C19 A2:B3 A13:B14 C22:C30 B34:B1048576 A24:B25 D33" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39:C1048576 C8:C9 A2:B3 A15:B16 C14:C23 B40:B1048576 A28:B29 D39 C26:C36" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -6930,12 +7525,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7007,95 +7602,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="6" customFormat="1">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:4" s="3" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="6" customFormat="1">
+      <c r="A10" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="6" customFormat="1">
-      <c r="A9" s="36" t="s">
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="6" customFormat="1">
+      <c r="A11" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B11" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C11" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D11" s="36" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="6" customFormat="1">
-      <c r="A10" s="36" t="s">
+    <row r="12" spans="1:4" s="6" customFormat="1">
+      <c r="A12" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="36" t="s">
+      <c r="B12" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="6" customFormat="1">
-      <c r="A11" s="37" t="s">
+    <row r="13" spans="1:4" s="6" customFormat="1">
+      <c r="A13" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B13" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-    </row>
-    <row r="12" spans="1:4" s="5" customFormat="1">
-      <c r="A12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+    </row>
+    <row r="14" spans="1:4" s="5" customFormat="1">
+      <c r="A14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="6" customFormat="1">
-      <c r="A13" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="9">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="6" customFormat="1">
-      <c r="A14" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="9">
-        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="A15" s="9" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="B15" s="9">
-        <v>0</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="A16" s="9" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="B16" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="A17" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="9">
         <v>0</v>
@@ -7103,64 +7698,99 @@
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="A18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="3">
+        <v>39</v>
+      </c>
+      <c r="B18" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1">
       <c r="A19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1">
+      <c r="A20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="3" customFormat="1">
+      <c r="A22" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1">
+      <c r="A23" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="6" customFormat="1">
-      <c r="A20" s="36" t="s">
+      <c r="B23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="6" customFormat="1">
+      <c r="A24" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B24" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C24" s="36" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="6" customFormat="1">
-      <c r="A21" s="36" t="s">
+    <row r="25" spans="1:3" s="6" customFormat="1">
+      <c r="A25" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="6" customFormat="1">
-      <c r="A22" s="37" t="s">
+      <c r="B25" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="6" customFormat="1">
+      <c r="A26" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B26" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="C22" s="36"/>
+      <c r="C26" s="36"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 B7 B8 A17 B17 B18 G1:G21 E1:F11 D12:F21 D22:G1048576 A4:B5 A15:B16" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B19:B22 A19 E10:F13 A17:B18 D8:G9 A4:B5 E1:G7 B6:B10 D14:F20 G10:G20 D21:G1048576" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A13:B14 A2:B3" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27:B1048576 C8:C9 C26:C1048576 A15:B16 A2:B3 C14:C23" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A9:D10 I1:L1048576 A20:B21" xr:uid="{00000000-0002-0000-0500-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A11:D12 A24:B25 I1:L7 I10:L20 I23:L1048576" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I8:AK9 I21:AK22" xr:uid="{CDDB4D40-AC1F-46F0-8FB0-4FF5B1723AEF}">
+      <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7170,12 +7800,1001 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B75D66-24F2-4C13-B924-F253540B0462}">
+  <dimension ref="A1:AQ26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.1328125" customWidth="1"/>
+    <col min="2" max="2" width="17.1328125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.46484375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="11" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" s="5" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" s="6" customFormat="1">
+      <c r="A2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" s="6" customFormat="1">
+      <c r="A3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" s="6" customFormat="1">
+      <c r="A4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" s="6" customFormat="1">
+      <c r="A5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" s="6" customFormat="1">
+      <c r="A6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" s="6" customFormat="1">
+      <c r="A7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" s="3" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" s="6" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A10" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" s="6" customFormat="1" ht="42.75">
+      <c r="A11" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="M11" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="O11" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="P11" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q11" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="R11" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="S11" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="T11" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="U11" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="V11" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="W11" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="X11" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y11" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z11" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA11" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB11" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC11" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD11" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE11" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF11" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG11" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="AH11" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="AI11" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="AJ11" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="AK11" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="AL11" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM11" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN11" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="AO11" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="AP11" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="AQ11" s="45" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" s="6" customFormat="1" ht="14.25">
+      <c r="A12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="V12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP12" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ12" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" s="6" customFormat="1" ht="14.25">
+      <c r="A13" s="48">
+        <v>0</v>
+      </c>
+      <c r="B13" s="48">
+        <v>0</v>
+      </c>
+      <c r="C13" s="48">
+        <v>0</v>
+      </c>
+      <c r="D13" s="48">
+        <v>0</v>
+      </c>
+      <c r="E13" s="48">
+        <v>0</v>
+      </c>
+      <c r="F13" s="48">
+        <v>0</v>
+      </c>
+      <c r="G13" s="48">
+        <v>0</v>
+      </c>
+      <c r="H13" s="48">
+        <v>0</v>
+      </c>
+      <c r="I13" s="48">
+        <v>0</v>
+      </c>
+      <c r="J13" s="48">
+        <v>0</v>
+      </c>
+      <c r="K13" s="48">
+        <v>0</v>
+      </c>
+      <c r="L13" s="48">
+        <v>0</v>
+      </c>
+      <c r="M13" s="48">
+        <v>0</v>
+      </c>
+      <c r="N13" s="48">
+        <v>0</v>
+      </c>
+      <c r="O13" s="48">
+        <v>0</v>
+      </c>
+      <c r="P13" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="48">
+        <v>0</v>
+      </c>
+      <c r="R13" s="48">
+        <v>0</v>
+      </c>
+      <c r="S13" s="48">
+        <v>0</v>
+      </c>
+      <c r="T13" s="48">
+        <v>0</v>
+      </c>
+      <c r="U13" s="48">
+        <v>0</v>
+      </c>
+      <c r="V13" s="48">
+        <v>0</v>
+      </c>
+      <c r="W13" s="48">
+        <v>0</v>
+      </c>
+      <c r="X13" s="48">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="48">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="48">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="48">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="48">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="48">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="48">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="48">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="48">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="48">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="48">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="48">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="48">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="48">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="48">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="48">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="48">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="48">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" s="5" customFormat="1">
+      <c r="A14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" s="6" customFormat="1">
+      <c r="A15" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" s="6" customFormat="1">
+      <c r="A16" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" s="6" customFormat="1">
+      <c r="A17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" s="6" customFormat="1">
+      <c r="A18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" s="6" customFormat="1">
+      <c r="A19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" s="6" customFormat="1">
+      <c r="A20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" s="3" customFormat="1">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" s="3" customFormat="1">
+      <c r="A22" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" s="6" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A23" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" s="6" customFormat="1" ht="42.75">
+      <c r="A24" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="H24" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="J24" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="K24" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="L24" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="M24" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="N24" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="O24" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="P24" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q24" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="R24" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="S24" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="T24" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="U24" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="V24" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="W24" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="X24" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y24" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z24" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA24" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB24" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC24" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD24" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE24" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF24" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG24" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="AH24" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="AI24" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="AJ24" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="AK24" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="AL24" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM24" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN24" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="AO24" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="AP24" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="AQ24" s="45" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" s="6" customFormat="1" ht="14.25">
+      <c r="A25" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="P25" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="R25" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="U25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="X25" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB25" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD25" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF25" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP25" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ25" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" s="6" customFormat="1" ht="14.25">
+      <c r="A26" s="48">
+        <v>0</v>
+      </c>
+      <c r="B26" s="48">
+        <v>0</v>
+      </c>
+      <c r="C26" s="48">
+        <v>0</v>
+      </c>
+      <c r="D26" s="48">
+        <v>0</v>
+      </c>
+      <c r="E26" s="48">
+        <v>0</v>
+      </c>
+      <c r="F26" s="48">
+        <v>0</v>
+      </c>
+      <c r="G26" s="48">
+        <v>0</v>
+      </c>
+      <c r="H26" s="48">
+        <v>0</v>
+      </c>
+      <c r="I26" s="48">
+        <v>0</v>
+      </c>
+      <c r="J26" s="48">
+        <v>0</v>
+      </c>
+      <c r="K26" s="48">
+        <v>0</v>
+      </c>
+      <c r="L26" s="48">
+        <v>0</v>
+      </c>
+      <c r="M26" s="48">
+        <v>0</v>
+      </c>
+      <c r="N26" s="48">
+        <v>0</v>
+      </c>
+      <c r="O26" s="48">
+        <v>0</v>
+      </c>
+      <c r="P26" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="48">
+        <v>0</v>
+      </c>
+      <c r="R26" s="48">
+        <v>0</v>
+      </c>
+      <c r="S26" s="48">
+        <v>0</v>
+      </c>
+      <c r="T26" s="48">
+        <v>0</v>
+      </c>
+      <c r="U26" s="48">
+        <v>0</v>
+      </c>
+      <c r="V26" s="48">
+        <v>0</v>
+      </c>
+      <c r="W26" s="48">
+        <v>0</v>
+      </c>
+      <c r="X26" s="48">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="48">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="48">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="48">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="48">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="48">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="48">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="48">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="48">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="48">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="48">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="48">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="48">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="48">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="48">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="48">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="48">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="48">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="48">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:B6 A17:B19 D8:G9 D28:F1048576 E1:G7 B7:B10 B27:E27 B20:B22 E10:G10 D14:G23 G27:G1048576" xr:uid="{288310A3-F6F6-4918-9CA6-CAE0AF74A5E5}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I10:L10 I14:L20 I27:L1048576 I1:L7 I23:L23" xr:uid="{4BB541C3-DE00-4A0F-86DC-7B8DA0118FE5}">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C9 B28:C1048576 A15:B16 A2:B3 C14:C23" xr:uid="{F73D3A16-5590-46E0-A397-E8C7648E3373}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23" xr:uid="{64AB7D26-7A8C-4354-A693-7ED59447E004}">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I8:AK9 I21:AK22" xr:uid="{499883F5-A336-40B7-A873-C7A2C738EEE5}">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7252,106 +8871,106 @@
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1">
-      <c r="A9" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1">
-      <c r="A10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>36</v>
+      <c r="B10" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1">
       <c r="A11" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1">
+      <c r="A12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1">
+      <c r="A13" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1">
-      <c r="A13" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="3">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="3" customFormat="1">
-      <c r="A14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="3">
-        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="B16" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -7359,131 +8978,108 @@
     </row>
     <row r="19" spans="1:5" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="3" customFormat="1">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="3" customFormat="1">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="3" customFormat="1">
+      <c r="A22" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="3" customFormat="1">
+      <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="3" customFormat="1">
-      <c r="A20" s="34" t="s">
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="3" customFormat="1">
+      <c r="A24" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B24" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C24" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D24" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E24" s="34" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="3" customFormat="1">
-      <c r="A21" s="34" t="s">
+    <row r="25" spans="1:5" s="3" customFormat="1">
+      <c r="A25" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B25" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="34" t="s">
+      <c r="C25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="E21" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="3" customFormat="1">
-      <c r="A22" s="34" t="s">
+      <c r="E25" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="3" customFormat="1">
+      <c r="A26" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B8 B18:B19 F1:F1048576 A15:B17 A4:B5 E1:E8 E11:E19 E22:E1048576" xr:uid="{00000000-0002-0000-0600-000000000000}">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 E23 E10 A17:B19 A4:B5 E26:E1048576 D8:G9 E1:F7 B6:B10 E13:E20 B20:B23 F10:F20 F23:F1048576 D21:G22" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A9:B9 H40:H1048576 A20:B20" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A10:B10 A21:B21 H1:H39" xr:uid="{00000000-0002-0000-0600-000002000000}">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A11:B11 H44:H1048576 A24:B24" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A12:B12 A25:B25 H1:H7 H10:H20 H23:H43" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C21" xr:uid="{00000000-0002-0000-0600-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C25" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>"int,float,string,object"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8 A18:A19" xr:uid="{00000000-0002-0000-0600-000004000000}"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 C12:C19 C22:C1048576 A2:B3 A13:B14" xr:uid="{00000000-0002-0000-0600-000005000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10 A7 A20 A23" xr:uid="{00000000-0002-0000-0600-000004000000}"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27:B1048576 C8:C9 C26:C1048576 A2:B3 A15:B16 C14:C23" xr:uid="{00000000-0002-0000-0600-000005000000}">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I8:AK9 I21:AK22" xr:uid="{32E4A685-6996-4B93-A816-A36100AF767C}">
+      <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="8.1328125" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0700-000000000000}">
-      <formula1>"lua,python,C#,js"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0700-000001000000}">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="300">
   <si>
     <t>Id</t>
   </si>
@@ -2108,11 +2108,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP10"/>
+  <dimension ref="A1:AS10"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP2" sqref="AP2"/>
+      <selection pane="bottomLeft" activeCell="AJ6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2132,10 +2132,10 @@
     <col min="28" max="28" width="12.33203125" customWidth="1"/>
     <col min="29" max="29" width="16" customWidth="1"/>
     <col min="35" max="36" width="18.33203125" customWidth="1"/>
-    <col min="37" max="42" width="17.33203125" customWidth="1"/>
+    <col min="37" max="45" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="25" customFormat="1">
+    <row r="1" spans="1:45" s="25" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2262,8 +2262,17 @@
       <c r="AP1" s="28" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" s="26" customFormat="1">
+      <c r="AQ1" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="AR1" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="AS1" s="28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" s="26" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>34</v>
       </c>
@@ -2390,8 +2399,17 @@
       <c r="AP2" s="39" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" s="26" customFormat="1">
+      <c r="AQ2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS2" s="39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" s="26" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>38</v>
       </c>
@@ -2518,8 +2536,17 @@
       <c r="AP3" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" s="26" customFormat="1">
+      <c r="AQ3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="39">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" s="26" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>39</v>
       </c>
@@ -2646,8 +2673,17 @@
       <c r="AP4" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" s="26" customFormat="1">
+      <c r="AQ4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" s="26" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>40</v>
       </c>
@@ -2774,8 +2810,17 @@
       <c r="AP5" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" s="26" customFormat="1">
+      <c r="AQ5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" s="26" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>41</v>
       </c>
@@ -2902,8 +2947,17 @@
       <c r="AP6" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:42" s="16" customFormat="1">
+      <c r="AQ6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" s="16" customFormat="1">
       <c r="A7" s="22" t="s">
         <v>42</v>
       </c>
@@ -3030,8 +3084,17 @@
       <c r="AP7" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:42" s="16" customFormat="1">
+      <c r="AQ7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
         <v>221</v>
       </c>
@@ -3158,8 +3221,17 @@
       <c r="AP8" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" s="16" customFormat="1">
+      <c r="AQ8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" s="16" customFormat="1">
       <c r="A9" s="22" t="s">
         <v>43</v>
       </c>
@@ -3286,8 +3358,17 @@
       <c r="AP9" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:42" s="17" customFormat="1" ht="67.900000000000006" thickBot="1">
+      <c r="AQ9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" s="17" customFormat="1" ht="67.900000000000006" thickBot="1">
       <c r="A10" s="23" t="s">
         <v>44</v>
       </c>
@@ -3414,10 +3495,19 @@
       <c r="AP10" s="41" t="s">
         <v>157</v>
       </c>
+      <c r="AQ10" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="AR10" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="AS10" s="41" t="s">
+        <v>289</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:AC3 J3:M3 B7:AH9 B5:AP5 AK6:AP9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:AC3 J3:M3 B7:AH9 B5:AS5 AK6:AS9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
@@ -4436,7 +4526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972B7153-9DF5-4ED6-8C38-DB6612A94CE8}">
   <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
@@ -7804,7 +7894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B75D66-24F2-4C13-B924-F253540B0462}">
   <dimension ref="A1:AQ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="288">
   <si>
     <t>Id</t>
   </si>
@@ -860,39 +860,6 @@
     <t>Star</t>
   </si>
   <si>
-    <t>Equip1</t>
-  </si>
-  <si>
-    <t>Equip2</t>
-  </si>
-  <si>
-    <t>Equip3</t>
-  </si>
-  <si>
-    <t>Equip4</t>
-  </si>
-  <si>
-    <t>Equip5</t>
-  </si>
-  <si>
-    <t>Equip6</t>
-  </si>
-  <si>
-    <t>Talent1</t>
-  </si>
-  <si>
-    <t>Talent2</t>
-  </si>
-  <si>
-    <t>Talent3</t>
-  </si>
-  <si>
-    <t>Talent4</t>
-  </si>
-  <si>
-    <t>Talent5</t>
-  </si>
-  <si>
     <t>Skill1</t>
   </si>
   <si>
@@ -906,9 +873,6 @@
   </si>
   <si>
     <t>Skill5</t>
-  </si>
-  <si>
-    <t>FightSkill</t>
   </si>
   <si>
     <t>BagEquipList</t>
@@ -2110,7 +2074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AJ6" sqref="A6:XFD6"/>
     </sheetView>
@@ -2188,7 +2152,7 @@
         <v>17</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="S1" s="28" t="s">
         <v>18</v>
@@ -2242,34 +2206,34 @@
         <v>5</v>
       </c>
       <c r="AJ1" s="28" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="AK1" s="28" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="AL1" s="28" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="AM1" s="28" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="AN1" s="28" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="AO1" s="28" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="AP1" s="28" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AQ1" s="28" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AR1" s="28" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="AS1" s="28" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:45" s="26" customFormat="1">
@@ -3096,7 +3060,7 @@
     </row>
     <row r="8" spans="1:45" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B8" s="16">
         <v>0</v>
@@ -3475,34 +3439,34 @@
         <v>49</v>
       </c>
       <c r="AJ10" s="24" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AK10" s="41" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="AL10" s="41" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="AM10" s="41" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="AN10" s="41" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AO10" s="41" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="AP10" s="41" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="AQ10" s="41" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AR10" s="41" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="AS10" s="41" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3538,10 +3502,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D1" t="s">
         <v>44</v>
@@ -3549,16 +3513,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4235,7 +4199,7 @@
     </row>
     <row r="8" spans="1:30" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B8" s="16">
         <v>0</v>
@@ -4551,103 +4515,103 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH1" s="28" t="s">
         <v>232</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="S1" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="U1" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="V1" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="W1" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="X1" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y1" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z1" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA1" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="AB1" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC1" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="AD1" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE1" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF1" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="AG1" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="AH1" s="28" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="26" customFormat="1">
@@ -5276,7 +5240,7 @@
     </row>
     <row r="8" spans="1:34" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B8" s="40">
         <v>0</v>
@@ -5487,57 +5451,57 @@
         <v>44</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
       <c r="E10" s="41" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="J10" s="41" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="L10" s="41" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="M10" s="41" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="N10" s="41" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="O10" s="41" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="32" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="R10" s="32" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="S10" s="32" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="T10" s="32" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="U10" s="32" t="s">
         <v>78</v>
@@ -5549,31 +5513,31 @@
       <c r="X10" s="33"/>
       <c r="Y10" s="33"/>
       <c r="Z10" s="32" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="AA10" s="32" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="AB10" s="32" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="AC10" s="32" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="AD10" s="32" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="AE10" s="32" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="AF10" s="32" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="AG10" s="32" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="AH10" s="32" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5631,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="3" customFormat="1">
@@ -5692,7 +5656,7 @@
     </row>
     <row r="9" spans="1:29" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -5700,7 +5664,7 @@
     </row>
     <row r="10" spans="1:29" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -5889,7 +5853,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -5942,8 +5906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5975,7 +5939,7 @@
     <col min="31" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1">
+    <row r="1" spans="1:22" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5983,7 +5947,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1">
+    <row r="2" spans="1:22" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>136</v>
       </c>
@@ -5991,15 +5955,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="3" customFormat="1">
+    <row r="3" spans="1:22" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B3" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="3" customFormat="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
@@ -6007,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="3" customFormat="1">
+    <row r="5" spans="1:22" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -6015,7 +5979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="3" customFormat="1">
+    <row r="6" spans="1:22" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
@@ -6023,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="3" customFormat="1">
+    <row r="7" spans="1:22" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
@@ -6031,7 +5995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="3" customFormat="1">
+    <row r="8" spans="1:22" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -6039,15 +6003,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="3" customFormat="1">
+    <row r="9" spans="1:22" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="3" customFormat="1">
+    <row r="10" spans="1:22" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -6055,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="3" customFormat="1">
+    <row r="11" spans="1:22" s="3" customFormat="1">
       <c r="A11" s="34" t="s">
         <v>138</v>
       </c>
@@ -6063,7 +6027,7 @@
         <v>139</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>6</v>
@@ -6074,59 +6038,8 @@
       <c r="F11" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="K11" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="M11" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="N11" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="O11" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="P11" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q11" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="R11" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="S11" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="T11" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="U11" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="V11" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="W11" s="34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="3" customFormat="1">
+    </row>
+    <row r="12" spans="1:22" s="3" customFormat="1">
       <c r="A12" s="35" t="s">
         <v>37</v>
       </c>
@@ -6145,59 +6058,8 @@
       <c r="F12" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="P12" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="R12" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="S12" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="T12" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="U12" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="V12" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="W12" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="3" customFormat="1">
+    </row>
+    <row r="13" spans="1:22" s="3" customFormat="1">
       <c r="A13" s="34" t="s">
         <v>44</v>
       </c>
@@ -6223,15 +6085,15 @@
       <c r="U13" s="34"/>
       <c r="V13" s="34"/>
     </row>
-    <row r="14" spans="1:23" s="2" customFormat="1">
+    <row r="14" spans="1:22" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" s="3" customFormat="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
         <v>136</v>
       </c>
@@ -6239,7 +6101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="3" customFormat="1">
+    <row r="16" spans="1:22" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
         <v>137</v>
       </c>
@@ -6252,7 +6114,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:29" s="3" customFormat="1">
@@ -6276,7 +6138,7 @@
         <v>41</v>
       </c>
       <c r="B20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29" s="3" customFormat="1">
@@ -6289,7 +6151,7 @@
     </row>
     <row r="22" spans="1:29" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -6486,7 +6348,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
@@ -6518,10 +6380,10 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A19 C26 D8:G9 D26:G1048576 A4:B5 A17:B18 B6:B10 B19:B23 C14:G20 D21:G22" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A19 C26 D8:G9 D26:G1048576 A4:B5 G11 B6:B10 A17:B18 C14:G20 D21:G22 B19:B23" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A25:C25 U25 D24:T25 V24:AC25 I8:AK9 I21:AK22" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A25:C25 U25 D24:T25 V24:AC25 I8:AK9 I21:AK22 I11:X11" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15:B16 B27:C1048576 A2:B3 C8:C9 C21:C22" xr:uid="{00000000-0002-0000-0300-000002000000}">
@@ -6567,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -6775,7 +6637,7 @@
     </row>
     <row r="9" spans="1:23" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -6815,70 +6677,70 @@
         <v>138</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>139</v>
       </c>
       <c r="D11" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="P11" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="Q11" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="R11" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="S11" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="T11" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="U11" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="V11" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="W11" s="34" t="s">
         <v>168</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="M11" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="N11" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="O11" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="P11" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q11" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="R11" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="S11" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="T11" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="U11" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="V11" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="W11" s="34" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1">
@@ -6957,7 +6819,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -6986,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -7194,7 +7056,7 @@
     </row>
     <row r="22" spans="1:23" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -7234,16 +7096,16 @@
         <v>139</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:23" s="13" customFormat="1">
@@ -7268,7 +7130,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
@@ -7297,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -7505,7 +7367,7 @@
     </row>
     <row r="35" spans="1:23" s="3" customFormat="1">
       <c r="A35" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -7548,10 +7410,10 @@
         <v>139</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:23" s="13" customFormat="1">
@@ -7565,7 +7427,7 @@
         <v>36</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:23" s="13" customFormat="1">
@@ -7641,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1">
@@ -7702,7 +7564,7 @@
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -7710,7 +7572,7 @@
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="9" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B10" s="9">
         <v>0</v>
@@ -7718,16 +7580,16 @@
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="A11" s="36" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
@@ -7749,7 +7611,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -7759,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
@@ -7820,7 +7682,7 @@
     </row>
     <row r="22" spans="1:3" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -7828,7 +7690,7 @@
     </row>
     <row r="23" spans="1:3" s="6" customFormat="1">
       <c r="A23" s="9" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B23" s="9">
         <v>0</v>
@@ -7836,13 +7698,13 @@
     </row>
     <row r="24" spans="1:3" s="6" customFormat="1">
       <c r="A24" s="36" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="6" customFormat="1">
@@ -7861,7 +7723,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C26" s="36"/>
     </row>
@@ -7916,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:43" s="6" customFormat="1">
@@ -7977,7 +7839,7 @@
     </row>
     <row r="9" spans="1:43" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -7985,7 +7847,7 @@
     </row>
     <row r="10" spans="1:43" s="6" customFormat="1" ht="13.9" thickBot="1">
       <c r="A10" s="9" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B10" s="9">
         <v>0</v>
@@ -7993,133 +7855,133 @@
     </row>
     <row r="11" spans="1:43" s="6" customFormat="1" ht="42.75">
       <c r="A11" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="J11" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="K11" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="M11" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="N11" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="O11" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="P11" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="Q11" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="R11" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="S11" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="T11" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="U11" s="44" t="s">
         <v>271</v>
-      </c>
-      <c r="J11" s="44" t="s">
-        <v>272</v>
-      </c>
-      <c r="K11" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="L11" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="M11" s="44" t="s">
-        <v>275</v>
-      </c>
-      <c r="N11" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="O11" s="44" t="s">
-        <v>277</v>
-      </c>
-      <c r="P11" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q11" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="R11" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="S11" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="T11" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="U11" s="44" t="s">
-        <v>283</v>
       </c>
       <c r="V11" s="44" t="s">
         <v>17</v>
       </c>
       <c r="W11" s="44" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="X11" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y11" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z11" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA11" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB11" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC11" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD11" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE11" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF11" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG11" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH11" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI11" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ11" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK11" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL11" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="AM11" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="AN11" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="Y11" s="45" t="s">
+      <c r="AO11" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="Z11" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA11" s="44" t="s">
+      <c r="AP11" s="45" t="s">
         <v>286</v>
       </c>
-      <c r="AB11" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="AC11" s="44" t="s">
+      <c r="AQ11" s="45" t="s">
         <v>287</v>
-      </c>
-      <c r="AD11" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="AE11" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="AF11" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG11" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="AH11" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="AI11" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="AJ11" s="44" t="s">
-        <v>292</v>
-      </c>
-      <c r="AK11" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="AL11" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="AM11" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="AN11" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="AO11" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="AP11" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="AQ11" s="45" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:43" s="6" customFormat="1" ht="14.25">
@@ -8389,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:43" s="6" customFormat="1">
@@ -8450,7 +8312,7 @@
     </row>
     <row r="22" spans="1:43" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -8458,7 +8320,7 @@
     </row>
     <row r="23" spans="1:43" s="6" customFormat="1" ht="13.9" thickBot="1">
       <c r="A23" s="9" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B23" s="9">
         <v>0</v>
@@ -8466,133 +8328,133 @@
     </row>
     <row r="24" spans="1:43" s="6" customFormat="1" ht="42.75">
       <c r="A24" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="H24" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="J24" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="K24" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="L24" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="M24" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="N24" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="O24" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="P24" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="Q24" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="R24" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="S24" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="H24" s="45" t="s">
+      <c r="T24" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="I24" s="45" t="s">
+      <c r="U24" s="44" t="s">
         <v>271</v>
-      </c>
-      <c r="J24" s="44" t="s">
-        <v>272</v>
-      </c>
-      <c r="K24" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="L24" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="M24" s="44" t="s">
-        <v>275</v>
-      </c>
-      <c r="N24" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="O24" s="44" t="s">
-        <v>277</v>
-      </c>
-      <c r="P24" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q24" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="R24" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="S24" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="T24" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="U24" s="44" t="s">
-        <v>283</v>
       </c>
       <c r="V24" s="44" t="s">
         <v>17</v>
       </c>
       <c r="W24" s="44" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="X24" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y24" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z24" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA24" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB24" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC24" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD24" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE24" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF24" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG24" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH24" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI24" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ24" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK24" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL24" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="AM24" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="AN24" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="Y24" s="45" t="s">
+      <c r="AO24" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="Z24" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA24" s="44" t="s">
+      <c r="AP24" s="45" t="s">
         <v>286</v>
       </c>
-      <c r="AB24" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="AC24" s="44" t="s">
+      <c r="AQ24" s="45" t="s">
         <v>287</v>
-      </c>
-      <c r="AD24" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="AE24" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="AF24" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG24" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="AH24" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="AI24" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="AJ24" s="44" t="s">
-        <v>292</v>
-      </c>
-      <c r="AK24" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="AL24" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="AM24" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="AN24" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="AO24" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="AP24" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="AQ24" s="45" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:43" s="6" customFormat="1" ht="14.25">
@@ -8908,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1">
@@ -8969,7 +8831,7 @@
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -8977,7 +8839,7 @@
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -8985,19 +8847,19 @@
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1">
       <c r="A11" s="34" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="3" customFormat="1">
@@ -9011,7 +8873,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>36</v>
@@ -9031,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="3" customFormat="1">
@@ -9092,7 +8954,7 @@
     </row>
     <row r="22" spans="1:5" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -9108,19 +8970,19 @@
     </row>
     <row r="24" spans="1:5" s="3" customFormat="1">
       <c r="A24" s="34" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="3" customFormat="1">
@@ -9134,7 +8996,7 @@
         <v>36</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E25" s="34" t="s">
         <v>36</v>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -4490,8 +4490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972B7153-9DF5-4ED6-8C38-DB6612A94CE8}">
   <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4652,7 +4652,7 @@
         <v>35</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" s="39" t="s">
         <v>36</v>
@@ -4732,10 +4732,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="39">
         <v>0</v>
@@ -4884,19 +4884,19 @@
         <v>1</v>
       </c>
       <c r="U4" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="30">
         <v>1</v>
@@ -4993,13 +4993,13 @@
       <c r="V5" s="31">
         <v>0</v>
       </c>
-      <c r="W5" s="30">
-        <v>0</v>
-      </c>
-      <c r="X5" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="30">
+      <c r="W5" s="31">
+        <v>0</v>
+      </c>
+      <c r="X5" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="31">
         <v>0</v>
       </c>
       <c r="Z5" s="31">
@@ -5092,19 +5092,19 @@
         <v>1</v>
       </c>
       <c r="U6" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="31">
-        <v>0</v>
-      </c>
-      <c r="W6" s="30">
-        <v>0</v>
-      </c>
-      <c r="X6" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="30">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="W6" s="31">
+        <v>1</v>
+      </c>
+      <c r="X6" s="31">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="31">
+        <v>1</v>
       </c>
       <c r="Z6" s="31">
         <v>1</v>
@@ -5543,11 +5543,12 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{C5B45FAA-DDA2-4923-883B-BDBA94013D24}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7:AB9 Z5:AB6 AC5:AH5 C7:D9 AF6:AH9 B5 E6:F9 G5:V9" xr:uid="{9492378F-A71A-4DF6-9127-6F1B0B990504}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC5:AH5 C7:D9 AF6:AH9 B5 E6:F9 G5:AB9" xr:uid="{9492378F-A71A-4DF6-9127-6F1B0B990504}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5906,7 +5907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,26 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
     <sheet name="Property2" sheetId="2" r:id="rId2"/>
     <sheet name="Property3" sheetId="10" r:id="rId3"/>
-    <sheet name="Record_CommValue" sheetId="5" r:id="rId4"/>
-    <sheet name="Record_Hero" sheetId="3" r:id="rId5"/>
-    <sheet name="Record_Bag" sheetId="4" r:id="rId6"/>
-    <sheet name="Record_Task" sheetId="6" r:id="rId7"/>
-    <sheet name="Record_War" sheetId="9" r:id="rId8"/>
-    <sheet name="Record_Building" sheetId="7" r:id="rId9"/>
-    <sheet name="Component" sheetId="8" r:id="rId10"/>
+    <sheet name="Property4" sheetId="11" r:id="rId4"/>
+    <sheet name="Record_CommValue" sheetId="5" r:id="rId5"/>
+    <sheet name="Record_Hero" sheetId="3" r:id="rId6"/>
+    <sheet name="Record_Bag" sheetId="4" r:id="rId7"/>
+    <sheet name="Record_Task" sheetId="6" r:id="rId8"/>
+    <sheet name="Record_War" sheetId="9" r:id="rId9"/>
+    <sheet name="Record_Building" sheetId="7" r:id="rId10"/>
+    <sheet name="Record_Guild" sheetId="12" r:id="rId11"/>
+    <sheet name="Component" sheetId="8" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Record_Bag!$A$1:$W$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Record_Building!$D$1:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Record_Bag!$A$1:$W$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Record_Building!$D$1:$D$26</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="5" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -432,7 +434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="347">
   <si>
     <t>Id</t>
   </si>
@@ -1334,6 +1336,183 @@
   </si>
   <si>
     <t>DeadHero3</t>
+  </si>
+  <si>
+    <t>Guild_ID</t>
+  </si>
+  <si>
+    <t>Guild_Name</t>
+  </si>
+  <si>
+    <t>Guild_Level</t>
+  </si>
+  <si>
+    <t>Guild_PresidentID</t>
+  </si>
+  <si>
+    <t>Guild_PresidentName</t>
+  </si>
+  <si>
+    <t>Guild_Rank</t>
+  </si>
+  <si>
+    <t>Guild_AD</t>
+  </si>
+  <si>
+    <t>Guild_Desc</t>
+  </si>
+  <si>
+    <t>Guild_Gold</t>
+  </si>
+  <si>
+    <t>Guild_ContinueDay</t>
+  </si>
+  <si>
+    <t>Guild_Icon</t>
+  </si>
+  <si>
+    <t>Guild_MemeberCount</t>
+  </si>
+  <si>
+    <t>Guild_MemeberMaxCount</t>
+  </si>
+  <si>
+    <t>Guild_Honor</t>
+  </si>
+  <si>
+    <t>Guild_CreateTime</t>
+  </si>
+  <si>
+    <t>Guild_Createter</t>
+  </si>
+  <si>
+    <t>Guild_Exp</t>
+  </si>
+  <si>
+    <t>Guild_Status</t>
+  </si>
+  <si>
+    <t>Guild_KingWarResource</t>
+  </si>
+  <si>
+    <t>Guild_EctypServer</t>
+  </si>
+  <si>
+    <t>Guild_EctypID</t>
+  </si>
+  <si>
+    <t>Guild_EctypIDGroup</t>
+  </si>
+  <si>
+    <t>工会名</t>
+  </si>
+  <si>
+    <t>会长ID</t>
+  </si>
+  <si>
+    <t>会长名</t>
+  </si>
+  <si>
+    <t>公会排名</t>
+  </si>
+  <si>
+    <t>工会公告</t>
+  </si>
+  <si>
+    <t>工会描述</t>
+  </si>
+  <si>
+    <t>工会财富</t>
+  </si>
+  <si>
+    <t>工会等级</t>
+  </si>
+  <si>
+    <t>工会霸占排行榜天数</t>
+  </si>
+  <si>
+    <t>工会ID</t>
+  </si>
+  <si>
+    <t>公会头像</t>
+  </si>
+  <si>
+    <t>成员数量(增加个字段，不然遍历Record太麻烦)</t>
+  </si>
+  <si>
+    <t>成员最大数量</t>
+  </si>
+  <si>
+    <t>公会荣誉</t>
+  </si>
+  <si>
+    <t>公会创建时间</t>
+  </si>
+  <si>
+    <t>公会创始人</t>
+  </si>
+  <si>
+    <t>公会经验</t>
+  </si>
+  <si>
+    <t>公会状态，正常状态，申请解散状态</t>
+  </si>
+  <si>
+    <t>获得的战役资源</t>
+  </si>
+  <si>
+    <t>工会副本所在的服</t>
+  </si>
+  <si>
+    <t>工会副本ID</t>
+  </si>
+  <si>
+    <t>工会副本所在的曾</t>
+  </si>
+  <si>
+    <t>Guild_MemberList</t>
+  </si>
+  <si>
+    <t>Donation</t>
+  </si>
+  <si>
+    <t>Receive</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>JoinTime</t>
+  </si>
+  <si>
+    <t>Contribution</t>
+  </si>
+  <si>
+    <t>LastTime</t>
+  </si>
+  <si>
+    <t>AllContribution</t>
+  </si>
+  <si>
+    <t>guild</t>
+  </si>
+  <si>
+    <t>Guild_AppyList</t>
+  </si>
+  <si>
+    <t>Guild_Building</t>
+  </si>
+  <si>
+    <t>Guild_WarList</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1562,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1423,6 +1602,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,7 +1742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1704,6 +1889,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3483,6 +3692,1482 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.1328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="12.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.796875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4"/>
+    <col min="11" max="11" width="11.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.796875" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1">
+      <c r="A3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1">
+      <c r="A11" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1">
+      <c r="A12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1">
+      <c r="A13" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1">
+      <c r="A15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1">
+      <c r="A16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="3" customFormat="1">
+      <c r="A17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="3" customFormat="1">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="3" customFormat="1">
+      <c r="A19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="3" customFormat="1">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="3" customFormat="1">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="3" customFormat="1">
+      <c r="A22" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="3" customFormat="1">
+      <c r="A23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="3" customFormat="1">
+      <c r="A24" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="3" customFormat="1">
+      <c r="A25" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="3" customFormat="1">
+      <c r="A26" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+    </row>
+  </sheetData>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 E23 E10 A17:B19 A4:B5 E26:E1048576 D8:G9 E1:F7 B6:B10 E13:E20 B20:B23 F10:F20 F23:F1048576 D21:G22" xr:uid="{00000000-0002-0000-0600-000000000000}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A11:B11 H44:H1048576 A24:B24" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A12:B12 A25:B25 H1:H7 H10:H20 H23:H43" xr:uid="{00000000-0002-0000-0600-000002000000}">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C25" xr:uid="{00000000-0002-0000-0600-000003000000}">
+      <formula1>"int,float,string,object"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10 A7 A20 A23" xr:uid="{00000000-0002-0000-0600-000004000000}"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27:B1048576 C8:C9 C26:C1048576 A2:B3 A15:B16 C14:C23" xr:uid="{00000000-0002-0000-0600-000005000000}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I8:AK9 I21:AK22" xr:uid="{32E4A685-6996-4B93-A816-A36100AF767C}">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635D3FC3-DBC2-4781-8403-0B7135A2E1BF}">
+  <dimension ref="A1:O52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="14.25">
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.25">
+      <c r="A2" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="52">
+        <v>50</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.25">
+      <c r="A3" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="52">
+        <v>15</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.25">
+      <c r="A4" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="52">
+        <v>1</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+    </row>
+    <row r="5" spans="1:15" ht="14.25">
+      <c r="A5" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="52">
+        <v>1</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+    </row>
+    <row r="6" spans="1:15" ht="14.25">
+      <c r="A6" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="52">
+        <v>1</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+    </row>
+    <row r="7" spans="1:15" ht="14.25">
+      <c r="A7" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="52">
+        <v>0</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+    </row>
+    <row r="8" spans="1:15" ht="14.25">
+      <c r="A8" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="52">
+        <v>0</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.25">
+      <c r="A9" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="52">
+        <v>0</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+    </row>
+    <row r="10" spans="1:15" ht="14.25">
+      <c r="A10" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="52">
+        <v>0</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+    </row>
+    <row r="11" spans="1:15" ht="14.25">
+      <c r="A11" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="K11" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="M11" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="N11" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="O11" s="56" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.25">
+      <c r="A12" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.25">
+      <c r="A13" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.25">
+      <c r="A14" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>344</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+    </row>
+    <row r="15" spans="1:15" ht="14.25">
+      <c r="A15" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="52">
+        <v>50</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+    </row>
+    <row r="16" spans="1:15" ht="14.25">
+      <c r="A16" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="52">
+        <v>4</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+    </row>
+    <row r="17" spans="1:15" ht="14.25">
+      <c r="A17" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="52">
+        <v>1</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+    </row>
+    <row r="18" spans="1:15" ht="14.25">
+      <c r="A18" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="52">
+        <v>1</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+    </row>
+    <row r="19" spans="1:15" ht="14.25">
+      <c r="A19" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="52">
+        <v>1</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+    </row>
+    <row r="20" spans="1:15" ht="14.25">
+      <c r="A20" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="52">
+        <v>0</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+    </row>
+    <row r="21" spans="1:15" ht="14.25">
+      <c r="A21" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="52">
+        <v>0</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+    </row>
+    <row r="22" spans="1:15" ht="14.25">
+      <c r="A22" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="52">
+        <v>0</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+    </row>
+    <row r="23" spans="1:15" ht="14.25">
+      <c r="A23" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="52">
+        <v>0</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+    </row>
+    <row r="24" spans="1:15" ht="14.25">
+      <c r="A24" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+    </row>
+    <row r="25" spans="1:15" ht="14.25">
+      <c r="A25" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+    </row>
+    <row r="26" spans="1:15" ht="14.25">
+      <c r="A26" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+    </row>
+    <row r="27" spans="1:15" ht="14.25">
+      <c r="A27" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>345</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+    </row>
+    <row r="28" spans="1:15" ht="14.25">
+      <c r="A28" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="52">
+        <v>50</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+    </row>
+    <row r="29" spans="1:15" ht="14.25">
+      <c r="A29" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="52">
+        <v>3</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+    </row>
+    <row r="30" spans="1:15" ht="14.25">
+      <c r="A30" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="52">
+        <v>0</v>
+      </c>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+    </row>
+    <row r="31" spans="1:15" ht="14.25">
+      <c r="A31" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="52">
+        <v>1</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+    </row>
+    <row r="32" spans="1:15" ht="14.25">
+      <c r="A32" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="52">
+        <v>1</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+    </row>
+    <row r="33" spans="1:15" ht="14.25">
+      <c r="A33" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="52">
+        <v>0</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+    </row>
+    <row r="34" spans="1:15" ht="14.25">
+      <c r="A34" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="52">
+        <v>0</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+    </row>
+    <row r="35" spans="1:15" ht="14.25">
+      <c r="A35" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="52">
+        <v>0</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+    </row>
+    <row r="36" spans="1:15" ht="14.25">
+      <c r="A36" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="52">
+        <v>0</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+    </row>
+    <row r="37" spans="1:15" ht="14.25">
+      <c r="A37" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+    </row>
+    <row r="38" spans="1:15" ht="14.25">
+      <c r="A38" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+    </row>
+    <row r="39" spans="1:15" ht="14.25">
+      <c r="A39" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="C39" s="56"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+    </row>
+    <row r="40" spans="1:15" ht="14.25">
+      <c r="A40" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+    </row>
+    <row r="41" spans="1:15" ht="14.25">
+      <c r="A41" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="52">
+        <v>50</v>
+      </c>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+    </row>
+    <row r="42" spans="1:15" ht="14.25">
+      <c r="A42" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="52">
+        <v>2</v>
+      </c>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+    </row>
+    <row r="43" spans="1:15" ht="14.25">
+      <c r="A43" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="52">
+        <v>0</v>
+      </c>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+    </row>
+    <row r="44" spans="1:15" ht="14.25">
+      <c r="A44" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="52">
+        <v>1</v>
+      </c>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.25">
+      <c r="A45" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="52">
+        <v>1</v>
+      </c>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+    </row>
+    <row r="46" spans="1:15" ht="14.25">
+      <c r="A46" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="52">
+        <v>0</v>
+      </c>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.25">
+      <c r="A47" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="52">
+        <v>0</v>
+      </c>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.25">
+      <c r="A48" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="52">
+        <v>0</v>
+      </c>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+    </row>
+    <row r="49" spans="1:15" ht="14.25">
+      <c r="A49" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="52">
+        <v>0</v>
+      </c>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+    </row>
+    <row r="50" spans="1:15" ht="14.25">
+      <c r="A50" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+    </row>
+    <row r="51" spans="1:15" ht="14.25">
+      <c r="A51" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+    </row>
+    <row r="52" spans="1:15" ht="14.25">
+      <c r="A52" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="56"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:G10 A4:B6 A17:B19 A30:B32 A43:B45 B33:B36 B20:B23 B7:B10 D13:G23 D26:G36 D39:G49 B46:B49" xr:uid="{6EF141E1-58ED-419D-9A1E-95868AD0FB36}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B11:B12 B24:B25 H50:H52 M1:M10 H37:H38 M13:M52" xr:uid="{55028610-7C33-4797-A538-247F51E30985}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A11:A12 A24:A25 A50:A51 A37:B38 G50:G52 L1:L10 G37:G38 L13:L52" xr:uid="{D8FDB5E7-F5CF-410C-A7AC-C517287D4306}">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C10 A2:B3 A15:B16 A28:B29 A41:B42 C13:C23 B50:B52 C26:C49" xr:uid="{A383790F-676A-45C9-9962-3FAE8618ECA2}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4490,8 +6175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972B7153-9DF5-4ED6-8C38-DB6612A94CE8}">
   <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4646,7 +6331,7 @@
         <v>35</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L2" s="39" t="s">
         <v>35</v>
@@ -5553,6 +7238,759 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8B9599-45C4-4EAA-B7BD-89CEB0CA8449}">
+  <dimension ref="A1:W10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.46484375" customWidth="1"/>
+    <col min="6" max="6" width="10.46484375" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="23.73046875" customWidth="1"/>
+    <col min="14" max="14" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.19921875" customWidth="1"/>
+    <col min="16" max="16" width="16.19921875" customWidth="1"/>
+    <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="50" customFormat="1" ht="14.25">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="M1" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="N1" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="O1" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="P1" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q1" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="R1" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="S1" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="T1" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="U1" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="V1" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="W1" s="50" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="52" customFormat="1" ht="14.25">
+      <c r="A2" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="52" customFormat="1" ht="14.25">
+      <c r="A3" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="52">
+        <v>1</v>
+      </c>
+      <c r="C3" s="52">
+        <v>1</v>
+      </c>
+      <c r="D3" s="52">
+        <v>1</v>
+      </c>
+      <c r="E3" s="52">
+        <v>1</v>
+      </c>
+      <c r="F3" s="52">
+        <v>1</v>
+      </c>
+      <c r="G3" s="52">
+        <v>1</v>
+      </c>
+      <c r="H3" s="52">
+        <v>1</v>
+      </c>
+      <c r="I3" s="52">
+        <v>1</v>
+      </c>
+      <c r="J3" s="52">
+        <v>1</v>
+      </c>
+      <c r="K3" s="52">
+        <v>1</v>
+      </c>
+      <c r="L3" s="52">
+        <v>1</v>
+      </c>
+      <c r="M3" s="52">
+        <v>1</v>
+      </c>
+      <c r="N3" s="52">
+        <v>1</v>
+      </c>
+      <c r="O3" s="52">
+        <v>1</v>
+      </c>
+      <c r="P3" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="52">
+        <v>1</v>
+      </c>
+      <c r="R3" s="52">
+        <v>1</v>
+      </c>
+      <c r="S3" s="52">
+        <v>1</v>
+      </c>
+      <c r="T3" s="52">
+        <v>1</v>
+      </c>
+      <c r="U3" s="52">
+        <v>0</v>
+      </c>
+      <c r="V3" s="52">
+        <v>0</v>
+      </c>
+      <c r="W3" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="52" customFormat="1" ht="14.25">
+      <c r="A4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="52">
+        <v>1</v>
+      </c>
+      <c r="C4" s="52">
+        <v>1</v>
+      </c>
+      <c r="D4" s="52">
+        <v>1</v>
+      </c>
+      <c r="E4" s="52">
+        <v>1</v>
+      </c>
+      <c r="F4" s="52">
+        <v>1</v>
+      </c>
+      <c r="G4" s="52">
+        <v>1</v>
+      </c>
+      <c r="H4" s="52">
+        <v>1</v>
+      </c>
+      <c r="I4" s="52">
+        <v>1</v>
+      </c>
+      <c r="J4" s="52">
+        <v>1</v>
+      </c>
+      <c r="K4" s="52">
+        <v>1</v>
+      </c>
+      <c r="L4" s="52">
+        <v>1</v>
+      </c>
+      <c r="M4" s="52">
+        <v>1</v>
+      </c>
+      <c r="N4" s="52">
+        <v>1</v>
+      </c>
+      <c r="O4" s="52">
+        <v>1</v>
+      </c>
+      <c r="P4" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="52">
+        <v>1</v>
+      </c>
+      <c r="R4" s="52">
+        <v>1</v>
+      </c>
+      <c r="S4" s="52">
+        <v>1</v>
+      </c>
+      <c r="T4" s="52">
+        <v>1</v>
+      </c>
+      <c r="U4" s="52">
+        <v>1</v>
+      </c>
+      <c r="V4" s="52">
+        <v>1</v>
+      </c>
+      <c r="W4" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="52" customFormat="1" ht="14.25">
+      <c r="A5" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="52">
+        <v>1</v>
+      </c>
+      <c r="C5" s="52">
+        <v>1</v>
+      </c>
+      <c r="D5" s="52">
+        <v>1</v>
+      </c>
+      <c r="E5" s="52">
+        <v>1</v>
+      </c>
+      <c r="F5" s="52">
+        <v>1</v>
+      </c>
+      <c r="G5" s="52">
+        <v>1</v>
+      </c>
+      <c r="H5" s="52">
+        <v>1</v>
+      </c>
+      <c r="I5" s="52">
+        <v>1</v>
+      </c>
+      <c r="J5" s="52">
+        <v>1</v>
+      </c>
+      <c r="K5" s="52">
+        <v>1</v>
+      </c>
+      <c r="L5" s="52">
+        <v>1</v>
+      </c>
+      <c r="M5" s="52">
+        <v>1</v>
+      </c>
+      <c r="N5" s="52">
+        <v>1</v>
+      </c>
+      <c r="O5" s="52">
+        <v>1</v>
+      </c>
+      <c r="P5" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="52">
+        <v>1</v>
+      </c>
+      <c r="R5" s="52">
+        <v>1</v>
+      </c>
+      <c r="S5" s="52">
+        <v>1</v>
+      </c>
+      <c r="T5" s="52">
+        <v>1</v>
+      </c>
+      <c r="U5" s="52">
+        <v>1</v>
+      </c>
+      <c r="V5" s="52">
+        <v>1</v>
+      </c>
+      <c r="W5" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="52" customFormat="1" ht="14.25">
+      <c r="A6" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="52">
+        <v>0</v>
+      </c>
+      <c r="C6" s="52">
+        <v>0</v>
+      </c>
+      <c r="D6" s="52">
+        <v>0</v>
+      </c>
+      <c r="E6" s="52">
+        <v>0</v>
+      </c>
+      <c r="F6" s="52">
+        <v>0</v>
+      </c>
+      <c r="G6" s="52">
+        <v>0</v>
+      </c>
+      <c r="H6" s="52">
+        <v>0</v>
+      </c>
+      <c r="I6" s="52">
+        <v>0</v>
+      </c>
+      <c r="J6" s="52">
+        <v>0</v>
+      </c>
+      <c r="K6" s="52">
+        <v>0</v>
+      </c>
+      <c r="L6" s="52">
+        <v>0</v>
+      </c>
+      <c r="M6" s="52">
+        <v>0</v>
+      </c>
+      <c r="N6" s="52">
+        <v>0</v>
+      </c>
+      <c r="O6" s="52">
+        <v>0</v>
+      </c>
+      <c r="P6" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="52">
+        <v>0</v>
+      </c>
+      <c r="R6" s="52">
+        <v>0</v>
+      </c>
+      <c r="S6" s="52">
+        <v>0</v>
+      </c>
+      <c r="T6" s="52">
+        <v>0</v>
+      </c>
+      <c r="U6" s="52">
+        <v>0</v>
+      </c>
+      <c r="V6" s="52">
+        <v>0</v>
+      </c>
+      <c r="W6" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="16" customFormat="1">
+      <c r="A7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16">
+        <v>0</v>
+      </c>
+      <c r="S7" s="16">
+        <v>0</v>
+      </c>
+      <c r="T7" s="16">
+        <v>0</v>
+      </c>
+      <c r="U7" s="16">
+        <v>0</v>
+      </c>
+      <c r="V7" s="16">
+        <v>0</v>
+      </c>
+      <c r="W7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="16" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16">
+        <v>0</v>
+      </c>
+      <c r="S8" s="16">
+        <v>0</v>
+      </c>
+      <c r="T8" s="16">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
+        <v>0</v>
+      </c>
+      <c r="W8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="16" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9" s="16">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
+        <v>0</v>
+      </c>
+      <c r="W9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="54" customFormat="1" ht="14.65" thickBot="1">
+      <c r="A10" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="L10" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="M10" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="N10" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="O10" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="P10" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q10" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="R10" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="S10" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="T10" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="U10" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="V10" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="W10" s="54" t="s">
+        <v>331</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{811699FB-B107-4C03-8D0E-445EB2B65A28}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:W9" xr:uid="{A486DF25-0DF8-413D-A3A1-C3E433615C05}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC13"/>
   <sheetViews>
@@ -5903,7 +8341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC26"/>
   <sheetViews>
@@ -6398,7 +8836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W39"/>
   <sheetViews>
@@ -7478,7 +9916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -7753,7 +10191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B75D66-24F2-4C13-B924-F253540B0462}">
   <dimension ref="A1:AQ26"/>
   <sheetViews>
@@ -8740,299 +11178,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="16.1328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.1328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="12.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.796875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="11.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.796875" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1">
-      <c r="A2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="3">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1">
-      <c r="A3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1">
-      <c r="A4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1">
-      <c r="A5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1">
-      <c r="A6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="3" customFormat="1">
-      <c r="A8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1">
-      <c r="A9" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1">
-      <c r="A10" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="3" customFormat="1">
-      <c r="A11" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1">
-      <c r="A12" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1">
-      <c r="A13" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="3" customFormat="1">
-      <c r="A15" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="3">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="3" customFormat="1">
-      <c r="A16" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="3" customFormat="1">
-      <c r="A17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="3" customFormat="1">
-      <c r="A18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="3" customFormat="1">
-      <c r="A19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="3" customFormat="1">
-      <c r="A20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="3" customFormat="1">
-      <c r="A21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="3" customFormat="1">
-      <c r="A22" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="3" customFormat="1">
-      <c r="A23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="3" customFormat="1">
-      <c r="A24" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="3" customFormat="1">
-      <c r="A25" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="3" customFormat="1">
-      <c r="A26" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-    </row>
-  </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 E23 E10 A17:B19 A4:B5 E26:E1048576 D8:G9 E1:F7 B6:B10 E13:E20 B20:B23 F10:F20 F23:F1048576 D21:G22" xr:uid="{00000000-0002-0000-0600-000000000000}">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A11:B11 H44:H1048576 A24:B24" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A12:B12 A25:B25 H1:H7 H10:H20 H23:H43" xr:uid="{00000000-0002-0000-0600-000002000000}">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C25" xr:uid="{00000000-0002-0000-0600-000003000000}">
-      <formula1>"int,float,string,object"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10 A7 A20 A23" xr:uid="{00000000-0002-0000-0600-000004000000}"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27:B1048576 C8:C9 C26:C1048576 A2:B3 A15:B16 C14:C23" xr:uid="{00000000-0002-0000-0600-000005000000}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I8:AK9 I21:AK22" xr:uid="{32E4A685-6996-4B93-A816-A36100AF767C}">
-      <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -3990,8 +3990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635D3FC3-DBC2-4781-8403-0B7135A2E1BF}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5229,8 +5229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5426,92 +5426,92 @@
       <c r="A3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="21">
-        <v>1</v>
-      </c>
-      <c r="C3" s="21">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21">
-        <v>1</v>
-      </c>
-      <c r="E3" s="21">
-        <v>1</v>
-      </c>
-      <c r="F3" s="21">
-        <v>1</v>
-      </c>
-      <c r="G3" s="21">
-        <v>1</v>
-      </c>
-      <c r="H3" s="21">
-        <v>1</v>
-      </c>
-      <c r="I3" s="21">
-        <v>1</v>
-      </c>
-      <c r="J3" s="21">
-        <v>1</v>
-      </c>
-      <c r="K3" s="21">
-        <v>1</v>
-      </c>
-      <c r="L3" s="21">
-        <v>1</v>
-      </c>
-      <c r="M3" s="21">
-        <v>1</v>
-      </c>
-      <c r="N3" s="21">
-        <v>1</v>
-      </c>
-      <c r="O3" s="21">
-        <v>1</v>
-      </c>
-      <c r="P3" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="21">
-        <v>1</v>
-      </c>
-      <c r="R3" s="21">
-        <v>1</v>
-      </c>
-      <c r="S3" s="21">
-        <v>1</v>
-      </c>
-      <c r="T3" s="21">
-        <v>1</v>
-      </c>
-      <c r="U3" s="21">
-        <v>1</v>
-      </c>
-      <c r="V3" s="21">
-        <v>1</v>
-      </c>
-      <c r="W3" s="21">
-        <v>1</v>
-      </c>
-      <c r="X3" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="21">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="21">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="21">
-        <v>1</v>
+      <c r="B3" s="16">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0</v>
+      </c>
+      <c r="M3" s="16">
+        <v>0</v>
+      </c>
+      <c r="N3" s="16">
+        <v>0</v>
+      </c>
+      <c r="O3" s="16">
+        <v>0</v>
+      </c>
+      <c r="P3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>0</v>
+      </c>
+      <c r="R3" s="16">
+        <v>0</v>
+      </c>
+      <c r="S3" s="16">
+        <v>0</v>
+      </c>
+      <c r="T3" s="16">
+        <v>0</v>
+      </c>
+      <c r="U3" s="16">
+        <v>0</v>
+      </c>
+      <c r="V3" s="16">
+        <v>0</v>
+      </c>
+      <c r="W3" s="16">
+        <v>0</v>
+      </c>
+      <c r="X3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:30" s="15" customFormat="1">
@@ -6161,7 +6161,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AD9" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AD9 B3:AD3" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6175,8 +6175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972B7153-9DF5-4ED6-8C38-DB6612A94CE8}">
   <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6515,10 +6515,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="39">
         <v>1</v>
@@ -6723,10 +6723,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="40">
         <v>1</v>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -5229,7 +5229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:AD3"/>
     </sheetView>
   </sheetViews>
@@ -10195,8 +10195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B75D66-24F2-4C13-B924-F253540B0462}">
   <dimension ref="A1:AQ26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10424,8 +10424,8 @@
       </c>
     </row>
     <row r="12" spans="1:43" s="6" customFormat="1" ht="14.25">
-      <c r="A12" s="46" t="s">
-        <v>35</v>
+      <c r="A12" s="47" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="47" t="s">
         <v>37</v>
@@ -10897,8 +10897,8 @@
       </c>
     </row>
     <row r="25" spans="1:43" s="6" customFormat="1" ht="14.25">
-      <c r="A25" s="46" t="s">
-        <v>35</v>
+      <c r="A25" s="47" t="s">
+        <v>37</v>
       </c>
       <c r="B25" s="47" t="s">
         <v>37</v>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="345">
   <si>
     <t>Id</t>
   </si>
@@ -1383,9 +1383,6 @@
     <t>Guild_CreateTime</t>
   </si>
   <si>
-    <t>Guild_Createter</t>
-  </si>
-  <si>
     <t>Guild_Exp</t>
   </si>
   <si>
@@ -1447,9 +1444,6 @@
   </si>
   <si>
     <t>公会创建时间</t>
-  </si>
-  <si>
-    <t>公会创始人</t>
   </si>
   <si>
     <t>公会经验</t>
@@ -3990,7 +3984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635D3FC3-DBC2-4781-8403-0B7135A2E1BF}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -4001,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C1" s="55"/>
       <c r="D1" s="55"/>
@@ -4220,37 +4214,37 @@
         <v>10</v>
       </c>
       <c r="E11" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="G11" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="H11" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="I11" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="J11" s="56" t="s">
         <v>336</v>
-      </c>
-      <c r="I11" s="56" t="s">
-        <v>337</v>
-      </c>
-      <c r="J11" s="56" t="s">
-        <v>338</v>
       </c>
       <c r="K11" s="56" t="s">
         <v>30</v>
       </c>
       <c r="L11" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="M11" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="N11" s="56" t="s">
         <v>339</v>
       </c>
-      <c r="M11" s="56" t="s">
+      <c r="O11" s="56" t="s">
         <v>340</v>
-      </c>
-      <c r="N11" s="56" t="s">
-        <v>341</v>
-      </c>
-      <c r="O11" s="56" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.25">
@@ -4305,7 +4299,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
@@ -4326,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
@@ -4542,7 +4536,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
@@ -4586,7 +4580,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C26" s="56"/>
       <c r="D26" s="56"/>
@@ -4607,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
@@ -4863,7 +4857,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C39" s="56"/>
       <c r="D39" s="52"/>
@@ -4884,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C40" s="55"/>
       <c r="D40" s="55"/>
@@ -7239,10 +7233,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8B9599-45C4-4EAA-B7BD-89CEB0CA8449}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7250,8 +7244,8 @@
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.46484375" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.9296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.46484375" customWidth="1"/>
     <col min="7" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
@@ -7261,14 +7255,14 @@
     <col min="14" max="14" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.19921875" customWidth="1"/>
     <col min="16" max="16" width="16.19921875" customWidth="1"/>
-    <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="50" customFormat="1" ht="14.25">
+    <row r="1" spans="1:22" s="50" customFormat="1" ht="14.25">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -7335,11 +7329,8 @@
       <c r="V1" s="50" t="s">
         <v>308</v>
       </c>
-      <c r="W1" s="50" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="52" customFormat="1" ht="14.25">
+    </row>
+    <row r="2" spans="1:22" s="52" customFormat="1" ht="14.25">
       <c r="A2" s="51" t="s">
         <v>34</v>
       </c>
@@ -7398,19 +7389,16 @@
         <v>36</v>
       </c>
       <c r="T2" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U2" s="52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V2" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="52" customFormat="1" ht="14.25">
+    </row>
+    <row r="3" spans="1:22" s="52" customFormat="1" ht="14.25">
       <c r="A3" s="51" t="s">
         <v>38</v>
       </c>
@@ -7469,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="52">
         <v>0</v>
@@ -7477,11 +7465,8 @@
       <c r="V3" s="52">
         <v>0</v>
       </c>
-      <c r="W3" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="52" customFormat="1" ht="14.25">
+    </row>
+    <row r="4" spans="1:22" s="52" customFormat="1" ht="14.25">
       <c r="A4" s="51" t="s">
         <v>39</v>
       </c>
@@ -7548,11 +7533,8 @@
       <c r="V4" s="52">
         <v>1</v>
       </c>
-      <c r="W4" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="52" customFormat="1" ht="14.25">
+    </row>
+    <row r="5" spans="1:22" s="52" customFormat="1" ht="14.25">
       <c r="A5" s="51" t="s">
         <v>40</v>
       </c>
@@ -7617,13 +7599,10 @@
         <v>1</v>
       </c>
       <c r="V5" s="52">
-        <v>1</v>
-      </c>
-      <c r="W5" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="52" customFormat="1" ht="14.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="52" customFormat="1" ht="14.25">
       <c r="A6" s="51" t="s">
         <v>41</v>
       </c>
@@ -7690,11 +7669,8 @@
       <c r="V6" s="52">
         <v>0</v>
       </c>
-      <c r="W6" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="16" customFormat="1">
+    </row>
+    <row r="7" spans="1:22" s="16" customFormat="1">
       <c r="A7" s="22" t="s">
         <v>42</v>
       </c>
@@ -7761,11 +7737,8 @@
       <c r="V7" s="16">
         <v>0</v>
       </c>
-      <c r="W7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="16" customFormat="1" ht="18" customHeight="1">
+    </row>
+    <row r="8" spans="1:22" s="16" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="22" t="s">
         <v>209</v>
       </c>
@@ -7832,11 +7805,8 @@
       <c r="V8" s="16">
         <v>0</v>
       </c>
-      <c r="W8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="16" customFormat="1" ht="18" customHeight="1">
+    </row>
+    <row r="9" spans="1:22" s="16" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>43</v>
       </c>
@@ -7903,85 +7873,79 @@
       <c r="V9" s="16">
         <v>0</v>
       </c>
-      <c r="W9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="54" customFormat="1" ht="14.65" thickBot="1">
+    </row>
+    <row r="10" spans="1:22" s="54" customFormat="1" ht="14.65" thickBot="1">
       <c r="A10" s="53" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="D10" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="E10" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="F10" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="G10" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="H10" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="I10" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="I10" s="54" t="s">
+      <c r="J10" s="54" t="s">
         <v>317</v>
       </c>
-      <c r="J10" s="54" t="s">
+      <c r="K10" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="L10" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="L10" s="54" t="s">
+      <c r="M10" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="M10" s="54" t="s">
+      <c r="N10" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="N10" s="54" t="s">
+      <c r="O10" s="54" t="s">
         <v>322</v>
       </c>
-      <c r="O10" s="54" t="s">
+      <c r="P10" s="54" t="s">
         <v>323</v>
       </c>
-      <c r="P10" s="54" t="s">
+      <c r="Q10" s="54" t="s">
         <v>324</v>
       </c>
-      <c r="Q10" s="54" t="s">
+      <c r="R10" s="54" t="s">
         <v>325</v>
       </c>
-      <c r="R10" s="54" t="s">
+      <c r="S10" s="54" t="s">
         <v>326</v>
       </c>
-      <c r="S10" s="54" t="s">
+      <c r="T10" s="54" t="s">
         <v>327</v>
       </c>
-      <c r="T10" s="54" t="s">
+      <c r="U10" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="U10" s="54" t="s">
+      <c r="V10" s="54" t="s">
         <v>329</v>
-      </c>
-      <c r="V10" s="54" t="s">
-        <v>330</v>
-      </c>
-      <c r="W10" s="54" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{811699FB-B107-4C03-8D0E-445EB2B65A28}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:W9" xr:uid="{A486DF25-0DF8-413D-A3A1-C3E433615C05}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:V9" xr:uid="{A486DF25-0DF8-413D-A3A1-C3E433615C05}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10195,8 +10159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B75D66-24F2-4C13-B924-F253540B0462}">
   <dimension ref="A1:AQ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="349">
   <si>
     <t>Id</t>
   </si>
@@ -1507,6 +1507,18 @@
   </si>
   <si>
     <t>Guild_WarList</t>
+  </si>
+  <si>
+    <t>HeroID1</t>
+  </si>
+  <si>
+    <t>HeroID2</t>
+  </si>
+  <si>
+    <t>HeroID3</t>
+  </si>
+  <si>
+    <t>vector</t>
   </si>
 </sst>
 </file>
@@ -6167,10 +6179,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972B7153-9DF5-4ED6-8C38-DB6612A94CE8}">
-  <dimension ref="A1:AH10"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6178,18 +6190,20 @@
     <col min="1" max="1" width="23.796875" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
-    <col min="5" max="15" width="17.33203125" customWidth="1"/>
-    <col min="16" max="17" width="18.33203125" customWidth="1"/>
-    <col min="18" max="20" width="17.33203125" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" customWidth="1"/>
-    <col min="22" max="22" width="14.46484375" customWidth="1"/>
-    <col min="23" max="25" width="16" customWidth="1"/>
-    <col min="26" max="28" width="17.33203125" customWidth="1"/>
-    <col min="29" max="31" width="18.33203125" customWidth="1"/>
-    <col min="32" max="34" width="17.33203125" customWidth="1"/>
+    <col min="5" max="18" width="17.33203125" customWidth="1"/>
+    <col min="19" max="20" width="18.33203125" customWidth="1"/>
+    <col min="21" max="23" width="17.33203125" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" customWidth="1"/>
+    <col min="25" max="25" width="14.46484375" customWidth="1"/>
+    <col min="26" max="28" width="16" customWidth="1"/>
+    <col min="29" max="29" width="17.33203125" customWidth="1"/>
+    <col min="30" max="30" width="20" customWidth="1"/>
+    <col min="31" max="31" width="17.33203125" customWidth="1"/>
+    <col min="32" max="34" width="18.33203125" customWidth="1"/>
+    <col min="35" max="37" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="25" customFormat="1">
+    <row r="1" spans="1:37" s="25" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -6218,82 +6232,91 @@
         <v>201</v>
       </c>
       <c r="J1" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="M1" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="N1" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="O1" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="P1" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="Q1" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="R1" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="X1" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="Y1" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="Z1" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="AA1" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="AB1" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AE1" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AI1" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AK1" s="28" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="26" customFormat="1">
+    <row r="2" spans="1:37" s="26" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>34</v>
       </c>
@@ -6313,73 +6336,73 @@
         <v>35</v>
       </c>
       <c r="G2" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="J2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="K2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="L2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="M2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="N2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="O2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>36</v>
-      </c>
       <c r="T2" s="30" t="s">
         <v>36</v>
       </c>
       <c r="U2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="Y2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="30" t="s">
-        <v>36</v>
-      </c>
       <c r="Z2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" s="30" t="s">
         <v>35</v>
-      </c>
-      <c r="AA2" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB2" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="30" t="s">
-        <v>36</v>
       </c>
       <c r="AD2" s="30" t="s">
         <v>35</v>
@@ -6391,13 +6414,22 @@
         <v>36</v>
       </c>
       <c r="AG2" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AH2" s="30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" s="26" customFormat="1">
+        <v>35</v>
+      </c>
+      <c r="AI2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" s="26" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>38</v>
       </c>
@@ -6443,19 +6475,19 @@
       <c r="O3" s="39">
         <v>0</v>
       </c>
-      <c r="P3" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="31">
-        <v>0</v>
-      </c>
-      <c r="R3" s="30">
-        <v>0</v>
-      </c>
-      <c r="S3" s="30">
-        <v>0</v>
-      </c>
-      <c r="T3" s="30">
+      <c r="P3" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="39">
+        <v>0</v>
+      </c>
+      <c r="R3" s="39">
+        <v>0</v>
+      </c>
+      <c r="S3" s="31">
+        <v>0</v>
+      </c>
+      <c r="T3" s="31">
         <v>0</v>
       </c>
       <c r="U3" s="30">
@@ -6482,26 +6514,35 @@
       <c r="AB3" s="30">
         <v>0</v>
       </c>
-      <c r="AC3" s="31">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="31">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="31">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" s="26" customFormat="1">
+      <c r="AC3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" s="26" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>39</v>
       </c>
@@ -6547,13 +6588,13 @@
       <c r="O4" s="39">
         <v>1</v>
       </c>
-      <c r="P4" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="30">
-        <v>1</v>
-      </c>
-      <c r="R4" s="30">
+      <c r="P4" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="39">
+        <v>1</v>
+      </c>
+      <c r="R4" s="39">
         <v>1</v>
       </c>
       <c r="S4" s="30">
@@ -6604,8 +6645,17 @@
       <c r="AH4" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" s="26" customFormat="1">
+      <c r="AI4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" s="26" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>40</v>
       </c>
@@ -6651,13 +6701,13 @@
       <c r="O5" s="40">
         <v>0</v>
       </c>
-      <c r="P5" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="31">
-        <v>0</v>
-      </c>
-      <c r="R5" s="31">
+      <c r="P5" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>0</v>
+      </c>
+      <c r="R5" s="40">
         <v>0</v>
       </c>
       <c r="S5" s="31">
@@ -6708,8 +6758,17 @@
       <c r="AH5" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" s="26" customFormat="1">
+      <c r="AI5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" s="26" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>41</v>
       </c>
@@ -6755,19 +6814,19 @@
       <c r="O6" s="40">
         <v>1</v>
       </c>
-      <c r="P6" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>1</v>
-      </c>
-      <c r="R6" s="31">
-        <v>1</v>
-      </c>
-      <c r="S6" s="31">
-        <v>1</v>
-      </c>
-      <c r="T6" s="31">
+      <c r="P6" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>1</v>
+      </c>
+      <c r="R6" s="40">
+        <v>1</v>
+      </c>
+      <c r="S6" s="30">
+        <v>1</v>
+      </c>
+      <c r="T6" s="30">
         <v>1</v>
       </c>
       <c r="U6" s="31">
@@ -6794,26 +6853,35 @@
       <c r="AB6" s="31">
         <v>1</v>
       </c>
-      <c r="AC6" s="30">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="30">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="30">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="31">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="31">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" s="16" customFormat="1">
+      <c r="AC6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" s="16" customFormat="1">
       <c r="A7" s="22" t="s">
         <v>42</v>
       </c>
@@ -6859,13 +6927,13 @@
       <c r="O7" s="40">
         <v>0</v>
       </c>
-      <c r="P7" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="31">
-        <v>0</v>
-      </c>
-      <c r="R7" s="31">
+      <c r="P7" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="40">
+        <v>0</v>
+      </c>
+      <c r="R7" s="40">
         <v>0</v>
       </c>
       <c r="S7" s="31">
@@ -6916,8 +6984,17 @@
       <c r="AH7" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" s="16" customFormat="1">
+      <c r="AI7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
         <v>209</v>
       </c>
@@ -6963,13 +7040,13 @@
       <c r="O8" s="40">
         <v>0</v>
       </c>
-      <c r="P8" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="31">
-        <v>0</v>
-      </c>
-      <c r="R8" s="31">
+      <c r="P8" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="40">
+        <v>0</v>
+      </c>
+      <c r="R8" s="40">
         <v>0</v>
       </c>
       <c r="S8" s="31">
@@ -7020,8 +7097,17 @@
       <c r="AH8" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" s="16" customFormat="1">
+      <c r="AI8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" s="16" customFormat="1">
       <c r="A9" s="22" t="s">
         <v>43</v>
       </c>
@@ -7067,13 +7153,13 @@
       <c r="O9" s="40">
         <v>0</v>
       </c>
-      <c r="P9" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="31">
-        <v>0</v>
-      </c>
-      <c r="R9" s="31">
+      <c r="P9" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>0</v>
+      </c>
+      <c r="R9" s="40">
         <v>0</v>
       </c>
       <c r="S9" s="31">
@@ -7124,8 +7210,17 @@
       <c r="AH9" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" s="17" customFormat="1" ht="27.4" thickBot="1">
+      <c r="AI9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" s="17" customFormat="1" ht="27.4" thickBot="1">
       <c r="A10" s="23" t="s">
         <v>44</v>
       </c>
@@ -7167,62 +7262,71 @@
       <c r="O10" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P10" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q10" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="R10" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="S10" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="Q10" s="32" t="s">
+      <c r="T10" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="U10" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="S10" s="32" t="s">
+      <c r="V10" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="T10" s="32" t="s">
+      <c r="W10" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="U10" s="32" t="s">
+      <c r="X10" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="32" t="s">
+      <c r="Y10" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="32" t="s">
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AA10" s="32" t="s">
+      <c r="AD10" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="AB10" s="32" t="s">
+      <c r="AE10" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="AC10" s="32" t="s">
+      <c r="AF10" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="AD10" s="32" t="s">
+      <c r="AG10" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="AE10" s="32" t="s">
+      <c r="AH10" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="AF10" s="32" t="s">
+      <c r="AI10" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AG10" s="32" t="s">
+      <c r="AJ10" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="AH10" s="32" t="s">
+      <c r="AK10" s="32" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{C5B45FAA-DDA2-4923-883B-BDBA94013D24}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC5:AH5 C7:D9 AF6:AH9 B5 E6:F9 G5:AB9" xr:uid="{9492378F-A71A-4DF6-9127-6F1B0B990504}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF5:AK5 C7:D9 AI6:AK9 B5 E6:F9 G5:AE9" xr:uid="{9492378F-A71A-4DF6-9127-6F1B0B990504}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7235,7 +7339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8B9599-45C4-4EAA-B7BD-89CEB0CA8449}">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -434,7 +434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="348">
   <si>
     <t>Id</t>
   </si>
@@ -1516,9 +1516,6 @@
   </si>
   <si>
     <t>HeroID3</t>
-  </si>
-  <si>
-    <t>vector</t>
   </si>
 </sst>
 </file>
@@ -6182,7 +6179,7 @@
   <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6336,13 +6333,13 @@
         <v>35</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>348</v>
+        <v>207</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>348</v>
+        <v>207</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>348</v>
+        <v>207</v>
       </c>
       <c r="J2" s="39" t="s">
         <v>37</v>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -434,7 +434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="349">
   <si>
     <t>Id</t>
   </si>
@@ -1077,15 +1077,6 @@
     <t>Hero3</t>
   </si>
   <si>
-    <t>HeroPos3</t>
-  </si>
-  <si>
-    <t>HeroPos2</t>
-  </si>
-  <si>
-    <t>HeroPos1</t>
-  </si>
-  <si>
     <t>one her one row to sotre the properties</t>
   </si>
   <si>
@@ -1125,15 +1116,6 @@
     <t>ViewOpponent</t>
   </si>
   <si>
-    <t>OpponentHeroPos1</t>
-  </si>
-  <si>
-    <t>OpponentHeroPos2</t>
-  </si>
-  <si>
-    <t>OpponentHeroPos3</t>
-  </si>
-  <si>
     <t>Cup</t>
   </si>
   <si>
@@ -1164,15 +1146,6 @@
     <t>HeroPos3CnfID</t>
   </si>
   <si>
-    <t>OpponentHeroPos1Star</t>
-  </si>
-  <si>
-    <t>OpponentHeroPos2Star</t>
-  </si>
-  <si>
-    <t>OpponentHeroPos3Star</t>
-  </si>
-  <si>
     <t>OpponentDiamond</t>
   </si>
   <si>
@@ -1516,6 +1489,36 @@
   </si>
   <si>
     <t>HeroID3</t>
+  </si>
+  <si>
+    <t>FightingStar</t>
+  </si>
+  <si>
+    <t>OpponentHero3</t>
+  </si>
+  <si>
+    <t>OpponentHero2</t>
+  </si>
+  <si>
+    <t>OpponentHero1</t>
+  </si>
+  <si>
+    <t>OpponentHero2Star</t>
+  </si>
+  <si>
+    <t>OpponentHero1Star</t>
+  </si>
+  <si>
+    <t>OpponentHero3Star</t>
+  </si>
+  <si>
+    <t>WonDiamond</t>
+  </si>
+  <si>
+    <t>WonGold</t>
+  </si>
+  <si>
+    <t>WonCup</t>
   </si>
 </sst>
 </file>
@@ -2364,7 +2367,7 @@
         <v>17</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="S1" s="28" t="s">
         <v>18</v>
@@ -2418,7 +2421,7 @@
         <v>5</v>
       </c>
       <c r="AJ1" s="28" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="AK1" s="28" t="s">
         <v>142</v>
@@ -2430,22 +2433,22 @@
         <v>144</v>
       </c>
       <c r="AN1" s="28" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="AO1" s="28" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AP1" s="28" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="AQ1" s="28" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AR1" s="28" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="AS1" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:45" s="26" customFormat="1">
@@ -3272,7 +3275,7 @@
     </row>
     <row r="8" spans="1:45" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B8" s="16">
         <v>0</v>
@@ -3651,7 +3654,7 @@
         <v>49</v>
       </c>
       <c r="AJ10" s="24" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="AK10" s="41" t="s">
         <v>142</v>
@@ -3672,13 +3675,13 @@
         <v>146</v>
       </c>
       <c r="AQ10" s="41" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AR10" s="41" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="AS10" s="41" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3784,7 +3787,7 @@
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -3800,7 +3803,7 @@
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1">
       <c r="A11" s="34" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>186</v>
@@ -3809,7 +3812,7 @@
         <v>187</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>188</v>
@@ -3826,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>36</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="22" spans="1:5" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -3923,7 +3926,7 @@
     </row>
     <row r="24" spans="1:5" s="3" customFormat="1">
       <c r="A24" s="34" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B24" s="34" t="s">
         <v>186</v>
@@ -3932,7 +3935,7 @@
         <v>187</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E24" s="34" t="s">
         <v>188</v>
@@ -3949,7 +3952,7 @@
         <v>36</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E25" s="34" t="s">
         <v>36</v>
@@ -4004,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C1" s="55"/>
       <c r="D1" s="55"/>
@@ -4169,7 +4172,7 @@
     </row>
     <row r="9" spans="1:15" ht="14.25">
       <c r="A9" s="52" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B9" s="52">
         <v>0</v>
@@ -4223,37 +4226,37 @@
         <v>10</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="J11" s="56" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="K11" s="56" t="s">
         <v>30</v>
       </c>
       <c r="L11" s="56" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="M11" s="56" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="N11" s="56" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="O11" s="56" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.25">
@@ -4308,7 +4311,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
@@ -4329,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
@@ -4494,7 +4497,7 @@
     </row>
     <row r="22" spans="1:15" ht="14.25">
       <c r="A22" s="52" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B22" s="52">
         <v>0</v>
@@ -4545,7 +4548,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
@@ -4589,7 +4592,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C26" s="56"/>
       <c r="D26" s="56"/>
@@ -4610,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
@@ -4775,7 +4778,7 @@
     </row>
     <row r="35" spans="1:15" ht="14.25">
       <c r="A35" s="52" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B35" s="52">
         <v>0</v>
@@ -4866,7 +4869,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C39" s="56"/>
       <c r="D39" s="52"/>
@@ -4887,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C40" s="55"/>
       <c r="D40" s="55"/>
@@ -5052,7 +5055,7 @@
     </row>
     <row r="48" spans="1:15" ht="14.25">
       <c r="A48" s="52" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B48" s="52">
         <v>0</v>
@@ -5887,7 +5890,7 @@
     </row>
     <row r="8" spans="1:30" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B8" s="16">
         <v>0</v>
@@ -6176,144 +6179,151 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972B7153-9DF5-4ED6-8C38-DB6612A94CE8}">
-  <dimension ref="A1:AK10"/>
+  <dimension ref="A1:AL10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.796875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="4" width="16" customWidth="1"/>
-    <col min="5" max="18" width="17.33203125" customWidth="1"/>
-    <col min="19" max="20" width="18.33203125" customWidth="1"/>
-    <col min="21" max="23" width="17.33203125" customWidth="1"/>
-    <col min="24" max="24" width="15.6640625" customWidth="1"/>
-    <col min="25" max="25" width="14.46484375" customWidth="1"/>
-    <col min="26" max="28" width="16" customWidth="1"/>
-    <col min="29" max="29" width="17.33203125" customWidth="1"/>
-    <col min="30" max="30" width="20" customWidth="1"/>
-    <col min="31" max="31" width="17.33203125" customWidth="1"/>
-    <col min="32" max="34" width="18.33203125" customWidth="1"/>
-    <col min="35" max="37" width="17.33203125" customWidth="1"/>
+    <col min="2" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="6" width="16" customWidth="1"/>
+    <col min="7" max="8" width="21.59765625" customWidth="1"/>
+    <col min="9" max="19" width="17.33203125" customWidth="1"/>
+    <col min="20" max="21" width="18.33203125" customWidth="1"/>
+    <col min="22" max="24" width="17.33203125" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" customWidth="1"/>
+    <col min="26" max="26" width="19.6640625" customWidth="1"/>
+    <col min="27" max="28" width="16" customWidth="1"/>
+    <col min="29" max="29" width="21.59765625" customWidth="1"/>
+    <col min="30" max="32" width="18.33203125" customWidth="1"/>
+    <col min="33" max="33" width="26.3984375" customWidth="1"/>
+    <col min="34" max="34" width="26.6640625" customWidth="1"/>
+    <col min="35" max="35" width="17.33203125" customWidth="1"/>
+    <col min="36" max="36" width="26.3984375" customWidth="1"/>
+    <col min="37" max="37" width="26.6640625" customWidth="1"/>
+    <col min="38" max="38" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="25" customFormat="1">
+    <row r="1" spans="1:38" s="25" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q1" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="R1" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="X1" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="J1" s="28" t="s">
+      <c r="Y1" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB1" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC1" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="AL1" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="K1" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="S1" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="W1" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="X1" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y1" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z1" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="AA1" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB1" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC1" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD1" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE1" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF1" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="AG1" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH1" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="AI1" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ1" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="AK1" s="28" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" s="26" customFormat="1">
+    </row>
+    <row r="2" spans="1:38" s="26" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>34</v>
       </c>
@@ -6327,22 +6337,22 @@
         <v>36</v>
       </c>
       <c r="E2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="J2" s="39" t="s">
         <v>35</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>37</v>
       </c>
       <c r="K2" s="39" t="s">
         <v>37</v>
@@ -6351,7 +6361,7 @@
         <v>37</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N2" s="39" t="s">
         <v>35</v>
@@ -6360,7 +6370,7 @@
         <v>35</v>
       </c>
       <c r="P2" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="39" t="s">
         <v>36</v>
@@ -6368,12 +6378,12 @@
       <c r="R2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="30" t="s">
-        <v>36</v>
-      </c>
       <c r="U2" s="30" t="s">
         <v>36</v>
       </c>
@@ -6384,13 +6394,13 @@
         <v>36</v>
       </c>
       <c r="X2" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y2" s="30" t="s">
         <v>37</v>
       </c>
       <c r="Z2" s="30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA2" s="30" t="s">
         <v>36</v>
@@ -6399,16 +6409,16 @@
         <v>36</v>
       </c>
       <c r="AC2" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AD2" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE2" s="30" t="s">
         <v>35</v>
       </c>
       <c r="AF2" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG2" s="30" t="s">
         <v>35</v>
@@ -6417,7 +6427,7 @@
         <v>35</v>
       </c>
       <c r="AI2" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AJ2" s="30" t="s">
         <v>36</v>
@@ -6425,8 +6435,11 @@
       <c r="AK2" s="30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" s="26" customFormat="1">
+      <c r="AL2" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="26" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>38</v>
       </c>
@@ -6434,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="39">
         <v>0</v>
@@ -6481,13 +6494,13 @@
       <c r="R3" s="39">
         <v>0</v>
       </c>
-      <c r="S3" s="31">
+      <c r="S3" s="39">
         <v>0</v>
       </c>
       <c r="T3" s="31">
         <v>0</v>
       </c>
-      <c r="U3" s="30">
+      <c r="U3" s="31">
         <v>0</v>
       </c>
       <c r="V3" s="30">
@@ -6514,19 +6527,19 @@
       <c r="AC3" s="30">
         <v>0</v>
       </c>
-      <c r="AD3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="30">
+      <c r="AD3" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="31">
         <v>0</v>
       </c>
       <c r="AF3" s="31">
         <v>0</v>
       </c>
-      <c r="AG3" s="31">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="31">
+      <c r="AG3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="30">
         <v>0</v>
       </c>
       <c r="AI3" s="30">
@@ -6538,8 +6551,11 @@
       <c r="AK3" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" s="26" customFormat="1">
+      <c r="AL3" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" s="26" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>39</v>
       </c>
@@ -6594,7 +6610,7 @@
       <c r="R4" s="39">
         <v>1</v>
       </c>
-      <c r="S4" s="30">
+      <c r="S4" s="39">
         <v>1</v>
       </c>
       <c r="T4" s="30">
@@ -6651,8 +6667,11 @@
       <c r="AK4" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" s="26" customFormat="1">
+      <c r="AL4" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" s="26" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>40</v>
       </c>
@@ -6666,22 +6685,22 @@
         <v>0</v>
       </c>
       <c r="E5" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="39">
-        <v>1</v>
-      </c>
-      <c r="G5" s="40">
-        <v>0</v>
-      </c>
-      <c r="H5" s="40">
-        <v>0</v>
-      </c>
-      <c r="I5" s="40">
-        <v>0</v>
-      </c>
-      <c r="J5" s="40">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G5" s="39">
+        <v>0</v>
+      </c>
+      <c r="H5" s="39">
+        <v>0</v>
+      </c>
+      <c r="I5" s="39">
+        <v>1</v>
+      </c>
+      <c r="J5" s="39">
+        <v>1</v>
       </c>
       <c r="K5" s="40">
         <v>0</v>
@@ -6707,7 +6726,7 @@
       <c r="R5" s="40">
         <v>0</v>
       </c>
-      <c r="S5" s="31">
+      <c r="S5" s="40">
         <v>0</v>
       </c>
       <c r="T5" s="31">
@@ -6764,8 +6783,11 @@
       <c r="AK5" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" s="26" customFormat="1">
+      <c r="AL5" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" s="26" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>41</v>
       </c>
@@ -6778,16 +6800,16 @@
       <c r="D6" s="39">
         <v>1</v>
       </c>
-      <c r="E6" s="40">
-        <v>1</v>
-      </c>
-      <c r="F6" s="40">
-        <v>1</v>
-      </c>
-      <c r="G6" s="40">
-        <v>1</v>
-      </c>
-      <c r="H6" s="40">
+      <c r="E6" s="39">
+        <v>1</v>
+      </c>
+      <c r="F6" s="39">
+        <v>1</v>
+      </c>
+      <c r="G6" s="39">
+        <v>1</v>
+      </c>
+      <c r="H6" s="39">
         <v>1</v>
       </c>
       <c r="I6" s="40">
@@ -6820,13 +6842,13 @@
       <c r="R6" s="40">
         <v>1</v>
       </c>
-      <c r="S6" s="30">
+      <c r="S6" s="40">
         <v>1</v>
       </c>
       <c r="T6" s="30">
         <v>1</v>
       </c>
-      <c r="U6" s="31">
+      <c r="U6" s="30">
         <v>1</v>
       </c>
       <c r="V6" s="31">
@@ -6853,19 +6875,19 @@
       <c r="AC6" s="31">
         <v>1</v>
       </c>
-      <c r="AD6" s="31">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="31">
+      <c r="AD6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="30">
         <v>1</v>
       </c>
       <c r="AF6" s="30">
         <v>1</v>
       </c>
-      <c r="AG6" s="30">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="30">
+      <c r="AG6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="31">
         <v>1</v>
       </c>
       <c r="AI6" s="31">
@@ -6877,8 +6899,11 @@
       <c r="AK6" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" s="16" customFormat="1">
+      <c r="AL6" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" s="16" customFormat="1">
       <c r="A7" s="22" t="s">
         <v>42</v>
       </c>
@@ -6933,7 +6958,7 @@
       <c r="R7" s="40">
         <v>0</v>
       </c>
-      <c r="S7" s="31">
+      <c r="S7" s="40">
         <v>0</v>
       </c>
       <c r="T7" s="31">
@@ -6990,10 +7015,13 @@
       <c r="AK7" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" s="16" customFormat="1">
+      <c r="AL7" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B8" s="40">
         <v>0</v>
@@ -7046,7 +7074,7 @@
       <c r="R8" s="40">
         <v>0</v>
       </c>
-      <c r="S8" s="31">
+      <c r="S8" s="40">
         <v>0</v>
       </c>
       <c r="T8" s="31">
@@ -7103,8 +7131,11 @@
       <c r="AK8" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" s="16" customFormat="1">
+      <c r="AL8" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" s="16" customFormat="1">
       <c r="A9" s="22" t="s">
         <v>43</v>
       </c>
@@ -7159,7 +7190,7 @@
       <c r="R9" s="40">
         <v>0</v>
       </c>
-      <c r="S9" s="31">
+      <c r="S9" s="40">
         <v>0</v>
       </c>
       <c r="T9" s="31">
@@ -7216,66 +7247,61 @@
       <c r="AK9" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" s="17" customFormat="1" ht="27.4" thickBot="1">
+      <c r="AL9" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" s="17" customFormat="1" ht="27.4" thickBot="1">
       <c r="A10" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="J10" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="K10" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="L10" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="M10" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="N10" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="K10" s="41" t="s">
+      <c r="O10" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="L10" s="41" t="s">
+      <c r="P10" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="M10" s="41" t="s">
+      <c r="Q10" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="N10" s="41" t="s">
+      <c r="R10" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="O10" s="41" t="s">
+      <c r="S10" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="P10" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q10" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="R10" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="S10" s="32" t="s">
-        <v>220</v>
-      </c>
       <c r="T10" s="32" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="U10" s="32" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="V10" s="32" t="s">
         <v>198</v>
@@ -7284,46 +7310,49 @@
         <v>198</v>
       </c>
       <c r="X10" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y10" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="Y10" s="32" t="s">
+      <c r="Z10" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="Z10" s="33"/>
       <c r="AA10" s="33"/>
       <c r="AB10" s="33"/>
-      <c r="AC10" s="32" t="s">
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE10" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF10" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG10" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AD10" s="32" t="s">
+      <c r="AH10" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="AE10" s="32" t="s">
+      <c r="AI10" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="AF10" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG10" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH10" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI10" s="32" t="s">
+      <c r="AJ10" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AJ10" s="32" t="s">
+      <c r="AK10" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="AK10" s="32" t="s">
+      <c r="AL10" s="32" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{C5B45FAA-DDA2-4923-883B-BDBA94013D24}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF5:AK5 C7:D9 AI6:AK9 B5 E6:F9 G5:AE9" xr:uid="{9492378F-A71A-4DF6-9127-6F1B0B990504}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 AD5:AL5 AG6:AL9 K5:AC9 I6:J9 C7:H9" xr:uid="{9492378F-A71A-4DF6-9127-6F1B0B990504}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7368,67 +7397,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="L1" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="M1" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="N1" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="O1" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="P1" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="Q1" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="R1" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="S1" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="I1" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="J1" s="50" t="s">
+      <c r="T1" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="K1" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="L1" s="50" t="s">
+      <c r="U1" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="V1" s="50" t="s">
         <v>299</v>
-      </c>
-      <c r="N1" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="O1" s="50" t="s">
-        <v>301</v>
-      </c>
-      <c r="P1" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q1" s="50" t="s">
-        <v>303</v>
-      </c>
-      <c r="R1" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="S1" s="50" t="s">
-        <v>305</v>
-      </c>
-      <c r="T1" s="50" t="s">
-        <v>306</v>
-      </c>
-      <c r="U1" s="50" t="s">
-        <v>307</v>
-      </c>
-      <c r="V1" s="50" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="52" customFormat="1" ht="14.25">
@@ -7841,7 +7870,7 @@
     </row>
     <row r="8" spans="1:22" s="16" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B8" s="16">
         <v>0</v>
@@ -7980,67 +8009,67 @@
         <v>44</v>
       </c>
       <c r="B10" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>306</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="K10" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="L10" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="M10" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="N10" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="O10" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="P10" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="Q10" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="I10" s="54" t="s">
+      <c r="R10" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="J10" s="54" t="s">
+      <c r="S10" s="54" t="s">
         <v>317</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="T10" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="L10" s="54" t="s">
+      <c r="U10" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="M10" s="54" t="s">
+      <c r="V10" s="54" t="s">
         <v>320</v>
-      </c>
-      <c r="N10" s="54" t="s">
-        <v>321</v>
-      </c>
-      <c r="O10" s="54" t="s">
-        <v>322</v>
-      </c>
-      <c r="P10" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q10" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="R10" s="54" t="s">
-        <v>325</v>
-      </c>
-      <c r="S10" s="54" t="s">
-        <v>326</v>
-      </c>
-      <c r="T10" s="54" t="s">
-        <v>327</v>
-      </c>
-      <c r="U10" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="V10" s="54" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -8099,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="3" customFormat="1">
@@ -8160,7 +8189,7 @@
     </row>
     <row r="9" spans="1:29" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -8357,7 +8386,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -8509,7 +8538,7 @@
     </row>
     <row r="9" spans="1:22" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -8594,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="3" customFormat="1">
@@ -8655,7 +8684,7 @@
     </row>
     <row r="22" spans="1:29" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -8852,7 +8881,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
@@ -9141,7 +9170,7 @@
     </row>
     <row r="9" spans="1:23" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -9560,7 +9589,7 @@
     </row>
     <row r="22" spans="1:23" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -9663,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -9871,7 +9900,7 @@
     </row>
     <row r="35" spans="1:23" s="3" customFormat="1">
       <c r="A35" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -9917,7 +9946,7 @@
         <v>171</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:23" s="13" customFormat="1">
@@ -9931,7 +9960,7 @@
         <v>36</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:23" s="13" customFormat="1">
@@ -10068,7 +10097,7 @@
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -10186,7 +10215,7 @@
     </row>
     <row r="22" spans="1:3" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -10282,7 +10311,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:43" s="6" customFormat="1">
@@ -10343,7 +10372,7 @@
     </row>
     <row r="9" spans="1:43" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -10359,133 +10388,133 @@
     </row>
     <row r="11" spans="1:43" s="6" customFormat="1" ht="42.75">
       <c r="A11" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="H11" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="K11" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="L11" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="M11" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="N11" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="O11" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="P11" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="Q11" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="R11" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="S11" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="K11" s="44" t="s">
+      <c r="T11" s="44" t="s">
         <v>261</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="U11" s="44" t="s">
         <v>262</v>
-      </c>
-      <c r="M11" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="N11" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="O11" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="P11" s="44" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q11" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="R11" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="S11" s="44" t="s">
-        <v>269</v>
-      </c>
-      <c r="T11" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="U11" s="44" t="s">
-        <v>271</v>
       </c>
       <c r="V11" s="44" t="s">
         <v>17</v>
       </c>
       <c r="W11" s="44" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="X11" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y11" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z11" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA11" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB11" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC11" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD11" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE11" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF11" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG11" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH11" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI11" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="AJ11" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK11" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="Y11" s="45" t="s">
+      <c r="AL11" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="Z11" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA11" s="44" t="s">
+      <c r="AM11" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="AB11" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC11" s="44" t="s">
+      <c r="AN11" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="AD11" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="AE11" s="44" t="s">
+      <c r="AO11" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="AF11" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="AG11" s="44" t="s">
+      <c r="AP11" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="AH11" s="44" t="s">
+      <c r="AQ11" s="45" t="s">
         <v>278</v>
-      </c>
-      <c r="AI11" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="AJ11" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="AK11" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="AL11" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="AM11" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="AN11" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="AO11" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="AP11" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="AQ11" s="45" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:43" s="6" customFormat="1" ht="14.25">
@@ -10755,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:43" s="6" customFormat="1">
@@ -10816,7 +10845,7 @@
     </row>
     <row r="22" spans="1:43" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -10832,133 +10861,133 @@
     </row>
     <row r="24" spans="1:43" s="6" customFormat="1" ht="42.75">
       <c r="A24" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="G24" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="H24" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="J24" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="K24" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="L24" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="M24" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="N24" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="O24" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="P24" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="H24" s="45" t="s">
+      <c r="Q24" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="I24" s="45" t="s">
+      <c r="R24" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="J24" s="44" t="s">
+      <c r="S24" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="K24" s="44" t="s">
+      <c r="T24" s="44" t="s">
         <v>261</v>
       </c>
-      <c r="L24" s="44" t="s">
+      <c r="U24" s="44" t="s">
         <v>262</v>
-      </c>
-      <c r="M24" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="N24" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="O24" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="P24" s="44" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q24" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="R24" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="S24" s="44" t="s">
-        <v>269</v>
-      </c>
-      <c r="T24" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="U24" s="44" t="s">
-        <v>271</v>
       </c>
       <c r="V24" s="44" t="s">
         <v>17</v>
       </c>
       <c r="W24" s="44" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="X24" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y24" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z24" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA24" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB24" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC24" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD24" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE24" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF24" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG24" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH24" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI24" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="AJ24" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK24" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="Y24" s="45" t="s">
+      <c r="AL24" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="Z24" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA24" s="44" t="s">
+      <c r="AM24" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="AB24" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC24" s="44" t="s">
+      <c r="AN24" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="AD24" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="AE24" s="44" t="s">
+      <c r="AO24" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="AF24" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="AG24" s="44" t="s">
+      <c r="AP24" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="AH24" s="44" t="s">
+      <c r="AQ24" s="45" t="s">
         <v>278</v>
-      </c>
-      <c r="AI24" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="AJ24" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="AK24" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="AL24" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="AM24" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="AN24" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="AO24" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="AP24" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="AQ24" s="45" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:43" s="6" customFormat="1" ht="14.25">

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="350">
   <si>
     <t>Id</t>
   </si>
@@ -1519,6 +1519,9 @@
   </si>
   <si>
     <t>WonCup</t>
+  </si>
+  <si>
+    <t>PVPType</t>
   </si>
 </sst>
 </file>
@@ -6179,151 +6182,154 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972B7153-9DF5-4ED6-8C38-DB6612A94CE8}">
-  <dimension ref="A1:AL10"/>
+  <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.796875" customWidth="1"/>
-    <col min="2" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="6" width="16" customWidth="1"/>
-    <col min="7" max="8" width="21.59765625" customWidth="1"/>
-    <col min="9" max="19" width="17.33203125" customWidth="1"/>
-    <col min="20" max="21" width="18.33203125" customWidth="1"/>
-    <col min="22" max="24" width="17.33203125" customWidth="1"/>
-    <col min="25" max="25" width="15.6640625" customWidth="1"/>
-    <col min="26" max="26" width="19.6640625" customWidth="1"/>
-    <col min="27" max="28" width="16" customWidth="1"/>
-    <col min="29" max="29" width="21.59765625" customWidth="1"/>
-    <col min="30" max="32" width="18.33203125" customWidth="1"/>
-    <col min="33" max="33" width="26.3984375" customWidth="1"/>
-    <col min="34" max="34" width="26.6640625" customWidth="1"/>
-    <col min="35" max="35" width="17.33203125" customWidth="1"/>
-    <col min="36" max="36" width="26.3984375" customWidth="1"/>
-    <col min="37" max="37" width="26.6640625" customWidth="1"/>
-    <col min="38" max="38" width="17.33203125" customWidth="1"/>
+    <col min="2" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="7" width="16" customWidth="1"/>
+    <col min="8" max="9" width="21.59765625" customWidth="1"/>
+    <col min="10" max="20" width="17.33203125" customWidth="1"/>
+    <col min="21" max="22" width="18.33203125" customWidth="1"/>
+    <col min="23" max="25" width="17.33203125" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" customWidth="1"/>
+    <col min="27" max="27" width="19.6640625" customWidth="1"/>
+    <col min="28" max="29" width="16" customWidth="1"/>
+    <col min="30" max="30" width="21.59765625" customWidth="1"/>
+    <col min="31" max="33" width="18.33203125" customWidth="1"/>
+    <col min="34" max="34" width="26.3984375" customWidth="1"/>
+    <col min="35" max="35" width="26.6640625" customWidth="1"/>
+    <col min="36" max="36" width="17.33203125" customWidth="1"/>
+    <col min="37" max="37" width="26.3984375" customWidth="1"/>
+    <col min="38" max="38" width="26.6640625" customWidth="1"/>
+    <col min="39" max="39" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="25" customFormat="1">
+    <row r="1" spans="1:39" s="25" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="O1" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="P1" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="Q1" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="R1" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="X1" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Z1" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="AA1" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AB1" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AC1" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="AD1" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AE1" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AI1" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AK1" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="AL1" s="28" t="s">
+      <c r="AM1" s="28" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="26" customFormat="1">
+    <row r="2" spans="1:39" s="26" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>34</v>
       </c>
@@ -6349,13 +6355,13 @@
         <v>36</v>
       </c>
       <c r="I2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="K2" s="39" t="s">
         <v>35</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>37</v>
       </c>
       <c r="L2" s="39" t="s">
         <v>37</v>
@@ -6364,7 +6370,7 @@
         <v>37</v>
       </c>
       <c r="N2" s="39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O2" s="39" t="s">
         <v>35</v>
@@ -6373,7 +6379,7 @@
         <v>35</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R2" s="39" t="s">
         <v>36</v>
@@ -6381,12 +6387,12 @@
       <c r="S2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="30" t="s">
-        <v>36</v>
-      </c>
       <c r="V2" s="30" t="s">
         <v>36</v>
       </c>
@@ -6397,13 +6403,13 @@
         <v>36</v>
       </c>
       <c r="Y2" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z2" s="30" t="s">
         <v>37</v>
       </c>
       <c r="AA2" s="30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB2" s="30" t="s">
         <v>36</v>
@@ -6415,7 +6421,7 @@
         <v>36</v>
       </c>
       <c r="AE2" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AF2" s="30" t="s">
         <v>35</v>
@@ -6430,7 +6436,7 @@
         <v>35</v>
       </c>
       <c r="AJ2" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AK2" s="30" t="s">
         <v>36</v>
@@ -6438,19 +6444,22 @@
       <c r="AL2" s="30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" s="26" customFormat="1">
+      <c r="AM2" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" s="26" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="40">
         <v>0</v>
       </c>
-      <c r="C3" s="39">
-        <v>1</v>
+      <c r="C3" s="40">
+        <v>0</v>
       </c>
       <c r="D3" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="39">
         <v>0</v>
@@ -6497,13 +6506,13 @@
       <c r="S3" s="39">
         <v>0</v>
       </c>
-      <c r="T3" s="31">
+      <c r="T3" s="39">
         <v>0</v>
       </c>
       <c r="U3" s="31">
         <v>0</v>
       </c>
-      <c r="V3" s="30">
+      <c r="V3" s="31">
         <v>0</v>
       </c>
       <c r="W3" s="30">
@@ -6527,7 +6536,7 @@
       <c r="AC3" s="30">
         <v>0</v>
       </c>
-      <c r="AD3" s="31">
+      <c r="AD3" s="30">
         <v>0</v>
       </c>
       <c r="AE3" s="31">
@@ -6536,7 +6545,7 @@
       <c r="AF3" s="31">
         <v>0</v>
       </c>
-      <c r="AG3" s="30">
+      <c r="AG3" s="31">
         <v>0</v>
       </c>
       <c r="AH3" s="30">
@@ -6554,8 +6563,11 @@
       <c r="AL3" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" s="26" customFormat="1">
+      <c r="AM3" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" s="26" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>39</v>
       </c>
@@ -6613,7 +6625,7 @@
       <c r="S4" s="39">
         <v>1</v>
       </c>
-      <c r="T4" s="30">
+      <c r="T4" s="39">
         <v>1</v>
       </c>
       <c r="U4" s="30">
@@ -6670,15 +6682,18 @@
       <c r="AL4" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" s="26" customFormat="1">
+      <c r="AM4" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" s="26" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="40">
         <v>0</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="40">
         <v>0</v>
       </c>
       <c r="D5" s="39">
@@ -6697,13 +6712,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="39">
         <v>1</v>
       </c>
-      <c r="K5" s="40">
-        <v>0</v>
+      <c r="K5" s="39">
+        <v>1</v>
       </c>
       <c r="L5" s="40">
         <v>0</v>
@@ -6729,7 +6744,7 @@
       <c r="S5" s="40">
         <v>0</v>
       </c>
-      <c r="T5" s="31">
+      <c r="T5" s="40">
         <v>0</v>
       </c>
       <c r="U5" s="31">
@@ -6786,8 +6801,11 @@
       <c r="AL5" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" s="26" customFormat="1">
+      <c r="AM5" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" s="26" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>41</v>
       </c>
@@ -6812,7 +6830,7 @@
       <c r="H6" s="39">
         <v>1</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="39">
         <v>1</v>
       </c>
       <c r="J6" s="40">
@@ -6845,13 +6863,13 @@
       <c r="S6" s="40">
         <v>1</v>
       </c>
-      <c r="T6" s="30">
+      <c r="T6" s="40">
         <v>1</v>
       </c>
       <c r="U6" s="30">
         <v>1</v>
       </c>
-      <c r="V6" s="31">
+      <c r="V6" s="30">
         <v>1</v>
       </c>
       <c r="W6" s="31">
@@ -6875,7 +6893,7 @@
       <c r="AC6" s="31">
         <v>1</v>
       </c>
-      <c r="AD6" s="30">
+      <c r="AD6" s="31">
         <v>1</v>
       </c>
       <c r="AE6" s="30">
@@ -6884,7 +6902,7 @@
       <c r="AF6" s="30">
         <v>1</v>
       </c>
-      <c r="AG6" s="31">
+      <c r="AG6" s="30">
         <v>1</v>
       </c>
       <c r="AH6" s="31">
@@ -6902,8 +6920,11 @@
       <c r="AL6" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" s="16" customFormat="1">
+      <c r="AM6" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="16" customFormat="1">
       <c r="A7" s="22" t="s">
         <v>42</v>
       </c>
@@ -6961,7 +6982,7 @@
       <c r="S7" s="40">
         <v>0</v>
       </c>
-      <c r="T7" s="31">
+      <c r="T7" s="40">
         <v>0</v>
       </c>
       <c r="U7" s="31">
@@ -7018,8 +7039,11 @@
       <c r="AL7" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" s="16" customFormat="1">
+      <c r="AM7" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
         <v>206</v>
       </c>
@@ -7077,7 +7101,7 @@
       <c r="S8" s="40">
         <v>0</v>
       </c>
-      <c r="T8" s="31">
+      <c r="T8" s="40">
         <v>0</v>
       </c>
       <c r="U8" s="31">
@@ -7134,8 +7158,11 @@
       <c r="AL8" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" s="16" customFormat="1">
+      <c r="AM8" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" s="16" customFormat="1">
       <c r="A9" s="22" t="s">
         <v>43</v>
       </c>
@@ -7193,7 +7220,7 @@
       <c r="S9" s="40">
         <v>0</v>
       </c>
-      <c r="T9" s="31">
+      <c r="T9" s="40">
         <v>0</v>
       </c>
       <c r="U9" s="31">
@@ -7250,61 +7277,64 @@
       <c r="AL9" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" s="17" customFormat="1" ht="27.4" thickBot="1">
+      <c r="AM9" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" s="17" customFormat="1" ht="27.4" thickBot="1">
       <c r="A10" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="41" t="s">
+        <v>214</v>
+      </c>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="41" t="s">
-        <v>197</v>
-      </c>
+      <c r="I10" s="42"/>
       <c r="J10" s="41" t="s">
         <v>197</v>
       </c>
       <c r="K10" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="L10" s="41" t="s">
+      <c r="M10" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="M10" s="41" t="s">
+      <c r="N10" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="N10" s="41" t="s">
+      <c r="O10" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="O10" s="41" t="s">
+      <c r="P10" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="P10" s="41" t="s">
+      <c r="Q10" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="Q10" s="41" t="s">
+      <c r="R10" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="R10" s="41" t="s">
+      <c r="S10" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="S10" s="41" t="s">
+      <c r="T10" s="41" t="s">
         <v>200</v>
-      </c>
-      <c r="T10" s="32" t="s">
-        <v>214</v>
       </c>
       <c r="U10" s="32" t="s">
         <v>214</v>
       </c>
       <c r="V10" s="32" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="W10" s="32" t="s">
         <v>198</v>
@@ -7313,17 +7343,17 @@
         <v>198</v>
       </c>
       <c r="Y10" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z10" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="32" t="s">
+      <c r="AA10" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="AA10" s="33"/>
       <c r="AB10" s="33"/>
       <c r="AC10" s="33"/>
-      <c r="AD10" s="32" t="s">
-        <v>214</v>
-      </c>
+      <c r="AD10" s="33"/>
       <c r="AE10" s="32" t="s">
         <v>214</v>
       </c>
@@ -7331,28 +7361,31 @@
         <v>214</v>
       </c>
       <c r="AG10" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH10" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AH10" s="32" t="s">
+      <c r="AI10" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="AI10" s="32" t="s">
+      <c r="AJ10" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="AJ10" s="32" t="s">
+      <c r="AK10" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AK10" s="32" t="s">
+      <c r="AL10" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="AL10" s="32" t="s">
+      <c r="AM10" s="32" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{C5B45FAA-DDA2-4923-883B-BDBA94013D24}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 AD5:AL5 AG6:AL9 K5:AC9 I6:J9 C7:H9" xr:uid="{9492378F-A71A-4DF6-9127-6F1B0B990504}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:I9 AE5:AM5 AH6:AM9 L5:AD9 J6:K9 B5:C5" xr:uid="{9492378F-A71A-4DF6-9127-6F1B0B990504}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="Component" sheetId="8" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Record_Bag!$A$1:$W$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Record_Bag!$A$1:$W$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Record_Building!$D$1:$D$26</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -434,7 +434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="353">
   <si>
     <t>Id</t>
   </si>
@@ -1522,6 +1522,15 @@
   </si>
   <si>
     <t>PVPType</t>
+  </si>
+  <si>
+    <t>TempItemList</t>
+  </si>
+  <si>
+    <t>HeroLevel</t>
+  </si>
+  <si>
+    <t>hero等级</t>
   </si>
 </sst>
 </file>
@@ -2290,11 +2299,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS10"/>
+  <dimension ref="A1:AT10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2305,19 +2314,20 @@
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="8.1328125" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.6640625" customWidth="1"/>
-    <col min="26" max="26" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.33203125" customWidth="1"/>
-    <col min="29" max="29" width="16" customWidth="1"/>
-    <col min="35" max="36" width="18.33203125" customWidth="1"/>
-    <col min="37" max="45" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.33203125" customWidth="1"/>
+    <col min="30" max="30" width="16" customWidth="1"/>
+    <col min="36" max="37" width="18.33203125" customWidth="1"/>
+    <col min="38" max="46" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="25" customFormat="1">
+    <row r="1" spans="1:46" s="25" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2340,121 +2350,124 @@
         <v>6</v>
       </c>
       <c r="H1" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="O1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="P1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="Q1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="R1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="X1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AB1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AE1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AI1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AK1" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AL1" s="28" t="s">
+      <c r="AM1" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AN1" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="AN1" s="28" t="s">
+      <c r="AO1" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="AO1" s="28" t="s">
+      <c r="AP1" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="AP1" s="28" t="s">
+      <c r="AQ1" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="AQ1" s="28" t="s">
+      <c r="AR1" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="AR1" s="28" t="s">
+      <c r="AS1" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="AS1" s="28" t="s">
+      <c r="AT1" s="28" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="26" customFormat="1">
+    <row r="2" spans="1:46" s="26" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>34</v>
       </c>
@@ -2477,17 +2490,17 @@
         <v>36</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="L2" s="3" t="s">
         <v>36</v>
       </c>
@@ -2510,13 +2523,13 @@
         <v>36</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>36</v>
@@ -2534,7 +2547,7 @@
         <v>36</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>37</v>
@@ -2543,7 +2556,7 @@
         <v>37</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>36</v>
@@ -2552,18 +2565,18 @@
         <v>36</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="AL2" s="39" t="s">
@@ -2582,7 +2595,7 @@
         <v>35</v>
       </c>
       <c r="AQ2" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AR2" s="39" t="s">
         <v>36</v>
@@ -2590,8 +2603,11 @@
       <c r="AS2" s="39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" s="26" customFormat="1">
+      <c r="AT2" s="39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" s="26" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>38</v>
       </c>
@@ -2619,8 +2635,8 @@
       <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="16">
-        <v>0</v>
+      <c r="J3" s="3">
+        <v>1</v>
       </c>
       <c r="K3" s="16">
         <v>0</v>
@@ -2631,11 +2647,11 @@
       <c r="M3" s="16">
         <v>0</v>
       </c>
-      <c r="N3" s="3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="16">
-        <v>0</v>
+      <c r="N3" s="16">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
       </c>
       <c r="P3" s="16">
         <v>0</v>
@@ -2679,11 +2695,11 @@
       <c r="AC3" s="16">
         <v>0</v>
       </c>
-      <c r="AD3" s="3">
-        <v>1</v>
+      <c r="AD3" s="16">
+        <v>0</v>
       </c>
       <c r="AE3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3" s="3">
         <v>0</v>
@@ -2694,13 +2710,13 @@
       <c r="AH3" s="3">
         <v>0</v>
       </c>
-      <c r="AI3" s="16">
+      <c r="AI3" s="3">
         <v>0</v>
       </c>
       <c r="AJ3" s="16">
         <v>0</v>
       </c>
-      <c r="AK3" s="39">
+      <c r="AK3" s="16">
         <v>0</v>
       </c>
       <c r="AL3" s="39">
@@ -2727,8 +2743,11 @@
       <c r="AS3" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:45" s="26" customFormat="1">
+      <c r="AT3" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" s="26" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>39</v>
       </c>
@@ -2820,13 +2839,13 @@
         <v>1</v>
       </c>
       <c r="AE4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4" s="3">
         <v>0</v>
       </c>
       <c r="AG4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="3">
         <v>1</v>
@@ -2837,7 +2856,7 @@
       <c r="AJ4" s="3">
         <v>1</v>
       </c>
-      <c r="AK4" s="39">
+      <c r="AK4" s="3">
         <v>1</v>
       </c>
       <c r="AL4" s="39">
@@ -2864,8 +2883,11 @@
       <c r="AS4" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:45" s="26" customFormat="1">
+      <c r="AT4" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" s="26" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>40</v>
       </c>
@@ -2974,7 +2996,7 @@
       <c r="AJ5" s="16">
         <v>0</v>
       </c>
-      <c r="AK5" s="40">
+      <c r="AK5" s="16">
         <v>0</v>
       </c>
       <c r="AL5" s="40">
@@ -3001,8 +3023,11 @@
       <c r="AS5" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:45" s="26" customFormat="1">
+      <c r="AT5" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" s="26" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>41</v>
       </c>
@@ -3111,7 +3136,7 @@
       <c r="AJ6" s="3">
         <v>1</v>
       </c>
-      <c r="AK6" s="40">
+      <c r="AK6" s="3">
         <v>1</v>
       </c>
       <c r="AL6" s="40">
@@ -3138,8 +3163,11 @@
       <c r="AS6" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:45" s="16" customFormat="1">
+      <c r="AT6" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" s="16" customFormat="1">
       <c r="A7" s="22" t="s">
         <v>42</v>
       </c>
@@ -3248,7 +3276,7 @@
       <c r="AJ7" s="16">
         <v>0</v>
       </c>
-      <c r="AK7" s="40">
+      <c r="AK7" s="16">
         <v>0</v>
       </c>
       <c r="AL7" s="40">
@@ -3275,8 +3303,11 @@
       <c r="AS7" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:45" s="16" customFormat="1">
+      <c r="AT7" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
         <v>206</v>
       </c>
@@ -3385,7 +3416,7 @@
       <c r="AJ8" s="16">
         <v>0</v>
       </c>
-      <c r="AK8" s="40">
+      <c r="AK8" s="16">
         <v>0</v>
       </c>
       <c r="AL8" s="40">
@@ -3412,8 +3443,11 @@
       <c r="AS8" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:45" s="16" customFormat="1">
+      <c r="AT8" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" s="16" customFormat="1">
       <c r="A9" s="22" t="s">
         <v>43</v>
       </c>
@@ -3522,7 +3556,7 @@
       <c r="AJ9" s="16">
         <v>0</v>
       </c>
-      <c r="AK9" s="40">
+      <c r="AK9" s="16">
         <v>0</v>
       </c>
       <c r="AL9" s="40">
@@ -3549,8 +3583,11 @@
       <c r="AS9" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:45" s="17" customFormat="1" ht="67.900000000000006" thickBot="1">
+      <c r="AT9" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" s="17" customFormat="1" ht="67.900000000000006" thickBot="1">
       <c r="A10" s="23" t="s">
         <v>44</v>
       </c>
@@ -3573,123 +3610,126 @@
         <v>50</v>
       </c>
       <c r="H10" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="I10" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="J10" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="K10" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="L10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="M10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="N10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="O10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="P10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="Q10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="R10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="S10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="T10" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="T10" s="24" t="s">
+      <c r="U10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="U10" s="24" t="s">
+      <c r="V10" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="V10" s="24" t="s">
+      <c r="W10" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="W10" s="24" t="s">
+      <c r="X10" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="X10" s="24" t="s">
+      <c r="Y10" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="Y10" s="24" t="s">
+      <c r="Z10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="Z10" s="24" t="s">
+      <c r="AA10" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="AA10" s="24" t="s">
+      <c r="AB10" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AB10" s="24" t="s">
+      <c r="AC10" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AC10" s="24" t="s">
+      <c r="AD10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AD10" s="24" t="s">
+      <c r="AE10" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="AE10" s="24" t="s">
+      <c r="AF10" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="AF10" s="24" t="s">
+      <c r="AG10" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="AG10" s="24" t="s">
+      <c r="AH10" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="AH10" s="24" t="s">
+      <c r="AI10" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="AI10" s="24" t="s">
+      <c r="AJ10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="AJ10" s="24" t="s">
+      <c r="AK10" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="AK10" s="41" t="s">
+      <c r="AL10" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="AL10" s="41" t="s">
+      <c r="AM10" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="AM10" s="41" t="s">
+      <c r="AN10" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="AN10" s="41" t="s">
+      <c r="AO10" s="41" t="s">
         <v>145</v>
-      </c>
-      <c r="AO10" s="41" t="s">
-        <v>146</v>
       </c>
       <c r="AP10" s="41" t="s">
         <v>146</v>
       </c>
       <c r="AQ10" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR10" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="AR10" s="41" t="s">
+      <c r="AS10" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="AS10" s="41" t="s">
+      <c r="AT10" s="41" t="s">
         <v>268</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:AC3 J3:M3 B7:AH9 B5:AS5 AK6:AS9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:AD3 K3:N3 AL6:AT9 B5:AT5 B7:AI9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
@@ -6184,8 +6224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972B7153-9DF5-4ED6-8C38-DB6612A94CE8}">
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6813,7 +6853,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="39">
         <v>1</v>
@@ -8965,10 +9005,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9725,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>211</v>
+        <v>350</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -9745,16 +9785,13 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" s="13" customFormat="1">
       <c r="A28" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B28" s="3">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -9774,16 +9811,13 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" s="13" customFormat="1">
       <c r="A29" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B29" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -9803,9 +9837,6 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" s="13" customFormat="1">
       <c r="A30" s="3" t="s">
@@ -9832,9 +9863,6 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" s="13" customFormat="1">
       <c r="A31" s="3" t="s">
@@ -9861,9 +9889,6 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" s="13" customFormat="1">
       <c r="A32" s="3" t="s">
@@ -9890,9 +9915,6 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
     </row>
     <row r="33" spans="1:23" s="13" customFormat="1">
       <c r="A33" s="3" t="s">
@@ -9919,9 +9941,6 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
     </row>
     <row r="34" spans="1:23" s="3" customFormat="1">
       <c r="A34" s="3" t="s">
@@ -9964,45 +9983,32 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
     </row>
     <row r="37" spans="1:23" s="13" customFormat="1">
       <c r="A37" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="34" t="s">
         <v>171</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:23" s="13" customFormat="1">
       <c r="A38" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:23" s="13" customFormat="1">
       <c r="A39" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
+      <c r="B39" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -10019,21 +10025,321 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="1:23" s="11" customFormat="1">
+      <c r="A40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+    </row>
+    <row r="41" spans="1:23" s="13" customFormat="1">
+      <c r="A41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="3">
+        <v>128</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+    </row>
+    <row r="42" spans="1:23" s="13" customFormat="1">
+      <c r="A42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="3">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+    </row>
+    <row r="43" spans="1:23" s="13" customFormat="1">
+      <c r="A43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+    </row>
+    <row r="44" spans="1:23" s="13" customFormat="1">
+      <c r="A44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+    </row>
+    <row r="45" spans="1:23" s="13" customFormat="1">
+      <c r="A45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+    </row>
+    <row r="46" spans="1:23" s="13" customFormat="1">
+      <c r="A46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+    </row>
+    <row r="47" spans="1:23" s="3" customFormat="1">
+      <c r="A47" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" s="3" customFormat="1">
+      <c r="A48" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" s="13" customFormat="1">
+      <c r="A49" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+    </row>
+    <row r="50" spans="1:23" s="13" customFormat="1">
+      <c r="A50" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" s="13" customFormat="1">
+      <c r="A51" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" s="13" customFormat="1">
+      <c r="A52" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="35"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W39" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:W52" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 E10:G10 E13:F13 A19 D21:G23 A4:B5 D8:G9 A17:B18 B19:B23 A30:B32 E39 G39:G1048576 D40:F1048576 E1:G7 B6:B10 D14:F20 G13:G20 D26:G36 B33:B36" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 E10:G10 E13:F13 A19 D21:G23 A4:B5 D8:G9 A17:B18 B19:B23 A43:B45 E52 G52:G1048576 D53:F1048576 E1:G7 B6:B10 D14:F20 G13:G20 B46:B49 A32 A30:B31 D40:G49 C27:D36 D26:G26 C39:D39 B32:B36" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B11 G11 N11:W11 F11:F12 A37 N10 N23 N39:N1048576 N1:N7 N13:N20 N26:N33 N36" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B12 G12 N12:W12 A11:A12 I10:M10 A24:E25 O23:AE23 I8:AK9 O39:AE1048576 B37:C38 X11:AE12 C11:E12 H11:M12 I36:M36 I21:AK22 I39:M1048576 A38 I1:M7 O1:AE7 O10:AE10 O13:AE20 I13:M20 I23:M23 I26:M33 O26:AE33 O36:AE36 I34:AK35" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B11 G11 N11:W11 F11:F12 A50 N10 N23 N52:N1048576 N1:N7 N13:N20 N49 K36 K39 N40:N46 K27:K33 N26" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B12 G12 N12:W12 A11:A12 I10:M10 A24:E25 O23:AE23 I8:AK9 O52:AE1048576 B50:C51 X11:AE12 C11:E12 H11:M12 I49:M49 I21:AK22 I52:M1048576 A51 I1:M7 O1:AE7 O10:AE10 O13:AE20 I13:M20 I23:M23 I47:AK48 O49:AE49 A37:B38 L36:AB36 F34:AH35 F36:J36 F39:J39 I40:M46 F27:J33 I26:M26 L27:AB33 O26:AE26 L39:AB39 O40:AE46" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39:C1048576 C8:C9 A2:B3 A15:B16 C14:C23 B40:B1048576 A28:B29 D39 C26:C36" xr:uid="{00000000-0002-0000-0400-000003000000}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C52:C1048576 C8:C9 A2:B3 A15:B16 C14:C23 B53:B1048576 A41:B42 D52 C26 C40:C49 A28:B29" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28043" windowHeight="17543" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="359">
   <si>
     <t>Id</t>
   </si>
@@ -1531,6 +1531,24 @@
   </si>
   <si>
     <t>hero等级</t>
+  </si>
+  <si>
+    <t>Hero1BornPos</t>
+  </si>
+  <si>
+    <t>Hero3BornPos</t>
+  </si>
+  <si>
+    <t>Hero2BornPos</t>
+  </si>
+  <si>
+    <t>OpponentHero1BornPos</t>
+  </si>
+  <si>
+    <t>OpponentHero2BornPos</t>
+  </si>
+  <si>
+    <t>OpponentHero3BornPos</t>
   </si>
 </sst>
 </file>
@@ -6222,10 +6240,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972B7153-9DF5-4ED6-8C38-DB6612A94CE8}">
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AS10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6234,23 +6252,26 @@
     <col min="2" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="7" width="16" customWidth="1"/>
     <col min="8" max="9" width="21.59765625" customWidth="1"/>
-    <col min="10" max="20" width="17.33203125" customWidth="1"/>
-    <col min="21" max="22" width="18.33203125" customWidth="1"/>
-    <col min="23" max="25" width="17.33203125" customWidth="1"/>
-    <col min="26" max="26" width="15.6640625" customWidth="1"/>
-    <col min="27" max="27" width="19.6640625" customWidth="1"/>
-    <col min="28" max="29" width="16" customWidth="1"/>
-    <col min="30" max="30" width="21.59765625" customWidth="1"/>
-    <col min="31" max="33" width="18.33203125" customWidth="1"/>
-    <col min="34" max="34" width="26.3984375" customWidth="1"/>
-    <col min="35" max="35" width="26.6640625" customWidth="1"/>
-    <col min="36" max="36" width="17.33203125" customWidth="1"/>
+    <col min="10" max="23" width="17.33203125" customWidth="1"/>
+    <col min="24" max="25" width="18.33203125" customWidth="1"/>
+    <col min="26" max="28" width="17.33203125" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" customWidth="1"/>
+    <col min="30" max="30" width="19.6640625" customWidth="1"/>
+    <col min="31" max="32" width="16" customWidth="1"/>
+    <col min="33" max="33" width="21.59765625" customWidth="1"/>
+    <col min="34" max="36" width="18.33203125" customWidth="1"/>
     <col min="37" max="37" width="26.3984375" customWidth="1"/>
     <col min="38" max="38" width="26.6640625" customWidth="1"/>
-    <col min="39" max="39" width="17.33203125" customWidth="1"/>
+    <col min="39" max="39" width="23.33203125" customWidth="1"/>
+    <col min="40" max="40" width="26.3984375" customWidth="1"/>
+    <col min="41" max="41" width="26.6640625" customWidth="1"/>
+    <col min="42" max="42" width="17.33203125" customWidth="1"/>
+    <col min="43" max="43" width="26.3984375" customWidth="1"/>
+    <col min="44" max="44" width="26.6640625" customWidth="1"/>
+    <col min="45" max="45" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="25" customFormat="1">
+    <row r="1" spans="1:45" s="25" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -6285,91 +6306,109 @@
         <v>209</v>
       </c>
       <c r="L1" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="O1" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="P1" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="Q1" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="R1" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="X1" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="AB1" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="AC1" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AD1" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AE1" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="AF1" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="AD1" s="25" t="s">
+      <c r="AG1" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AI1" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AK1" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="AL1" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="AM1" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="AN1" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AO1" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AP1" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AQ1" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="AL1" s="28" t="s">
+      <c r="AR1" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AS1" s="28" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="26" customFormat="1">
+    <row r="2" spans="1:45" s="26" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>34</v>
       </c>
@@ -6404,73 +6443,73 @@
         <v>35</v>
       </c>
       <c r="L2" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="O2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="P2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="Q2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="R2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="S2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="T2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="30" t="s">
-        <v>36</v>
-      </c>
       <c r="Y2" s="30" t="s">
         <v>36</v>
       </c>
       <c r="Z2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="30" t="s">
+      <c r="AD2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" s="30" t="s">
-        <v>36</v>
-      </c>
       <c r="AE2" s="30" t="s">
         <v>36</v>
       </c>
       <c r="AF2" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AG2" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AH2" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AI2" s="30" t="s">
         <v>35</v>
@@ -6479,16 +6518,34 @@
         <v>35</v>
       </c>
       <c r="AK2" s="30" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="AL2" s="30" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="AM2" s="30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" s="26" customFormat="1">
+        <v>204</v>
+      </c>
+      <c r="AN2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS2" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" s="26" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>38</v>
       </c>
@@ -6549,19 +6606,19 @@
       <c r="T3" s="39">
         <v>0</v>
       </c>
-      <c r="U3" s="31">
-        <v>0</v>
-      </c>
-      <c r="V3" s="31">
-        <v>0</v>
-      </c>
-      <c r="W3" s="30">
-        <v>0</v>
-      </c>
-      <c r="X3" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="30">
+      <c r="U3" s="39">
+        <v>0</v>
+      </c>
+      <c r="V3" s="39">
+        <v>0</v>
+      </c>
+      <c r="W3" s="39">
+        <v>0</v>
+      </c>
+      <c r="X3" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="31">
         <v>0</v>
       </c>
       <c r="Z3" s="30">
@@ -6579,22 +6636,22 @@
       <c r="AD3" s="30">
         <v>0</v>
       </c>
-      <c r="AE3" s="31">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="31">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="31">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="30">
+      <c r="AE3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="31">
         <v>0</v>
       </c>
       <c r="AK3" s="30">
@@ -6606,8 +6663,26 @@
       <c r="AM3" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" s="26" customFormat="1">
+      <c r="AN3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" s="26" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>39</v>
       </c>
@@ -6668,13 +6743,13 @@
       <c r="T4" s="39">
         <v>1</v>
       </c>
-      <c r="U4" s="30">
-        <v>1</v>
-      </c>
-      <c r="V4" s="30">
-        <v>1</v>
-      </c>
-      <c r="W4" s="30">
+      <c r="U4" s="39">
+        <v>1</v>
+      </c>
+      <c r="V4" s="39">
+        <v>1</v>
+      </c>
+      <c r="W4" s="39">
         <v>1</v>
       </c>
       <c r="X4" s="30">
@@ -6725,8 +6800,26 @@
       <c r="AM4" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" s="26" customFormat="1">
+      <c r="AN4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" s="26" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>40</v>
       </c>
@@ -6787,13 +6880,13 @@
       <c r="T5" s="40">
         <v>0</v>
       </c>
-      <c r="U5" s="31">
-        <v>0</v>
-      </c>
-      <c r="V5" s="31">
-        <v>0</v>
-      </c>
-      <c r="W5" s="31">
+      <c r="U5" s="40">
+        <v>0</v>
+      </c>
+      <c r="V5" s="40">
+        <v>0</v>
+      </c>
+      <c r="W5" s="40">
         <v>0</v>
       </c>
       <c r="X5" s="31">
@@ -6844,8 +6937,26 @@
       <c r="AM5" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" s="26" customFormat="1">
+      <c r="AN5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" s="26" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>41</v>
       </c>
@@ -6906,19 +7017,19 @@
       <c r="T6" s="40">
         <v>1</v>
       </c>
-      <c r="U6" s="30">
-        <v>1</v>
-      </c>
-      <c r="V6" s="30">
-        <v>1</v>
-      </c>
-      <c r="W6" s="31">
-        <v>1</v>
-      </c>
-      <c r="X6" s="31">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="31">
+      <c r="U6" s="40">
+        <v>1</v>
+      </c>
+      <c r="V6" s="40">
+        <v>1</v>
+      </c>
+      <c r="W6" s="40">
+        <v>1</v>
+      </c>
+      <c r="X6" s="30">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="30">
         <v>1</v>
       </c>
       <c r="Z6" s="31">
@@ -6936,22 +7047,22 @@
       <c r="AD6" s="31">
         <v>1</v>
       </c>
-      <c r="AE6" s="30">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="30">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="30">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="31">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="31">
+      <c r="AE6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="30">
         <v>1</v>
       </c>
       <c r="AK6" s="31">
@@ -6963,8 +7074,26 @@
       <c r="AM6" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" s="16" customFormat="1">
+      <c r="AN6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" s="16" customFormat="1">
       <c r="A7" s="22" t="s">
         <v>42</v>
       </c>
@@ -7025,13 +7154,13 @@
       <c r="T7" s="40">
         <v>0</v>
       </c>
-      <c r="U7" s="31">
-        <v>0</v>
-      </c>
-      <c r="V7" s="31">
-        <v>0</v>
-      </c>
-      <c r="W7" s="31">
+      <c r="U7" s="40">
+        <v>0</v>
+      </c>
+      <c r="V7" s="40">
+        <v>0</v>
+      </c>
+      <c r="W7" s="40">
         <v>0</v>
       </c>
       <c r="X7" s="31">
@@ -7082,8 +7211,26 @@
       <c r="AM7" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" s="16" customFormat="1">
+      <c r="AN7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" s="16" customFormat="1">
       <c r="A8" s="22" t="s">
         <v>206</v>
       </c>
@@ -7144,13 +7291,13 @@
       <c r="T8" s="40">
         <v>0</v>
       </c>
-      <c r="U8" s="31">
-        <v>0</v>
-      </c>
-      <c r="V8" s="31">
-        <v>0</v>
-      </c>
-      <c r="W8" s="31">
+      <c r="U8" s="40">
+        <v>0</v>
+      </c>
+      <c r="V8" s="40">
+        <v>0</v>
+      </c>
+      <c r="W8" s="40">
         <v>0</v>
       </c>
       <c r="X8" s="31">
@@ -7201,8 +7348,26 @@
       <c r="AM8" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" s="16" customFormat="1">
+      <c r="AN8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" s="16" customFormat="1">
       <c r="A9" s="22" t="s">
         <v>43</v>
       </c>
@@ -7263,13 +7428,13 @@
       <c r="T9" s="40">
         <v>0</v>
       </c>
-      <c r="U9" s="31">
-        <v>0</v>
-      </c>
-      <c r="V9" s="31">
-        <v>0</v>
-      </c>
-      <c r="W9" s="31">
+      <c r="U9" s="40">
+        <v>0</v>
+      </c>
+      <c r="V9" s="40">
+        <v>0</v>
+      </c>
+      <c r="W9" s="40">
         <v>0</v>
       </c>
       <c r="X9" s="31">
@@ -7320,8 +7485,26 @@
       <c r="AM9" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" s="17" customFormat="1" ht="27.4" thickBot="1">
+      <c r="AN9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" s="17" customFormat="1" ht="27.4" thickBot="1">
       <c r="A10" s="23" t="s">
         <v>44</v>
       </c>
@@ -7370,47 +7553,47 @@
       <c r="T10" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="U10" s="32" t="s">
+      <c r="U10" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="V10" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="W10" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="X10" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="V10" s="32" t="s">
+      <c r="Y10" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="W10" s="32" t="s">
+      <c r="Z10" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="X10" s="32" t="s">
+      <c r="AA10" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="Y10" s="32" t="s">
+      <c r="AB10" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="Z10" s="32" t="s">
+      <c r="AC10" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="AA10" s="32" t="s">
+      <c r="AD10" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="32" t="s">
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="AF10" s="32" t="s">
+      <c r="AI10" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="AG10" s="32" t="s">
+      <c r="AJ10" s="32" t="s">
         <v>214</v>
-      </c>
-      <c r="AH10" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI10" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ10" s="32" t="s">
-        <v>200</v>
       </c>
       <c r="AK10" s="32" t="s">
         <v>198</v>
@@ -7419,13 +7602,31 @@
         <v>199</v>
       </c>
       <c r="AM10" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN10" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO10" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP10" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ10" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR10" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS10" s="32" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{C5B45FAA-DDA2-4923-883B-BDBA94013D24}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:I9 AE5:AM5 AH6:AM9 L5:AD9 J6:K9 B5:C5" xr:uid="{9492378F-A71A-4DF6-9127-6F1B0B990504}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:I9 J6:K9 AK6:AS9 L5:AG9 B5:C5 AH5:AS5" xr:uid="{9492378F-A71A-4DF6-9127-6F1B0B990504}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9007,7 +9208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -1667,10 +1667,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1703,29 +1703,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1740,7 +1718,97 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1756,7 +1824,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1770,43 +1838,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1815,39 +1846,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1904,7 +1904,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1916,7 +1964,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1928,7 +2000,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1940,97 +2042,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2042,31 +2054,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2196,35 +2196,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2240,17 +2211,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2272,24 +2261,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2298,148 +2298,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6140,8 +6140,8 @@
   <sheetPr/>
   <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6358,8 +6358,8 @@
       <c r="D3" s="27">
         <v>0</v>
       </c>
-      <c r="E3" s="27">
-        <v>0</v>
+      <c r="E3" s="53">
+        <v>1</v>
       </c>
       <c r="F3" s="27">
         <v>0</v>
@@ -7127,7 +7127,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:Q3 R3 S3:V3 W3 X3 Y3:AF3 R7:R9 W7:W9 X7:X9 B7:Q9 S7:V9 Y7:AF9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:D3 F3:Q3 R3 S3:V3 W3 X3 Y3:AF3 R7:R9 W7:W9 X7:X9 B7:Q9 S7:V9 Y7:AF9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -1667,9 +1667,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -1702,6 +1702,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1709,10 +1717,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1725,7 +1734,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1740,10 +1749,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1763,24 +1781,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1800,15 +1810,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1822,6 +1824,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1830,24 +1846,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1904,7 +1904,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1916,7 +1916,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1928,19 +1988,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1952,61 +2054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2018,55 +2066,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2196,6 +2196,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2211,15 +2235,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2231,15 +2246,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2261,6 +2267,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2269,181 +2293,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2589,24 +2589,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4314,112 +4308,112 @@
       <c r="A10" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="54" t="s">
+      <c r="I10" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="54" t="s">
+      <c r="J10" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="L10" s="54" t="s">
+      <c r="L10" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="M10" s="54" t="s">
+      <c r="M10" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="N10" s="54" t="s">
+      <c r="N10" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="O10" s="54" t="s">
+      <c r="O10" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="P10" s="54" t="s">
+      <c r="P10" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="Q10" s="54" t="s">
+      <c r="Q10" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="R10" s="54" t="s">
+      <c r="R10" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="S10" s="54" t="s">
+      <c r="S10" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="T10" s="54" t="s">
+      <c r="T10" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="U10" s="54" t="s">
+      <c r="U10" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="V10" s="54" t="s">
+      <c r="V10" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="W10" s="54" t="s">
+      <c r="W10" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="X10" s="54" t="s">
+      <c r="X10" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="Y10" s="54" t="s">
+      <c r="Y10" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="Z10" s="54" t="s">
+      <c r="Z10" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="AA10" s="54" t="s">
+      <c r="AA10" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AB10" s="54" t="s">
+      <c r="AB10" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="AC10" s="54" t="s">
+      <c r="AC10" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="AD10" s="54" t="s">
+      <c r="AD10" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="AE10" s="54" t="s">
+      <c r="AE10" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="AF10" s="54" t="s">
+      <c r="AF10" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="AG10" s="54" t="s">
+      <c r="AG10" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="AH10" s="54" t="s">
+      <c r="AH10" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="AI10" s="54" t="s">
+      <c r="AI10" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="AJ10" s="54" t="s">
+      <c r="AJ10" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="AK10" s="54" t="s">
+      <c r="AK10" s="50" t="s">
         <v>92</v>
       </c>
       <c r="AL10" s="42" t="s">
@@ -6138,112 +6132,112 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F22" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.1333333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="48" customFormat="1" ht="27" spans="1:32">
-      <c r="A1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="Q1" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="S1" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="V1" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="W1" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="X1" s="51" t="s">
+      <c r="X1" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="Y1" s="51" t="s">
+      <c r="Y1" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="Z1" s="51" t="s">
+      <c r="Z1" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="51" t="s">
+      <c r="AA1" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="51" t="s">
+      <c r="AB1" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="AC1" s="51" t="s">
+      <c r="AC1" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="AD1" s="51" t="s">
+      <c r="AD1" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="AE1" s="51" t="s">
+      <c r="AE1" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="AF1" s="51" t="s">
+      <c r="AF1" s="48" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6251,97 +6245,97 @@
       <c r="A2" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF2" s="53" t="s">
+      <c r="B2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF2" s="49" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6358,7 +6352,7 @@
       <c r="D3" s="27">
         <v>0</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="49">
         <v>1</v>
       </c>
       <c r="F3" s="27">
@@ -6382,8 +6376,8 @@
       <c r="L3" s="27">
         <v>0</v>
       </c>
-      <c r="M3" s="27">
-        <v>0</v>
+      <c r="M3" s="49">
+        <v>1</v>
       </c>
       <c r="N3" s="27">
         <v>0</v>
@@ -6424,120 +6418,120 @@
       <c r="Z3" s="27">
         <v>0</v>
       </c>
-      <c r="AA3" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="27">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="27">
-        <v>0</v>
+      <c r="AA3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="49">
+        <v>1</v>
       </c>
     </row>
     <row r="4" s="49" customFormat="1" spans="1:32">
       <c r="A4" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="53">
-        <v>1</v>
-      </c>
-      <c r="C4" s="53">
-        <v>1</v>
-      </c>
-      <c r="D4" s="53">
-        <v>1</v>
-      </c>
-      <c r="E4" s="53">
-        <v>1</v>
-      </c>
-      <c r="F4" s="53">
-        <v>1</v>
-      </c>
-      <c r="G4" s="53">
-        <v>1</v>
-      </c>
-      <c r="H4" s="53">
-        <v>1</v>
-      </c>
-      <c r="I4" s="53">
-        <v>1</v>
-      </c>
-      <c r="J4" s="53">
-        <v>1</v>
-      </c>
-      <c r="K4" s="53">
-        <v>1</v>
-      </c>
-      <c r="L4" s="53">
-        <v>1</v>
-      </c>
-      <c r="M4" s="53">
-        <v>1</v>
-      </c>
-      <c r="N4" s="53">
-        <v>1</v>
-      </c>
-      <c r="O4" s="53">
-        <v>1</v>
-      </c>
-      <c r="P4" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="53">
-        <v>1</v>
-      </c>
-      <c r="R4" s="53">
-        <v>1</v>
-      </c>
-      <c r="S4" s="53">
-        <v>1</v>
-      </c>
-      <c r="T4" s="53">
-        <v>1</v>
-      </c>
-      <c r="U4" s="53">
-        <v>1</v>
-      </c>
-      <c r="V4" s="53">
-        <v>1</v>
-      </c>
-      <c r="W4" s="53">
-        <v>1</v>
-      </c>
-      <c r="X4" s="53">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="53">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="53">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="53">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="53">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="53">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="53">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="53">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="53">
+      <c r="B4" s="49">
+        <v>1</v>
+      </c>
+      <c r="C4" s="49">
+        <v>1</v>
+      </c>
+      <c r="D4" s="49">
+        <v>1</v>
+      </c>
+      <c r="E4" s="49">
+        <v>1</v>
+      </c>
+      <c r="F4" s="49">
+        <v>1</v>
+      </c>
+      <c r="G4" s="49">
+        <v>1</v>
+      </c>
+      <c r="H4" s="49">
+        <v>1</v>
+      </c>
+      <c r="I4" s="49">
+        <v>1</v>
+      </c>
+      <c r="J4" s="49">
+        <v>1</v>
+      </c>
+      <c r="K4" s="49">
+        <v>1</v>
+      </c>
+      <c r="L4" s="49">
+        <v>1</v>
+      </c>
+      <c r="M4" s="49">
+        <v>1</v>
+      </c>
+      <c r="N4" s="49">
+        <v>1</v>
+      </c>
+      <c r="O4" s="49">
+        <v>1</v>
+      </c>
+      <c r="P4" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="49">
+        <v>1</v>
+      </c>
+      <c r="R4" s="49">
+        <v>1</v>
+      </c>
+      <c r="S4" s="49">
+        <v>1</v>
+      </c>
+      <c r="T4" s="49">
+        <v>1</v>
+      </c>
+      <c r="U4" s="49">
+        <v>1</v>
+      </c>
+      <c r="V4" s="49">
+        <v>1</v>
+      </c>
+      <c r="W4" s="49">
+        <v>1</v>
+      </c>
+      <c r="X4" s="49">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="49">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="49">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="49">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="49">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="49">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="49">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="49">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="49">
         <v>1</v>
       </c>
     </row>
@@ -6545,97 +6539,97 @@
       <c r="A5" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="53">
-        <v>0</v>
-      </c>
-      <c r="C5" s="53">
-        <v>0</v>
-      </c>
-      <c r="D5" s="53">
-        <v>0</v>
-      </c>
-      <c r="E5" s="53">
-        <v>0</v>
-      </c>
-      <c r="F5" s="53">
-        <v>0</v>
-      </c>
-      <c r="G5" s="53">
-        <v>0</v>
-      </c>
-      <c r="H5" s="53">
-        <v>0</v>
-      </c>
-      <c r="I5" s="53">
-        <v>0</v>
-      </c>
-      <c r="J5" s="53">
-        <v>0</v>
-      </c>
-      <c r="K5" s="53">
-        <v>0</v>
-      </c>
-      <c r="L5" s="53">
-        <v>0</v>
-      </c>
-      <c r="M5" s="53">
-        <v>0</v>
-      </c>
-      <c r="N5" s="53">
-        <v>0</v>
-      </c>
-      <c r="O5" s="53">
-        <v>0</v>
-      </c>
-      <c r="P5" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="53">
-        <v>0</v>
-      </c>
-      <c r="R5" s="53">
-        <v>0</v>
-      </c>
-      <c r="S5" s="53">
-        <v>0</v>
-      </c>
-      <c r="T5" s="53">
-        <v>0</v>
-      </c>
-      <c r="U5" s="53">
-        <v>0</v>
-      </c>
-      <c r="V5" s="53">
-        <v>0</v>
-      </c>
-      <c r="W5" s="53">
-        <v>0</v>
-      </c>
-      <c r="X5" s="53">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="53">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="53">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="53">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="53">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="53">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="53">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="53">
+      <c r="B5" s="49">
+        <v>0</v>
+      </c>
+      <c r="C5" s="49">
+        <v>0</v>
+      </c>
+      <c r="D5" s="49">
+        <v>0</v>
+      </c>
+      <c r="E5" s="49">
+        <v>0</v>
+      </c>
+      <c r="F5" s="49">
+        <v>0</v>
+      </c>
+      <c r="G5" s="49">
+        <v>0</v>
+      </c>
+      <c r="H5" s="49">
+        <v>0</v>
+      </c>
+      <c r="I5" s="49">
+        <v>0</v>
+      </c>
+      <c r="J5" s="49">
+        <v>0</v>
+      </c>
+      <c r="K5" s="49">
+        <v>0</v>
+      </c>
+      <c r="L5" s="49">
+        <v>0</v>
+      </c>
+      <c r="M5" s="49">
+        <v>0</v>
+      </c>
+      <c r="N5" s="49">
+        <v>0</v>
+      </c>
+      <c r="O5" s="49">
+        <v>0</v>
+      </c>
+      <c r="P5" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="49">
+        <v>0</v>
+      </c>
+      <c r="R5" s="49">
+        <v>0</v>
+      </c>
+      <c r="S5" s="49">
+        <v>0</v>
+      </c>
+      <c r="T5" s="49">
+        <v>0</v>
+      </c>
+      <c r="U5" s="49">
+        <v>0</v>
+      </c>
+      <c r="V5" s="49">
+        <v>0</v>
+      </c>
+      <c r="W5" s="49">
+        <v>0</v>
+      </c>
+      <c r="X5" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="49">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="49">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="49">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="49">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="49">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="49">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="49">
         <v>0</v>
       </c>
     </row>
@@ -6643,97 +6637,97 @@
       <c r="A6" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="53">
-        <v>0</v>
-      </c>
-      <c r="C6" s="53">
-        <v>0</v>
-      </c>
-      <c r="D6" s="53">
-        <v>0</v>
-      </c>
-      <c r="E6" s="53">
-        <v>0</v>
-      </c>
-      <c r="F6" s="53">
-        <v>0</v>
-      </c>
-      <c r="G6" s="53">
-        <v>0</v>
-      </c>
-      <c r="H6" s="53">
-        <v>0</v>
-      </c>
-      <c r="I6" s="53">
-        <v>0</v>
-      </c>
-      <c r="J6" s="53">
-        <v>0</v>
-      </c>
-      <c r="K6" s="53">
-        <v>0</v>
-      </c>
-      <c r="L6" s="53">
-        <v>0</v>
-      </c>
-      <c r="M6" s="53">
-        <v>0</v>
-      </c>
-      <c r="N6" s="53">
-        <v>0</v>
-      </c>
-      <c r="O6" s="53">
-        <v>0</v>
-      </c>
-      <c r="P6" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="53">
-        <v>0</v>
-      </c>
-      <c r="R6" s="53">
-        <v>0</v>
-      </c>
-      <c r="S6" s="53">
-        <v>0</v>
-      </c>
-      <c r="T6" s="53">
-        <v>0</v>
-      </c>
-      <c r="U6" s="53">
-        <v>0</v>
-      </c>
-      <c r="V6" s="53">
-        <v>0</v>
-      </c>
-      <c r="W6" s="53">
-        <v>0</v>
-      </c>
-      <c r="X6" s="53">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="53">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="53">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="53">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="53">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="53">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="53">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="53">
+      <c r="B6" s="49">
+        <v>0</v>
+      </c>
+      <c r="C6" s="49">
+        <v>0</v>
+      </c>
+      <c r="D6" s="49">
+        <v>0</v>
+      </c>
+      <c r="E6" s="49">
+        <v>0</v>
+      </c>
+      <c r="F6" s="49">
+        <v>0</v>
+      </c>
+      <c r="G6" s="49">
+        <v>0</v>
+      </c>
+      <c r="H6" s="49">
+        <v>0</v>
+      </c>
+      <c r="I6" s="49">
+        <v>0</v>
+      </c>
+      <c r="J6" s="49">
+        <v>0</v>
+      </c>
+      <c r="K6" s="49">
+        <v>0</v>
+      </c>
+      <c r="L6" s="49">
+        <v>0</v>
+      </c>
+      <c r="M6" s="49">
+        <v>0</v>
+      </c>
+      <c r="N6" s="49">
+        <v>0</v>
+      </c>
+      <c r="O6" s="49">
+        <v>0</v>
+      </c>
+      <c r="P6" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="49">
+        <v>0</v>
+      </c>
+      <c r="R6" s="49">
+        <v>0</v>
+      </c>
+      <c r="S6" s="49">
+        <v>0</v>
+      </c>
+      <c r="T6" s="49">
+        <v>0</v>
+      </c>
+      <c r="U6" s="49">
+        <v>0</v>
+      </c>
+      <c r="V6" s="49">
+        <v>0</v>
+      </c>
+      <c r="W6" s="49">
+        <v>0</v>
+      </c>
+      <c r="X6" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="49">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="49">
         <v>0</v>
       </c>
     </row>
@@ -7031,103 +7025,163 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="35" customFormat="1" ht="68.25" spans="1:32">
+    <row r="10" s="50" customFormat="1" ht="68.25" spans="1:32">
       <c r="A10" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="I10" s="54" t="s">
+      <c r="I10" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="J10" s="54" t="s">
+      <c r="J10" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="L10" s="54" t="s">
+      <c r="L10" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="M10" s="54" t="s">
+      <c r="M10" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="N10" s="54" t="s">
+      <c r="N10" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="O10" s="54" t="s">
+      <c r="O10" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="P10" s="54" t="s">
+      <c r="P10" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54" t="s">
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="T10" s="54" t="s">
+      <c r="T10" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="U10" s="54" t="s">
+      <c r="U10" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="V10" s="54" t="s">
+      <c r="V10" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="W10" s="54" t="s">
+      <c r="W10" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="X10" s="54" t="s">
+      <c r="X10" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="Y10" s="54" t="s">
+      <c r="Y10" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="Z10" s="54" t="s">
+      <c r="Z10" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="AA10" s="54" t="s">
+      <c r="AA10" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="AB10" s="54" t="s">
+      <c r="AB10" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="AC10" s="54" t="s">
+      <c r="AC10" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="AD10" s="54" t="s">
+      <c r="AD10" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="AE10" s="54" t="s">
+      <c r="AE10" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="AF10" s="54" t="s">
+      <c r="AF10" s="50" t="s">
         <v>150</v>
       </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:1">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:1">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:1">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:1">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:1">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:1">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:1">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" customFormat="1" spans="1:1">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" customFormat="1" spans="1:1">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" customFormat="1" spans="1:1">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:1">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:1">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:1">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:1">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:1">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" customFormat="1" spans="1:1">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" customFormat="1" spans="1:1">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" customFormat="1" spans="1:1">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:1">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:1">
+      <c r="A30" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:D3 F3:Q3 R3 S3:V3 W3 X3 Y3:AF3 R7:R9 W7:W9 X7:X9 B7:Q9 S7:V9 Y7:AF9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:D3 F3:L3 N3:Q3 R3 S3:V3 W3 X3 Y3:Z3 R7:R9 W7:W9 X7:X9 B7:Q9 S7:V9 Y7:AF9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -910,10 +910,10 @@
     <t>物理防御力</t>
   </si>
   <si>
-    <t>移动速度,默认单位是10000=1米</t>
-  </si>
-  <si>
-    <t>攻击速度默认10000</t>
+    <t>移动速度,默认单位是100=1米</t>
+  </si>
+  <si>
+    <t>攻击速度默认100</t>
   </si>
   <si>
     <t>火</t>
@@ -1301,6 +1301,9 @@
     <t>Star</t>
   </si>
   <si>
+    <t>Ice_Talent</t>
+  </si>
+  <si>
     <t>Fire_Talent</t>
   </si>
   <si>
@@ -1314,9 +1317,6 @@
   </si>
   <si>
     <t>Dark_Talent</t>
-  </si>
-  <si>
-    <t>Ice_Talent</t>
   </si>
   <si>
     <t>HeroValue</t>
@@ -1667,10 +1667,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1703,10 +1703,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1727,14 +1727,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1743,15 +1735,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1765,21 +1757,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1803,22 +1826,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1832,22 +1840,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1904,13 +1904,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1922,7 +1922,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1940,7 +1946,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1952,7 +1964,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1964,61 +2018,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2036,37 +2060,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2196,17 +2196,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2215,7 +2209,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2230,6 +2224,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2267,9 +2276,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2282,23 +2293,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2316,130 +2316,130 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6135,7 +6135,7 @@
   <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F22" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7025,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="50" customFormat="1" ht="68.25" spans="1:32">
+    <row r="10" s="50" customFormat="1" ht="54.75" spans="1:32">
       <c r="A10" s="41" t="s">
         <v>57</v>
       </c>
@@ -7074,8 +7074,6 @@
       <c r="P10" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
       <c r="S10" s="50" t="s">
         <v>138</v>
       </c>
@@ -9787,7 +9785,7 @@
   <dimension ref="A1:AE26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9842,7 +9840,7 @@
         <v>249</v>
       </c>
       <c r="B3" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:2">
@@ -9921,25 +9919,25 @@
         <v>257</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:13">

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="17100" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -1667,10 +1667,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1702,18 +1702,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1725,9 +1732,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1741,27 +1761,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1773,30 +1777,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1811,17 +1809,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1834,20 +1848,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1904,7 +1904,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1916,13 +1922,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1934,13 +1958,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1952,31 +2030,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1988,55 +2042,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2048,25 +2060,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2196,6 +2196,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2205,11 +2220,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2229,47 +2265,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2298,148 +2298,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3017,10 +3017,10 @@
   <sheetPr/>
   <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection pane="bottomLeft" activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3839,10 +3839,10 @@
         <v>1</v>
       </c>
       <c r="AF6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="3">
         <v>1</v>
@@ -6134,7 +6134,7 @@
   <sheetPr/>
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -11661,7 +11661,9 @@
       <c r="W52" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W52"/>
+  <autoFilter ref="A1:W52">
+    <extLst/>
+  </autoFilter>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 E10:G10 E13:F13 A19 D26:G26 A32 C39:D39 E52 B6:B10 B19:B23 B32:B36 B46:B49 G13:G20 G52:G1048576 D21:G23 A4:B5 D8:G9 A17:B18 A43:B45 D53:F1048576 E1:G7 D14:F20 A30:B31 D40:G49 C27:D36">
       <formula1>"TRUE,FALSE"</formula1>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="17100" windowHeight="9930" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="9930" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="5" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -506,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="344">
   <si>
     <t>Id</t>
   </si>
@@ -988,9 +988,6 @@
     <t>HeroID3</t>
   </si>
   <si>
-    <t>HeroID4</t>
-  </si>
-  <si>
     <t>HeroCnfID1</t>
   </si>
   <si>
@@ -1000,9 +997,6 @@
     <t>HeroCnfID3</t>
   </si>
   <si>
-    <t>HeroCnfID4</t>
-  </si>
-  <si>
     <t>HeroStar1</t>
   </si>
   <si>
@@ -1012,9 +1006,6 @@
     <t>HeroStar3</t>
   </si>
   <si>
-    <t>HeroStar4</t>
-  </si>
-  <si>
     <t>WarID</t>
   </si>
   <si>
@@ -1063,9 +1054,6 @@
     <t>OpponentHero3</t>
   </si>
   <si>
-    <t>OpponentHero4</t>
-  </si>
-  <si>
     <t>OpponentHeroStar1</t>
   </si>
   <si>
@@ -1073,9 +1061,6 @@
   </si>
   <si>
     <t>OpponentHeroStar3</t>
-  </si>
-  <si>
-    <t>OpponentHeroStar4</t>
   </si>
   <si>
     <t>Hero1</t>
@@ -1589,18 +1574,16 @@
   <si>
     <t>Time</t>
   </si>
+  <si>
+    <t>FightHeroID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="24">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1618,8 +1601,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1630,158 +1613,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1802,25 +1644,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1830,176 +1672,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2123,251 +1797,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2532,61 +1964,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -2937,41 +2321,40 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS10"/>
   <sheetViews>
     <sheetView topLeftCell="AG1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H$1:H$1048576"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.8" customWidth="1"/>
-    <col min="2" max="2" width="8.13333333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.4666666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="8.13333333333333" customWidth="1"/>
-    <col min="7" max="7" width="9.33333333333333" customWidth="1"/>
-    <col min="8" max="8" width="17.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="8.125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="8.125" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="12.6666666666667" customWidth="1"/>
-    <col min="20" max="20" width="11.3333333333333" customWidth="1"/>
-    <col min="25" max="25" width="13.6666666666667" customWidth="1"/>
-    <col min="26" max="26" width="10.3333333333333" customWidth="1"/>
-    <col min="28" max="28" width="12.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="20" max="20" width="11.375" customWidth="1"/>
+    <col min="25" max="25" width="13.625" customWidth="1"/>
+    <col min="26" max="26" width="10.375" customWidth="1"/>
+    <col min="28" max="28" width="12.375" customWidth="1"/>
     <col min="29" max="29" width="16" customWidth="1"/>
-    <col min="35" max="36" width="18.3333333333333" customWidth="1"/>
-    <col min="37" max="45" width="17.3333333333333" customWidth="1"/>
+    <col min="35" max="36" width="18.375" customWidth="1"/>
+    <col min="37" max="45" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="33" customFormat="1" spans="1:45">
+    <row r="1" spans="1:45" s="33" customFormat="1">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -3108,7 +2491,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" s="34" customFormat="1" spans="1:45">
+    <row r="2" spans="1:45" s="34" customFormat="1">
       <c r="A2" s="38" t="s">
         <v>45</v>
       </c>
@@ -3245,7 +2628,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" s="34" customFormat="1" spans="1:45">
+    <row r="3" spans="1:45" s="34" customFormat="1">
       <c r="A3" s="38" t="s">
         <v>49</v>
       </c>
@@ -3382,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="34" customFormat="1" spans="1:45">
+    <row r="4" spans="1:45" s="34" customFormat="1">
       <c r="A4" s="38" t="s">
         <v>50</v>
       </c>
@@ -3519,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="34" customFormat="1" spans="1:45">
+    <row r="5" spans="1:45" s="34" customFormat="1">
       <c r="A5" s="38" t="s">
         <v>51</v>
       </c>
@@ -3656,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="34" customFormat="1" spans="1:45">
+    <row r="6" spans="1:45" s="34" customFormat="1">
       <c r="A6" s="38" t="s">
         <v>52</v>
       </c>
@@ -3793,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="27" customFormat="1" spans="1:45">
+    <row r="7" spans="1:45" s="27" customFormat="1">
       <c r="A7" s="31" t="s">
         <v>53</v>
       </c>
@@ -3930,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="27" customFormat="1" spans="1:45">
+    <row r="8" spans="1:45" s="27" customFormat="1">
       <c r="A8" s="31" t="s">
         <v>54</v>
       </c>
@@ -4067,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="27" customFormat="1" spans="1:45">
+    <row r="9" spans="1:45" s="27" customFormat="1">
       <c r="A9" s="31" t="s">
         <v>55</v>
       </c>
@@ -4204,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="35" customFormat="1" ht="68.25" spans="1:45">
+    <row r="10" spans="1:45" s="35" customFormat="1" ht="67.5">
       <c r="A10" s="41" t="s">
         <v>56</v>
       </c>
@@ -4342,68 +3725,68 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:M3 O3:AC3 B5:G5 H5:AS5 B7:G9 AK6:AS9 H7:AH9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="$A21:$XFD22"/>
+      <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.1333333333333" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.1333333333333" style="9" customWidth="1"/>
-    <col min="3" max="3" width="7.13333333333333" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.6666666666667" style="9" customWidth="1"/>
-    <col min="5" max="5" width="13.6666666666667" style="9" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="9" customWidth="1"/>
     <col min="6" max="7" width="9" style="9"/>
-    <col min="8" max="8" width="12.6666666666667" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.8" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="9" customWidth="1"/>
     <col min="10" max="10" width="9" style="9"/>
-    <col min="11" max="11" width="11.6666666666667" style="9" customWidth="1"/>
-    <col min="12" max="12" width="13.8" style="9" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="13.75" style="9" customWidth="1"/>
     <col min="13" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" s="3" customFormat="1" spans="1:2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B2" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
+    <row r="3" spans="1:5" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:2">
+    <row r="4" spans="1:5" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -4411,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:2">
+    <row r="5" spans="1:5" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -4419,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:2">
+    <row r="6" spans="1:5" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -4427,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:2">
+    <row r="7" spans="1:5" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -4435,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:2">
+    <row r="8" spans="1:5" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -4443,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:2">
+    <row r="9" spans="1:5" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -4451,32 +3834,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:2">
+    <row r="10" spans="1:5" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:5">
+    <row r="11" spans="1:5" s="3" customFormat="1">
       <c r="A11" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>46</v>
       </c>
@@ -4487,13 +3870,13 @@
         <v>47</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:5">
+    <row r="13" spans="1:5" s="3" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>56</v>
       </c>
@@ -4502,31 +3885,31 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:2">
+    <row r="14" spans="1:5" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B15" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:2">
+    <row r="16" spans="1:5" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B16" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:2">
+    <row r="17" spans="1:5" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -4534,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:2">
+    <row r="18" spans="1:5" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
@@ -4542,7 +3925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:2">
+    <row r="19" spans="1:5" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -4550,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:2">
+    <row r="20" spans="1:5" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -4558,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:2">
+    <row r="21" spans="1:5" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
@@ -4566,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:2">
+    <row r="22" spans="1:5" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -4574,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:2">
+    <row r="23" spans="1:5" s="3" customFormat="1">
       <c r="A23" s="3" t="s">
         <v>55</v>
       </c>
@@ -4582,24 +3965,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:5">
+    <row r="24" spans="1:5" s="3" customFormat="1">
       <c r="A24" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="3" customFormat="1">
       <c r="A25" s="4" t="s">
         <v>46</v>
       </c>
@@ -4610,13 +3993,13 @@
         <v>47</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:5">
+    <row r="26" spans="1:5" s="3" customFormat="1">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -4626,6 +4009,7 @@
       <c r="E26" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 E10 E23 B6:B10 B20:B23 E13:E20 E26:E1048576 F10:F20 F23:F1048576 A17:B19 A4:B5 D8:G9 E1:F7 D21:G22">
       <formula1>"TRUE,FALSE"</formula1>
@@ -4645,15 +4029,13 @@
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -4662,12 +4044,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="15" spans="1:15">
+    <row r="1" spans="1:15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -4683,9 +4065,9 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" ht="15" spans="1:15">
+    <row r="2" spans="1:15">
       <c r="A2" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B2" s="7">
         <v>50</v>
@@ -4704,9 +4086,9 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" ht="15" spans="1:15">
+    <row r="3" spans="1:15">
       <c r="A3" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B3" s="7">
         <v>15</v>
@@ -4725,7 +4107,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" ht="15" spans="1:15">
+    <row r="4" spans="1:15">
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
@@ -4746,7 +4128,7 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" ht="15" spans="1:15">
+    <row r="5" spans="1:15">
       <c r="A5" s="7" t="s">
         <v>50</v>
       </c>
@@ -4767,7 +4149,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" ht="15" spans="1:15">
+    <row r="6" spans="1:15">
       <c r="A6" s="7" t="s">
         <v>51</v>
       </c>
@@ -4788,7 +4170,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" ht="15" spans="1:15">
+    <row r="7" spans="1:15">
       <c r="A7" s="7" t="s">
         <v>52</v>
       </c>
@@ -4809,7 +4191,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" ht="15" spans="1:15">
+    <row r="8" spans="1:15">
       <c r="A8" s="7" t="s">
         <v>53</v>
       </c>
@@ -4830,7 +4212,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" ht="15" spans="1:15">
+    <row r="9" spans="1:15">
       <c r="A9" s="7" t="s">
         <v>54</v>
       </c>
@@ -4851,7 +4233,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" ht="15" spans="1:15">
+    <row r="10" spans="1:15">
       <c r="A10" s="7" t="s">
         <v>55</v>
       </c>
@@ -4872,9 +4254,9 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" ht="15" spans="1:15">
+    <row r="11" spans="1:15">
       <c r="A11" s="8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>1</v>
@@ -4886,40 +4268,40 @@
         <v>3</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>331</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>30</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="1:15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
@@ -4966,12 +4348,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:15">
+    <row r="13" spans="1:15">
       <c r="A13" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -4987,12 +4369,12 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
     </row>
-    <row r="14" ht="15" spans="1:15">
+    <row r="14" spans="1:15">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -5008,9 +4390,9 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" ht="15" spans="1:15">
+    <row r="15" spans="1:15">
       <c r="A15" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B15" s="7">
         <v>50</v>
@@ -5029,9 +4411,9 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" ht="15" spans="1:15">
+    <row r="16" spans="1:15">
       <c r="A16" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B16" s="7">
         <v>4</v>
@@ -5050,7 +4432,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" ht="15" spans="1:15">
+    <row r="17" spans="1:15">
       <c r="A17" s="7" t="s">
         <v>49</v>
       </c>
@@ -5071,7 +4453,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" ht="15" spans="1:15">
+    <row r="18" spans="1:15">
       <c r="A18" s="7" t="s">
         <v>50</v>
       </c>
@@ -5092,7 +4474,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" ht="15" spans="1:15">
+    <row r="19" spans="1:15">
       <c r="A19" s="7" t="s">
         <v>51</v>
       </c>
@@ -5113,7 +4495,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" ht="15" spans="1:15">
+    <row r="20" spans="1:15">
       <c r="A20" s="7" t="s">
         <v>52</v>
       </c>
@@ -5134,7 +4516,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" ht="15" spans="1:15">
+    <row r="21" spans="1:15">
       <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
@@ -5155,7 +4537,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" ht="15" spans="1:15">
+    <row r="22" spans="1:15">
       <c r="A22" s="7" t="s">
         <v>54</v>
       </c>
@@ -5176,7 +4558,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" ht="15" spans="1:15">
+    <row r="23" spans="1:15">
       <c r="A23" s="7" t="s">
         <v>55</v>
       </c>
@@ -5197,9 +4579,9 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" ht="15" spans="1:15">
+    <row r="24" spans="1:15">
       <c r="A24" s="8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>1</v>
@@ -5208,7 +4590,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -5222,7 +4604,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" ht="15" spans="1:15">
+    <row r="25" spans="1:15">
       <c r="A25" s="8" t="s">
         <v>48</v>
       </c>
@@ -5247,12 +4629,12 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" ht="15" spans="1:15">
+    <row r="26" spans="1:15">
       <c r="A26" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -5268,12 +4650,12 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" ht="15" spans="1:15">
+    <row r="27" spans="1:15">
       <c r="A27" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -5289,9 +4671,9 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" ht="15" spans="1:15">
+    <row r="28" spans="1:15">
       <c r="A28" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B28" s="7">
         <v>50</v>
@@ -5310,9 +4692,9 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" ht="15" spans="1:15">
+    <row r="29" spans="1:15">
       <c r="A29" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B29" s="7">
         <v>3</v>
@@ -5331,7 +4713,7 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
     </row>
-    <row r="30" ht="15" spans="1:15">
+    <row r="30" spans="1:15">
       <c r="A30" s="7" t="s">
         <v>49</v>
       </c>
@@ -5352,7 +4734,7 @@
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
     </row>
-    <row r="31" ht="15" spans="1:15">
+    <row r="31" spans="1:15">
       <c r="A31" s="7" t="s">
         <v>50</v>
       </c>
@@ -5373,7 +4755,7 @@
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
     </row>
-    <row r="32" ht="15" spans="1:15">
+    <row r="32" spans="1:15">
       <c r="A32" s="7" t="s">
         <v>51</v>
       </c>
@@ -5394,7 +4776,7 @@
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" ht="15" spans="1:15">
+    <row r="33" spans="1:15">
       <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
@@ -5415,7 +4797,7 @@
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
     </row>
-    <row r="34" ht="15" spans="1:15">
+    <row r="34" spans="1:15">
       <c r="A34" s="7" t="s">
         <v>53</v>
       </c>
@@ -5436,7 +4818,7 @@
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
     </row>
-    <row r="35" ht="15" spans="1:15">
+    <row r="35" spans="1:15">
       <c r="A35" s="7" t="s">
         <v>54</v>
       </c>
@@ -5457,7 +4839,7 @@
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
     </row>
-    <row r="36" ht="15" spans="1:15">
+    <row r="36" spans="1:15">
       <c r="A36" s="7" t="s">
         <v>55</v>
       </c>
@@ -5478,9 +4860,9 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
     </row>
-    <row r="37" ht="15" spans="1:15">
+    <row r="37" spans="1:15">
       <c r="A37" s="8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>1</v>
@@ -5501,7 +4883,7 @@
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
     </row>
-    <row r="38" ht="15" spans="1:15">
+    <row r="38" spans="1:15">
       <c r="A38" s="8" t="s">
         <v>48</v>
       </c>
@@ -5524,12 +4906,12 @@
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
     </row>
-    <row r="39" ht="15" spans="1:15">
+    <row r="39" spans="1:15">
       <c r="A39" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="7"/>
@@ -5545,12 +4927,12 @@
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
     </row>
-    <row r="40" ht="15" spans="1:15">
+    <row r="40" spans="1:15">
       <c r="A40" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -5566,9 +4948,9 @@
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" ht="15" spans="1:15">
+    <row r="41" spans="1:15">
       <c r="A41" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B41" s="7">
         <v>50</v>
@@ -5587,9 +4969,9 @@
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
     </row>
-    <row r="42" ht="15" spans="1:15">
+    <row r="42" spans="1:15">
       <c r="A42" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B42" s="7">
         <v>2</v>
@@ -5608,7 +4990,7 @@
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
     </row>
-    <row r="43" ht="15" spans="1:15">
+    <row r="43" spans="1:15">
       <c r="A43" s="7" t="s">
         <v>49</v>
       </c>
@@ -5629,7 +5011,7 @@
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
     </row>
-    <row r="44" ht="15" spans="1:15">
+    <row r="44" spans="1:15">
       <c r="A44" s="7" t="s">
         <v>50</v>
       </c>
@@ -5650,7 +5032,7 @@
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
     </row>
-    <row r="45" ht="15" spans="1:15">
+    <row r="45" spans="1:15">
       <c r="A45" s="7" t="s">
         <v>51</v>
       </c>
@@ -5671,7 +5053,7 @@
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
     </row>
-    <row r="46" ht="15" spans="1:15">
+    <row r="46" spans="1:15">
       <c r="A46" s="7" t="s">
         <v>52</v>
       </c>
@@ -5692,7 +5074,7 @@
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
     </row>
-    <row r="47" ht="15" spans="1:15">
+    <row r="47" spans="1:15">
       <c r="A47" s="7" t="s">
         <v>53</v>
       </c>
@@ -5713,7 +5095,7 @@
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
     </row>
-    <row r="48" ht="15" spans="1:15">
+    <row r="48" spans="1:15">
       <c r="A48" s="7" t="s">
         <v>54</v>
       </c>
@@ -5734,7 +5116,7 @@
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
     </row>
-    <row r="49" ht="15" spans="1:15">
+    <row r="49" spans="1:15">
       <c r="A49" s="7" t="s">
         <v>55</v>
       </c>
@@ -5755,9 +5137,9 @@
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
     </row>
-    <row r="50" ht="15" spans="1:15">
+    <row r="50" spans="1:15">
       <c r="A50" s="8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>6</v>
@@ -5776,7 +5158,7 @@
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
     </row>
-    <row r="51" ht="15" spans="1:15">
+    <row r="51" spans="1:15">
       <c r="A51" s="8" t="s">
         <v>48</v>
       </c>
@@ -5797,7 +5179,7 @@
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
     </row>
-    <row r="52" ht="15" spans="1:15">
+    <row r="52" spans="1:15">
       <c r="A52" s="8" t="s">
         <v>56</v>
       </c>
@@ -5817,6 +5199,7 @@
       <c r="O52" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A11:A12 A24:A25 A50:A51 G37:G38 G50:G52 L1:L10 L13:L52 A37:B38">
       <formula1>"int,string,float,object"</formula1>
@@ -5829,25 +5212,23 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.13333333333333" customWidth="1"/>
-    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="10.4666666666667" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5855,10 +5236,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D1" t="s">
         <v>56</v>
@@ -5866,19 +5247,20 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"lua,python,C#,js"</formula1>
@@ -5887,34 +5269,33 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B2" s="3">
         <v>8</v>
@@ -5922,7 +5303,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -5986,10 +5367,10 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6009,6 +5390,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A11:B11"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A12:B12">
@@ -6021,14 +5403,12 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -6037,10 +5417,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="48" customFormat="1" ht="27" spans="1:32">
+    <row r="1" spans="1:32" s="48" customFormat="1" ht="27">
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
@@ -6138,7 +5518,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" s="49" customFormat="1" spans="1:32">
+    <row r="2" spans="1:32" s="49" customFormat="1">
       <c r="A2" s="52" t="s">
         <v>45</v>
       </c>
@@ -6236,7 +5616,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" s="49" customFormat="1" spans="1:32">
+    <row r="3" spans="1:32" s="49" customFormat="1">
       <c r="A3" s="52" t="s">
         <v>49</v>
       </c>
@@ -6334,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="49" customFormat="1" spans="1:32">
+    <row r="4" spans="1:32" s="49" customFormat="1">
       <c r="A4" s="52" t="s">
         <v>50</v>
       </c>
@@ -6432,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="49" customFormat="1" spans="1:32">
+    <row r="5" spans="1:32" s="49" customFormat="1">
       <c r="A5" s="52" t="s">
         <v>51</v>
       </c>
@@ -6530,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="49" customFormat="1" spans="1:32">
+    <row r="6" spans="1:32" s="49" customFormat="1">
       <c r="A6" s="52" t="s">
         <v>52</v>
       </c>
@@ -6628,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="27" customFormat="1" spans="1:32">
+    <row r="7" spans="1:32" s="27" customFormat="1">
       <c r="A7" s="31" t="s">
         <v>53</v>
       </c>
@@ -6726,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="27" customFormat="1" spans="1:32">
+    <row r="8" spans="1:32" s="27" customFormat="1">
       <c r="A8" s="31" t="s">
         <v>54</v>
       </c>
@@ -6824,7 +6204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="27" customFormat="1" spans="1:32">
+    <row r="9" spans="1:32" s="27" customFormat="1">
       <c r="A9" s="31" t="s">
         <v>55</v>
       </c>
@@ -6922,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="50" customFormat="1" ht="54.75" spans="1:32">
+    <row r="10" spans="1:32" s="50" customFormat="1" ht="54">
       <c r="A10" s="41" t="s">
         <v>56</v>
       </c>
@@ -7014,114 +6394,114 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:1">
+    <row r="11" spans="1:32">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" customFormat="1" spans="1:1">
+    <row r="12" spans="1:32">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" customFormat="1" spans="1:1">
+    <row r="13" spans="1:32">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" customFormat="1" spans="1:1">
+    <row r="14" spans="1:32">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" customFormat="1" spans="1:1">
+    <row r="15" spans="1:32">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" customFormat="1" spans="1:1">
+    <row r="16" spans="1:32">
       <c r="A16" s="5"/>
     </row>
-    <row r="17" customFormat="1" spans="1:1">
+    <row r="17" spans="1:1">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" customFormat="1" spans="1:1">
+    <row r="18" spans="1:1">
       <c r="A18" s="5"/>
     </row>
-    <row r="19" customFormat="1" spans="1:1">
+    <row r="19" spans="1:1">
       <c r="A19" s="5"/>
     </row>
-    <row r="20" customFormat="1" spans="1:1">
+    <row r="20" spans="1:1">
       <c r="A20" s="5"/>
     </row>
-    <row r="21" customFormat="1" spans="1:1">
+    <row r="21" spans="1:1">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" customFormat="1" spans="1:1">
+    <row r="22" spans="1:1">
       <c r="A22" s="5"/>
     </row>
-    <row r="23" customFormat="1" spans="1:1">
+    <row r="23" spans="1:1">
       <c r="A23" s="5"/>
     </row>
-    <row r="24" customFormat="1" spans="1:1">
+    <row r="24" spans="1:1">
       <c r="A24" s="5"/>
     </row>
-    <row r="25" customFormat="1" spans="1:1">
+    <row r="25" spans="1:1">
       <c r="A25" s="5"/>
     </row>
-    <row r="26" customFormat="1" spans="1:1">
+    <row r="26" spans="1:1">
       <c r="A26" s="5"/>
     </row>
-    <row r="27" customFormat="1" spans="1:1">
+    <row r="27" spans="1:1">
       <c r="A27" s="5"/>
     </row>
-    <row r="28" customFormat="1" spans="1:1">
+    <row r="28" spans="1:1">
       <c r="A28" s="5"/>
     </row>
-    <row r="29" customFormat="1" spans="1:1">
+    <row r="29" spans="1:1">
       <c r="A29" s="5"/>
     </row>
-    <row r="30" customFormat="1" spans="1:1">
+    <row r="30" spans="1:1">
       <c r="A30" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:D3 F3:L3 N3:Q3 R3 S3:V3 W3 X3 Y3:Z3 R7:R9 W7:W9 X7:X9 B7:Q9 S7:V9 Y7:AF9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AP10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.8" customWidth="1"/>
-    <col min="2" max="4" width="18.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="4" width="18.375" customWidth="1"/>
     <col min="5" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="21.6" customWidth="1"/>
-    <col min="10" max="32" width="17.3333333333333" customWidth="1"/>
-    <col min="33" max="34" width="18.3333333333333" customWidth="1"/>
-    <col min="35" max="38" width="17.3333333333333" customWidth="1"/>
-    <col min="39" max="39" width="15.6666666666667" customWidth="1"/>
-    <col min="40" max="40" width="19.6666666666667" customWidth="1"/>
-    <col min="41" max="43" width="16" customWidth="1"/>
-    <col min="44" max="44" width="21.6" customWidth="1"/>
-    <col min="45" max="47" width="18.3333333333333" customWidth="1"/>
-    <col min="48" max="48" width="26.4" customWidth="1"/>
-    <col min="49" max="49" width="26.6666666666667" customWidth="1"/>
-    <col min="50" max="50" width="23.3333333333333" customWidth="1"/>
-    <col min="51" max="51" width="26.4" customWidth="1"/>
-    <col min="52" max="52" width="26.6666666666667" customWidth="1"/>
-    <col min="53" max="53" width="17.3333333333333" customWidth="1"/>
-    <col min="54" max="54" width="26.4" customWidth="1"/>
-    <col min="55" max="55" width="26.6666666666667" customWidth="1"/>
-    <col min="56" max="56" width="17.3333333333333" customWidth="1"/>
+    <col min="8" max="9" width="21.625" customWidth="1"/>
+    <col min="10" max="30" width="17.375" customWidth="1"/>
+    <col min="31" max="32" width="18.375" customWidth="1"/>
+    <col min="33" max="35" width="17.375" customWidth="1"/>
+    <col min="36" max="36" width="15.625" customWidth="1"/>
+    <col min="37" max="37" width="19.625" customWidth="1"/>
+    <col min="38" max="39" width="16" customWidth="1"/>
+    <col min="40" max="40" width="21.625" customWidth="1"/>
+    <col min="41" max="43" width="18.375" customWidth="1"/>
+    <col min="44" max="44" width="26.375" customWidth="1"/>
+    <col min="45" max="45" width="26.625" customWidth="1"/>
+    <col min="46" max="46" width="23.375" customWidth="1"/>
+    <col min="47" max="47" width="26.375" customWidth="1"/>
+    <col min="48" max="48" width="26.625" customWidth="1"/>
+    <col min="49" max="49" width="17.375" customWidth="1"/>
+    <col min="50" max="50" width="26.375" customWidth="1"/>
+    <col min="51" max="51" width="26.625" customWidth="1"/>
+    <col min="52" max="52" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="33" customFormat="1" spans="1:42">
+    <row r="1" spans="1:38" s="33" customFormat="1">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -7150,106 +6530,94 @@
         <v>156</v>
       </c>
       <c r="J1" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="K1" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="N1" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="O1" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="P1" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="Q1" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="R1" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="S1" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="T1" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="U1" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="V1" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="W1" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="X1" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="Y1" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Z1" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="AA1" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="AA1" s="37" t="s">
+      <c r="AB1" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="AB1" s="37" t="s">
+      <c r="AC1" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AD1" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AE1" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AF1" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="AF1" s="37" t="s">
+      <c r="AG1" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="AG1" s="37" t="s">
+      <c r="AH1" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="AH1" s="37" t="s">
+      <c r="AI1" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="AI1" s="37" t="s">
+      <c r="AJ1" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="AJ1" s="37" t="s">
+      <c r="AK1" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="AK1" s="37" t="s">
+      <c r="AL1" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="AL1" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="AM1" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="AN1" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="AO1" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="AP1" s="37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" s="34" customFormat="1" spans="1:42">
+    </row>
+    <row r="2" spans="1:38" s="34" customFormat="1">
       <c r="A2" s="38" t="s">
         <v>45</v>
       </c>
@@ -7299,7 +6667,7 @@
         <v>46</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R2" s="39" t="s">
         <v>47</v>
@@ -7307,20 +6675,20 @@
       <c r="S2" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="39" t="s">
-        <v>47</v>
+      <c r="T2" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="44" t="s">
+        <v>48</v>
       </c>
       <c r="V2" s="44" t="s">
         <v>48</v>
       </c>
       <c r="W2" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X2" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y2" s="44" t="s">
         <v>47</v>
@@ -7341,10 +6709,10 @@
         <v>47</v>
       </c>
       <c r="AE2" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF2" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG2" s="44" t="s">
         <v>46</v>
@@ -7356,28 +6724,16 @@
         <v>46</v>
       </c>
       <c r="AJ2" s="44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AK2" s="44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL2" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM2" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN2" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO2" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP2" s="44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" s="34" customFormat="1" spans="1:42">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="34" customFormat="1">
       <c r="A3" s="38" t="s">
         <v>49</v>
       </c>
@@ -7435,22 +6791,22 @@
       <c r="S3" s="39">
         <v>0</v>
       </c>
-      <c r="T3" s="39">
-        <v>0</v>
-      </c>
-      <c r="U3" s="39">
-        <v>0</v>
-      </c>
-      <c r="V3" s="45">
-        <v>0</v>
-      </c>
-      <c r="W3" s="44">
+      <c r="T3" s="45">
+        <v>0</v>
+      </c>
+      <c r="U3" s="44">
+        <v>0</v>
+      </c>
+      <c r="V3" s="44">
+        <v>0</v>
+      </c>
+      <c r="W3" s="45">
         <v>0</v>
       </c>
       <c r="X3" s="44">
         <v>0</v>
       </c>
-      <c r="Y3" s="45">
+      <c r="Y3" s="44">
         <v>0</v>
       </c>
       <c r="Z3" s="44">
@@ -7465,19 +6821,19 @@
       <c r="AC3" s="44">
         <v>0</v>
       </c>
-      <c r="AD3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="44">
+      <c r="AD3" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="45">
         <v>0</v>
       </c>
       <c r="AF3" s="45">
         <v>0</v>
       </c>
-      <c r="AG3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="45">
+      <c r="AG3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="44">
         <v>0</v>
       </c>
       <c r="AI3" s="44">
@@ -7492,20 +6848,8 @@
       <c r="AL3" s="44">
         <v>0</v>
       </c>
-      <c r="AM3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="34" customFormat="1" spans="1:42">
+    </row>
+    <row r="4" spans="1:38" s="34" customFormat="1">
       <c r="A4" s="38" t="s">
         <v>50</v>
       </c>
@@ -7563,10 +6907,10 @@
       <c r="S4" s="39">
         <v>1</v>
       </c>
-      <c r="T4" s="39">
-        <v>1</v>
-      </c>
-      <c r="U4" s="39">
+      <c r="T4" s="44">
+        <v>1</v>
+      </c>
+      <c r="U4" s="44">
         <v>1</v>
       </c>
       <c r="V4" s="44">
@@ -7620,20 +6964,8 @@
       <c r="AL4" s="44">
         <v>1</v>
       </c>
-      <c r="AM4" s="44">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="44">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="44">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" s="34" customFormat="1" spans="1:42">
+    </row>
+    <row r="5" spans="1:38" s="34" customFormat="1">
       <c r="A5" s="38" t="s">
         <v>51</v>
       </c>
@@ -7691,10 +7023,10 @@
       <c r="S5" s="40">
         <v>0</v>
       </c>
-      <c r="T5" s="40">
-        <v>0</v>
-      </c>
-      <c r="U5" s="40">
+      <c r="T5" s="45">
+        <v>0</v>
+      </c>
+      <c r="U5" s="45">
         <v>0</v>
       </c>
       <c r="V5" s="45">
@@ -7748,20 +7080,8 @@
       <c r="AL5" s="45">
         <v>0</v>
       </c>
-      <c r="AM5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="34" customFormat="1" spans="1:42">
+    </row>
+    <row r="6" spans="1:38" s="34" customFormat="1">
       <c r="A6" s="38" t="s">
         <v>52</v>
       </c>
@@ -7819,22 +7139,22 @@
       <c r="S6" s="40">
         <v>1</v>
       </c>
-      <c r="T6" s="40">
-        <v>1</v>
-      </c>
-      <c r="U6" s="40">
-        <v>1</v>
-      </c>
-      <c r="V6" s="44">
-        <v>1</v>
-      </c>
-      <c r="W6" s="45">
+      <c r="T6" s="44">
+        <v>1</v>
+      </c>
+      <c r="U6" s="45">
+        <v>1</v>
+      </c>
+      <c r="V6" s="45">
+        <v>1</v>
+      </c>
+      <c r="W6" s="44">
         <v>1</v>
       </c>
       <c r="X6" s="45">
         <v>1</v>
       </c>
-      <c r="Y6" s="44">
+      <c r="Y6" s="45">
         <v>1</v>
       </c>
       <c r="Z6" s="45">
@@ -7849,19 +7169,19 @@
       <c r="AC6" s="45">
         <v>1</v>
       </c>
-      <c r="AD6" s="45">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="45">
+      <c r="AD6" s="44">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="44">
         <v>1</v>
       </c>
       <c r="AF6" s="44">
         <v>1</v>
       </c>
-      <c r="AG6" s="44">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="44">
+      <c r="AG6" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="45">
         <v>1</v>
       </c>
       <c r="AI6" s="45">
@@ -7876,20 +7196,8 @@
       <c r="AL6" s="45">
         <v>1</v>
       </c>
-      <c r="AM6" s="45">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="45">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="45">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="27" customFormat="1" spans="1:42">
+    </row>
+    <row r="7" spans="1:38" s="27" customFormat="1">
       <c r="A7" s="31" t="s">
         <v>53</v>
       </c>
@@ -7947,10 +7255,10 @@
       <c r="S7" s="40">
         <v>0</v>
       </c>
-      <c r="T7" s="40">
-        <v>0</v>
-      </c>
-      <c r="U7" s="40">
+      <c r="T7" s="45">
+        <v>0</v>
+      </c>
+      <c r="U7" s="45">
         <v>0</v>
       </c>
       <c r="V7" s="45">
@@ -8004,20 +7312,8 @@
       <c r="AL7" s="45">
         <v>0</v>
       </c>
-      <c r="AM7" s="45">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="45">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="45">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="27" customFormat="1" spans="1:42">
+    </row>
+    <row r="8" spans="1:38" s="27" customFormat="1">
       <c r="A8" s="31" t="s">
         <v>54</v>
       </c>
@@ -8075,10 +7371,10 @@
       <c r="S8" s="40">
         <v>0</v>
       </c>
-      <c r="T8" s="40">
-        <v>0</v>
-      </c>
-      <c r="U8" s="40">
+      <c r="T8" s="45">
+        <v>0</v>
+      </c>
+      <c r="U8" s="45">
         <v>0</v>
       </c>
       <c r="V8" s="45">
@@ -8132,20 +7428,8 @@
       <c r="AL8" s="45">
         <v>0</v>
       </c>
-      <c r="AM8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="27" customFormat="1" spans="1:42">
+    </row>
+    <row r="9" spans="1:38" s="27" customFormat="1">
       <c r="A9" s="31" t="s">
         <v>55</v>
       </c>
@@ -8203,10 +7487,10 @@
       <c r="S9" s="40">
         <v>0</v>
       </c>
-      <c r="T9" s="40">
-        <v>0</v>
-      </c>
-      <c r="U9" s="40">
+      <c r="T9" s="45">
+        <v>0</v>
+      </c>
+      <c r="U9" s="45">
         <v>0</v>
       </c>
       <c r="V9" s="45">
@@ -8260,20 +7544,8 @@
       <c r="AL9" s="45">
         <v>0</v>
       </c>
-      <c r="AM9" s="45">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="45">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="45">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" s="35" customFormat="1" ht="14.25" spans="1:42">
+    </row>
+    <row r="10" spans="1:38" s="35" customFormat="1">
       <c r="A10" s="41" t="s">
         <v>56</v>
       </c>
@@ -8290,115 +7562,102 @@
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
       <c r="J10" s="42" t="s">
-        <v>190</v>
+        <v>343</v>
       </c>
       <c r="K10" s="42" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L10" s="42" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N10" s="42" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O10" s="42" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P10" s="42" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="42" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="R10" s="42" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="S10" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="T10" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="U10" s="42" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="T10" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="U10" s="46" t="s">
+        <v>188</v>
       </c>
       <c r="V10" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="W10" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="W10" s="46" t="s">
-        <v>193</v>
-      </c>
       <c r="X10" s="46" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="Y10" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z10" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="Z10" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA10" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB10" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
+      <c r="AE10" s="46" t="s">
+        <v>149</v>
+      </c>
       <c r="AF10" s="46" t="s">
         <v>149</v>
       </c>
       <c r="AG10" s="46" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="AH10" s="46" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="AI10" s="46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AJ10" s="46" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AK10" s="46" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AL10" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="AM10" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN10" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="AO10" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="AP10" s="46" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:C5 AF5:AH5 AI5:AK5 AL5 AM5:AN5 AO5 AP5 M5:M9 Q5:Q9 U5:U9 V5:V9 AL6:AL9 AO6:AO9 AP6:AP9 D7:I9 J5:L9 AM6:AN9 Y5:AB9 W5:X9 N5:P9 AC5:AE9 AI6:AK9 R5:T9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD5:AF5 AG5:AL9 D7:I9 J5:AC9 B5:C5">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
@@ -8407,96 +7666,96 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.33333333333333" customWidth="1"/>
-    <col min="2" max="2" width="18.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18.6" customWidth="1"/>
-    <col min="5" max="5" width="9.93333333333333" customWidth="1"/>
-    <col min="6" max="6" width="10.4666666666667" customWidth="1"/>
-    <col min="7" max="8" width="11.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="18.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="18.2666666666667" customWidth="1"/>
-    <col min="12" max="12" width="19.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="23.7333333333333" customWidth="1"/>
-    <col min="14" max="14" width="22.4666666666667" customWidth="1"/>
-    <col min="15" max="15" width="17.2" customWidth="1"/>
-    <col min="16" max="16" width="16.2" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="18.25" customWidth="1"/>
+    <col min="12" max="12" width="19.375" customWidth="1"/>
+    <col min="13" max="13" width="23.75" customWidth="1"/>
+    <col min="14" max="14" width="22.5" customWidth="1"/>
+    <col min="15" max="15" width="17.25" customWidth="1"/>
+    <col min="16" max="16" width="16.25" customWidth="1"/>
     <col min="18" max="18" width="32" customWidth="1"/>
-    <col min="19" max="19" width="15.1333333333333" customWidth="1"/>
-    <col min="20" max="20" width="16.2666666666667" customWidth="1"/>
-    <col min="21" max="21" width="12.0666666666667" customWidth="1"/>
-    <col min="22" max="22" width="17.2666666666667" customWidth="1"/>
+    <col min="19" max="19" width="15.125" customWidth="1"/>
+    <col min="20" max="20" width="16.25" customWidth="1"/>
+    <col min="21" max="21" width="12.125" customWidth="1"/>
+    <col min="22" max="22" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" ht="15" spans="1:22">
+    <row r="1" spans="1:22" s="26" customFormat="1">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="R1" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="S1" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="T1" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="U1" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="V1" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="R1" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="U1" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" s="7" customFormat="1" ht="15" spans="1:22">
+    </row>
+    <row r="2" spans="1:22" s="7" customFormat="1">
       <c r="A2" s="30" t="s">
         <v>45</v>
       </c>
@@ -8564,7 +7823,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" ht="15" spans="1:22">
+    <row r="3" spans="1:22" s="7" customFormat="1">
       <c r="A3" s="30" t="s">
         <v>49</v>
       </c>
@@ -8632,7 +7891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" ht="15" spans="1:22">
+    <row r="4" spans="1:22" s="7" customFormat="1">
       <c r="A4" s="30" t="s">
         <v>50</v>
       </c>
@@ -8700,7 +7959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" ht="15" spans="1:22">
+    <row r="5" spans="1:22" s="7" customFormat="1">
       <c r="A5" s="30" t="s">
         <v>51</v>
       </c>
@@ -8768,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" ht="15" spans="1:22">
+    <row r="6" spans="1:22" s="7" customFormat="1">
       <c r="A6" s="30" t="s">
         <v>52</v>
       </c>
@@ -8836,7 +8095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="27" customFormat="1" spans="1:22">
+    <row r="7" spans="1:22" s="27" customFormat="1">
       <c r="A7" s="31" t="s">
         <v>53</v>
       </c>
@@ -8904,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="27" customFormat="1" ht="18" customHeight="1" spans="1:22">
+    <row r="8" spans="1:22" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="31" t="s">
         <v>54</v>
       </c>
@@ -8972,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="27" customFormat="1" ht="18" customHeight="1" spans="1:22">
+    <row r="9" spans="1:22" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="31" t="s">
         <v>55</v>
       </c>
@@ -9040,90 +8299,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="28" customFormat="1" ht="15.75" spans="1:22">
+    <row r="10" spans="1:22" s="28" customFormat="1">
       <c r="A10" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="H10" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="I10" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="J10" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="K10" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="L10" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="M10" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="N10" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="O10" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="P10" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="Q10" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="R10" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="N10" s="28" t="s">
+      <c r="S10" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="O10" s="28" t="s">
+      <c r="T10" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="P10" s="28" t="s">
+      <c r="U10" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="Q10" s="28" t="s">
+      <c r="V10" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="R10" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="S10" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="T10" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="U10" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="V10" s="28" t="s">
-        <v>236</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:V9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9132,60 +8390,60 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="7.13333333333333" customWidth="1"/>
-    <col min="4" max="4" width="10.4666666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
-    <col min="8" max="9" width="9.13333333333333" customWidth="1"/>
-    <col min="10" max="12" width="12.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="21.1333333333333" customWidth="1"/>
-    <col min="14" max="14" width="10.3333333333333" customWidth="1"/>
-    <col min="15" max="16" width="11.6666666666667" customWidth="1"/>
-    <col min="17" max="17" width="10.3333333333333" customWidth="1"/>
-    <col min="18" max="18" width="9.13333333333333" customWidth="1"/>
-    <col min="19" max="19" width="12.8" customWidth="1"/>
-    <col min="20" max="20" width="10.3333333333333" customWidth="1"/>
-    <col min="21" max="22" width="15.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="21.125" customWidth="1"/>
+    <col min="14" max="14" width="10.375" customWidth="1"/>
+    <col min="15" max="16" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="10.375" customWidth="1"/>
+    <col min="18" max="18" width="9.125" customWidth="1"/>
+    <col min="19" max="19" width="12.75" customWidth="1"/>
+    <col min="20" max="20" width="10.375" customWidth="1"/>
+    <col min="21" max="22" width="15.125" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="24" width="12.6666666666667" customWidth="1"/>
+    <col min="24" max="24" width="12.625" customWidth="1"/>
     <col min="25" max="25" width="14" customWidth="1"/>
-    <col min="26" max="27" width="11.6666666666667" customWidth="1"/>
-    <col min="28" max="28" width="15.1333333333333" customWidth="1"/>
-    <col min="29" max="29" width="12.6666666666667" customWidth="1"/>
+    <col min="26" max="27" width="11.625" customWidth="1"/>
+    <col min="28" max="28" width="15.125" customWidth="1"/>
+    <col min="29" max="29" width="12.625" customWidth="1"/>
     <col min="30" max="31" width="14" customWidth="1"/>
-    <col min="32" max="32" width="11.6666666666667" customWidth="1"/>
-    <col min="33" max="34" width="15.1333333333333" customWidth="1"/>
+    <col min="32" max="32" width="11.625" customWidth="1"/>
+    <col min="33" max="34" width="15.125" customWidth="1"/>
     <col min="35" max="35" width="14" customWidth="1"/>
-    <col min="36" max="36" width="15.1333333333333" customWidth="1"/>
+    <col min="36" max="36" width="15.125" customWidth="1"/>
     <col min="37" max="37" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" spans="1:31" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" s="3" customFormat="1" spans="1:2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B2" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
+    <row r="3" spans="1:31" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B3" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:2">
+    <row r="4" spans="1:31" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -9193,7 +8451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:2">
+    <row r="5" spans="1:31" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -9201,7 +8459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:2">
+    <row r="6" spans="1:31" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -9209,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:2">
+    <row r="7" spans="1:31" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -9217,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:2">
+    <row r="8" spans="1:31" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -9225,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:2">
+    <row r="9" spans="1:31" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -9233,15 +8491,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:2">
+    <row r="10" spans="1:31" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:31">
+    <row r="11" spans="1:31" s="3" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>93</v>
       </c>
@@ -9336,7 +8594,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:31">
+    <row r="12" spans="1:31" s="3" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
@@ -9431,12 +8689,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:31">
+    <row r="13" spans="1:31" s="3" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -9468,37 +8726,37 @@
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
     </row>
-    <row r="23" spans="12:13">
+    <row r="23" spans="12:17">
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="26" spans="15:17">
+    <row r="26" spans="12:17">
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B10 A4:B5 D13:G1048576 D1:G10">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A12:C12 P12 V12 W12 I23:K23 N23:O23 P23 Q23:U23 V23 W23:AE23 I26:N26 R26:U26 V26 W26:AE26 P1:P10 P13:P22 P24:P25 P27:P1048576 V1:V10 V13:V22 V24:V25 V27:V1048576 D11:O12 I1:O10 I27:O1048576 I13:O22 I24:O25 Q11:U12 Q1:U10 Q27:U1048576 Q13:U22 Q24:U25 X11:AE12 AF$1:AM$1048576 W1:AE10 W27:AE1048576 W13:AE22 W24:AE25">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A12:C12 P12 V12 W12 I23:K23 N23:O23 P23 Q23:U23 V23 W23:AE23 I26:N26 R26:U26 V26 W26:AE26 P1:P10 P13:P22 P24:P25 P27:P1048576 V1:V10 V13:V22 V24:V25 V27:V1048576 D11:O12 I1:O10 I27:O1048576 I13:O22 I24:O25 Q11:U12 Q1:U10 Q27:U1048576 Q13:U22 Q24:U25 X11:AE12 AF1:AM1048576 W1:AE10 W27:AE1048576 W13:AE22 W24:AE25">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13 C1:C10 B14:C1048576 A2:B3">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9507,11 +8765,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.1333333333333" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.8" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.3333333333333" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.4666666666667" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" style="9" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="9" customWidth="1"/>
     <col min="6" max="7" width="9" style="9"/>
     <col min="8" max="8" width="14.125" style="9" customWidth="1"/>
     <col min="9" max="9" width="15.375" style="9" customWidth="1"/>
@@ -9519,48 +8777,48 @@
     <col min="11" max="11" width="16.625" style="9" customWidth="1"/>
     <col min="12" max="12" width="14.125" style="9" customWidth="1"/>
     <col min="13" max="13" width="12.875" style="9" customWidth="1"/>
-    <col min="14" max="14" width="9.33333333333333" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.3333333333333" style="9" customWidth="1"/>
-    <col min="16" max="16" width="9.33333333333333" style="9" customWidth="1"/>
+    <col min="14" max="14" width="9.375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="9.375" style="9" customWidth="1"/>
     <col min="17" max="19" width="9" style="9"/>
-    <col min="20" max="20" width="10.3333333333333" style="9" customWidth="1"/>
-    <col min="21" max="21" width="9.33333333333333" style="9" customWidth="1"/>
-    <col min="22" max="22" width="8.13333333333333" style="9" customWidth="1"/>
-    <col min="23" max="24" width="11.3333333333333" style="9" customWidth="1"/>
-    <col min="25" max="25" width="10.3333333333333" style="9" customWidth="1"/>
-    <col min="26" max="26" width="11.3333333333333" style="9" customWidth="1"/>
-    <col min="27" max="27" width="14.6666666666667" style="9" customWidth="1"/>
-    <col min="28" max="28" width="11.3333333333333" style="9" customWidth="1"/>
-    <col min="29" max="29" width="10.3333333333333" style="9" customWidth="1"/>
+    <col min="20" max="20" width="10.375" style="9" customWidth="1"/>
+    <col min="21" max="21" width="9.375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="8.125" style="9" customWidth="1"/>
+    <col min="23" max="24" width="11.375" style="9" customWidth="1"/>
+    <col min="25" max="25" width="10.375" style="9" customWidth="1"/>
+    <col min="26" max="26" width="11.375" style="9" customWidth="1"/>
+    <col min="27" max="27" width="14.625" style="9" customWidth="1"/>
+    <col min="28" max="28" width="11.375" style="9" customWidth="1"/>
+    <col min="29" max="29" width="10.375" style="9" customWidth="1"/>
     <col min="30" max="30" width="9" style="9" customWidth="1"/>
     <col min="31" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" spans="1:22" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" s="3" customFormat="1" spans="1:2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B2" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
+    <row r="3" spans="1:22" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B3" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:2">
+    <row r="4" spans="1:22" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -9568,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:2">
+    <row r="5" spans="1:22" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -9576,7 +8834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:2">
+    <row r="6" spans="1:22" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -9584,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:2">
+    <row r="7" spans="1:22" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -9592,7 +8850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:2">
+    <row r="8" spans="1:22" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -9600,7 +8858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:2">
+    <row r="9" spans="1:22" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -9608,7 +8866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:2">
+    <row r="10" spans="1:22" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
@@ -9616,48 +8874,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:13">
+    <row r="11" spans="1:22" s="3" customFormat="1">
       <c r="A11" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="M11" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:13">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="3" customFormat="1">
       <c r="A12" s="25" t="s">
         <v>48</v>
       </c>
@@ -9698,7 +8956,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:22">
+    <row r="13" spans="1:22" s="3" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>56</v>
       </c>
@@ -9724,31 +8982,31 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:2">
+    <row r="14" spans="1:22" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B15" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:2">
+    <row r="16" spans="1:22" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B16" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:2">
+    <row r="17" spans="1:31" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -9756,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:2">
+    <row r="18" spans="1:31" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
@@ -9764,7 +9022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:2">
+    <row r="19" spans="1:31" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -9772,7 +9030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:2">
+    <row r="20" spans="1:31" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -9780,7 +9038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:2">
+    <row r="21" spans="1:31" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
@@ -9788,7 +9046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:2">
+    <row r="22" spans="1:31" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -9796,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:2">
+    <row r="23" spans="1:31" s="3" customFormat="1">
       <c r="A23" s="3" t="s">
         <v>55</v>
       </c>
@@ -9804,7 +9062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:31">
+    <row r="24" spans="1:31" s="3" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>93</v>
       </c>
@@ -9899,7 +9157,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:31">
+    <row r="25" spans="1:31" s="3" customFormat="1">
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
@@ -9994,12 +9252,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:31">
+    <row r="26" spans="1:31" s="3" customFormat="1">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -10032,6 +9290,7 @@
       <c r="AE26" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A19 C26 B6:B10 B19:B23 D8:G9 D26:G1048576 A4:B5 A17:B18 C14:G20 D21:G22">
       <formula1>"TRUE,FALSE"</formula1>
@@ -10043,16 +9302,15 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10061,29 +9319,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="14.1333333333333" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
-    <col min="8" max="15" width="12.4666666666667" customWidth="1"/>
-    <col min="16" max="18" width="16.4666666666667" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="8" max="15" width="12.5" customWidth="1"/>
+    <col min="16" max="18" width="16.5" customWidth="1"/>
     <col min="19" max="19" width="20" customWidth="1"/>
-    <col min="20" max="20" width="21.1333333333333" customWidth="1"/>
+    <col min="20" max="20" width="21.125" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
     <col min="22" max="22" width="19" customWidth="1"/>
-    <col min="23" max="23" width="22.3333333333333" customWidth="1"/>
-    <col min="24" max="25" width="16.4666666666667" customWidth="1"/>
+    <col min="23" max="23" width="22.375" customWidth="1"/>
+    <col min="24" max="25" width="16.5" customWidth="1"/>
     <col min="26" max="26" width="19" customWidth="1"/>
-    <col min="27" max="31" width="20.1333333333333" customWidth="1"/>
+    <col min="27" max="31" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="1" spans="1:23">
+    <row r="1" spans="1:23" s="22" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -10107,9 +9365,9 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" s="23" customFormat="1" spans="1:23">
+    <row r="2" spans="1:23" s="23" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B2" s="3">
         <v>256</v>
@@ -10136,9 +9394,9 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" s="23" customFormat="1" spans="1:23">
+    <row r="3" spans="1:23" s="23" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B3" s="3">
         <v>23</v>
@@ -10165,7 +9423,7 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" s="23" customFormat="1" spans="1:23">
+    <row r="4" spans="1:23" s="23" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -10194,7 +9452,7 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" s="23" customFormat="1" spans="1:23">
+    <row r="5" spans="1:23" s="23" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -10223,7 +9481,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" s="23" customFormat="1" spans="1:23">
+    <row r="6" spans="1:23" s="23" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -10252,7 +9510,7 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" s="23" customFormat="1" spans="1:23">
+    <row r="7" spans="1:23" s="23" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -10281,7 +9539,7 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:2">
+    <row r="8" spans="1:23" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -10289,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:2">
+    <row r="9" spans="1:23" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -10297,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="23" customFormat="1" spans="1:23">
+    <row r="10" spans="1:23" s="23" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
@@ -10326,78 +9584,78 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" s="23" customFormat="1" spans="1:23">
+    <row r="11" spans="1:23" s="23" customFormat="1">
       <c r="A11" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="S11" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="T11" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="U11" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="S11" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" s="23" customFormat="1" spans="1:23">
+    </row>
+    <row r="12" spans="1:23" s="23" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
@@ -10468,12 +9726,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" s="23" customFormat="1" spans="1:23">
+    <row r="13" spans="1:23" s="23" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -10497,12 +9755,12 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" s="22" customFormat="1" spans="1:23">
+    <row r="14" spans="1:23" s="22" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -10526,9 +9784,9 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" s="24" customFormat="1" spans="1:23">
+    <row r="15" spans="1:23" s="24" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B15" s="3">
         <v>128</v>
@@ -10555,9 +9813,9 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" s="24" customFormat="1" spans="1:23">
+    <row r="16" spans="1:23" s="24" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B16" s="3">
         <v>5</v>
@@ -10584,7 +9842,7 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" s="24" customFormat="1" spans="1:23">
+    <row r="17" spans="1:23" s="24" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -10613,7 +9871,7 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" s="24" customFormat="1" spans="1:23">
+    <row r="18" spans="1:23" s="24" customFormat="1">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
@@ -10642,7 +9900,7 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" s="24" customFormat="1" spans="1:23">
+    <row r="19" spans="1:23" s="24" customFormat="1">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -10671,7 +9929,7 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" s="24" customFormat="1" spans="1:23">
+    <row r="20" spans="1:23" s="24" customFormat="1">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -10700,7 +9958,7 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:2">
+    <row r="21" spans="1:23" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
@@ -10708,7 +9966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:2">
+    <row r="22" spans="1:23" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -10716,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="24" customFormat="1" spans="1:23">
+    <row r="23" spans="1:23" s="24" customFormat="1">
       <c r="A23" s="3" t="s">
         <v>55</v>
       </c>
@@ -10745,24 +10003,24 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" s="24" customFormat="1" spans="1:5">
+    <row r="24" spans="1:23" s="24" customFormat="1">
       <c r="A24" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" s="24" customFormat="1" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="24" customFormat="1">
       <c r="A25" s="4" t="s">
         <v>46</v>
       </c>
@@ -10779,12 +10037,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" s="24" customFormat="1" spans="1:23">
+    <row r="26" spans="1:23" s="24" customFormat="1">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -10808,12 +10066,12 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" s="22" customFormat="1" spans="1:20">
+    <row r="27" spans="1:23" s="22" customFormat="1">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -10834,9 +10092,9 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" s="24" customFormat="1" spans="1:20">
+    <row r="28" spans="1:23" s="24" customFormat="1">
       <c r="A28" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B28" s="3">
         <v>8</v>
@@ -10860,9 +10118,9 @@
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
     </row>
-    <row r="29" s="24" customFormat="1" spans="1:20">
+    <row r="29" spans="1:23" s="24" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
@@ -10886,7 +10144,7 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
     </row>
-    <row r="30" s="24" customFormat="1" spans="1:20">
+    <row r="30" spans="1:23" s="24" customFormat="1">
       <c r="A30" s="3" t="s">
         <v>49</v>
       </c>
@@ -10912,7 +10170,7 @@
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
     </row>
-    <row r="31" s="24" customFormat="1" spans="1:20">
+    <row r="31" spans="1:23" s="24" customFormat="1">
       <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
@@ -10938,7 +10196,7 @@
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
     </row>
-    <row r="32" s="24" customFormat="1" spans="1:20">
+    <row r="32" spans="1:23" s="24" customFormat="1">
       <c r="A32" s="3" t="s">
         <v>51</v>
       </c>
@@ -10964,7 +10222,7 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
     </row>
-    <row r="33" s="24" customFormat="1" spans="1:20">
+    <row r="33" spans="1:23" s="24" customFormat="1">
       <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
@@ -10990,7 +10248,7 @@
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
     </row>
-    <row r="34" s="3" customFormat="1" spans="1:2">
+    <row r="34" spans="1:23" s="3" customFormat="1">
       <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
@@ -10998,7 +10256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" spans="1:2">
+    <row r="35" spans="1:23" s="3" customFormat="1">
       <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
@@ -11006,7 +10264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="24" customFormat="1" spans="1:20">
+    <row r="36" spans="1:23" s="24" customFormat="1">
       <c r="A36" s="3" t="s">
         <v>55</v>
       </c>
@@ -11032,15 +10290,15 @@
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
     </row>
-    <row r="37" s="24" customFormat="1" spans="1:2">
+    <row r="37" spans="1:23" s="24" customFormat="1">
       <c r="A37" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" s="24" customFormat="1" spans="1:2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" s="24" customFormat="1">
       <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
@@ -11048,12 +10306,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" s="24" customFormat="1" spans="1:20">
+    <row r="39" spans="1:23" s="24" customFormat="1">
       <c r="A39" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -11074,12 +10332,12 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
     </row>
-    <row r="40" s="22" customFormat="1" spans="1:23">
+    <row r="40" spans="1:23" s="22" customFormat="1">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -11103,9 +10361,9 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" s="24" customFormat="1" spans="1:23">
+    <row r="41" spans="1:23" s="24" customFormat="1">
       <c r="A41" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B41" s="3">
         <v>128</v>
@@ -11132,9 +10390,9 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
     </row>
-    <row r="42" s="24" customFormat="1" spans="1:23">
+    <row r="42" spans="1:23" s="24" customFormat="1">
       <c r="A42" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B42" s="3">
         <v>4</v>
@@ -11161,7 +10419,7 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
     </row>
-    <row r="43" s="24" customFormat="1" spans="1:23">
+    <row r="43" spans="1:23" s="24" customFormat="1">
       <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
@@ -11190,7 +10448,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
     </row>
-    <row r="44" s="24" customFormat="1" spans="1:23">
+    <row r="44" spans="1:23" s="24" customFormat="1">
       <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
@@ -11219,7 +10477,7 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
     </row>
-    <row r="45" s="24" customFormat="1" spans="1:23">
+    <row r="45" spans="1:23" s="24" customFormat="1">
       <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
@@ -11248,7 +10506,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
     </row>
-    <row r="46" s="24" customFormat="1" spans="1:23">
+    <row r="46" spans="1:23" s="24" customFormat="1">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
@@ -11277,7 +10535,7 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
     </row>
-    <row r="47" s="3" customFormat="1" spans="1:2">
+    <row r="47" spans="1:23" s="3" customFormat="1">
       <c r="A47" s="3" t="s">
         <v>53</v>
       </c>
@@ -11285,7 +10543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" s="3" customFormat="1" spans="1:2">
+    <row r="48" spans="1:23" s="3" customFormat="1">
       <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
@@ -11293,7 +10551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" s="24" customFormat="1" spans="1:23">
+    <row r="49" spans="1:23" s="24" customFormat="1">
       <c r="A49" s="3" t="s">
         <v>55</v>
       </c>
@@ -11322,21 +10580,21 @@
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
     </row>
-    <row r="50" s="24" customFormat="1" spans="1:4">
+    <row r="50" spans="1:23" s="24" customFormat="1">
       <c r="A50" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="51" s="24" customFormat="1" spans="1:4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" s="24" customFormat="1">
       <c r="A51" s="4" t="s">
         <v>48</v>
       </c>
@@ -11347,10 +10605,10 @@
         <v>47</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="52" s="24" customFormat="1" spans="1:23">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" s="24" customFormat="1">
       <c r="A52" s="4" t="s">
         <v>56</v>
       </c>
@@ -11381,6 +10639,7 @@
   <autoFilter ref="A1:W52">
     <extLst/>
   </autoFilter>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 E10:G10 E13:F13 A19 D26:G26 A32 C39:D39 E52 B6:B10 B19:B23 B32:B36 B46:B49 G13:G20 G52:G1048576 D21:G23 A4:B5 D8:G9 A17:B18 A43:B45 D53:F1048576 E1:G7 D14:F20 A30:B31 D40:G49 C27:D36">
       <formula1>"TRUE,FALSE"</formula1>
@@ -11393,59 +10652,58 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="$A21:$XFD22"/>
+      <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.1333333333333" customWidth="1"/>
-    <col min="2" max="2" width="17.1333333333333" customWidth="1"/>
-    <col min="3" max="3" width="20.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="10.4666666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="12.6666666666667" customWidth="1"/>
-    <col min="10" max="11" width="22.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="10.4666666666667" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="11" width="22.625" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:2">
+    <row r="1" spans="1:4" s="10" customFormat="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" s="11" customFormat="1" spans="1:2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="11" customFormat="1">
       <c r="A2" s="14" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B2" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:2">
+    <row r="3" spans="1:4" s="11" customFormat="1">
       <c r="A3" s="14" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B3" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1" spans="1:2">
+    <row r="4" spans="1:4" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
         <v>49</v>
       </c>
@@ -11453,7 +10711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="1" spans="1:2">
+    <row r="5" spans="1:4" s="11" customFormat="1">
       <c r="A5" s="14" t="s">
         <v>50</v>
       </c>
@@ -11461,7 +10719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="11" customFormat="1" spans="1:2">
+    <row r="6" spans="1:4" s="11" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>51</v>
       </c>
@@ -11469,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:2">
+    <row r="7" spans="1:4" s="11" customFormat="1">
       <c r="A7" s="14" t="s">
         <v>52</v>
       </c>
@@ -11477,7 +10735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:2">
+    <row r="8" spans="1:4" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -11485,7 +10743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:2">
+    <row r="9" spans="1:4" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -11493,29 +10751,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="1" spans="1:2">
+    <row r="10" spans="1:4" s="11" customFormat="1">
       <c r="A10" s="14" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B10" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="11" customFormat="1" spans="1:4">
+    <row r="11" spans="1:4" s="11" customFormat="1">
       <c r="A11" s="19" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" s="11" customFormat="1" spans="1:4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="11" customFormat="1">
       <c r="A12" s="19" t="s">
         <v>46</v>
       </c>
@@ -11529,41 +10787,41 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" s="11" customFormat="1" spans="1:4">
+    <row r="13" spans="1:4" s="11" customFormat="1">
       <c r="A13" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
     </row>
-    <row r="14" s="10" customFormat="1" spans="1:2">
+    <row r="14" spans="1:4" s="10" customFormat="1">
       <c r="A14" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" s="11" customFormat="1" spans="1:2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="11" customFormat="1">
       <c r="A15" s="14" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B15" s="14">
         <v>512</v>
       </c>
     </row>
-    <row r="16" s="11" customFormat="1" spans="1:2">
+    <row r="16" spans="1:4" s="11" customFormat="1">
       <c r="A16" s="14" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B16" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="17" s="11" customFormat="1" spans="1:2">
+    <row r="17" spans="1:3" s="11" customFormat="1">
       <c r="A17" s="14" t="s">
         <v>49</v>
       </c>
@@ -11571,7 +10829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="11" customFormat="1" spans="1:2">
+    <row r="18" spans="1:3" s="11" customFormat="1">
       <c r="A18" s="14" t="s">
         <v>50</v>
       </c>
@@ -11579,7 +10837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="11" customFormat="1" spans="1:2">
+    <row r="19" spans="1:3" s="11" customFormat="1">
       <c r="A19" s="14" t="s">
         <v>51</v>
       </c>
@@ -11587,7 +10845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="11" customFormat="1" spans="1:2">
+    <row r="20" spans="1:3" s="11" customFormat="1">
       <c r="A20" s="14" t="s">
         <v>52</v>
       </c>
@@ -11595,7 +10853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:2">
+    <row r="21" spans="1:3" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
@@ -11603,7 +10861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:2">
+    <row r="22" spans="1:3" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -11611,26 +10869,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="11" customFormat="1" spans="1:2">
+    <row r="23" spans="1:3" s="11" customFormat="1">
       <c r="A23" s="14" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B23" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="11" customFormat="1" spans="1:3">
+    <row r="24" spans="1:3" s="11" customFormat="1">
       <c r="A24" s="19" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="25" s="11" customFormat="1" spans="1:3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="11" customFormat="1">
       <c r="A25" s="19" t="s">
         <v>46</v>
       </c>
@@ -11641,16 +10899,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" s="11" customFormat="1" spans="1:3">
+    <row r="26" spans="1:3" s="11" customFormat="1">
       <c r="A26" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C26" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A19 B6:B10 B19:B22 G10:G20 E10:F13 A17:B18 D8:G9 A4:B5 E1:G7 D14:F20 D21:G1048576">
       <formula1>"TRUE,FALSE"</formula1>
@@ -11668,16 +10927,15 @@
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11686,13 +10944,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.1333333333333" customWidth="1"/>
-    <col min="2" max="2" width="17.1333333333333" customWidth="1"/>
-    <col min="3" max="3" width="20.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="10.4666666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="12.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
     <col min="10" max="10" width="16.75" customWidth="1"/>
     <col min="11" max="11" width="17.375" customWidth="1"/>
     <col min="12" max="12" width="16.75" customWidth="1"/>
@@ -11700,31 +10958,31 @@
     <col min="20" max="20" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:2">
+    <row r="1" spans="1:20" s="10" customFormat="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" s="11" customFormat="1" spans="1:2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="11" customFormat="1">
       <c r="A2" s="14" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B2" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:2">
+    <row r="3" spans="1:20" s="11" customFormat="1">
       <c r="A3" s="14" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B3" s="14">
         <v>20</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1" spans="1:2">
+    <row r="4" spans="1:20" s="11" customFormat="1">
       <c r="A4" s="14" t="s">
         <v>49</v>
       </c>
@@ -11732,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="1" spans="1:2">
+    <row r="5" spans="1:20" s="11" customFormat="1">
       <c r="A5" s="14" t="s">
         <v>50</v>
       </c>
@@ -11740,7 +10998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="11" customFormat="1" spans="1:2">
+    <row r="6" spans="1:20" s="11" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>51</v>
       </c>
@@ -11748,7 +11006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:2">
+    <row r="7" spans="1:20" s="11" customFormat="1">
       <c r="A7" s="14" t="s">
         <v>52</v>
       </c>
@@ -11756,7 +11014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:2">
+    <row r="8" spans="1:20" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -11764,7 +11022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:2">
+    <row r="9" spans="1:20" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -11772,53 +11030,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="1" ht="14.25" spans="1:2">
+    <row r="10" spans="1:20" s="11" customFormat="1">
       <c r="A10" s="14" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B10" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="11" customFormat="1" ht="30" spans="1:20">
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="40.5">
       <c r="A11" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="H11" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="I11" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="J11" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="K11" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="L11" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="M11" s="16" t="s">
         <v>304</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>309</v>
       </c>
       <c r="N11" s="16" t="s">
         <v>16</v>
@@ -11827,22 +11085,22 @@
         <v>17</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" s="11" customFormat="1" ht="15" spans="1:20">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="11" customFormat="1">
       <c r="A12" s="17" t="s">
         <v>48</v>
       </c>
@@ -11904,7 +11162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" s="11" customFormat="1" ht="15" spans="1:20">
+    <row r="13" spans="1:20" s="11" customFormat="1">
       <c r="A13" s="18">
         <v>0</v>
       </c>
@@ -11966,31 +11224,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="10" customFormat="1" spans="1:2">
+    <row r="14" spans="1:20" s="10" customFormat="1">
       <c r="A14" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" s="11" customFormat="1" spans="1:2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="11" customFormat="1">
       <c r="A15" s="14" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B15" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="16" s="11" customFormat="1" spans="1:2">
+    <row r="16" spans="1:20" s="11" customFormat="1">
       <c r="A16" s="14" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B16" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="17" s="11" customFormat="1" spans="1:2">
+    <row r="17" spans="1:3" s="11" customFormat="1">
       <c r="A17" s="14" t="s">
         <v>49</v>
       </c>
@@ -11998,7 +11256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="11" customFormat="1" spans="1:2">
+    <row r="18" spans="1:3" s="11" customFormat="1">
       <c r="A18" s="14" t="s">
         <v>50</v>
       </c>
@@ -12006,7 +11264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="11" customFormat="1" spans="1:2">
+    <row r="19" spans="1:3" s="11" customFormat="1">
       <c r="A19" s="14" t="s">
         <v>51</v>
       </c>
@@ -12014,7 +11272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="11" customFormat="1" spans="1:2">
+    <row r="20" spans="1:3" s="11" customFormat="1">
       <c r="A20" s="14" t="s">
         <v>52</v>
       </c>
@@ -12022,7 +11280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:2">
+    <row r="21" spans="1:3" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
@@ -12030,7 +11288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:2">
+    <row r="22" spans="1:3" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -12038,24 +11296,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="11" customFormat="1" ht="14.25" spans="1:2">
+    <row r="23" spans="1:3" s="11" customFormat="1">
       <c r="A23" s="14" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B23" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="11" customFormat="1" ht="15" spans="1:3">
+    <row r="24" spans="1:3" s="11" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" s="11" customFormat="1" ht="15" spans="1:2">
+    <row r="25" spans="1:3" s="11" customFormat="1">
       <c r="A25" s="17" t="s">
         <v>48</v>
       </c>
@@ -12063,7 +11321,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" s="11" customFormat="1" ht="15" spans="1:3">
+    <row r="26" spans="1:3" s="11" customFormat="1">
       <c r="A26" s="18">
         <v>0</v>
       </c>
@@ -12073,6 +11331,7 @@
       <c r="C26" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 E10:G10 B20 B7:B10 B21:B23 G27:G1048576 A17:B19 D8:G9 E1:G7 D27:F1048576 A4:B5">
       <formula1>"TRUE,FALSE"</formula1>
@@ -12087,7 +11346,6 @@
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -506,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="349">
   <si>
     <t>Id</t>
   </si>
@@ -1576,6 +1576,26 @@
   </si>
   <si>
     <t>FightHeroID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FightHeroCnfID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FightHeroLevel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FightHeroHP1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FightHeroHP2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FightHeroHP3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -6470,10 +6490,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL10"/>
+  <dimension ref="A1:AQ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6482,26 +6502,26 @@
     <col min="2" max="4" width="18.375" customWidth="1"/>
     <col min="5" max="7" width="16" customWidth="1"/>
     <col min="8" max="9" width="21.625" customWidth="1"/>
-    <col min="10" max="30" width="17.375" customWidth="1"/>
-    <col min="31" max="32" width="18.375" customWidth="1"/>
-    <col min="33" max="35" width="17.375" customWidth="1"/>
-    <col min="36" max="36" width="15.625" customWidth="1"/>
-    <col min="37" max="37" width="19.625" customWidth="1"/>
-    <col min="38" max="39" width="16" customWidth="1"/>
-    <col min="40" max="40" width="21.625" customWidth="1"/>
-    <col min="41" max="43" width="18.375" customWidth="1"/>
-    <col min="44" max="44" width="26.375" customWidth="1"/>
-    <col min="45" max="45" width="26.625" customWidth="1"/>
-    <col min="46" max="46" width="23.375" customWidth="1"/>
-    <col min="47" max="47" width="26.375" customWidth="1"/>
-    <col min="48" max="48" width="26.625" customWidth="1"/>
-    <col min="49" max="49" width="17.375" customWidth="1"/>
-    <col min="50" max="50" width="26.375" customWidth="1"/>
-    <col min="51" max="51" width="26.625" customWidth="1"/>
-    <col min="52" max="52" width="17.375" customWidth="1"/>
+    <col min="10" max="32" width="17.375" customWidth="1"/>
+    <col min="33" max="34" width="18.375" customWidth="1"/>
+    <col min="35" max="37" width="17.375" customWidth="1"/>
+    <col min="38" max="38" width="15.625" customWidth="1"/>
+    <col min="39" max="39" width="19.625" customWidth="1"/>
+    <col min="40" max="44" width="16" customWidth="1"/>
+    <col min="45" max="45" width="21.625" customWidth="1"/>
+    <col min="46" max="48" width="18.375" customWidth="1"/>
+    <col min="49" max="49" width="26.375" customWidth="1"/>
+    <col min="50" max="50" width="26.625" customWidth="1"/>
+    <col min="51" max="51" width="23.375" customWidth="1"/>
+    <col min="52" max="52" width="26.375" customWidth="1"/>
+    <col min="53" max="53" width="26.625" customWidth="1"/>
+    <col min="54" max="54" width="17.375" customWidth="1"/>
+    <col min="55" max="55" width="26.375" customWidth="1"/>
+    <col min="56" max="56" width="26.625" customWidth="1"/>
+    <col min="57" max="57" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="33" customFormat="1">
+    <row r="1" spans="1:43" s="33" customFormat="1">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -6542,82 +6562,97 @@
         <v>159</v>
       </c>
       <c r="N1" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="O1" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="P1" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="Q1" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="R1" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="S1" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="T1" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="U1" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="V1" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="W1" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="X1" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="Y1" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Z1" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="AA1" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AB1" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC1" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AD1" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AE1" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="AD1" s="37" t="s">
+      <c r="AF1" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="AE1" s="37" t="s">
+      <c r="AG1" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="AF1" s="37" t="s">
+      <c r="AH1" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="AG1" s="37" t="s">
+      <c r="AI1" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="AH1" s="37" t="s">
+      <c r="AJ1" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="AI1" s="37" t="s">
+      <c r="AK1" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="AJ1" s="37" t="s">
+      <c r="AL1" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="AK1" s="37" t="s">
+      <c r="AM1" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="AL1" s="37" t="s">
+      <c r="AN1" s="37" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" s="34" customFormat="1">
+      <c r="AO1" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" s="34" customFormat="1">
       <c r="A2" s="38" t="s">
         <v>45</v>
       </c>
@@ -6667,7 +6702,7 @@
         <v>46</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R2" s="39" t="s">
         <v>47</v>
@@ -6675,8 +6710,8 @@
       <c r="S2" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="44" t="s">
-        <v>48</v>
+      <c r="T2" s="39" t="s">
+        <v>47</v>
       </c>
       <c r="U2" s="44" t="s">
         <v>48</v>
@@ -6685,7 +6720,7 @@
         <v>48</v>
       </c>
       <c r="W2" s="44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X2" s="44" t="s">
         <v>47</v>
@@ -6709,10 +6744,10 @@
         <v>47</v>
       </c>
       <c r="AE2" s="44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF2" s="44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG2" s="44" t="s">
         <v>46</v>
@@ -6724,16 +6759,31 @@
         <v>46</v>
       </c>
       <c r="AJ2" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK2" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL2" s="44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" s="34" customFormat="1">
+      <c r="AM2" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN2" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO2" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP2" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ2" s="44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" s="34" customFormat="1">
       <c r="A3" s="38" t="s">
         <v>49</v>
       </c>
@@ -6791,19 +6841,19 @@
       <c r="S3" s="39">
         <v>0</v>
       </c>
-      <c r="T3" s="45">
-        <v>0</v>
-      </c>
-      <c r="U3" s="44">
+      <c r="T3" s="39">
+        <v>0</v>
+      </c>
+      <c r="U3" s="45">
         <v>0</v>
       </c>
       <c r="V3" s="44">
         <v>0</v>
       </c>
-      <c r="W3" s="45">
-        <v>0</v>
-      </c>
-      <c r="X3" s="44">
+      <c r="W3" s="44">
+        <v>0</v>
+      </c>
+      <c r="X3" s="45">
         <v>0</v>
       </c>
       <c r="Y3" s="44">
@@ -6821,19 +6871,19 @@
       <c r="AC3" s="44">
         <v>0</v>
       </c>
-      <c r="AD3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="45">
+      <c r="AD3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="44">
         <v>0</v>
       </c>
       <c r="AF3" s="45">
         <v>0</v>
       </c>
-      <c r="AG3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="44">
+      <c r="AG3" s="45">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="45">
         <v>0</v>
       </c>
       <c r="AI3" s="44">
@@ -6848,8 +6898,23 @@
       <c r="AL3" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" s="34" customFormat="1">
+      <c r="AM3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" s="34" customFormat="1">
       <c r="A4" s="38" t="s">
         <v>50</v>
       </c>
@@ -6907,7 +6972,7 @@
       <c r="S4" s="39">
         <v>1</v>
       </c>
-      <c r="T4" s="44">
+      <c r="T4" s="39">
         <v>1</v>
       </c>
       <c r="U4" s="44">
@@ -6964,8 +7029,23 @@
       <c r="AL4" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" s="34" customFormat="1">
+      <c r="AM4" s="44">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="44">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="44">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="44">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" s="34" customFormat="1">
       <c r="A5" s="38" t="s">
         <v>51</v>
       </c>
@@ -7023,7 +7103,7 @@
       <c r="S5" s="40">
         <v>0</v>
       </c>
-      <c r="T5" s="45">
+      <c r="T5" s="40">
         <v>0</v>
       </c>
       <c r="U5" s="45">
@@ -7080,8 +7160,23 @@
       <c r="AL5" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" s="34" customFormat="1">
+      <c r="AM5" s="45">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="45">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="45">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="45">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" s="34" customFormat="1">
       <c r="A6" s="38" t="s">
         <v>52</v>
       </c>
@@ -7139,19 +7234,19 @@
       <c r="S6" s="40">
         <v>1</v>
       </c>
-      <c r="T6" s="44">
-        <v>1</v>
-      </c>
-      <c r="U6" s="45">
+      <c r="T6" s="40">
+        <v>1</v>
+      </c>
+      <c r="U6" s="44">
         <v>1</v>
       </c>
       <c r="V6" s="45">
         <v>1</v>
       </c>
-      <c r="W6" s="44">
-        <v>1</v>
-      </c>
-      <c r="X6" s="45">
+      <c r="W6" s="45">
+        <v>1</v>
+      </c>
+      <c r="X6" s="44">
         <v>1</v>
       </c>
       <c r="Y6" s="45">
@@ -7169,19 +7264,19 @@
       <c r="AC6" s="45">
         <v>1</v>
       </c>
-      <c r="AD6" s="44">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="44">
+      <c r="AD6" s="45">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="45">
         <v>1</v>
       </c>
       <c r="AF6" s="44">
         <v>1</v>
       </c>
-      <c r="AG6" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="45">
+      <c r="AG6" s="44">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="44">
         <v>1</v>
       </c>
       <c r="AI6" s="45">
@@ -7196,8 +7291,23 @@
       <c r="AL6" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" s="27" customFormat="1">
+      <c r="AM6" s="45">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="45">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="45">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="45">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" s="27" customFormat="1">
       <c r="A7" s="31" t="s">
         <v>53</v>
       </c>
@@ -7255,7 +7365,7 @@
       <c r="S7" s="40">
         <v>0</v>
       </c>
-      <c r="T7" s="45">
+      <c r="T7" s="40">
         <v>0</v>
       </c>
       <c r="U7" s="45">
@@ -7312,8 +7422,23 @@
       <c r="AL7" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" s="27" customFormat="1">
+      <c r="AM7" s="45">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="45">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="45">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="45">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" s="27" customFormat="1">
       <c r="A8" s="31" t="s">
         <v>54</v>
       </c>
@@ -7371,7 +7496,7 @@
       <c r="S8" s="40">
         <v>0</v>
       </c>
-      <c r="T8" s="45">
+      <c r="T8" s="40">
         <v>0</v>
       </c>
       <c r="U8" s="45">
@@ -7428,8 +7553,23 @@
       <c r="AL8" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" s="27" customFormat="1">
+      <c r="AM8" s="45">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="45">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="45">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="45">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" s="27" customFormat="1">
       <c r="A9" s="31" t="s">
         <v>55</v>
       </c>
@@ -7487,7 +7627,7 @@
       <c r="S9" s="40">
         <v>0</v>
       </c>
-      <c r="T9" s="45">
+      <c r="T9" s="40">
         <v>0</v>
       </c>
       <c r="U9" s="45">
@@ -7544,8 +7684,23 @@
       <c r="AL9" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" s="35" customFormat="1">
+      <c r="AM9" s="45">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="45">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="45">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="45">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" s="35" customFormat="1">
       <c r="A10" s="41" t="s">
         <v>56</v>
       </c>
@@ -7574,37 +7729,37 @@
         <v>187</v>
       </c>
       <c r="N10" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="O10" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="O10" s="42" t="s">
+      <c r="P10" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="P10" s="42" t="s">
+      <c r="Q10" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="Q10" s="42" t="s">
+      <c r="R10" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="R10" s="42" t="s">
+      <c r="S10" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="S10" s="42" t="s">
+      <c r="T10" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="T10" s="46" t="s">
+      <c r="U10" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="U10" s="46" t="s">
+      <c r="V10" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="V10" s="46" t="s">
+      <c r="W10" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="W10" s="46" t="s">
+      <c r="X10" s="46" t="s">
         <v>149</v>
-      </c>
-      <c r="X10" s="46" t="s">
-        <v>185</v>
       </c>
       <c r="Y10" s="46" t="s">
         <v>185</v>
@@ -7612,41 +7767,56 @@
       <c r="Z10" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
+      <c r="AA10" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB10" s="47" t="s">
+        <v>345</v>
+      </c>
       <c r="AC10" s="47"/>
-      <c r="AD10" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE10" s="46" t="s">
-        <v>149</v>
-      </c>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
       <c r="AF10" s="46" t="s">
         <v>149</v>
       </c>
       <c r="AG10" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH10" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI10" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="AH10" s="46" t="s">
+      <c r="AJ10" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="AI10" s="46" t="s">
+      <c r="AK10" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="AJ10" s="46" t="s">
+      <c r="AL10" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="AK10" s="46" t="s">
+      <c r="AM10" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="AL10" s="46" t="s">
+      <c r="AN10" s="46" t="s">
         <v>187</v>
+      </c>
+      <c r="AO10" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="AP10" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="AQ10" s="46" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD5:AF5 AG5:AL9 D7:I9 J5:AC9 B5:C5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF5:AH5 J5:AE9 D7:I9 B5:C5 AI5:AQ9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="9930" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="17100" windowHeight="9915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="5" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -506,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353">
   <si>
     <t>Id</t>
   </si>
@@ -979,6 +979,9 @@
     <t>WonCup</t>
   </si>
   <si>
+    <t>FightHeroID</t>
+  </si>
+  <si>
     <t>HeroID1</t>
   </si>
   <si>
@@ -988,6 +991,9 @@
     <t>HeroID3</t>
   </si>
   <si>
+    <t>FightHeroCnfID</t>
+  </si>
+  <si>
     <t>HeroCnfID1</t>
   </si>
   <si>
@@ -1027,6 +1033,9 @@
     <t>Item3UsedCount</t>
   </si>
   <si>
+    <t>FightHeroLevel</t>
+  </si>
+  <si>
     <t>OpponentLevel</t>
   </si>
   <si>
@@ -1061,6 +1070,27 @@
   </si>
   <si>
     <t>OpponentHeroStar3</t>
+  </si>
+  <si>
+    <t>FightHeroHP1</t>
+  </si>
+  <si>
+    <t>FightHeroHP2</t>
+  </si>
+  <si>
+    <t>FightHeroHP3</t>
+  </si>
+  <si>
+    <t>HeroPos1</t>
+  </si>
+  <si>
+    <t>HeroPos2</t>
+  </si>
+  <si>
+    <t>HeroPos3</t>
+  </si>
+  <si>
+    <t>vector</t>
   </si>
   <si>
     <t>Hero1</t>
@@ -1574,36 +1604,18 @@
   <si>
     <t>Time</t>
   </si>
-  <si>
-    <t>FightHeroID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FightHeroCnfID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FightHeroLevel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FightHeroHP1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FightHeroHP2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FightHeroHP3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1621,8 +1633,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1633,17 +1645,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="SimSun"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1664,25 +1817,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39994506668294322"/>
+        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,8 +1845,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1817,9 +2156,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1984,13 +2565,61 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -2341,17 +2970,18 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AS10"/>
   <sheetViews>
     <sheetView topLeftCell="AG1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2374,7 +3004,7 @@
     <col min="37" max="45" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="33" customFormat="1">
+    <row r="1" s="33" customFormat="1" spans="1:45">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -2511,7 +3141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="34" customFormat="1">
+    <row r="2" s="34" customFormat="1" spans="1:45">
       <c r="A2" s="38" t="s">
         <v>45</v>
       </c>
@@ -2648,7 +3278,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="34" customFormat="1">
+    <row r="3" s="34" customFormat="1" spans="1:45">
       <c r="A3" s="38" t="s">
         <v>49</v>
       </c>
@@ -2785,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="34" customFormat="1">
+    <row r="4" s="34" customFormat="1" spans="1:45">
       <c r="A4" s="38" t="s">
         <v>50</v>
       </c>
@@ -2922,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="34" customFormat="1">
+    <row r="5" s="34" customFormat="1" spans="1:45">
       <c r="A5" s="38" t="s">
         <v>51</v>
       </c>
@@ -3059,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="34" customFormat="1">
+    <row r="6" s="34" customFormat="1" spans="1:45">
       <c r="A6" s="38" t="s">
         <v>52</v>
       </c>
@@ -3196,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="27" customFormat="1">
+    <row r="7" s="27" customFormat="1" spans="1:45">
       <c r="A7" s="31" t="s">
         <v>53</v>
       </c>
@@ -3333,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="27" customFormat="1">
+    <row r="8" s="27" customFormat="1" spans="1:45">
       <c r="A8" s="31" t="s">
         <v>54</v>
       </c>
@@ -3470,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:45" s="27" customFormat="1">
+    <row r="9" s="27" customFormat="1" spans="1:45">
       <c r="A9" s="31" t="s">
         <v>55</v>
       </c>
@@ -3607,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:45" s="35" customFormat="1" ht="67.5">
+    <row r="10" s="35" customFormat="1" ht="68.25" spans="1:45">
       <c r="A10" s="41" t="s">
         <v>56</v>
       </c>
@@ -3745,28 +4375,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:M3 O3:AC3 B5:G5 H5:AS5 B7:G9 AK6:AS9 H7:AH9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD22"/>
+      <selection activeCell="A21" sqref="$A21:$XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.125" style="9" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="9" customWidth="1"/>
@@ -3782,31 +4412,31 @@
     <col min="13" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B2" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1">
+    <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1">
+    <row r="4" s="3" customFormat="1" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -3814,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1">
+    <row r="5" s="3" customFormat="1" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -3822,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1">
+    <row r="6" s="3" customFormat="1" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -3830,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1">
+    <row r="7" s="3" customFormat="1" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -3838,7 +4468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1">
+    <row r="8" s="3" customFormat="1" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -3846,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1">
+    <row r="9" s="3" customFormat="1" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -3854,32 +4484,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1">
+    <row r="10" s="3" customFormat="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1">
+    <row r="11" s="3" customFormat="1" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>46</v>
       </c>
@@ -3890,13 +4520,13 @@
         <v>47</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1">
+    <row r="13" s="3" customFormat="1" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>56</v>
       </c>
@@ -3905,31 +4535,31 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1">
+    <row r="14" s="1" customFormat="1" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="3" customFormat="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B15" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="3" customFormat="1">
+    <row r="16" s="3" customFormat="1" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B16" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1">
+    <row r="17" s="3" customFormat="1" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -3937,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1">
+    <row r="18" s="3" customFormat="1" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
@@ -3945,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1">
+    <row r="19" s="3" customFormat="1" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -3953,7 +4583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1">
+    <row r="20" s="3" customFormat="1" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -3961,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="3" customFormat="1">
+    <row r="21" s="3" customFormat="1" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
@@ -3969,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="3" customFormat="1">
+    <row r="22" s="3" customFormat="1" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -3977,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="3" customFormat="1">
+    <row r="23" s="3" customFormat="1" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>55</v>
       </c>
@@ -3985,24 +4615,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="3" customFormat="1">
+    <row r="24" s="3" customFormat="1" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="3" customFormat="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="1:5">
       <c r="A25" s="4" t="s">
         <v>46</v>
       </c>
@@ -4013,13 +4643,13 @@
         <v>47</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="3" customFormat="1">
+    <row r="26" s="3" customFormat="1" spans="1:5">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
@@ -4029,7 +4659,6 @@
       <c r="E26" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 E10 E23 B6:B10 B20:B23 E13:E20 E26:E1048576 F10:F20 F23:F1048576 A17:B19 A4:B5 D8:G9 E1:F7 D21:G22">
       <formula1>"TRUE,FALSE"</formula1>
@@ -4049,13 +4678,15 @@
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -4064,12 +4695,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" ht="15" spans="1:15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -4085,9 +4716,9 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" ht="15" spans="1:15">
       <c r="A2" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B2" s="7">
         <v>50</v>
@@ -4106,9 +4737,9 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" ht="15" spans="1:15">
       <c r="A3" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B3" s="7">
         <v>15</v>
@@ -4127,7 +4758,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" ht="15" spans="1:15">
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
@@ -4148,7 +4779,7 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" ht="15" spans="1:15">
       <c r="A5" s="7" t="s">
         <v>50</v>
       </c>
@@ -4169,7 +4800,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" ht="15" spans="1:15">
       <c r="A6" s="7" t="s">
         <v>51</v>
       </c>
@@ -4190,7 +4821,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" ht="15" spans="1:15">
       <c r="A7" s="7" t="s">
         <v>52</v>
       </c>
@@ -4211,7 +4842,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" ht="15" spans="1:15">
       <c r="A8" s="7" t="s">
         <v>53</v>
       </c>
@@ -4232,7 +4863,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" ht="15" spans="1:15">
       <c r="A9" s="7" t="s">
         <v>54</v>
       </c>
@@ -4253,7 +4884,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" ht="15" spans="1:15">
       <c r="A10" s="7" t="s">
         <v>55</v>
       </c>
@@ -4274,9 +4905,9 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" ht="15" spans="1:15">
       <c r="A11" s="8" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>1</v>
@@ -4288,40 +4919,40 @@
         <v>3</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>30</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:15">
       <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
@@ -4368,12 +4999,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" ht="15" spans="1:15">
       <c r="A13" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -4389,12 +5020,12 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" ht="15" spans="1:15">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -4410,9 +5041,9 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" ht="15" spans="1:15">
       <c r="A15" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B15" s="7">
         <v>50</v>
@@ -4431,9 +5062,9 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" ht="15" spans="1:15">
       <c r="A16" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B16" s="7">
         <v>4</v>
@@ -4452,7 +5083,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" ht="15" spans="1:15">
       <c r="A17" s="7" t="s">
         <v>49</v>
       </c>
@@ -4473,7 +5104,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" ht="15" spans="1:15">
       <c r="A18" s="7" t="s">
         <v>50</v>
       </c>
@@ -4494,7 +5125,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" ht="15" spans="1:15">
       <c r="A19" s="7" t="s">
         <v>51</v>
       </c>
@@ -4515,7 +5146,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" ht="15" spans="1:15">
       <c r="A20" s="7" t="s">
         <v>52</v>
       </c>
@@ -4536,7 +5167,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" ht="15" spans="1:15">
       <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
@@ -4557,7 +5188,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" ht="15" spans="1:15">
       <c r="A22" s="7" t="s">
         <v>54</v>
       </c>
@@ -4578,7 +5209,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" ht="15" spans="1:15">
       <c r="A23" s="7" t="s">
         <v>55</v>
       </c>
@@ -4599,9 +5230,9 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" ht="15" spans="1:15">
       <c r="A24" s="8" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>1</v>
@@ -4610,7 +5241,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -4624,7 +5255,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" ht="15" spans="1:15">
       <c r="A25" s="8" t="s">
         <v>48</v>
       </c>
@@ -4649,12 +5280,12 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" ht="15" spans="1:15">
       <c r="A26" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -4670,12 +5301,12 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" ht="15" spans="1:15">
       <c r="A27" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -4691,9 +5322,9 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" ht="15" spans="1:15">
       <c r="A28" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B28" s="7">
         <v>50</v>
@@ -4712,9 +5343,9 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" ht="15" spans="1:15">
       <c r="A29" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B29" s="7">
         <v>3</v>
@@ -4733,7 +5364,7 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" ht="15" spans="1:15">
       <c r="A30" s="7" t="s">
         <v>49</v>
       </c>
@@ -4754,7 +5385,7 @@
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" ht="15" spans="1:15">
       <c r="A31" s="7" t="s">
         <v>50</v>
       </c>
@@ -4775,7 +5406,7 @@
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" ht="15" spans="1:15">
       <c r="A32" s="7" t="s">
         <v>51</v>
       </c>
@@ -4796,7 +5427,7 @@
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" ht="15" spans="1:15">
       <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
@@ -4817,7 +5448,7 @@
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" ht="15" spans="1:15">
       <c r="A34" s="7" t="s">
         <v>53</v>
       </c>
@@ -4838,7 +5469,7 @@
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" ht="15" spans="1:15">
       <c r="A35" s="7" t="s">
         <v>54</v>
       </c>
@@ -4859,7 +5490,7 @@
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" ht="15" spans="1:15">
       <c r="A36" s="7" t="s">
         <v>55</v>
       </c>
@@ -4880,9 +5511,9 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" ht="15" spans="1:15">
       <c r="A37" s="8" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>1</v>
@@ -4903,7 +5534,7 @@
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" ht="15" spans="1:15">
       <c r="A38" s="8" t="s">
         <v>48</v>
       </c>
@@ -4926,12 +5557,12 @@
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" ht="15" spans="1:15">
       <c r="A39" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="7"/>
@@ -4947,12 +5578,12 @@
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" ht="15" spans="1:15">
       <c r="A40" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -4968,9 +5599,9 @@
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" ht="15" spans="1:15">
       <c r="A41" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B41" s="7">
         <v>50</v>
@@ -4989,9 +5620,9 @@
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" ht="15" spans="1:15">
       <c r="A42" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B42" s="7">
         <v>2</v>
@@ -5010,7 +5641,7 @@
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" ht="15" spans="1:15">
       <c r="A43" s="7" t="s">
         <v>49</v>
       </c>
@@ -5031,7 +5662,7 @@
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" ht="15" spans="1:15">
       <c r="A44" s="7" t="s">
         <v>50</v>
       </c>
@@ -5052,7 +5683,7 @@
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" ht="15" spans="1:15">
       <c r="A45" s="7" t="s">
         <v>51</v>
       </c>
@@ -5073,7 +5704,7 @@
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" ht="15" spans="1:15">
       <c r="A46" s="7" t="s">
         <v>52</v>
       </c>
@@ -5094,7 +5725,7 @@
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" ht="15" spans="1:15">
       <c r="A47" s="7" t="s">
         <v>53</v>
       </c>
@@ -5115,7 +5746,7 @@
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" ht="15" spans="1:15">
       <c r="A48" s="7" t="s">
         <v>54</v>
       </c>
@@ -5136,7 +5767,7 @@
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" ht="15" spans="1:15">
       <c r="A49" s="7" t="s">
         <v>55</v>
       </c>
@@ -5157,9 +5788,9 @@
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" ht="15" spans="1:15">
       <c r="A50" s="8" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>6</v>
@@ -5178,7 +5809,7 @@
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" ht="15" spans="1:15">
       <c r="A51" s="8" t="s">
         <v>48</v>
       </c>
@@ -5199,7 +5830,7 @@
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" ht="15" spans="1:15">
       <c r="A52" s="8" t="s">
         <v>56</v>
       </c>
@@ -5219,7 +5850,6 @@
       <c r="O52" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A11:A12 A24:A25 A50:A51 G37:G38 G50:G52 L1:L10 L13:L52 A37:B38">
       <formula1>"int,string,float,object"</formula1>
@@ -5232,19 +5862,21 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="8.125" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
@@ -5256,10 +5888,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C1" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="D1" t="s">
         <v>56</v>
@@ -5267,20 +5899,19 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"lua,python,C#,js"</formula1>
@@ -5289,33 +5920,34 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B2" s="3">
         <v>8</v>
@@ -5323,7 +5955,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -5387,10 +6019,10 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5410,7 +6042,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A11:B11"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A12:B12">
@@ -5423,12 +6054,14 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -5440,7 +6073,7 @@
     <col min="1" max="1" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="48" customFormat="1" ht="27">
+    <row r="1" s="48" customFormat="1" ht="27" spans="1:32">
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
@@ -5538,7 +6171,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="49" customFormat="1">
+    <row r="2" s="49" customFormat="1" spans="1:32">
       <c r="A2" s="52" t="s">
         <v>45</v>
       </c>
@@ -5636,7 +6269,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="49" customFormat="1">
+    <row r="3" s="49" customFormat="1" spans="1:32">
       <c r="A3" s="52" t="s">
         <v>49</v>
       </c>
@@ -5734,7 +6367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="49" customFormat="1">
+    <row r="4" s="49" customFormat="1" spans="1:32">
       <c r="A4" s="52" t="s">
         <v>50</v>
       </c>
@@ -5832,7 +6465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="49" customFormat="1">
+    <row r="5" s="49" customFormat="1" spans="1:32">
       <c r="A5" s="52" t="s">
         <v>51</v>
       </c>
@@ -5930,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="49" customFormat="1">
+    <row r="6" s="49" customFormat="1" spans="1:32">
       <c r="A6" s="52" t="s">
         <v>52</v>
       </c>
@@ -6028,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="27" customFormat="1">
+    <row r="7" s="27" customFormat="1" spans="1:32">
       <c r="A7" s="31" t="s">
         <v>53</v>
       </c>
@@ -6126,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="27" customFormat="1">
+    <row r="8" s="27" customFormat="1" spans="1:32">
       <c r="A8" s="31" t="s">
         <v>54</v>
       </c>
@@ -6224,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="27" customFormat="1">
+    <row r="9" s="27" customFormat="1" spans="1:32">
       <c r="A9" s="31" t="s">
         <v>55</v>
       </c>
@@ -6322,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="50" customFormat="1" ht="54">
+    <row r="10" s="50" customFormat="1" ht="54.75" spans="1:32">
       <c r="A10" s="41" t="s">
         <v>56</v>
       </c>
@@ -6414,22 +7047,22 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:1">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:1">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:1">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:1">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:1">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:1">
       <c r="A16" s="5"/>
     </row>
     <row r="17" spans="1:1">
@@ -6475,25 +7108,25 @@
       <c r="A30" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:D3 F3:L3 N3:Q3 R3 S3:V3 W3 X3 Y3:Z3 R7:R9 W7:W9 X7:X9 B7:Q9 S7:V9 Y7:AF9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AR5" sqref="AR5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6507,9 +7140,8 @@
     <col min="35" max="37" width="17.375" customWidth="1"/>
     <col min="38" max="38" width="15.625" customWidth="1"/>
     <col min="39" max="39" width="19.625" customWidth="1"/>
-    <col min="40" max="44" width="16" customWidth="1"/>
-    <col min="45" max="45" width="21.625" customWidth="1"/>
-    <col min="46" max="48" width="18.375" customWidth="1"/>
+    <col min="40" max="46" width="16" customWidth="1"/>
+    <col min="47" max="48" width="18.375" customWidth="1"/>
     <col min="49" max="49" width="26.375" customWidth="1"/>
     <col min="50" max="50" width="26.625" customWidth="1"/>
     <col min="51" max="51" width="23.375" customWidth="1"/>
@@ -6521,7 +7153,7 @@
     <col min="57" max="57" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="33" customFormat="1">
+    <row r="1" s="33" customFormat="1" spans="1:46">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -6550,109 +7182,118 @@
         <v>156</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>343</v>
+        <v>157</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>344</v>
+        <v>161</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="T1" s="37" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="V1" s="33" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="W1" s="33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="X1" s="37" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y1" s="37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z1" s="37" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AA1" s="37" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AB1" s="33" t="s">
-        <v>345</v>
+        <v>175</v>
       </c>
       <c r="AC1" s="33" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AD1" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AE1" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF1" s="37" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AG1" s="37" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AH1" s="37" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AI1" s="37" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AJ1" s="37" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AK1" s="37" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AL1" s="37" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AM1" s="37" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AN1" s="37" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AO1" s="37" t="s">
-        <v>346</v>
+        <v>188</v>
       </c>
       <c r="AP1" s="37" t="s">
-        <v>347</v>
+        <v>189</v>
       </c>
       <c r="AQ1" s="37" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" s="34" customFormat="1">
+        <v>190</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" s="34" customFormat="1" spans="1:46">
       <c r="A2" s="38" t="s">
         <v>45</v>
       </c>
@@ -6782,8 +7423,17 @@
       <c r="AQ2" s="44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" s="34" customFormat="1">
+      <c r="AR2" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS2" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT2" s="44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" s="34" customFormat="1" spans="1:46">
       <c r="A3" s="38" t="s">
         <v>49</v>
       </c>
@@ -6913,8 +7563,17 @@
       <c r="AQ3" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" s="34" customFormat="1">
+      <c r="AR3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="34" customFormat="1" spans="1:46">
       <c r="A4" s="38" t="s">
         <v>50</v>
       </c>
@@ -7044,8 +7703,17 @@
       <c r="AQ4" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" s="34" customFormat="1">
+      <c r="AR4" s="44">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="44">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="34" customFormat="1" spans="1:46">
       <c r="A5" s="38" t="s">
         <v>51</v>
       </c>
@@ -7175,8 +7843,17 @@
       <c r="AQ5" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" s="34" customFormat="1">
+      <c r="AR5" s="45">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="45">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="34" customFormat="1" spans="1:46">
       <c r="A6" s="38" t="s">
         <v>52</v>
       </c>
@@ -7306,8 +7983,17 @@
       <c r="AQ6" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="27" customFormat="1">
+      <c r="AR6" s="45">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="45">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="27" customFormat="1" spans="1:46">
       <c r="A7" s="31" t="s">
         <v>53</v>
       </c>
@@ -7437,8 +8123,17 @@
       <c r="AQ7" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:43" s="27" customFormat="1">
+      <c r="AR7" s="45">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="45">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="27" customFormat="1" spans="1:46">
       <c r="A8" s="31" t="s">
         <v>54</v>
       </c>
@@ -7568,8 +8263,17 @@
       <c r="AQ8" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" s="27" customFormat="1">
+      <c r="AR8" s="45">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="45">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="27" customFormat="1" spans="1:46">
       <c r="A9" s="31" t="s">
         <v>55</v>
       </c>
@@ -7699,8 +8403,17 @@
       <c r="AQ9" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" s="35" customFormat="1">
+      <c r="AR9" s="45">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="45">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="35" customFormat="1" ht="14.25" spans="1:46">
       <c r="A10" s="41" t="s">
         <v>56</v>
       </c>
@@ -7717,61 +8430,61 @@
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
       <c r="J10" s="42" t="s">
-        <v>343</v>
+        <v>157</v>
       </c>
       <c r="K10" s="42" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="L10" s="42" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="N10" s="42" t="s">
-        <v>344</v>
+        <v>161</v>
       </c>
       <c r="O10" s="42" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="P10" s="42" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="42" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="R10" s="42" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="S10" s="42" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="T10" s="42" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="U10" s="46" t="s">
         <v>149</v>
       </c>
       <c r="V10" s="46" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="W10" s="46" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="X10" s="46" t="s">
         <v>149</v>
       </c>
       <c r="Y10" s="46" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="Z10" s="46" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="AA10" s="46" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="AB10" s="47" t="s">
-        <v>345</v>
+        <v>175</v>
       </c>
       <c r="AC10" s="47"/>
       <c r="AD10" s="47"/>
@@ -7786,48 +8499,58 @@
         <v>149</v>
       </c>
       <c r="AI10" s="46" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="AJ10" s="46" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="AK10" s="46" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="AL10" s="46" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="AM10" s="46" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="AN10" s="46" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="AO10" s="46" t="s">
-        <v>346</v>
+        <v>188</v>
       </c>
       <c r="AP10" s="46" t="s">
-        <v>347</v>
+        <v>189</v>
       </c>
       <c r="AQ10" s="46" t="s">
-        <v>348</v>
+        <v>190</v>
+      </c>
+      <c r="AR10" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS10" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT10" s="46" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF5:AH5 J5:AE9 D7:I9 B5:C5 AI5:AQ9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:C5 AF5:AH5 J5:AE9 D7:I9 AI5:AQ9 AR5:AT9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
@@ -7857,75 +8580,75 @@
     <col min="22" max="22" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="26" customFormat="1">
+    <row r="1" s="26" customFormat="1" ht="15" spans="1:22">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="N1" s="26" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="O1" s="26" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="Q1" s="26" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="R1" s="26" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="T1" s="26" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="U1" s="26" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="V1" s="26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="7" customFormat="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" s="7" customFormat="1" ht="15" spans="1:22">
       <c r="A2" s="30" t="s">
         <v>45</v>
       </c>
@@ -7993,7 +8716,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="7" customFormat="1">
+    <row r="3" s="7" customFormat="1" ht="15" spans="1:22">
       <c r="A3" s="30" t="s">
         <v>49</v>
       </c>
@@ -8061,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="7" customFormat="1">
+    <row r="4" s="7" customFormat="1" ht="15" spans="1:22">
       <c r="A4" s="30" t="s">
         <v>50</v>
       </c>
@@ -8129,7 +8852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="7" customFormat="1">
+    <row r="5" s="7" customFormat="1" ht="15" spans="1:22">
       <c r="A5" s="30" t="s">
         <v>51</v>
       </c>
@@ -8197,7 +8920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="7" customFormat="1">
+    <row r="6" s="7" customFormat="1" ht="15" spans="1:22">
       <c r="A6" s="30" t="s">
         <v>52</v>
       </c>
@@ -8265,7 +8988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="27" customFormat="1">
+    <row r="7" s="27" customFormat="1" spans="1:22">
       <c r="A7" s="31" t="s">
         <v>53</v>
       </c>
@@ -8333,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="27" customFormat="1" ht="18" customHeight="1">
+    <row r="8" s="27" customFormat="1" ht="18" customHeight="1" spans="1:22">
       <c r="A8" s="31" t="s">
         <v>54</v>
       </c>
@@ -8401,7 +9124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="27" customFormat="1" ht="18" customHeight="1">
+    <row r="9" s="27" customFormat="1" ht="18" customHeight="1" spans="1:22">
       <c r="A9" s="31" t="s">
         <v>55</v>
       </c>
@@ -8469,89 +9192,90 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="28" customFormat="1">
+    <row r="10" s="28" customFormat="1" ht="15.75" spans="1:22">
       <c r="A10" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="L10" s="28" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="M10" s="28" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="N10" s="28" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="O10" s="28" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="R10" s="28" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="S10" s="28" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="T10" s="28" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="U10" s="28" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="V10" s="28" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:V9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AE26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8589,31 +9313,31 @@
     <col min="37" max="37" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" s="3" customFormat="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B2" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="3" customFormat="1">
+    <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="3" customFormat="1">
+    <row r="4" s="3" customFormat="1" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -8621,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="3" customFormat="1">
+    <row r="5" s="3" customFormat="1" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -8629,7 +9353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="3" customFormat="1">
+    <row r="6" s="3" customFormat="1" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -8637,7 +9361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="3" customFormat="1">
+    <row r="7" s="3" customFormat="1" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -8645,7 +9369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="3" customFormat="1">
+    <row r="8" s="3" customFormat="1" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -8653,7 +9377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="3" customFormat="1">
+    <row r="9" s="3" customFormat="1" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -8661,15 +9385,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="3" customFormat="1">
+    <row r="10" s="3" customFormat="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="3" customFormat="1">
+    <row r="11" s="3" customFormat="1" spans="1:31">
       <c r="A11" s="4" t="s">
         <v>93</v>
       </c>
@@ -8764,7 +9488,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="3" customFormat="1">
+    <row r="12" s="3" customFormat="1" spans="1:31">
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
@@ -8859,12 +9583,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="3" customFormat="1">
+    <row r="13" s="3" customFormat="1" spans="1:31">
       <c r="A13" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -8896,37 +9620,37 @@
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
     </row>
-    <row r="23" spans="12:17">
+    <row r="23" spans="12:13">
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="26" spans="12:17">
+    <row r="26" spans="15:17">
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B10 A4:B5 D13:G1048576 D1:G10">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A12:C12 P12 V12 W12 I23:K23 N23:O23 P23 Q23:U23 V23 W23:AE23 I26:N26 R26:U26 V26 W26:AE26 P1:P10 P13:P22 P24:P25 P27:P1048576 V1:V10 V13:V22 V24:V25 V27:V1048576 D11:O12 I1:O10 I27:O1048576 I13:O22 I24:O25 Q11:U12 Q1:U10 Q27:U1048576 Q13:U22 Q24:U25 X11:AE12 AF1:AM1048576 W1:AE10 W27:AE1048576 W13:AE22 W24:AE25">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A12:C12 P12 V12 W12 I23:K23 N23:O23 P23 Q23:U23 V23 W23:AE23 I26:N26 R26:U26 V26 W26:AE26 P1:P10 P13:P22 P24:P25 P27:P1048576 V1:V10 V13:V22 V24:V25 V27:V1048576 D11:O12 I1:O10 I27:O1048576 I13:O22 I24:O25 Q11:U12 Q1:U10 Q27:U1048576 Q13:U22 Q24:U25 X11:AE12 AF$1:AM$1048576 W1:AE10 W27:AE1048576 W13:AE22 W24:AE25">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13 C1:C10 B14:C1048576 A2:B3">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AE26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8964,31 +9688,31 @@
     <col min="31" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="3" customFormat="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B2" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1">
+    <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1">
+    <row r="4" s="3" customFormat="1" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -8996,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1">
+    <row r="5" s="3" customFormat="1" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -9004,7 +9728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="3" customFormat="1">
+    <row r="6" s="3" customFormat="1" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -9012,7 +9736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="3" customFormat="1">
+    <row r="7" s="3" customFormat="1" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -9020,7 +9744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1">
+    <row r="8" s="3" customFormat="1" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -9028,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="3" customFormat="1">
+    <row r="9" s="3" customFormat="1" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -9036,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="3" customFormat="1">
+    <row r="10" s="3" customFormat="1" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
@@ -9044,48 +9768,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="3" customFormat="1">
+    <row r="11" s="3" customFormat="1" spans="1:13">
       <c r="A11" s="4" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="3" customFormat="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:13">
       <c r="A12" s="25" t="s">
         <v>48</v>
       </c>
@@ -9126,7 +9850,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="3" customFormat="1">
+    <row r="13" s="3" customFormat="1" spans="1:22">
       <c r="A13" s="4" t="s">
         <v>56</v>
       </c>
@@ -9152,31 +9876,31 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="1:22" s="1" customFormat="1">
+    <row r="14" s="1" customFormat="1" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" s="3" customFormat="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B15" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="3" customFormat="1">
+    <row r="16" s="3" customFormat="1" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B16" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="3" customFormat="1">
+    <row r="17" s="3" customFormat="1" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -9184,7 +9908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="3" customFormat="1">
+    <row r="18" s="3" customFormat="1" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
@@ -9192,7 +9916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="3" customFormat="1">
+    <row r="19" s="3" customFormat="1" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -9200,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="3" customFormat="1">
+    <row r="20" s="3" customFormat="1" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -9208,7 +9932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="3" customFormat="1">
+    <row r="21" s="3" customFormat="1" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
@@ -9216,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" s="3" customFormat="1">
+    <row r="22" s="3" customFormat="1" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -9224,7 +9948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="3" customFormat="1">
+    <row r="23" s="3" customFormat="1" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>55</v>
       </c>
@@ -9232,7 +9956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" s="3" customFormat="1">
+    <row r="24" s="3" customFormat="1" spans="1:31">
       <c r="A24" s="4" t="s">
         <v>93</v>
       </c>
@@ -9327,7 +10051,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:31" s="3" customFormat="1">
+    <row r="25" s="3" customFormat="1" spans="1:31">
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
@@ -9422,12 +10146,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:31" s="3" customFormat="1">
+    <row r="26" s="3" customFormat="1" spans="1:31">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -9460,7 +10184,6 @@
       <c r="AE26" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A19 C26 B6:B10 B19:B23 D8:G9 D26:G1048576 A4:B5 A17:B18 C14:G20 D21:G22">
       <formula1>"TRUE,FALSE"</formula1>
@@ -9472,15 +10195,16 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9506,12 +10230,12 @@
     <col min="27" max="31" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="22" customFormat="1">
+    <row r="1" s="22" customFormat="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -9535,9 +10259,9 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" s="23" customFormat="1">
+    <row r="2" s="23" customFormat="1" spans="1:23">
       <c r="A2" s="3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B2" s="3">
         <v>256</v>
@@ -9564,9 +10288,9 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23" s="23" customFormat="1">
+    <row r="3" s="23" customFormat="1" spans="1:23">
       <c r="A3" s="3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3">
         <v>23</v>
@@ -9593,7 +10317,7 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23" s="23" customFormat="1">
+    <row r="4" s="23" customFormat="1" spans="1:23">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -9622,7 +10346,7 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:23" s="23" customFormat="1">
+    <row r="5" s="23" customFormat="1" spans="1:23">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -9651,7 +10375,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" s="23" customFormat="1">
+    <row r="6" s="23" customFormat="1" spans="1:23">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -9680,7 +10404,7 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" s="23" customFormat="1">
+    <row r="7" s="23" customFormat="1" spans="1:23">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -9709,7 +10433,7 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" s="3" customFormat="1">
+    <row r="8" s="3" customFormat="1" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -9717,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="3" customFormat="1">
+    <row r="9" s="3" customFormat="1" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -9725,7 +10449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="23" customFormat="1">
+    <row r="10" s="23" customFormat="1" spans="1:23">
       <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
@@ -9754,78 +10478,78 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="1:23" s="23" customFormat="1">
+    <row r="11" s="23" customFormat="1" spans="1:23">
       <c r="A11" s="4" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="23" customFormat="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" s="23" customFormat="1" spans="1:23">
       <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
@@ -9896,12 +10620,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="23" customFormat="1">
+    <row r="13" s="23" customFormat="1" spans="1:23">
       <c r="A13" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -9925,12 +10649,12 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="1:23" s="22" customFormat="1">
+    <row r="14" s="22" customFormat="1" spans="1:23">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -9954,9 +10678,9 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" s="24" customFormat="1">
+    <row r="15" s="24" customFormat="1" spans="1:23">
       <c r="A15" s="3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B15" s="3">
         <v>128</v>
@@ -9983,9 +10707,9 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:23" s="24" customFormat="1">
+    <row r="16" s="24" customFormat="1" spans="1:23">
       <c r="A16" s="3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B16" s="3">
         <v>5</v>
@@ -10012,7 +10736,7 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="1:23" s="24" customFormat="1">
+    <row r="17" s="24" customFormat="1" spans="1:23">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -10041,7 +10765,7 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:23" s="24" customFormat="1">
+    <row r="18" s="24" customFormat="1" spans="1:23">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
@@ -10070,7 +10794,7 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="1:23" s="24" customFormat="1">
+    <row r="19" s="24" customFormat="1" spans="1:23">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -10099,7 +10823,7 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="1:23" s="24" customFormat="1">
+    <row r="20" s="24" customFormat="1" spans="1:23">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -10128,7 +10852,7 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" spans="1:23" s="3" customFormat="1">
+    <row r="21" s="3" customFormat="1" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
@@ -10136,7 +10860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="3" customFormat="1">
+    <row r="22" s="3" customFormat="1" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -10144,7 +10868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="24" customFormat="1">
+    <row r="23" s="24" customFormat="1" spans="1:23">
       <c r="A23" s="3" t="s">
         <v>55</v>
       </c>
@@ -10173,24 +10897,24 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="1:23" s="24" customFormat="1">
+    <row r="24" s="24" customFormat="1" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" s="24" customFormat="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" s="24" customFormat="1" spans="1:5">
       <c r="A25" s="4" t="s">
         <v>46</v>
       </c>
@@ -10207,12 +10931,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="24" customFormat="1">
+    <row r="26" s="24" customFormat="1" spans="1:23">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -10236,12 +10960,12 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" spans="1:23" s="22" customFormat="1">
+    <row r="27" s="22" customFormat="1" spans="1:20">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -10262,9 +10986,9 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:23" s="24" customFormat="1">
+    <row r="28" s="24" customFormat="1" spans="1:20">
       <c r="A28" s="3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B28" s="3">
         <v>8</v>
@@ -10288,9 +11012,9 @@
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
     </row>
-    <row r="29" spans="1:23" s="24" customFormat="1">
+    <row r="29" s="24" customFormat="1" spans="1:20">
       <c r="A29" s="3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
@@ -10314,7 +11038,7 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
     </row>
-    <row r="30" spans="1:23" s="24" customFormat="1">
+    <row r="30" s="24" customFormat="1" spans="1:20">
       <c r="A30" s="3" t="s">
         <v>49</v>
       </c>
@@ -10340,7 +11064,7 @@
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
     </row>
-    <row r="31" spans="1:23" s="24" customFormat="1">
+    <row r="31" s="24" customFormat="1" spans="1:20">
       <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
@@ -10366,7 +11090,7 @@
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
     </row>
-    <row r="32" spans="1:23" s="24" customFormat="1">
+    <row r="32" s="24" customFormat="1" spans="1:20">
       <c r="A32" s="3" t="s">
         <v>51</v>
       </c>
@@ -10392,7 +11116,7 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
     </row>
-    <row r="33" spans="1:23" s="24" customFormat="1">
+    <row r="33" s="24" customFormat="1" spans="1:20">
       <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
@@ -10418,7 +11142,7 @@
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
     </row>
-    <row r="34" spans="1:23" s="3" customFormat="1">
+    <row r="34" s="3" customFormat="1" spans="1:2">
       <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
@@ -10426,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="3" customFormat="1">
+    <row r="35" s="3" customFormat="1" spans="1:2">
       <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
@@ -10434,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="24" customFormat="1">
+    <row r="36" s="24" customFormat="1" spans="1:20">
       <c r="A36" s="3" t="s">
         <v>55</v>
       </c>
@@ -10460,15 +11184,15 @@
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
     </row>
-    <row r="37" spans="1:23" s="24" customFormat="1">
+    <row r="37" s="24" customFormat="1" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" s="24" customFormat="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" s="24" customFormat="1" spans="1:2">
       <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
@@ -10476,12 +11200,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="24" customFormat="1">
+    <row r="39" s="24" customFormat="1" spans="1:20">
       <c r="A39" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -10502,12 +11226,12 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
     </row>
-    <row r="40" spans="1:23" s="22" customFormat="1">
+    <row r="40" s="22" customFormat="1" spans="1:23">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -10531,9 +11255,9 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" s="24" customFormat="1">
+    <row r="41" s="24" customFormat="1" spans="1:23">
       <c r="A41" s="3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B41" s="3">
         <v>128</v>
@@ -10560,9 +11284,9 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
     </row>
-    <row r="42" spans="1:23" s="24" customFormat="1">
+    <row r="42" s="24" customFormat="1" spans="1:23">
       <c r="A42" s="3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B42" s="3">
         <v>4</v>
@@ -10589,7 +11313,7 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
     </row>
-    <row r="43" spans="1:23" s="24" customFormat="1">
+    <row r="43" s="24" customFormat="1" spans="1:23">
       <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
@@ -10618,7 +11342,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
     </row>
-    <row r="44" spans="1:23" s="24" customFormat="1">
+    <row r="44" s="24" customFormat="1" spans="1:23">
       <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
@@ -10647,7 +11371,7 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
     </row>
-    <row r="45" spans="1:23" s="24" customFormat="1">
+    <row r="45" s="24" customFormat="1" spans="1:23">
       <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
@@ -10676,7 +11400,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
     </row>
-    <row r="46" spans="1:23" s="24" customFormat="1">
+    <row r="46" s="24" customFormat="1" spans="1:23">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
@@ -10705,7 +11429,7 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
     </row>
-    <row r="47" spans="1:23" s="3" customFormat="1">
+    <row r="47" s="3" customFormat="1" spans="1:2">
       <c r="A47" s="3" t="s">
         <v>53</v>
       </c>
@@ -10713,7 +11437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:23" s="3" customFormat="1">
+    <row r="48" s="3" customFormat="1" spans="1:2">
       <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
@@ -10721,7 +11445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23" s="24" customFormat="1">
+    <row r="49" s="24" customFormat="1" spans="1:23">
       <c r="A49" s="3" t="s">
         <v>55</v>
       </c>
@@ -10750,21 +11474,21 @@
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
     </row>
-    <row r="50" spans="1:23" s="24" customFormat="1">
+    <row r="50" s="24" customFormat="1" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" s="24" customFormat="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" s="24" customFormat="1" spans="1:4">
       <c r="A51" s="4" t="s">
         <v>48</v>
       </c>
@@ -10775,10 +11499,10 @@
         <v>47</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" s="24" customFormat="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="52" s="24" customFormat="1" spans="1:23">
       <c r="A52" s="4" t="s">
         <v>56</v>
       </c>
@@ -10809,7 +11533,6 @@
   <autoFilter ref="A1:W52">
     <extLst/>
   </autoFilter>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 E10:G10 E13:F13 A19 D26:G26 A32 C39:D39 E52 B6:B10 B19:B23 B32:B36 B46:B49 G13:G20 G52:G1048576 D21:G23 A4:B5 D8:G9 A17:B18 A43:B45 D53:F1048576 E1:G7 D14:F20 A30:B31 D40:G49 C27:D36">
       <formula1>"TRUE,FALSE"</formula1>
@@ -10822,21 +11545,22 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD22"/>
+      <selection activeCell="A21" sqref="$A21:$XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
@@ -10849,31 +11573,31 @@
     <col min="12" max="12" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1">
+    <row r="1" s="10" customFormat="1" spans="1:2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="11" customFormat="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" s="11" customFormat="1" spans="1:2">
       <c r="A2" s="14" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B2" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="11" customFormat="1">
+    <row r="3" s="11" customFormat="1" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B3" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="11" customFormat="1">
+    <row r="4" s="11" customFormat="1" spans="1:2">
       <c r="A4" s="14" t="s">
         <v>49</v>
       </c>
@@ -10881,7 +11605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="11" customFormat="1">
+    <row r="5" s="11" customFormat="1" spans="1:2">
       <c r="A5" s="14" t="s">
         <v>50</v>
       </c>
@@ -10889,7 +11613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="11" customFormat="1">
+    <row r="6" s="11" customFormat="1" spans="1:2">
       <c r="A6" s="14" t="s">
         <v>51</v>
       </c>
@@ -10897,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="11" customFormat="1">
+    <row r="7" s="11" customFormat="1" spans="1:2">
       <c r="A7" s="14" t="s">
         <v>52</v>
       </c>
@@ -10905,7 +11629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="3" customFormat="1">
+    <row r="8" s="3" customFormat="1" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -10913,7 +11637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="3" customFormat="1">
+    <row r="9" s="3" customFormat="1" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -10921,29 +11645,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="11" customFormat="1">
+    <row r="10" s="11" customFormat="1" spans="1:2">
       <c r="A10" s="14" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B10" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="11" customFormat="1">
+    <row r="11" s="11" customFormat="1" spans="1:4">
       <c r="A11" s="19" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="11" customFormat="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" s="11" customFormat="1" spans="1:4">
       <c r="A12" s="19" t="s">
         <v>46</v>
       </c>
@@ -10957,41 +11681,41 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="11" customFormat="1">
+    <row r="13" s="11" customFormat="1" spans="1:4">
       <c r="A13" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
     </row>
-    <row r="14" spans="1:4" s="10" customFormat="1">
+    <row r="14" s="10" customFormat="1" spans="1:2">
       <c r="A14" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="11" customFormat="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" s="11" customFormat="1" spans="1:2">
       <c r="A15" s="14" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B15" s="14">
         <v>512</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="11" customFormat="1">
+    <row r="16" s="11" customFormat="1" spans="1:2">
       <c r="A16" s="14" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B16" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="11" customFormat="1">
+    <row r="17" s="11" customFormat="1" spans="1:2">
       <c r="A17" s="14" t="s">
         <v>49</v>
       </c>
@@ -10999,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="11" customFormat="1">
+    <row r="18" s="11" customFormat="1" spans="1:2">
       <c r="A18" s="14" t="s">
         <v>50</v>
       </c>
@@ -11007,7 +11731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="11" customFormat="1">
+    <row r="19" s="11" customFormat="1" spans="1:2">
       <c r="A19" s="14" t="s">
         <v>51</v>
       </c>
@@ -11015,7 +11739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="11" customFormat="1">
+    <row r="20" s="11" customFormat="1" spans="1:2">
       <c r="A20" s="14" t="s">
         <v>52</v>
       </c>
@@ -11023,7 +11747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="3" customFormat="1">
+    <row r="21" s="3" customFormat="1" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
@@ -11031,7 +11755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="3" customFormat="1">
+    <row r="22" s="3" customFormat="1" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -11039,26 +11763,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="11" customFormat="1">
+    <row r="23" s="11" customFormat="1" spans="1:2">
       <c r="A23" s="14" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B23" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="11" customFormat="1">
+    <row r="24" s="11" customFormat="1" spans="1:3">
       <c r="A24" s="19" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="11" customFormat="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" s="11" customFormat="1" spans="1:3">
       <c r="A25" s="19" t="s">
         <v>46</v>
       </c>
@@ -11069,17 +11793,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="11" customFormat="1">
+    <row r="26" s="11" customFormat="1" spans="1:3">
       <c r="A26" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C26" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A19 B6:B10 B19:B22 G10:G20 E10:F13 A17:B18 D8:G9 A4:B5 E1:G7 D14:F20 D21:G1048576">
       <formula1>"TRUE,FALSE"</formula1>
@@ -11097,19 +11820,20 @@
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11128,31 +11852,31 @@
     <col min="20" max="20" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="10" customFormat="1">
+    <row r="1" s="10" customFormat="1" spans="1:2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="11" customFormat="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" s="11" customFormat="1" spans="1:2">
       <c r="A2" s="14" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B2" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1">
+    <row r="3" s="11" customFormat="1" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B3" s="14">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1">
+    <row r="4" s="11" customFormat="1" spans="1:2">
       <c r="A4" s="14" t="s">
         <v>49</v>
       </c>
@@ -11160,7 +11884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1">
+    <row r="5" s="11" customFormat="1" spans="1:2">
       <c r="A5" s="14" t="s">
         <v>50</v>
       </c>
@@ -11168,7 +11892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="11" customFormat="1">
+    <row r="6" s="11" customFormat="1" spans="1:2">
       <c r="A6" s="14" t="s">
         <v>51</v>
       </c>
@@ -11176,7 +11900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="11" customFormat="1">
+    <row r="7" s="11" customFormat="1" spans="1:2">
       <c r="A7" s="14" t="s">
         <v>52</v>
       </c>
@@ -11184,7 +11908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="3" customFormat="1">
+    <row r="8" s="3" customFormat="1" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -11192,7 +11916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="3" customFormat="1">
+    <row r="9" s="3" customFormat="1" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -11200,53 +11924,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1">
+    <row r="10" s="11" customFormat="1" ht="14.25" spans="1:2">
       <c r="A10" s="14" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B10" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="40.5">
+    <row r="11" s="11" customFormat="1" ht="30" spans="1:20">
       <c r="A11" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="N11" s="16" t="s">
         <v>16</v>
@@ -11255,22 +11979,22 @@
         <v>17</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="11" customFormat="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" s="11" customFormat="1" ht="15" spans="1:20">
       <c r="A12" s="17" t="s">
         <v>48</v>
       </c>
@@ -11332,7 +12056,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="11" customFormat="1">
+    <row r="13" s="11" customFormat="1" ht="15" spans="1:20">
       <c r="A13" s="18">
         <v>0</v>
       </c>
@@ -11394,31 +12118,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="10" customFormat="1">
+    <row r="14" s="10" customFormat="1" spans="1:2">
       <c r="A14" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="11" customFormat="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" s="11" customFormat="1" spans="1:2">
       <c r="A15" s="14" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B15" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1">
+    <row r="16" s="11" customFormat="1" spans="1:2">
       <c r="A16" s="14" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B16" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="11" customFormat="1">
+    <row r="17" s="11" customFormat="1" spans="1:2">
       <c r="A17" s="14" t="s">
         <v>49</v>
       </c>
@@ -11426,7 +12150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="11" customFormat="1">
+    <row r="18" s="11" customFormat="1" spans="1:2">
       <c r="A18" s="14" t="s">
         <v>50</v>
       </c>
@@ -11434,7 +12158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="11" customFormat="1">
+    <row r="19" s="11" customFormat="1" spans="1:2">
       <c r="A19" s="14" t="s">
         <v>51</v>
       </c>
@@ -11442,7 +12166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="11" customFormat="1">
+    <row r="20" s="11" customFormat="1" spans="1:2">
       <c r="A20" s="14" t="s">
         <v>52</v>
       </c>
@@ -11450,7 +12174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="3" customFormat="1">
+    <row r="21" s="3" customFormat="1" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
@@ -11458,7 +12182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="3" customFormat="1">
+    <row r="22" s="3" customFormat="1" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -11466,24 +12190,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="11" customFormat="1">
+    <row r="23" s="11" customFormat="1" ht="14.25" spans="1:2">
       <c r="A23" s="14" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B23" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="11" customFormat="1">
+    <row r="24" s="11" customFormat="1" ht="15" spans="1:3">
       <c r="A24" s="15" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" s="11" customFormat="1">
+    <row r="25" s="11" customFormat="1" ht="15" spans="1:2">
       <c r="A25" s="17" t="s">
         <v>48</v>
       </c>
@@ -11491,7 +12215,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="11" customFormat="1">
+    <row r="26" s="11" customFormat="1" ht="15" spans="1:3">
       <c r="A26" s="18">
         <v>0</v>
       </c>
@@ -11501,7 +12225,6 @@
       <c r="C26" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6 E10:G10 B20 B7:B10 B21:B23 G27:G1048576 A17:B19 D8:G9 E1:G7 D27:F1048576 A4:B5">
       <formula1>"TRUE,FALSE"</formula1>
@@ -11516,6 +12239,7 @@
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -506,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352">
   <si>
     <t>Id</t>
   </si>
@@ -1090,7 +1090,7 @@
     <t>HeroPos3</t>
   </si>
   <si>
-    <t>vector</t>
+    <t>vector3</t>
   </si>
   <si>
     <t>Hero1</t>
@@ -1397,9 +1397,6 @@
     <t>Postion</t>
   </si>
   <si>
-    <t>vector3</t>
-  </si>
-  <si>
     <t>TaskMonsterList</t>
   </si>
   <si>
@@ -1610,10 +1607,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1645,11 +1642,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1669,37 +1686,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1714,8 +1702,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1724,29 +1774,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1761,36 +1788,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1847,13 +1844,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1871,7 +1892,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1883,7 +1916,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1895,7 +1982,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1907,127 +2018,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2181,17 +2178,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2213,18 +2204,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2246,11 +2245,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2259,148 +2256,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2978,7 +2975,7 @@
   <sheetPr/>
   <dimension ref="A1:AS10"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
+    <sheetView topLeftCell="AM1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="H1" sqref="H$1:H$1048576"/>
@@ -4417,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:2">
@@ -4494,19 +4491,19 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:5">
       <c r="A11" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:5">
@@ -4520,7 +4517,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>290</v>
+        <v>194</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>47</v>
@@ -4540,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:2">
@@ -4617,19 +4614,19 @@
     </row>
     <row r="24" s="3" customFormat="1" spans="1:5">
       <c r="A24" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" spans="1:5">
@@ -4643,7 +4640,7 @@
         <v>47</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>290</v>
+        <v>194</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>47</v>
@@ -4700,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -4919,37 +4916,37 @@
         <v>3</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>336</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>30</v>
       </c>
       <c r="L11" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="N11" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="O11" s="8" t="s">
         <v>339</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:15">
@@ -5004,7 +5001,7 @@
         <v>56</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -5025,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -5241,7 +5238,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -5285,7 +5282,7 @@
         <v>56</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -5306,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -5562,7 +5559,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="7"/>
@@ -5583,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -5888,10 +5885,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" t="s">
         <v>345</v>
-      </c>
-      <c r="C1" t="s">
-        <v>346</v>
       </c>
       <c r="D1" t="s">
         <v>56</v>
@@ -5899,16 +5896,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>348</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -5942,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6019,10 +6016,10 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7126,7 +7123,7 @@
   <dimension ref="A1:AT10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AR5" sqref="AR5"/>
+      <selection activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8553,7 +8550,7 @@
   <sheetPr/>
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
@@ -11499,7 +11496,7 @@
         <v>47</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>290</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" s="24" customFormat="1" spans="1:23">
@@ -11578,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" spans="1:2">
@@ -11647,7 +11644,7 @@
     </row>
     <row r="10" s="11" customFormat="1" spans="1:2">
       <c r="A10" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B10" s="14">
         <v>0</v>
@@ -11655,16 +11652,16 @@
     </row>
     <row r="11" s="11" customFormat="1" spans="1:4">
       <c r="A11" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="C11" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="D11" s="19" t="s">
         <v>295</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:4">
@@ -11686,7 +11683,7 @@
         <v>56</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -11696,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" spans="1:2">
@@ -11765,7 +11762,7 @@
     </row>
     <row r="23" s="11" customFormat="1" spans="1:2">
       <c r="A23" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B23" s="14">
         <v>0</v>
@@ -11773,13 +11770,13 @@
     </row>
     <row r="24" s="11" customFormat="1" spans="1:3">
       <c r="A24" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B24" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>299</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="25" s="11" customFormat="1" spans="1:3">
@@ -11798,7 +11795,7 @@
         <v>56</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C26" s="19"/>
     </row>
@@ -11857,7 +11854,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" spans="1:2">
@@ -11926,7 +11923,7 @@
     </row>
     <row r="10" s="11" customFormat="1" ht="14.25" spans="1:2">
       <c r="A10" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B10" s="14">
         <v>0</v>
@@ -11937,40 +11934,40 @@
         <v>168</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="I11" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="J11" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="K11" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="L11" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="M11" s="16" t="s">
         <v>313</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>314</v>
       </c>
       <c r="N11" s="16" t="s">
         <v>16</v>
@@ -11979,19 +11976,19 @@
         <v>17</v>
       </c>
       <c r="P11" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q11" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="Q11" s="16" t="s">
+      <c r="R11" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="R11" s="16" t="s">
+      <c r="S11" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="S11" s="16" t="s">
+      <c r="T11" s="16" t="s">
         <v>318</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" ht="15" spans="1:20">
@@ -12123,7 +12120,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" spans="1:2">
@@ -12192,7 +12189,7 @@
     </row>
     <row r="23" s="11" customFormat="1" ht="14.25" spans="1:2">
       <c r="A23" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B23" s="14">
         <v>0</v>
@@ -12200,10 +12197,10 @@
     </row>
     <row r="24" s="11" customFormat="1" ht="15" spans="1:3">
       <c r="A24" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>321</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>322</v>
       </c>
       <c r="C24" s="3"/>
     </row>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -1608,8 +1608,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1643,9 +1643,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1657,24 +1657,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1694,6 +1679,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1704,14 +1697,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1734,29 +1720,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1765,7 +1728,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1780,6 +1743,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1788,6 +1773,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1844,19 +1844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1868,13 +1856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1886,25 +1868,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1916,19 +1892,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1940,79 +1934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2025,6 +1953,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2154,17 +2154,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2187,6 +2187,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2198,32 +2213,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2251,153 +2240,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7123,7 +7123,7 @@
   <dimension ref="A1:AT10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AS13" sqref="AS13"/>
+      <selection activeCell="AQ6" sqref="AQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7864,19 +7864,19 @@
         <v>1</v>
       </c>
       <c r="E6" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="40">
         <v>1</v>
@@ -7911,41 +7911,41 @@
       <c r="T6" s="40">
         <v>1</v>
       </c>
-      <c r="U6" s="44">
-        <v>1</v>
+      <c r="U6" s="45">
+        <v>0</v>
       </c>
       <c r="V6" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="45">
-        <v>1</v>
-      </c>
-      <c r="X6" s="44">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X6" s="45">
+        <v>0</v>
       </c>
       <c r="Y6" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="45">
         <v>1</v>
       </c>
-      <c r="AF6" s="44">
-        <v>1</v>
+      <c r="AF6" s="45">
+        <v>0</v>
       </c>
       <c r="AG6" s="44">
         <v>1</v>
@@ -7954,31 +7954,31 @@
         <v>1</v>
       </c>
       <c r="AI6" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="45">
         <v>1</v>
@@ -8534,7 +8534,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:C5 AF5:AH5 J5:AE9 D7:I9 AI5:AQ9 AR5:AT9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:C5 J5:AE5 AF5:AH5 AI5:AQ5 J6:T6 AE6 D7:I9 AR5:AT9 J7:AE9 AI7:AQ9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="17100" windowHeight="9915" activeTab="2"/>
+    <workbookView windowWidth="21495" windowHeight="10335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -1015,10 +1015,7 @@
     <t>WarID</t>
   </si>
   <si>
-    <t>ViewOpponent</t>
-  </si>
-  <si>
-    <t>FightingOpponent</t>
+    <t>OpponentFighting</t>
   </si>
   <si>
     <t>WarEventTime</t>
@@ -1036,6 +1033,9 @@
     <t>FightHeroLevel</t>
   </si>
   <si>
+    <t>OpponentID</t>
+  </si>
+  <si>
     <t>OpponentLevel</t>
   </si>
   <si>
@@ -1102,10 +1102,10 @@
     <t>Hero3</t>
   </si>
   <si>
+    <t>pvp_oppnent</t>
+  </si>
+  <si>
     <t>when searching</t>
-  </si>
-  <si>
-    <t>pvp_oppnent</t>
   </si>
   <si>
     <t>Guild_Name</t>
@@ -1643,7 +1643,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1673,9 +1695,47 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1697,23 +1757,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1728,44 +1772,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1781,13 +1788,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1844,7 +1844,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1856,43 +1892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1904,43 +1904,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1958,7 +1952,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1970,19 +2000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1994,31 +2012,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2178,15 +2178,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2197,6 +2188,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2213,21 +2228,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2256,148 +2256,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7122,8 +7122,8 @@
   <sheetPr/>
   <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AQ6" sqref="AQ6"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7132,7 +7132,9 @@
     <col min="2" max="4" width="18.375" customWidth="1"/>
     <col min="5" max="7" width="16" customWidth="1"/>
     <col min="8" max="9" width="21.625" customWidth="1"/>
-    <col min="10" max="32" width="17.375" customWidth="1"/>
+    <col min="10" max="21" width="17.375" customWidth="1"/>
+    <col min="22" max="22" width="25.125" customWidth="1"/>
+    <col min="23" max="32" width="17.375" customWidth="1"/>
     <col min="33" max="34" width="18.375" customWidth="1"/>
     <col min="35" max="37" width="17.375" customWidth="1"/>
     <col min="38" max="38" width="15.625" customWidth="1"/>
@@ -7217,7 +7219,7 @@
       <c r="V1" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="W1" s="37" t="s">
         <v>170</v>
       </c>
       <c r="X1" s="37" t="s">
@@ -7229,7 +7231,7 @@
       <c r="Z1" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="AA1" s="37" t="s">
+      <c r="AA1" s="33" t="s">
         <v>174</v>
       </c>
       <c r="AB1" s="33" t="s">
@@ -7358,22 +7360,22 @@
         <v>48</v>
       </c>
       <c r="W2" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="44" t="s">
         <v>48</v>
-      </c>
-      <c r="X2" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z2" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB2" s="44" t="s">
-        <v>47</v>
       </c>
       <c r="AC2" s="44" t="s">
         <v>47</v>
@@ -7497,10 +7499,10 @@
       <c r="V3" s="44">
         <v>0</v>
       </c>
-      <c r="W3" s="44">
-        <v>0</v>
-      </c>
-      <c r="X3" s="45">
+      <c r="W3" s="45">
+        <v>0</v>
+      </c>
+      <c r="X3" s="44">
         <v>0</v>
       </c>
       <c r="Y3" s="44">
@@ -7942,16 +7944,16 @@
         <v>0</v>
       </c>
       <c r="AE6" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="45">
         <v>0</v>
       </c>
-      <c r="AG6" s="44">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="44">
-        <v>1</v>
+      <c r="AG6" s="45">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="45">
+        <v>0</v>
       </c>
       <c r="AI6" s="45">
         <v>0</v>
@@ -8466,10 +8468,10 @@
         <v>198</v>
       </c>
       <c r="W10" s="46" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="X10" s="46" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="Y10" s="46" t="s">
         <v>195</v>
@@ -8477,11 +8479,11 @@
       <c r="Z10" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="AA10" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB10" s="47" t="s">
-        <v>175</v>
+      <c r="AA10" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB10" s="46" t="s">
+        <v>199</v>
       </c>
       <c r="AC10" s="47"/>
       <c r="AD10" s="47"/>
@@ -8534,7 +8536,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:C5 J5:AE5 AF5:AH5 AI5:AQ5 J6:T6 AE6 D7:I9 AR5:AT9 J7:AE9 AI7:AQ9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:C5 J5:U5 V5:AA5 AB5 AC5:AE5 AF5:AH5 AI5:AQ5 J6:T6 AE6 AG6 AH6 AB7:AB9 D7:I9 V7:AA9 AR5:AT9 AI7:AQ9 AC7:AE9 J7:U9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -1607,10 +1607,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1656,16 +1656,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1695,14 +1687,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1733,7 +1734,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1755,9 +1756,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1772,14 +1772,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1787,7 +1787,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1844,7 +1844,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1856,13 +1958,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1874,55 +1976,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1940,31 +1994,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1976,55 +2024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2178,6 +2178,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2202,17 +2213,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2232,22 +2237,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2256,37 +2256,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2295,10 +2295,10 @@
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2310,94 +2310,94 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7122,8 +7122,8 @@
   <sheetPr/>
   <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="39">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="39">
         <v>0</v>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10335" activeTab="2"/>
+    <workbookView windowWidth="21495" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -277,6 +277,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="N11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>星级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>星级</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D24" authorId="0">
       <text>
         <r>
@@ -506,7 +530,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347">
   <si>
     <t>Id</t>
   </si>
@@ -610,7 +634,7 @@
     <t>TeamID</t>
   </si>
   <si>
-    <t>HomeSceneID</t>
+    <t>HomeCellID</t>
   </si>
   <si>
     <t>Head</t>
@@ -958,9 +982,6 @@
     <t>Cup</t>
   </si>
   <si>
-    <t>PVPType</t>
-  </si>
-  <si>
     <t>FightingStar</t>
   </si>
   <si>
@@ -1072,27 +1093,6 @@
     <t>OpponentHeroStar3</t>
   </si>
   <si>
-    <t>FightHeroHP1</t>
-  </si>
-  <si>
-    <t>FightHeroHP2</t>
-  </si>
-  <si>
-    <t>FightHeroHP3</t>
-  </si>
-  <si>
-    <t>HeroPos1</t>
-  </si>
-  <si>
-    <t>HeroPos2</t>
-  </si>
-  <si>
-    <t>HeroPos3</t>
-  </si>
-  <si>
-    <t>vector3</t>
-  </si>
-  <si>
     <t>Hero1</t>
   </si>
   <si>
@@ -1100,6 +1100,9 @@
   </si>
   <si>
     <t>Hero3</t>
+  </si>
+  <si>
+    <t>主要是给离线玩家看</t>
   </si>
   <si>
     <t>pvp_oppnent</t>
@@ -1286,6 +1289,9 @@
     <t>Star</t>
   </si>
   <si>
+    <t>ReliveTime</t>
+  </si>
+  <si>
     <t>Ice_Talent</t>
   </si>
   <si>
@@ -1395,6 +1401,9 @@
   </si>
   <si>
     <t>Postion</t>
+  </si>
+  <si>
+    <t>vector3</t>
   </si>
   <si>
     <t>TaskMonsterList</t>
@@ -1607,9 +1616,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -1656,8 +1665,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1687,14 +1697,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1703,7 +1705,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1717,24 +1719,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1757,37 +1780,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1844,25 +1853,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1874,13 +1883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1892,13 +1895,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1916,13 +1925,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1934,43 +1973,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1988,43 +2033,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2154,17 +2163,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2173,17 +2178,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2204,11 +2198,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2216,8 +2216,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2238,16 +2238,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2256,7 +2265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2274,22 +2283,22 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2298,106 +2307,106 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2975,10 +2984,10 @@
   <sheetPr/>
   <dimension ref="A1:AS10"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H$1:H$1048576"/>
+      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3242,7 +3251,7 @@
         <v>48</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ2" s="3" t="s">
         <v>46</v>
@@ -3727,13 +3736,13 @@
         <v>1</v>
       </c>
       <c r="N6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="3">
         <v>1</v>
@@ -4414,12 +4423,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B2" s="3">
         <v>128</v>
@@ -4427,7 +4436,7 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -4483,7 +4492,7 @@
     </row>
     <row r="10" s="3" customFormat="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -4491,19 +4500,19 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:5">
@@ -4517,7 +4526,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>47</v>
@@ -4537,12 +4546,12 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B15" s="3">
         <v>128</v>
@@ -4550,7 +4559,7 @@
     </row>
     <row r="16" s="3" customFormat="1" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B16" s="3">
         <v>5</v>
@@ -4614,19 +4623,19 @@
     </row>
     <row r="24" s="3" customFormat="1" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" spans="1:5">
@@ -4640,7 +4649,7 @@
         <v>47</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>47</v>
@@ -4697,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -4715,7 +4724,7 @@
     </row>
     <row r="2" ht="15" spans="1:15">
       <c r="A2" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B2" s="7">
         <v>50</v>
@@ -4736,7 +4745,7 @@
     </row>
     <row r="3" ht="15" spans="1:15">
       <c r="A3" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B3" s="7">
         <v>15</v>
@@ -4904,7 +4913,7 @@
     </row>
     <row r="11" ht="15" spans="1:15">
       <c r="A11" s="8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>1</v>
@@ -4916,37 +4925,37 @@
         <v>3</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>330</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>335</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>30</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:15">
@@ -5001,7 +5010,7 @@
         <v>56</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -5022,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -5040,7 +5049,7 @@
     </row>
     <row r="15" ht="15" spans="1:15">
       <c r="A15" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B15" s="7">
         <v>50</v>
@@ -5061,7 +5070,7 @@
     </row>
     <row r="16" ht="15" spans="1:15">
       <c r="A16" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B16" s="7">
         <v>4</v>
@@ -5229,7 +5238,7 @@
     </row>
     <row r="24" ht="15" spans="1:15">
       <c r="A24" s="8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>1</v>
@@ -5238,7 +5247,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -5282,7 +5291,7 @@
         <v>56</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -5303,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -5321,7 +5330,7 @@
     </row>
     <row r="28" ht="15" spans="1:15">
       <c r="A28" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B28" s="7">
         <v>50</v>
@@ -5342,7 +5351,7 @@
     </row>
     <row r="29" ht="15" spans="1:15">
       <c r="A29" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B29" s="7">
         <v>3</v>
@@ -5510,7 +5519,7 @@
     </row>
     <row r="37" ht="15" spans="1:15">
       <c r="A37" s="8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>1</v>
@@ -5559,7 +5568,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="7"/>
@@ -5580,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -5598,7 +5607,7 @@
     </row>
     <row r="41" ht="15" spans="1:15">
       <c r="A41" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B41" s="7">
         <v>50</v>
@@ -5619,7 +5628,7 @@
     </row>
     <row r="42" ht="15" spans="1:15">
       <c r="A42" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B42" s="7">
         <v>2</v>
@@ -5787,7 +5796,7 @@
     </row>
     <row r="50" ht="15" spans="1:15">
       <c r="A50" s="8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>6</v>
@@ -5885,10 +5894,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D1" t="s">
         <v>56</v>
@@ -5896,16 +5905,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -5939,12 +5948,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B2" s="3">
         <v>8</v>
@@ -5952,7 +5961,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -6016,10 +6025,10 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6061,7 +6070,7 @@
   <sheetPr/>
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -7120,46 +7129,46 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT10"/>
+  <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="21.625" customWidth="1"/>
-    <col min="10" max="21" width="17.375" customWidth="1"/>
-    <col min="22" max="22" width="25.125" customWidth="1"/>
-    <col min="23" max="32" width="17.375" customWidth="1"/>
-    <col min="33" max="34" width="18.375" customWidth="1"/>
-    <col min="35" max="37" width="17.375" customWidth="1"/>
-    <col min="38" max="38" width="15.625" customWidth="1"/>
-    <col min="39" max="39" width="19.625" customWidth="1"/>
-    <col min="40" max="46" width="16" customWidth="1"/>
-    <col min="47" max="48" width="18.375" customWidth="1"/>
-    <col min="49" max="49" width="26.375" customWidth="1"/>
-    <col min="50" max="50" width="26.625" customWidth="1"/>
-    <col min="51" max="51" width="23.375" customWidth="1"/>
-    <col min="52" max="52" width="26.375" customWidth="1"/>
-    <col min="53" max="53" width="26.625" customWidth="1"/>
-    <col min="54" max="54" width="17.375" customWidth="1"/>
-    <col min="55" max="55" width="26.375" customWidth="1"/>
-    <col min="56" max="56" width="26.625" customWidth="1"/>
-    <col min="57" max="57" width="17.375" customWidth="1"/>
+    <col min="2" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="6" width="16" customWidth="1"/>
+    <col min="7" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="20" width="17.375" customWidth="1"/>
+    <col min="21" max="21" width="25.125" customWidth="1"/>
+    <col min="22" max="31" width="17.375" customWidth="1"/>
+    <col min="32" max="33" width="18.375" customWidth="1"/>
+    <col min="34" max="36" width="17.375" customWidth="1"/>
+    <col min="37" max="37" width="15.625" customWidth="1"/>
+    <col min="38" max="38" width="19.625" customWidth="1"/>
+    <col min="39" max="39" width="16" customWidth="1"/>
+    <col min="40" max="41" width="18.375" customWidth="1"/>
+    <col min="42" max="42" width="26.375" customWidth="1"/>
+    <col min="43" max="43" width="26.625" customWidth="1"/>
+    <col min="44" max="44" width="23.375" customWidth="1"/>
+    <col min="45" max="45" width="26.375" customWidth="1"/>
+    <col min="46" max="46" width="26.625" customWidth="1"/>
+    <col min="47" max="47" width="17.375" customWidth="1"/>
+    <col min="48" max="48" width="26.375" customWidth="1"/>
+    <col min="49" max="49" width="26.625" customWidth="1"/>
+    <col min="50" max="50" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="33" customFormat="1" spans="1:46">
+    <row r="1" s="33" customFormat="1" spans="1:39">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="33" t="s">
         <v>150</v>
       </c>
       <c r="D1" s="33" t="s">
@@ -7177,7 +7186,7 @@
       <c r="H1" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="37" t="s">
         <v>156</v>
       </c>
       <c r="J1" s="37" t="s">
@@ -7213,10 +7222,10 @@
       <c r="T1" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="37" t="s">
         <v>169</v>
       </c>
       <c r="W1" s="37" t="s">
@@ -7228,7 +7237,7 @@
       <c r="Y1" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="33" t="s">
         <v>173</v>
       </c>
       <c r="AA1" s="33" t="s">
@@ -7243,7 +7252,7 @@
       <c r="AD1" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AE1" s="37" t="s">
         <v>178</v>
       </c>
       <c r="AF1" s="37" t="s">
@@ -7270,29 +7279,8 @@
       <c r="AM1" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="AN1" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="AO1" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="AP1" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ1" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="AR1" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="AS1" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="AT1" s="37" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" s="34" customFormat="1" spans="1:46">
+    </row>
+    <row r="2" s="34" customFormat="1" spans="1:39">
       <c r="A2" s="38" t="s">
         <v>45</v>
       </c>
@@ -7318,7 +7306,7 @@
         <v>47</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" s="39" t="s">
         <v>48</v>
@@ -7330,7 +7318,7 @@
         <v>48</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N2" s="39" t="s">
         <v>46</v>
@@ -7342,7 +7330,7 @@
         <v>46</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R2" s="39" t="s">
         <v>47</v>
@@ -7350,32 +7338,32 @@
       <c r="S2" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="39" t="s">
-        <v>47</v>
+      <c r="T2" s="44" t="s">
+        <v>48</v>
       </c>
       <c r="U2" s="44" t="s">
         <v>48</v>
       </c>
       <c r="V2" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z2" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" s="44" t="s">
-        <v>47</v>
-      </c>
       <c r="AB2" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC2" s="44" t="s">
         <v>47</v>
@@ -7387,7 +7375,7 @@
         <v>47</v>
       </c>
       <c r="AF2" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG2" s="44" t="s">
         <v>46</v>
@@ -7402,7 +7390,7 @@
         <v>46</v>
       </c>
       <c r="AK2" s="44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL2" s="44" t="s">
         <v>47</v>
@@ -7410,40 +7398,19 @@
       <c r="AM2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO2" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP2" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ2" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR2" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS2" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="AT2" s="44" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" s="34" customFormat="1" spans="1:46">
+    </row>
+    <row r="3" s="34" customFormat="1" spans="1:39">
       <c r="A3" s="38" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="40">
         <v>0</v>
       </c>
-      <c r="C3" s="40">
-        <v>0</v>
+      <c r="C3" s="39">
+        <v>1</v>
       </c>
       <c r="D3" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="39">
         <v>0</v>
@@ -7458,10 +7425,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="39">
         <v>0</v>
@@ -7470,10 +7437,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="39">
         <v>0</v>
@@ -7490,16 +7457,16 @@
       <c r="S3" s="39">
         <v>0</v>
       </c>
-      <c r="T3" s="39">
-        <v>0</v>
-      </c>
-      <c r="U3" s="45">
-        <v>0</v>
-      </c>
-      <c r="V3" s="44">
-        <v>0</v>
-      </c>
-      <c r="W3" s="45">
+      <c r="T3" s="45">
+        <v>0</v>
+      </c>
+      <c r="U3" s="44">
+        <v>0</v>
+      </c>
+      <c r="V3" s="45">
+        <v>0</v>
+      </c>
+      <c r="W3" s="44">
         <v>0</v>
       </c>
       <c r="X3" s="44">
@@ -7523,7 +7490,7 @@
       <c r="AD3" s="44">
         <v>0</v>
       </c>
-      <c r="AE3" s="44">
+      <c r="AE3" s="45">
         <v>0</v>
       </c>
       <c r="AF3" s="45">
@@ -7532,7 +7499,7 @@
       <c r="AG3" s="45">
         <v>0</v>
       </c>
-      <c r="AH3" s="45">
+      <c r="AH3" s="44">
         <v>0</v>
       </c>
       <c r="AI3" s="44">
@@ -7550,29 +7517,8 @@
       <c r="AM3" s="44">
         <v>0</v>
       </c>
-      <c r="AN3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="34" customFormat="1" spans="1:46">
+    </row>
+    <row r="4" s="34" customFormat="1" spans="1:39">
       <c r="A4" s="38" t="s">
         <v>50</v>
       </c>
@@ -7630,7 +7576,7 @@
       <c r="S4" s="39">
         <v>1</v>
       </c>
-      <c r="T4" s="39">
+      <c r="T4" s="44">
         <v>1</v>
       </c>
       <c r="U4" s="44">
@@ -7690,36 +7636,15 @@
       <c r="AM4" s="44">
         <v>1</v>
       </c>
-      <c r="AN4" s="44">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="44">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="44">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="44">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="44">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="44">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" s="34" customFormat="1" spans="1:46">
+    </row>
+    <row r="5" s="34" customFormat="1" spans="1:39">
       <c r="A5" s="38" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="40">
         <v>0</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="39">
         <v>0</v>
       </c>
       <c r="D5" s="39">
@@ -7737,7 +7662,7 @@
       <c r="H5" s="39">
         <v>0</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="40">
         <v>0</v>
       </c>
       <c r="J5" s="40">
@@ -7770,7 +7695,7 @@
       <c r="S5" s="40">
         <v>0</v>
       </c>
-      <c r="T5" s="40">
+      <c r="T5" s="45">
         <v>0</v>
       </c>
       <c r="U5" s="45">
@@ -7830,29 +7755,8 @@
       <c r="AM5" s="45">
         <v>0</v>
       </c>
-      <c r="AN5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="34" customFormat="1" spans="1:46">
+    </row>
+    <row r="6" s="34" customFormat="1" spans="1:39">
       <c r="A6" s="38" t="s">
         <v>52</v>
       </c>
@@ -7860,10 +7764,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="39">
         <v>0</v>
@@ -7877,8 +7781,8 @@
       <c r="H6" s="39">
         <v>0</v>
       </c>
-      <c r="I6" s="39">
-        <v>0</v>
+      <c r="I6" s="40">
+        <v>1</v>
       </c>
       <c r="J6" s="40">
         <v>1</v>
@@ -7910,8 +7814,8 @@
       <c r="S6" s="40">
         <v>1</v>
       </c>
-      <c r="T6" s="40">
-        <v>1</v>
+      <c r="T6" s="45">
+        <v>0</v>
       </c>
       <c r="U6" s="45">
         <v>0</v>
@@ -7970,29 +7874,8 @@
       <c r="AM6" s="45">
         <v>0</v>
       </c>
-      <c r="AN6" s="45">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="45">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="45">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="45">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="45">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="45">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="27" customFormat="1" spans="1:46">
+    </row>
+    <row r="7" s="27" customFormat="1" spans="1:39">
       <c r="A7" s="31" t="s">
         <v>53</v>
       </c>
@@ -8050,7 +7933,7 @@
       <c r="S7" s="40">
         <v>0</v>
       </c>
-      <c r="T7" s="40">
+      <c r="T7" s="45">
         <v>0</v>
       </c>
       <c r="U7" s="45">
@@ -8110,29 +7993,8 @@
       <c r="AM7" s="45">
         <v>0</v>
       </c>
-      <c r="AN7" s="45">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="45">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="45">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="45">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="45">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="45">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="27" customFormat="1" spans="1:46">
+    </row>
+    <row r="8" s="27" customFormat="1" spans="1:39">
       <c r="A8" s="31" t="s">
         <v>54</v>
       </c>
@@ -8190,7 +8052,7 @@
       <c r="S8" s="40">
         <v>0</v>
       </c>
-      <c r="T8" s="40">
+      <c r="T8" s="45">
         <v>0</v>
       </c>
       <c r="U8" s="45">
@@ -8250,29 +8112,8 @@
       <c r="AM8" s="45">
         <v>0</v>
       </c>
-      <c r="AN8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="27" customFormat="1" spans="1:46">
+    </row>
+    <row r="9" s="27" customFormat="1" spans="1:39">
       <c r="A9" s="31" t="s">
         <v>55</v>
       </c>
@@ -8330,7 +8171,7 @@
       <c r="S9" s="40">
         <v>0</v>
       </c>
-      <c r="T9" s="40">
+      <c r="T9" s="45">
         <v>0</v>
       </c>
       <c r="U9" s="45">
@@ -8390,104 +8231,83 @@
       <c r="AM9" s="45">
         <v>0</v>
       </c>
-      <c r="AN9" s="45">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="45">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="45">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="45">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="45">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="45">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" s="35" customFormat="1" ht="14.25" spans="1:46">
+    </row>
+    <row r="10" s="35" customFormat="1" ht="27.75" spans="1:39">
       <c r="A10" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>149</v>
-      </c>
+      <c r="C10" s="43"/>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="I10" s="42" t="s">
+        <v>156</v>
+      </c>
       <c r="J10" s="42" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="K10" s="42" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="L10" s="42" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N10" s="42" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="O10" s="42" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="P10" s="42" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="42" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="R10" s="42" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="S10" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="T10" s="42" t="s">
-        <v>197</v>
+        <v>190</v>
+      </c>
+      <c r="T10" s="46" t="s">
+        <v>149</v>
       </c>
       <c r="U10" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="V10" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="V10" s="46" t="s">
-        <v>198</v>
-      </c>
       <c r="W10" s="46" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="X10" s="46" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="Y10" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z10" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA10" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB10" s="46" t="s">
-        <v>199</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="Z10" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA10" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB10" s="47"/>
       <c r="AC10" s="47"/>
       <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
+      <c r="AE10" s="46" t="s">
+        <v>149</v>
+      </c>
       <c r="AF10" s="46" t="s">
         <v>149</v>
       </c>
@@ -8495,48 +8315,27 @@
         <v>149</v>
       </c>
       <c r="AH10" s="46" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="AI10" s="46" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AJ10" s="46" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AK10" s="46" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="AL10" s="46" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AM10" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN10" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="AO10" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="AP10" s="46" t="s">
         <v>189</v>
-      </c>
-      <c r="AQ10" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="AR10" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="AS10" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT10" s="46" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:C5 J5:U5 V5:AA5 AB5 AC5:AE5 AF5:AH5 AI5:AQ5 J6:T6 AE6 AG6 AH6 AB7:AB9 D7:I9 V7:AA9 AR5:AT9 AI7:AQ9 AC7:AE9 J7:U9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 I5:T5 U5:Z5 AA5 AB5:AD5 AE5:AG5 AH5:AM5 I6:S6 AD6 AF6 AG6 AA7:AA9 AH7:AM9 C7:H9 U7:Z9 AB7:AD9 I7:T9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
@@ -8584,67 +8383,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="R1" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="S1" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="T1" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="U1" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="V1" s="26" t="s">
         <v>213</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="U1" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" ht="15" spans="1:22">
@@ -9196,67 +8995,67 @@
         <v>56</v>
       </c>
       <c r="B10" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="I10" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="J10" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="K10" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="L10" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="M10" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="N10" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="O10" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="P10" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="Q10" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="R10" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="S10" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="T10" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="N10" s="28" t="s">
+      <c r="U10" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="O10" s="28" t="s">
+      <c r="V10" s="28" t="s">
         <v>234</v>
-      </c>
-      <c r="P10" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q10" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="R10" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="S10" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="T10" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="U10" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="V10" s="28" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -9317,12 +9116,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B2" s="3">
         <v>15</v>
@@ -9330,7 +9129,7 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B3" s="3">
         <v>31</v>
@@ -9386,7 +9185,7 @@
     </row>
     <row r="10" s="3" customFormat="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -9587,7 +9386,7 @@
         <v>56</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -9653,7 +9452,7 @@
   <dimension ref="A1:AE26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9663,7 +9462,8 @@
     <col min="3" max="3" width="10.375" style="9" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="9" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="9" customWidth="1"/>
-    <col min="6" max="7" width="9" style="9"/>
+    <col min="6" max="6" width="9" style="9"/>
+    <col min="7" max="7" width="12.875" style="9" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="9" customWidth="1"/>
     <col min="9" max="9" width="15.375" style="9" customWidth="1"/>
     <col min="10" max="10" width="14.125" style="9" customWidth="1"/>
@@ -9671,7 +9471,7 @@
     <col min="12" max="12" width="14.125" style="9" customWidth="1"/>
     <col min="13" max="13" width="12.875" style="9" customWidth="1"/>
     <col min="14" max="14" width="9.375" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="12.875" style="9" customWidth="1"/>
     <col min="16" max="16" width="9.375" style="9" customWidth="1"/>
     <col min="17" max="19" width="9" style="9"/>
     <col min="20" max="20" width="10.375" style="9" customWidth="1"/>
@@ -9692,12 +9492,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B2" s="3">
         <v>64</v>
@@ -9705,10 +9505,10 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B3" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:2">
@@ -9767,48 +9567,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:13">
+    <row r="11" s="3" customFormat="1" spans="1:15">
       <c r="A11" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:13">
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:15">
       <c r="A12" s="25" t="s">
         <v>48</v>
       </c>
@@ -9848,6 +9652,10 @@
       <c r="M12" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="N12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="4"/>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:22">
       <c r="A13" s="4" t="s">
@@ -9880,12 +9688,12 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B15" s="3">
         <v>15</v>
@@ -9893,7 +9701,7 @@
     </row>
     <row r="16" s="3" customFormat="1" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B16" s="3">
         <v>31</v>
@@ -10150,7 +9958,7 @@
         <v>56</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -10187,7 +9995,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A19 C26 B6:B10 B19:B23 D8:G9 D26:G1048576 A4:B5 A17:B18 C14:G20 D21:G22">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N11:X11 A25:C25 P25 V25 W25 I8:AK9 I21:AK22 D24:O25 Q24:U25 X24:AE25">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P11:X11 A25:C25 P25 V25 W25 I8:AK9 I21:AK22 D24:O25 Q24:U25 X24:AE25">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C9 C21:C22 A15:B16 B27:C1048576 A2:B3">
@@ -10234,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -10260,7 +10068,7 @@
     </row>
     <row r="2" s="23" customFormat="1" spans="1:23">
       <c r="A2" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B2" s="3">
         <v>256</v>
@@ -10289,7 +10097,7 @@
     </row>
     <row r="3" s="23" customFormat="1" spans="1:23">
       <c r="A3" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B3" s="3">
         <v>23</v>
@@ -10479,73 +10287,73 @@
     </row>
     <row r="11" s="23" customFormat="1" spans="1:23">
       <c r="A11" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="S11" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="T11" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="U11" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="12" s="23" customFormat="1" spans="1:23">
@@ -10624,7 +10432,7 @@
         <v>56</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -10653,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -10679,7 +10487,7 @@
     </row>
     <row r="15" s="24" customFormat="1" spans="1:23">
       <c r="A15" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B15" s="3">
         <v>128</v>
@@ -10708,7 +10516,7 @@
     </row>
     <row r="16" s="24" customFormat="1" spans="1:23">
       <c r="A16" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B16" s="3">
         <v>5</v>
@@ -10898,19 +10706,19 @@
     </row>
     <row r="24" s="24" customFormat="1" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" s="24" customFormat="1" spans="1:5">
@@ -10935,7 +10743,7 @@
         <v>56</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -10964,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -10987,7 +10795,7 @@
     </row>
     <row r="28" s="24" customFormat="1" spans="1:20">
       <c r="A28" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B28" s="3">
         <v>8</v>
@@ -11013,7 +10821,7 @@
     </row>
     <row r="29" s="24" customFormat="1" spans="1:20">
       <c r="A29" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
@@ -11185,10 +10993,10 @@
     </row>
     <row r="37" s="24" customFormat="1" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" s="24" customFormat="1" spans="1:2">
@@ -11204,7 +11012,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -11230,7 +11038,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -11256,7 +11064,7 @@
     </row>
     <row r="41" s="24" customFormat="1" spans="1:23">
       <c r="A41" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B41" s="3">
         <v>128</v>
@@ -11285,7 +11093,7 @@
     </row>
     <row r="42" s="24" customFormat="1" spans="1:23">
       <c r="A42" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B42" s="3">
         <v>4</v>
@@ -11475,16 +11283,16 @@
     </row>
     <row r="50" s="24" customFormat="1" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" s="24" customFormat="1" spans="1:4">
@@ -11498,7 +11306,7 @@
         <v>47</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" s="24" customFormat="1" spans="1:23">
@@ -11577,12 +11385,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" spans="1:2">
       <c r="A2" s="14" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B2" s="14">
         <v>8</v>
@@ -11590,7 +11398,7 @@
     </row>
     <row r="3" s="11" customFormat="1" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B3" s="14">
         <v>4</v>
@@ -11646,7 +11454,7 @@
     </row>
     <row r="10" s="11" customFormat="1" spans="1:2">
       <c r="A10" s="14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B10" s="14">
         <v>0</v>
@@ -11654,16 +11462,16 @@
     </row>
     <row r="11" s="11" customFormat="1" spans="1:4">
       <c r="A11" s="19" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:4">
@@ -11685,7 +11493,7 @@
         <v>56</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -11695,12 +11503,12 @@
         <v>0</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" spans="1:2">
       <c r="A15" s="14" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B15" s="14">
         <v>512</v>
@@ -11708,7 +11516,7 @@
     </row>
     <row r="16" s="11" customFormat="1" spans="1:2">
       <c r="A16" s="14" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B16" s="14">
         <v>3</v>
@@ -11764,7 +11572,7 @@
     </row>
     <row r="23" s="11" customFormat="1" spans="1:2">
       <c r="A23" s="14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B23" s="14">
         <v>0</v>
@@ -11772,13 +11580,13 @@
     </row>
     <row r="24" s="11" customFormat="1" spans="1:3">
       <c r="A24" s="19" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" s="11" customFormat="1" spans="1:3">
@@ -11797,7 +11605,7 @@
         <v>56</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C26" s="19"/>
     </row>
@@ -11856,12 +11664,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" spans="1:2">
       <c r="A2" s="14" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B2" s="14">
         <v>10</v>
@@ -11869,7 +11677,7 @@
     </row>
     <row r="3" s="11" customFormat="1" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B3" s="14">
         <v>20</v>
@@ -11925,7 +11733,7 @@
     </row>
     <row r="10" s="11" customFormat="1" ht="14.25" spans="1:2">
       <c r="A10" s="14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B10" s="14">
         <v>0</v>
@@ -11933,43 +11741,43 @@
     </row>
     <row r="11" s="11" customFormat="1" ht="30" spans="1:20">
       <c r="A11" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="H11" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="I11" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="J11" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="K11" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="L11" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="M11" s="16" t="s">
         <v>308</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>313</v>
       </c>
       <c r="N11" s="16" t="s">
         <v>16</v>
@@ -11978,19 +11786,19 @@
         <v>17</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" ht="15" spans="1:20">
@@ -12122,12 +11930,12 @@
         <v>0</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" spans="1:2">
       <c r="A15" s="14" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B15" s="14">
         <v>100</v>
@@ -12135,7 +11943,7 @@
     </row>
     <row r="16" s="11" customFormat="1" spans="1:2">
       <c r="A16" s="14" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B16" s="14">
         <v>2</v>
@@ -12191,7 +11999,7 @@
     </row>
     <row r="23" s="11" customFormat="1" ht="14.25" spans="1:2">
       <c r="A23" s="14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B23" s="14">
         <v>0</v>
@@ -12199,10 +12007,10 @@
     </row>
     <row r="24" s="11" customFormat="1" ht="15" spans="1:3">
       <c r="A24" s="15" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C24" s="3"/>
     </row>

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10335"/>
+    <workbookView windowWidth="21495" windowHeight="10335" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -1313,7 +1313,7 @@
     <t>HeroValue</t>
   </si>
   <si>
-    <t>one her one row to sotre the properties</t>
+    <t>one hero one row to sotre the properties</t>
   </si>
   <si>
     <t>BagEquipList</t>
@@ -1616,10 +1616,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1654,6 +1654,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1667,7 +1674,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1680,15 +1703,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1697,15 +1729,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1720,17 +1760,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1749,7 +1781,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1757,46 +1796,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1853,7 +1853,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1865,73 +1973,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1944,18 +1986,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1979,43 +2009,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2027,13 +2033,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2163,22 +2163,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2198,41 +2193,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2254,9 +2219,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2265,100 +2265,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2367,46 +2373,40 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2984,7 +2984,7 @@
   <sheetPr/>
   <dimension ref="A1:AS10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
@@ -9451,8 +9451,8 @@
   <sheetPr/>
   <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9696,7 +9696,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="3">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:2">

--- a/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/_Out/NFDataCfg/Excel/Player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10335" activeTab="5"/>
+    <workbookView windowWidth="21495" windowHeight="10335" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
             <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
-          <t>物品配置ID</t>
+          <t>任务ID</t>
         </r>
       </text>
     </comment>
@@ -427,67 +427,7 @@
             <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
-          <t>强化等级</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>镶嵌宝石，逗号分隔</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>附魔等级</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>任务ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
           <t>任务状态，见NFDefine.proto中ETaskState</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>当前进度</t>
         </r>
       </text>
     </comment>
@@ -530,7 +470,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334">
   <si>
     <t>Id</t>
   </si>
@@ -1111,67 +1051,55 @@
     <t>when searching</t>
   </si>
   <si>
-    <t>Guild_Name</t>
-  </si>
-  <si>
-    <t>Guild_PresidentID</t>
-  </si>
-  <si>
-    <t>Guild_PresidentName</t>
-  </si>
-  <si>
-    <t>Guild_Rank</t>
-  </si>
-  <si>
-    <t>Guild_AD</t>
-  </si>
-  <si>
-    <t>Guild_Desc</t>
-  </si>
-  <si>
-    <t>Guild_Gold</t>
-  </si>
-  <si>
-    <t>Guild_Level</t>
-  </si>
-  <si>
-    <t>Guild_ContinueDay</t>
-  </si>
-  <si>
-    <t>Guild_ID</t>
-  </si>
-  <si>
-    <t>Guild_Icon</t>
-  </si>
-  <si>
-    <t>Guild_MemeberCount</t>
-  </si>
-  <si>
-    <t>Guild_MemeberMaxCount</t>
-  </si>
-  <si>
-    <t>Guild_Honor</t>
-  </si>
-  <si>
-    <t>Guild_CreateTime</t>
-  </si>
-  <si>
-    <t>Guild_Exp</t>
-  </si>
-  <si>
-    <t>Guild_Status</t>
-  </si>
-  <si>
-    <t>Guild_KingWarResource</t>
-  </si>
-  <si>
-    <t>Guild_EctypServer</t>
-  </si>
-  <si>
-    <t>Guild_EctypID</t>
-  </si>
-  <si>
-    <t>Guild_EctypIDGroup</t>
+    <t>Clan_Name</t>
+  </si>
+  <si>
+    <t>Clan_PresidentID</t>
+  </si>
+  <si>
+    <t>Clan_PresidentName</t>
+  </si>
+  <si>
+    <t>Cland_Rank</t>
+  </si>
+  <si>
+    <t>Clan_AD</t>
+  </si>
+  <si>
+    <t>Clan_Desc</t>
+  </si>
+  <si>
+    <t>Clan_Gold</t>
+  </si>
+  <si>
+    <t>Clan_Level</t>
+  </si>
+  <si>
+    <t>Clan_ContinueDay</t>
+  </si>
+  <si>
+    <t>Clan_ID</t>
+  </si>
+  <si>
+    <t>Clan_Icon</t>
+  </si>
+  <si>
+    <t>Cland_MemeberCount</t>
+  </si>
+  <si>
+    <t>Clan_MemeberMaxCount</t>
+  </si>
+  <si>
+    <t>Clan_Honor</t>
+  </si>
+  <si>
+    <t>Clan_CreateTime</t>
+  </si>
+  <si>
+    <t>Clan_Exp</t>
+  </si>
+  <si>
+    <t>Clan_EctypID</t>
   </si>
   <si>
     <t>工会名</t>
@@ -1222,19 +1150,7 @@
     <t>公会经验</t>
   </si>
   <si>
-    <t>公会状态，正常状态，申请解散状态</t>
-  </si>
-  <si>
-    <t>获得的战役资源</t>
-  </si>
-  <si>
-    <t>工会副本所在的服</t>
-  </si>
-  <si>
     <t>工会副本ID</t>
-  </si>
-  <si>
-    <t>工会副本所在的曾</t>
   </si>
   <si>
     <t>CommValue</t>
@@ -1406,7 +1322,7 @@
     <t>vector3</t>
   </si>
   <si>
-    <t>TaskMonsterList</t>
+    <t>TaskList</t>
   </si>
   <si>
     <r>
@@ -1431,31 +1347,16 @@
     </r>
   </si>
   <si>
-    <t>MonsterID</t>
-  </si>
-  <si>
-    <t>CurrentKillCount</t>
-  </si>
-  <si>
-    <t>RequireKillCount</t>
-  </si>
-  <si>
     <t>TaskID</t>
   </si>
   <si>
-    <t>任务杀怪表</t>
-  </si>
-  <si>
-    <t>TaskList</t>
-  </si>
-  <si>
     <t>TaskStatus</t>
   </si>
   <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>任务表</t>
+    <t>ArgCnfID</t>
+  </si>
+  <si>
+    <t>ArgCount</t>
   </si>
   <si>
     <t>WarList</t>
@@ -1542,7 +1443,7 @@
     <t>BuildingListProduce</t>
   </si>
   <si>
-    <t>Guild_MemberList</t>
+    <t>Clan_MemberList</t>
   </si>
   <si>
     <t>Donation</t>
@@ -1578,13 +1479,13 @@
     <t>guild</t>
   </si>
   <si>
-    <t>Guild_AppyList</t>
-  </si>
-  <si>
-    <t>Guild_Building</t>
-  </si>
-  <si>
-    <t>Guild_WarList</t>
+    <t>Clan_AppyList</t>
+  </si>
+  <si>
+    <t>Clan_Building</t>
+  </si>
+  <si>
+    <t>Clan_WarList</t>
   </si>
   <si>
     <t>Language</t>
@@ -1654,27 +1555,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1688,6 +1588,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1696,8 +1634,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1711,77 +1673,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1796,7 +1690,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1859,37 +1760,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1907,31 +1790,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1943,7 +1820,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1955,25 +1850,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1991,49 +1874,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2164,16 +2065,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2193,26 +2112,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2231,32 +2156,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2265,148 +2166,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4423,12 +4324,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B2" s="3">
         <v>128</v>
@@ -4436,7 +4337,7 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -4492,7 +4393,7 @@
     </row>
     <row r="10" s="3" customFormat="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -4500,19 +4401,19 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:5">
@@ -4526,7 +4427,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>47</v>
@@ -4546,12 +4447,12 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B15" s="3">
         <v>128</v>
@@ -4559,7 +4460,7 @@
     </row>
     <row r="16" s="3" customFormat="1" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B16" s="3">
         <v>5</v>
@@ -4623,19 +4524,19 @@
     </row>
     <row r="24" s="3" customFormat="1" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" spans="1:5">
@@ -4649,7 +4550,7 @@
         <v>47</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>47</v>
@@ -4695,8 +4596,8 @@
   <sheetPr/>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4706,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -4724,7 +4625,7 @@
     </row>
     <row r="2" ht="15" spans="1:15">
       <c r="A2" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B2" s="7">
         <v>50</v>
@@ -4745,7 +4646,7 @@
     </row>
     <row r="3" ht="15" spans="1:15">
       <c r="A3" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B3" s="7">
         <v>15</v>
@@ -4913,7 +4814,7 @@
     </row>
     <row r="11" ht="15" spans="1:15">
       <c r="A11" s="8" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>1</v>
@@ -4925,37 +4826,37 @@
         <v>3</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>30</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:15">
@@ -5010,7 +4911,7 @@
         <v>56</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -5031,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -5049,7 +4950,7 @@
     </row>
     <row r="15" ht="15" spans="1:15">
       <c r="A15" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B15" s="7">
         <v>50</v>
@@ -5070,7 +4971,7 @@
     </row>
     <row r="16" ht="15" spans="1:15">
       <c r="A16" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B16" s="7">
         <v>4</v>
@@ -5238,7 +5139,7 @@
     </row>
     <row r="24" ht="15" spans="1:15">
       <c r="A24" s="8" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>1</v>
@@ -5247,7 +5148,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -5291,7 +5192,7 @@
         <v>56</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -5312,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -5330,7 +5231,7 @@
     </row>
     <row r="28" ht="15" spans="1:15">
       <c r="A28" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B28" s="7">
         <v>50</v>
@@ -5351,7 +5252,7 @@
     </row>
     <row r="29" ht="15" spans="1:15">
       <c r="A29" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B29" s="7">
         <v>3</v>
@@ -5519,7 +5420,7 @@
     </row>
     <row r="37" ht="15" spans="1:15">
       <c r="A37" s="8" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>1</v>
@@ -5568,7 +5469,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="7"/>
@@ -5589,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -5607,7 +5508,7 @@
     </row>
     <row r="41" ht="15" spans="1:15">
       <c r="A41" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B41" s="7">
         <v>50</v>
@@ -5628,7 +5529,7 @@
     </row>
     <row r="42" ht="15" spans="1:15">
       <c r="A42" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B42" s="7">
         <v>2</v>
@@ -5796,7 +5697,7 @@
     </row>
     <row r="50" ht="15" spans="1:15">
       <c r="A50" s="8" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>6</v>
@@ -5894,10 +5795,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D1" t="s">
         <v>56</v>
@@ -5905,16 +5806,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -5948,12 +5849,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B2" s="3">
         <v>8</v>
@@ -5961,7 +5862,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -6025,10 +5926,10 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8349,10 +8250,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8371,14 +8272,10 @@
     <col min="14" max="14" width="22.5" customWidth="1"/>
     <col min="15" max="15" width="17.25" customWidth="1"/>
     <col min="16" max="16" width="16.25" customWidth="1"/>
-    <col min="18" max="18" width="32" customWidth="1"/>
-    <col min="19" max="19" width="15.125" customWidth="1"/>
-    <col min="20" max="20" width="16.25" customWidth="1"/>
-    <col min="21" max="21" width="12.125" customWidth="1"/>
-    <col min="22" max="22" width="17.25" customWidth="1"/>
+    <col min="18" max="18" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" ht="15" spans="1:22">
+    <row r="1" s="26" customFormat="1" ht="15" spans="1:18">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -8433,20 +8330,8 @@
       <c r="R1" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="S1" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="U1" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" s="7" customFormat="1" ht="15" spans="1:22">
+    </row>
+    <row r="2" s="7" customFormat="1" ht="15" spans="1:18">
       <c r="A2" s="30" t="s">
         <v>45</v>
       </c>
@@ -8501,20 +8386,8 @@
       <c r="R2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" ht="15" spans="1:22">
+    </row>
+    <row r="3" s="7" customFormat="1" ht="15" spans="1:18">
       <c r="A3" s="30" t="s">
         <v>49</v>
       </c>
@@ -8567,22 +8440,10 @@
         <v>1</v>
       </c>
       <c r="R3" s="7">
-        <v>1</v>
-      </c>
-      <c r="S3" s="7">
-        <v>1</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="7" customFormat="1" ht="15" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" ht="15" spans="1:18">
       <c r="A4" s="30" t="s">
         <v>50</v>
       </c>
@@ -8637,20 +8498,8 @@
       <c r="R4" s="7">
         <v>1</v>
       </c>
-      <c r="S4" s="7">
-        <v>1</v>
-      </c>
-      <c r="T4" s="7">
-        <v>1</v>
-      </c>
-      <c r="U4" s="7">
-        <v>1</v>
-      </c>
-      <c r="V4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" s="7" customFormat="1" ht="15" spans="1:22">
+    </row>
+    <row r="5" s="7" customFormat="1" ht="15" spans="1:18">
       <c r="A5" s="30" t="s">
         <v>51</v>
       </c>
@@ -8705,20 +8554,8 @@
       <c r="R5" s="7">
         <v>0</v>
       </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="7" customFormat="1" ht="15" spans="1:22">
+    </row>
+    <row r="6" s="7" customFormat="1" ht="15" spans="1:18">
       <c r="A6" s="30" t="s">
         <v>52</v>
       </c>
@@ -8773,20 +8610,8 @@
       <c r="R6" s="7">
         <v>0</v>
       </c>
-      <c r="S6" s="7">
-        <v>0</v>
-      </c>
-      <c r="T6" s="7">
-        <v>0</v>
-      </c>
-      <c r="U6" s="7">
-        <v>0</v>
-      </c>
-      <c r="V6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="27" customFormat="1" spans="1:22">
+    </row>
+    <row r="7" s="27" customFormat="1" spans="1:18">
       <c r="A7" s="31" t="s">
         <v>53</v>
       </c>
@@ -8841,20 +8666,8 @@
       <c r="R7" s="27">
         <v>0</v>
       </c>
-      <c r="S7" s="27">
-        <v>0</v>
-      </c>
-      <c r="T7" s="27">
-        <v>0</v>
-      </c>
-      <c r="U7" s="27">
-        <v>0</v>
-      </c>
-      <c r="V7" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="27" customFormat="1" ht="18" customHeight="1" spans="1:22">
+    </row>
+    <row r="8" s="27" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A8" s="31" t="s">
         <v>54</v>
       </c>
@@ -8909,20 +8722,8 @@
       <c r="R8" s="27">
         <v>0</v>
       </c>
-      <c r="S8" s="27">
-        <v>0</v>
-      </c>
-      <c r="T8" s="27">
-        <v>0</v>
-      </c>
-      <c r="U8" s="27">
-        <v>0</v>
-      </c>
-      <c r="V8" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="27" customFormat="1" ht="18" customHeight="1" spans="1:22">
+    </row>
+    <row r="9" s="27" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A9" s="31" t="s">
         <v>55</v>
       </c>
@@ -8977,91 +8778,67 @@
       <c r="R9" s="27">
         <v>0</v>
       </c>
-      <c r="S9" s="27">
-        <v>0</v>
-      </c>
-      <c r="T9" s="27">
-        <v>0</v>
-      </c>
-      <c r="U9" s="27">
-        <v>0</v>
-      </c>
-      <c r="V9" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" s="28" customFormat="1" ht="15.75" spans="1:22">
+    </row>
+    <row r="10" s="28" customFormat="1" ht="15.75" spans="1:18">
       <c r="A10" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="G10" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="H10" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="I10" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="J10" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="K10" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="L10" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="M10" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="N10" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="O10" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="P10" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="Q10" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="N10" s="28" t="s">
+      <c r="R10" s="28" t="s">
         <v>226</v>
-      </c>
-      <c r="O10" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="P10" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q10" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="R10" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="S10" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="T10" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="U10" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="V10" s="28" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:V9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R7:R9 B7:Q9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9116,12 +8893,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B2" s="3">
         <v>15</v>
@@ -9129,7 +8906,7 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B3" s="3">
         <v>31</v>
@@ -9185,7 +8962,7 @@
     </row>
     <row r="10" s="3" customFormat="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -9386,7 +9163,7 @@
         <v>56</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -9451,7 +9228,7 @@
   <sheetPr/>
   <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" w